--- a/REGULAR/PERIDO , EDWIN.xlsx
+++ b/REGULAR/PERIDO , EDWIN.xlsx
@@ -1,16 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26026"/>
-  <workbookPr defaultThemeVersion="166925"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ASUS\Desktop\LEAVECARD\REGULAR\GSO\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\DESKTOP-JHL336T\Users\ASUS\Desktop\LEAVE-CARD\REGULAR\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{452F8005-1D8E-4F80-993D-2FF52D864FEE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{2C4B9B69-0AD3-46D4-A495-D1BDE1D16EC6}"/>
+    <workbookView xWindow="-105" yWindow="-105" windowWidth="23250" windowHeight="12570"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -24,7 +23,7 @@
     <definedName name="BALANCE_1">Table1[[#Headers],[BALANCE]]</definedName>
     <definedName name="_xlnm.Print_Titles" localSheetId="0">Sheet1!$1:$9</definedName>
   </definedNames>
-  <calcPr calcId="181029"/>
+  <calcPr calcId="152511"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -34,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="884" uniqueCount="561">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="888" uniqueCount="564">
   <si>
     <t>PERIOD</t>
   </si>
@@ -1838,11 +1837,20 @@
   <si>
     <t>2/20,21,22</t>
   </si>
+  <si>
+    <t>MOURNING 3/6,7/2023</t>
+  </si>
+  <si>
+    <t>SP(3-0-0)</t>
+  </si>
+  <si>
+    <t>3/8-10/2023</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <numFmts count="4">
     <numFmt numFmtId="164" formatCode="0.000"/>
     <numFmt numFmtId="165" formatCode="mm/dd/yy;@"/>
@@ -2513,7 +2521,6 @@
         <sz val="11"/>
         <color theme="1"/>
         <name val="Calibri"/>
-        <family val="2"/>
         <scheme val="minor"/>
       </font>
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
@@ -2559,25 +2566,25 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{1D52DCCA-84C7-4E23-9F01-BAD20F9E44D8}" name="Table1" displayName="Table1" ref="A8:K831" totalsRowShown="0" headerRowDxfId="14" headerRowBorderDxfId="13" tableBorderDxfId="12" totalsRowBorderDxfId="11">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A8:K832" totalsRowShown="0" headerRowDxfId="14" headerRowBorderDxfId="13" tableBorderDxfId="12" totalsRowBorderDxfId="11">
   <tableColumns count="11">
-    <tableColumn id="1" xr3:uid="{29298656-164E-44DD-A190-558D78410746}" name="PERIOD" dataDxfId="10"/>
-    <tableColumn id="2" xr3:uid="{653A013C-2253-41B2-B51E-E0CEE6FCA4B9}" name="PARTICULARS" dataDxfId="9"/>
-    <tableColumn id="3" xr3:uid="{23618FA7-8FE1-47F3-A791-7E4F2612427B}" name="EARNED" dataDxfId="8"/>
-    <tableColumn id="4" xr3:uid="{BA6D2C36-5CF4-40D7-AFDD-218AEBB26721}" name="Absence Undertime W/ Pay" dataDxfId="7"/>
-    <tableColumn id="5" xr3:uid="{44B79BA7-06A4-4888-BFE5-96396FB13C9E}" name="BALANCE" dataDxfId="6">
+    <tableColumn id="1" name="PERIOD" dataDxfId="10"/>
+    <tableColumn id="2" name="PARTICULARS" dataDxfId="9"/>
+    <tableColumn id="3" name="EARNED" dataDxfId="8"/>
+    <tableColumn id="4" name="Absence Undertime W/ Pay" dataDxfId="7"/>
+    <tableColumn id="5" name="BALANCE" dataDxfId="6">
       <calculatedColumnFormula>SUM(Table1[EARNED])-SUM(Table1[Absence Undertime W/ Pay])+CONVERTION!$A$3</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="6" xr3:uid="{1A20B288-1D72-4858-B3C2-871EB9CF011E}" name="Absence Undertime W/O Pay" dataDxfId="5"/>
-    <tableColumn id="7" xr3:uid="{16E84B2D-53AC-4AEA-B1BC-1BC1E2E9B51B}" name="EARNED " dataDxfId="4">
+    <tableColumn id="6" name="Absence Undertime W/O Pay" dataDxfId="5"/>
+    <tableColumn id="7" name="EARNED " dataDxfId="4">
       <calculatedColumnFormula>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="8" xr3:uid="{A10DEDBF-F571-4518-A832-0B75654FC984}" name="Absence Undertime  W/ Pay" dataDxfId="3"/>
-    <tableColumn id="9" xr3:uid="{9E225A68-4AC2-420E-B4D1-1378612CB5CD}" name="BALANCE " dataDxfId="2">
+    <tableColumn id="8" name="Absence Undertime  W/ Pay" dataDxfId="3"/>
+    <tableColumn id="9" name="BALANCE " dataDxfId="2">
       <calculatedColumnFormula>SUM(Table1[[EARNED ]])-SUM(Table1[Absence Undertime  W/ Pay])+CONVERTION!$B$3</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="10" xr3:uid="{715FA023-3759-440B-8D8E-42D3E30EC36F}" name="Absence Undertime  W/O Pay" dataDxfId="1"/>
-    <tableColumn id="11" xr3:uid="{7E55BDC4-4FFC-4009-94E5-7F3F3565D56A}" name="REMARKS" dataDxfId="0"/>
+    <tableColumn id="10" name="Absence Undertime  W/O Pay" dataDxfId="1"/>
+    <tableColumn id="11" name="REMARKS" dataDxfId="0"/>
   </tableColumns>
   <tableStyleInfo showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
   <extLst>
@@ -2884,33 +2891,33 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A0FF8E2B-FA0C-43AD-94F6-3305AF75672F}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A2:K831"/>
+  <dimension ref="A2:K832"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
       <pane ySplit="9" topLeftCell="A623" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="D635" sqref="D635"/>
+      <selection pane="bottomLeft" activeCell="F633" sqref="F633"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="10.33203125" style="1" customWidth="1"/>
-    <col min="2" max="2" width="16.5546875" style="1" customWidth="1"/>
-    <col min="3" max="3" width="12.109375" style="30" customWidth="1"/>
-    <col min="4" max="4" width="12.6640625" style="1" customWidth="1"/>
-    <col min="5" max="5" width="11.6640625" style="1" customWidth="1"/>
-    <col min="6" max="6" width="12.6640625" style="1" customWidth="1"/>
-    <col min="7" max="7" width="12.109375" style="30" customWidth="1"/>
-    <col min="8" max="8" width="12.6640625" style="1" customWidth="1"/>
-    <col min="9" max="9" width="11.6640625" style="1" customWidth="1"/>
-    <col min="10" max="10" width="12.6640625" style="1" customWidth="1"/>
-    <col min="11" max="11" width="24.88671875" style="1" customWidth="1"/>
+    <col min="1" max="1" width="10.28515625" style="1" customWidth="1"/>
+    <col min="2" max="2" width="16.5703125" style="1" customWidth="1"/>
+    <col min="3" max="3" width="12.140625" style="30" customWidth="1"/>
+    <col min="4" max="4" width="12.7109375" style="1" customWidth="1"/>
+    <col min="5" max="5" width="11.7109375" style="1" customWidth="1"/>
+    <col min="6" max="6" width="12.7109375" style="1" customWidth="1"/>
+    <col min="7" max="7" width="12.140625" style="30" customWidth="1"/>
+    <col min="8" max="8" width="12.7109375" style="1" customWidth="1"/>
+    <col min="9" max="9" width="11.7109375" style="1" customWidth="1"/>
+    <col min="10" max="10" width="12.7109375" style="1" customWidth="1"/>
+    <col min="11" max="11" width="24.85546875" style="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:11" ht="20.399999999999999" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:11" ht="20.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="29" t="s">
         <v>9</v>
       </c>
@@ -2933,7 +2940,7 @@
       <c r="J2" s="60"/>
       <c r="K2" s="61"/>
     </row>
-    <row r="3" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A3" s="18" t="s">
         <v>15</v>
       </c>
@@ -2955,7 +2962,7 @@
       <c r="J3" s="62"/>
       <c r="K3" s="63"/>
     </row>
-    <row r="4" spans="1:11" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:11" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="18" t="s">
         <v>16</v>
       </c>
@@ -2977,7 +2984,7 @@
       <c r="J4" s="60"/>
       <c r="K4" s="61"/>
     </row>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A5" s="16"/>
       <c r="H5" s="27" t="s">
         <v>18</v>
@@ -2985,7 +2992,7 @@
       <c r="I5" s="27"/>
       <c r="K5" s="4"/>
     </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A6" s="17"/>
       <c r="B6" s="8"/>
       <c r="C6" s="31"/>
@@ -2998,7 +3005,7 @@
       <c r="J6" s="8"/>
       <c r="K6" s="19"/>
     </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A7" s="14"/>
       <c r="B7" s="14"/>
       <c r="C7" s="58" t="s">
@@ -3015,7 +3022,7 @@
       <c r="J7" s="58"/>
       <c r="K7" s="14"/>
     </row>
-    <row r="8" spans="1:11" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:11" ht="45" x14ac:dyDescent="0.25">
       <c r="A8" s="7" t="s">
         <v>0</v>
       </c>
@@ -3050,7 +3057,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="9" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A9" s="23"/>
       <c r="B9" s="24" t="s">
         <v>23</v>
@@ -3059,7 +3066,7 @@
       <c r="D9" s="11"/>
       <c r="E9" s="13">
         <f>SUM(Table1[EARNED])-SUM(Table1[Absence Undertime W/ Pay])+CONVERTION!$A$3</f>
-        <v>149.78099999999995</v>
+        <v>149.03099999999989</v>
       </c>
       <c r="F9" s="11"/>
       <c r="G9" s="13" t="str">
@@ -3069,12 +3076,12 @@
       <c r="H9" s="11"/>
       <c r="I9" s="13">
         <f>SUM(Table1[[EARNED ]])-SUM(Table1[Absence Undertime  W/ Pay])+CONVERTION!$B$3</f>
-        <v>94.198000000000008</v>
+        <v>95.448000000000008</v>
       </c>
       <c r="J9" s="11"/>
       <c r="K9" s="20"/>
     </row>
-    <row r="10" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A10" s="48" t="s">
         <v>47</v>
       </c>
@@ -3096,7 +3103,7 @@
       <c r="J10" s="11"/>
       <c r="K10" s="20"/>
     </row>
-    <row r="11" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A11" s="40">
         <v>35947</v>
       </c>
@@ -3116,7 +3123,7 @@
       <c r="J11" s="11"/>
       <c r="K11" s="20"/>
     </row>
-    <row r="12" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A12" s="40">
         <v>35977</v>
       </c>
@@ -3142,7 +3149,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="13" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A13" s="40">
         <v>36008</v>
       </c>
@@ -3162,7 +3169,7 @@
       <c r="J13" s="11"/>
       <c r="K13" s="20"/>
     </row>
-    <row r="14" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A14" s="40">
         <v>36039</v>
       </c>
@@ -3182,7 +3189,7 @@
       <c r="J14" s="11"/>
       <c r="K14" s="20"/>
     </row>
-    <row r="15" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A15" s="40">
         <v>36069</v>
       </c>
@@ -3202,7 +3209,7 @@
       <c r="J15" s="11"/>
       <c r="K15" s="20"/>
     </row>
-    <row r="16" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A16" s="41">
         <v>36100</v>
       </c>
@@ -3222,7 +3229,7 @@
       <c r="J16" s="12"/>
       <c r="K16" s="15"/>
     </row>
-    <row r="17" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A17" s="40">
         <v>36130</v>
       </c>
@@ -3248,7 +3255,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="18" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A18" s="48" t="s">
         <v>52</v>
       </c>
@@ -3266,7 +3273,7 @@
       <c r="J18" s="11"/>
       <c r="K18" s="20"/>
     </row>
-    <row r="19" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A19" s="40">
         <v>36161</v>
       </c>
@@ -3292,7 +3299,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="20" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A20" s="40">
         <v>36192</v>
       </c>
@@ -3312,7 +3319,7 @@
       <c r="J20" s="11"/>
       <c r="K20" s="20"/>
     </row>
-    <row r="21" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A21" s="40">
         <v>36220</v>
       </c>
@@ -3332,7 +3339,7 @@
       <c r="J21" s="11"/>
       <c r="K21" s="20"/>
     </row>
-    <row r="22" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A22" s="40">
         <v>36251</v>
       </c>
@@ -3352,7 +3359,7 @@
       <c r="J22" s="11"/>
       <c r="K22" s="20"/>
     </row>
-    <row r="23" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A23" s="40">
         <v>36281</v>
       </c>
@@ -3372,7 +3379,7 @@
       <c r="J23" s="11"/>
       <c r="K23" s="20"/>
     </row>
-    <row r="24" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A24" s="40">
         <v>36312</v>
       </c>
@@ -3392,7 +3399,7 @@
       <c r="J24" s="11"/>
       <c r="K24" s="20"/>
     </row>
-    <row r="25" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A25" s="40">
         <v>36342</v>
       </c>
@@ -3412,7 +3419,7 @@
       <c r="J25" s="11"/>
       <c r="K25" s="20"/>
     </row>
-    <row r="26" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A26" s="40">
         <v>36373</v>
       </c>
@@ -3438,7 +3445,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="27" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A27" s="40">
         <v>36404</v>
       </c>
@@ -3462,7 +3469,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="28" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A28" s="40"/>
       <c r="B28" s="20" t="s">
         <v>57</v>
@@ -3486,7 +3493,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="29" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A29" s="40">
         <v>36434</v>
       </c>
@@ -3510,7 +3517,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="30" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A30" s="40"/>
       <c r="B30" s="20"/>
       <c r="C30" s="13">
@@ -3528,7 +3535,7 @@
       <c r="J30" s="11"/>
       <c r="K30" s="20"/>
     </row>
-    <row r="31" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A31" s="40">
         <v>36465</v>
       </c>
@@ -3550,7 +3557,7 @@
         <v>36170</v>
       </c>
     </row>
-    <row r="32" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A32" s="40">
         <v>36495</v>
       </c>
@@ -3574,7 +3581,7 @@
       <c r="J32" s="11"/>
       <c r="K32" s="20"/>
     </row>
-    <row r="33" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A33" s="23" t="s">
         <v>63</v>
       </c>
@@ -3592,7 +3599,7 @@
       <c r="J33" s="11"/>
       <c r="K33" s="20"/>
     </row>
-    <row r="34" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A34" s="40">
         <v>36526</v>
       </c>
@@ -3612,7 +3619,7 @@
       <c r="J34" s="11"/>
       <c r="K34" s="20"/>
     </row>
-    <row r="35" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A35" s="40">
         <v>36557</v>
       </c>
@@ -3632,7 +3639,7 @@
       <c r="J35" s="11"/>
       <c r="K35" s="20"/>
     </row>
-    <row r="36" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A36" s="40">
         <v>36586</v>
       </c>
@@ -3654,7 +3661,7 @@
       <c r="J36" s="11"/>
       <c r="K36" s="20"/>
     </row>
-    <row r="37" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A37" s="40"/>
       <c r="B37" s="20"/>
       <c r="C37" s="13">
@@ -3672,7 +3679,7 @@
       <c r="J37" s="11"/>
       <c r="K37" s="20"/>
     </row>
-    <row r="38" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A38" s="40">
         <v>36617</v>
       </c>
@@ -3698,7 +3705,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="39" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A39" s="40"/>
       <c r="B39" s="20" t="s">
         <v>66</v>
@@ -3720,7 +3727,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="40" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A40" s="40">
         <v>36647</v>
       </c>
@@ -3740,7 +3747,7 @@
       <c r="J40" s="11"/>
       <c r="K40" s="20"/>
     </row>
-    <row r="41" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A41" s="40">
         <v>36678</v>
       </c>
@@ -3760,7 +3767,7 @@
       <c r="J41" s="11"/>
       <c r="K41" s="20"/>
     </row>
-    <row r="42" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A42" s="40">
         <v>36708</v>
       </c>
@@ -3780,7 +3787,7 @@
       <c r="J42" s="11"/>
       <c r="K42" s="20"/>
     </row>
-    <row r="43" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A43" s="40">
         <v>36739</v>
       </c>
@@ -3800,7 +3807,7 @@
       <c r="J43" s="11"/>
       <c r="K43" s="20"/>
     </row>
-    <row r="44" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A44" s="40">
         <v>36770</v>
       </c>
@@ -3820,7 +3827,7 @@
       <c r="J44" s="11"/>
       <c r="K44" s="20"/>
     </row>
-    <row r="45" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A45" s="40">
         <v>36800</v>
       </c>
@@ -3846,7 +3853,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="46" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A46" s="40">
         <v>36831</v>
       </c>
@@ -3872,7 +3879,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="47" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A47" s="40">
         <v>36861</v>
       </c>
@@ -3896,7 +3903,7 @@
         <v>72</v>
       </c>
     </row>
-    <row r="48" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A48" s="48" t="s">
         <v>73</v>
       </c>
@@ -3914,7 +3921,7 @@
       <c r="J48" s="11"/>
       <c r="K48" s="20"/>
     </row>
-    <row r="49" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A49" s="40">
         <v>36892</v>
       </c>
@@ -3934,7 +3941,7 @@
       <c r="J49" s="11"/>
       <c r="K49" s="20"/>
     </row>
-    <row r="50" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="50" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A50" s="40">
         <v>36923</v>
       </c>
@@ -3954,7 +3961,7 @@
       <c r="J50" s="11"/>
       <c r="K50" s="20"/>
     </row>
-    <row r="51" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="51" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A51" s="40">
         <v>36951</v>
       </c>
@@ -3974,7 +3981,7 @@
       <c r="J51" s="11"/>
       <c r="K51" s="20"/>
     </row>
-    <row r="52" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="52" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A52" s="40">
         <v>36982</v>
       </c>
@@ -3994,7 +4001,7 @@
       <c r="J52" s="11"/>
       <c r="K52" s="20"/>
     </row>
-    <row r="53" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="53" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A53" s="40">
         <v>37012</v>
       </c>
@@ -4014,7 +4021,7 @@
       <c r="J53" s="11"/>
       <c r="K53" s="20"/>
     </row>
-    <row r="54" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="54" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A54" s="40">
         <v>37043</v>
       </c>
@@ -4034,7 +4041,7 @@
       <c r="J54" s="11"/>
       <c r="K54" s="20"/>
     </row>
-    <row r="55" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="55" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A55" s="40">
         <v>37073</v>
       </c>
@@ -4060,7 +4067,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="56" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="56" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A56" s="40">
         <v>37104</v>
       </c>
@@ -4080,7 +4087,7 @@
       <c r="J56" s="11"/>
       <c r="K56" s="20"/>
     </row>
-    <row r="57" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="57" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A57" s="40">
         <v>37135</v>
       </c>
@@ -4106,7 +4113,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="58" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="58" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A58" s="40">
         <v>37165</v>
       </c>
@@ -4126,7 +4133,7 @@
       <c r="J58" s="11"/>
       <c r="K58" s="20"/>
     </row>
-    <row r="59" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="59" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A59" s="40">
         <v>37196</v>
       </c>
@@ -4146,7 +4153,7 @@
       <c r="J59" s="11"/>
       <c r="K59" s="20"/>
     </row>
-    <row r="60" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="60" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A60" s="40">
         <v>37226</v>
       </c>
@@ -4170,7 +4177,7 @@
       <c r="J60" s="11"/>
       <c r="K60" s="20"/>
     </row>
-    <row r="61" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="61" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A61" s="48" t="s">
         <v>76</v>
       </c>
@@ -4188,7 +4195,7 @@
       <c r="J61" s="11"/>
       <c r="K61" s="20"/>
     </row>
-    <row r="62" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="62" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A62" s="40">
         <v>37257</v>
       </c>
@@ -4208,7 +4215,7 @@
       <c r="J62" s="11"/>
       <c r="K62" s="20"/>
     </row>
-    <row r="63" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="63" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A63" s="40">
         <v>37288</v>
       </c>
@@ -4236,7 +4243,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="64" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="64" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A64" s="40">
         <v>37316</v>
       </c>
@@ -4262,7 +4269,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="65" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="65" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A65" s="40">
         <v>37347</v>
       </c>
@@ -4286,7 +4293,7 @@
       <c r="J65" s="11"/>
       <c r="K65" s="20"/>
     </row>
-    <row r="66" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="66" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A66" s="40">
         <v>37377</v>
       </c>
@@ -4310,7 +4317,7 @@
       <c r="J66" s="11"/>
       <c r="K66" s="20"/>
     </row>
-    <row r="67" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="67" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A67" s="40">
         <v>37408</v>
       </c>
@@ -4334,7 +4341,7 @@
       <c r="J67" s="11"/>
       <c r="K67" s="20"/>
     </row>
-    <row r="68" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="68" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A68" s="40">
         <v>37438</v>
       </c>
@@ -4356,7 +4363,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="69" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="69" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A69" s="40"/>
       <c r="B69" s="20" t="s">
         <v>77</v>
@@ -4378,7 +4385,7 @@
       <c r="J69" s="11"/>
       <c r="K69" s="20"/>
     </row>
-    <row r="70" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="70" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A70" s="40">
         <v>37469</v>
       </c>
@@ -4398,7 +4405,7 @@
       <c r="J70" s="11"/>
       <c r="K70" s="20"/>
     </row>
-    <row r="71" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="71" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A71" s="40">
         <v>37500</v>
       </c>
@@ -4424,7 +4431,7 @@
         <v>83</v>
       </c>
     </row>
-    <row r="72" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="72" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A72" s="40">
         <v>37530</v>
       </c>
@@ -4450,7 +4457,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="73" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="73" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A73" s="40">
         <v>37561</v>
       </c>
@@ -4470,7 +4477,7 @@
       <c r="J73" s="11"/>
       <c r="K73" s="20"/>
     </row>
-    <row r="74" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="74" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A74" s="40">
         <v>37591</v>
       </c>
@@ -4490,7 +4497,7 @@
       <c r="J74" s="11"/>
       <c r="K74" s="20"/>
     </row>
-    <row r="75" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="75" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A75" s="48" t="s">
         <v>85</v>
       </c>
@@ -4508,7 +4515,7 @@
       <c r="J75" s="11"/>
       <c r="K75" s="20"/>
     </row>
-    <row r="76" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="76" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A76" s="40">
         <v>37622</v>
       </c>
@@ -4528,7 +4535,7 @@
       <c r="J76" s="11"/>
       <c r="K76" s="20"/>
     </row>
-    <row r="77" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="77" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A77" s="40">
         <v>37653</v>
       </c>
@@ -4548,7 +4555,7 @@
       <c r="J77" s="11"/>
       <c r="K77" s="20"/>
     </row>
-    <row r="78" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="78" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A78" s="40">
         <v>37712</v>
       </c>
@@ -4568,7 +4575,7 @@
       <c r="J78" s="11"/>
       <c r="K78" s="20"/>
     </row>
-    <row r="79" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="79" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A79" s="40">
         <v>37742</v>
       </c>
@@ -4590,7 +4597,7 @@
         <v>87</v>
       </c>
     </row>
-    <row r="80" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="80" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A80" s="40">
         <v>37773</v>
       </c>
@@ -4612,7 +4619,7 @@
         <v>88</v>
       </c>
     </row>
-    <row r="81" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="81" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A81" s="40">
         <v>37803</v>
       </c>
@@ -4638,7 +4645,7 @@
         <v>89</v>
       </c>
     </row>
-    <row r="82" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="82" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A82" s="40"/>
       <c r="B82" s="20" t="s">
         <v>86</v>
@@ -4660,7 +4667,7 @@
       <c r="J82" s="11"/>
       <c r="K82" s="20"/>
     </row>
-    <row r="83" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="83" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A83" s="40">
         <v>37834</v>
       </c>
@@ -4686,7 +4693,7 @@
         <v>92</v>
       </c>
     </row>
-    <row r="84" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="84" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A84" s="40"/>
       <c r="B84" s="20" t="s">
         <v>53</v>
@@ -4710,7 +4717,7 @@
         <v>37841</v>
       </c>
     </row>
-    <row r="85" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="85" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A85" s="40"/>
       <c r="B85" s="20" t="s">
         <v>91</v>
@@ -4728,7 +4735,7 @@
       <c r="J85" s="11"/>
       <c r="K85" s="20"/>
     </row>
-    <row r="86" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="86" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A86" s="40">
         <v>37865</v>
       </c>
@@ -4752,7 +4759,7 @@
       <c r="J86" s="11"/>
       <c r="K86" s="20"/>
     </row>
-    <row r="87" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="87" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A87" s="40">
         <v>37895</v>
       </c>
@@ -4776,7 +4783,7 @@
         <v>95</v>
       </c>
     </row>
-    <row r="88" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="88" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A88" s="40"/>
       <c r="B88" s="20" t="s">
         <v>57</v>
@@ -4800,7 +4807,7 @@
         <v>96</v>
       </c>
     </row>
-    <row r="89" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="89" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A89" s="40">
         <v>37926</v>
       </c>
@@ -4820,7 +4827,7 @@
       <c r="J89" s="11"/>
       <c r="K89" s="20"/>
     </row>
-    <row r="90" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="90" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A90" s="40">
         <v>37956</v>
       </c>
@@ -4844,7 +4851,7 @@
       <c r="J90" s="11"/>
       <c r="K90" s="20"/>
     </row>
-    <row r="91" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="91" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A91" s="48" t="s">
         <v>98</v>
       </c>
@@ -4862,7 +4869,7 @@
       <c r="J91" s="11"/>
       <c r="K91" s="20"/>
     </row>
-    <row r="92" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="92" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A92" s="40">
         <v>37987</v>
       </c>
@@ -4888,7 +4895,7 @@
         <v>38139</v>
       </c>
     </row>
-    <row r="93" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="93" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A93" s="40"/>
       <c r="B93" s="20" t="s">
         <v>99</v>
@@ -4912,7 +4919,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="94" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="94" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A94" s="40">
         <v>38018</v>
       </c>
@@ -4938,7 +4945,7 @@
         <v>103</v>
       </c>
     </row>
-    <row r="95" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="95" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A95" s="40"/>
       <c r="B95" s="20" t="s">
         <v>102</v>
@@ -4960,7 +4967,7 @@
       <c r="J95" s="11"/>
       <c r="K95" s="20"/>
     </row>
-    <row r="96" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="96" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A96" s="40">
         <v>38047</v>
       </c>
@@ -4986,7 +4993,7 @@
         <v>105</v>
       </c>
     </row>
-    <row r="97" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="97" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A97" s="40"/>
       <c r="B97" s="20" t="s">
         <v>554</v>
@@ -5006,7 +5013,7 @@
         <v>106</v>
       </c>
     </row>
-    <row r="98" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="98" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A98" s="40">
         <v>38078</v>
       </c>
@@ -5026,7 +5033,7 @@
       <c r="J98" s="11"/>
       <c r="K98" s="20"/>
     </row>
-    <row r="99" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="99" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A99" s="40">
         <v>38108</v>
       </c>
@@ -5052,7 +5059,7 @@
         <v>111</v>
       </c>
     </row>
-    <row r="100" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="100" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A100" s="40"/>
       <c r="B100" s="20" t="s">
         <v>108</v>
@@ -5074,7 +5081,7 @@
         <v>112</v>
       </c>
     </row>
-    <row r="101" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="101" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A101" s="40"/>
       <c r="B101" s="20" t="s">
         <v>109</v>
@@ -5096,7 +5103,7 @@
         <v>113</v>
       </c>
     </row>
-    <row r="102" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="102" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A102" s="40"/>
       <c r="B102" s="20" t="s">
         <v>110</v>
@@ -5116,7 +5123,7 @@
       <c r="J102" s="11"/>
       <c r="K102" s="20"/>
     </row>
-    <row r="103" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="103" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A103" s="40"/>
       <c r="B103" s="20" t="s">
         <v>109</v>
@@ -5136,7 +5143,7 @@
         <v>37992</v>
       </c>
     </row>
-    <row r="104" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="104" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A104" s="40">
         <v>38139</v>
       </c>
@@ -5162,7 +5169,7 @@
         <v>114</v>
       </c>
     </row>
-    <row r="105" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="105" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A105" s="40">
         <v>38169</v>
       </c>
@@ -5182,7 +5189,7 @@
       <c r="J105" s="11"/>
       <c r="K105" s="20"/>
     </row>
-    <row r="106" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="106" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A106" s="40">
         <v>38200</v>
       </c>
@@ -5208,7 +5215,7 @@
         <v>38238</v>
       </c>
     </row>
-    <row r="107" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="107" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A107" s="40"/>
       <c r="B107" s="20" t="s">
         <v>115</v>
@@ -5228,7 +5235,7 @@
       <c r="J107" s="11"/>
       <c r="K107" s="20"/>
     </row>
-    <row r="108" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="108" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A108" s="40">
         <v>38231</v>
       </c>
@@ -5252,7 +5259,7 @@
       <c r="J108" s="11"/>
       <c r="K108" s="20"/>
     </row>
-    <row r="109" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="109" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A109" s="40">
         <v>38261</v>
       </c>
@@ -5278,7 +5285,7 @@
         <v>119</v>
       </c>
     </row>
-    <row r="110" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="110" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A110" s="40"/>
       <c r="B110" s="20" t="s">
         <v>53</v>
@@ -5300,7 +5307,7 @@
         <v>120</v>
       </c>
     </row>
-    <row r="111" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="111" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A111" s="40"/>
       <c r="B111" s="20" t="s">
         <v>53</v>
@@ -5322,7 +5329,7 @@
         <v>121</v>
       </c>
     </row>
-    <row r="112" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="112" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A112" s="40"/>
       <c r="B112" s="20" t="s">
         <v>118</v>
@@ -5344,7 +5351,7 @@
         <v>122</v>
       </c>
     </row>
-    <row r="113" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="113" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A113" s="40">
         <v>38261</v>
       </c>
@@ -5366,7 +5373,7 @@
         <v>123</v>
       </c>
     </row>
-    <row r="114" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="114" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A114" s="40">
         <v>38292</v>
       </c>
@@ -5386,7 +5393,7 @@
       <c r="J114" s="11"/>
       <c r="K114" s="20"/>
     </row>
-    <row r="115" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="115" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A115" s="40">
         <v>38322</v>
       </c>
@@ -5408,7 +5415,7 @@
       <c r="J115" s="11"/>
       <c r="K115" s="20"/>
     </row>
-    <row r="116" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="116" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A116" s="40"/>
       <c r="B116" s="20" t="s">
         <v>53</v>
@@ -5430,7 +5437,7 @@
         <v>38029</v>
       </c>
     </row>
-    <row r="117" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="117" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A117" s="40"/>
       <c r="B117" s="20" t="s">
         <v>53</v>
@@ -5452,7 +5459,7 @@
         <v>38211</v>
       </c>
     </row>
-    <row r="118" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="118" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A118" s="40"/>
       <c r="B118" s="20" t="s">
         <v>53</v>
@@ -5474,7 +5481,7 @@
         <v>124</v>
       </c>
     </row>
-    <row r="119" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="119" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A119" s="48" t="s">
         <v>125</v>
       </c>
@@ -5492,7 +5499,7 @@
       <c r="J119" s="11"/>
       <c r="K119" s="20"/>
     </row>
-    <row r="120" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="120" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A120" s="40">
         <v>38353</v>
       </c>
@@ -5518,7 +5525,7 @@
         <v>127</v>
       </c>
     </row>
-    <row r="121" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="121" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A121" s="40"/>
       <c r="B121" s="20" t="s">
         <v>57</v>
@@ -5540,7 +5547,7 @@
         <v>129</v>
       </c>
     </row>
-    <row r="122" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="122" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A122" s="40"/>
       <c r="B122" s="20" t="s">
         <v>57</v>
@@ -5562,7 +5569,7 @@
         <v>130</v>
       </c>
     </row>
-    <row r="123" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="123" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A123" s="40"/>
       <c r="B123" s="20" t="s">
         <v>128</v>
@@ -5582,7 +5589,7 @@
       <c r="J123" s="11"/>
       <c r="K123" s="20"/>
     </row>
-    <row r="124" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="124" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A124" s="41">
         <v>38384</v>
       </c>
@@ -5608,7 +5615,7 @@
         <v>38540</v>
       </c>
     </row>
-    <row r="125" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="125" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A125" s="40"/>
       <c r="B125" s="20" t="s">
         <v>53</v>
@@ -5630,7 +5637,7 @@
         <v>38566</v>
       </c>
     </row>
-    <row r="126" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="126" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A126" s="40"/>
       <c r="B126" s="20" t="s">
         <v>94</v>
@@ -5652,7 +5659,7 @@
         <v>131</v>
       </c>
     </row>
-    <row r="127" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="127" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A127" s="40"/>
       <c r="B127" s="20" t="s">
         <v>132</v>
@@ -5672,7 +5679,7 @@
       <c r="J127" s="11"/>
       <c r="K127" s="20"/>
     </row>
-    <row r="128" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="128" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A128" s="40">
         <v>38412</v>
       </c>
@@ -5696,7 +5703,7 @@
         <v>134</v>
       </c>
     </row>
-    <row r="129" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="129" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A129" s="40"/>
       <c r="B129" s="20" t="s">
         <v>133</v>
@@ -5716,7 +5723,7 @@
       <c r="J129" s="11"/>
       <c r="K129" s="20"/>
     </row>
-    <row r="130" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="130" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A130" s="40">
         <v>38443</v>
       </c>
@@ -5738,7 +5745,7 @@
       <c r="J130" s="11"/>
       <c r="K130" s="20"/>
     </row>
-    <row r="131" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="131" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A131" s="40"/>
       <c r="B131" s="20" t="s">
         <v>109</v>
@@ -5760,7 +5767,7 @@
         <v>137</v>
       </c>
     </row>
-    <row r="132" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="132" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A132" s="40"/>
       <c r="B132" s="20" t="s">
         <v>136</v>
@@ -5784,7 +5791,7 @@
         <v>38416</v>
       </c>
     </row>
-    <row r="133" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="133" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A133" s="40">
         <v>38473</v>
       </c>
@@ -5810,7 +5817,7 @@
         <v>139</v>
       </c>
     </row>
-    <row r="134" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="134" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A134" s="40"/>
       <c r="B134" s="20" t="s">
         <v>53</v>
@@ -5832,7 +5839,7 @@
         <v>140</v>
       </c>
     </row>
-    <row r="135" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="135" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A135" s="40"/>
       <c r="B135" s="20" t="s">
         <v>138</v>
@@ -5852,7 +5859,7 @@
       <c r="J135" s="11"/>
       <c r="K135" s="20"/>
     </row>
-    <row r="136" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="136" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A136" s="40">
         <v>38504</v>
       </c>
@@ -5878,7 +5885,7 @@
         <v>143</v>
       </c>
     </row>
-    <row r="137" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="137" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A137" s="40"/>
       <c r="B137" s="20" t="s">
         <v>141</v>
@@ -5898,7 +5905,7 @@
         <v>144</v>
       </c>
     </row>
-    <row r="138" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="138" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A138" s="40"/>
       <c r="B138" s="20" t="s">
         <v>142</v>
@@ -5918,7 +5925,7 @@
         <v>145</v>
       </c>
     </row>
-    <row r="139" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="139" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A139" s="40">
         <v>38534</v>
       </c>
@@ -5942,7 +5949,7 @@
         <v>148</v>
       </c>
     </row>
-    <row r="140" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="140" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A140" s="40"/>
       <c r="B140" s="20" t="s">
         <v>101</v>
@@ -5962,7 +5969,7 @@
         <v>38663</v>
       </c>
     </row>
-    <row r="141" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="141" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A141" s="40"/>
       <c r="B141" s="20" t="s">
         <v>101</v>
@@ -5982,7 +5989,7 @@
         <v>149</v>
       </c>
     </row>
-    <row r="142" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="142" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A142" s="40"/>
       <c r="B142" s="20" t="s">
         <v>147</v>
@@ -6002,7 +6009,7 @@
       <c r="J142" s="11"/>
       <c r="K142" s="20"/>
     </row>
-    <row r="143" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="143" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A143" s="40">
         <v>38565</v>
       </c>
@@ -6026,7 +6033,7 @@
       <c r="J143" s="11"/>
       <c r="K143" s="20"/>
     </row>
-    <row r="144" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="144" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A144" s="40">
         <v>38596</v>
       </c>
@@ -6052,7 +6059,7 @@
         <v>152</v>
       </c>
     </row>
-    <row r="145" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="145" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A145" s="40"/>
       <c r="B145" s="20" t="s">
         <v>109</v>
@@ -6074,7 +6081,7 @@
         <v>153</v>
       </c>
     </row>
-    <row r="146" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="146" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A146" s="41"/>
       <c r="B146" s="15" t="s">
         <v>151</v>
@@ -6094,7 +6101,7 @@
       <c r="J146" s="12"/>
       <c r="K146" s="15"/>
     </row>
-    <row r="147" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="147" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A147" s="40">
         <v>38626</v>
       </c>
@@ -6120,7 +6127,7 @@
         <v>157</v>
       </c>
     </row>
-    <row r="148" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="148" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A148" s="40"/>
       <c r="B148" s="20" t="s">
         <v>146</v>
@@ -6142,7 +6149,7 @@
         <v>158</v>
       </c>
     </row>
-    <row r="149" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="149" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A149" s="40"/>
       <c r="B149" s="20" t="s">
         <v>154</v>
@@ -6164,7 +6171,7 @@
         <v>159</v>
       </c>
     </row>
-    <row r="150" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="150" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A150" s="40"/>
       <c r="B150" s="20" t="s">
         <v>155</v>
@@ -6186,7 +6193,7 @@
         <v>160</v>
       </c>
     </row>
-    <row r="151" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="151" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A151" s="40"/>
       <c r="B151" s="20" t="s">
         <v>161</v>
@@ -6206,7 +6213,7 @@
       <c r="J151" s="11"/>
       <c r="K151" s="20"/>
     </row>
-    <row r="152" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="152" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A152" s="40">
         <v>38657</v>
       </c>
@@ -6232,7 +6239,7 @@
         <v>162</v>
       </c>
     </row>
-    <row r="153" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="153" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A153" s="40"/>
       <c r="B153" s="20" t="s">
         <v>156</v>
@@ -6252,7 +6259,7 @@
       <c r="J153" s="11"/>
       <c r="K153" s="20"/>
     </row>
-    <row r="154" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="154" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A154" s="40">
         <v>38687</v>
       </c>
@@ -6276,7 +6283,7 @@
       <c r="J154" s="11"/>
       <c r="K154" s="20"/>
     </row>
-    <row r="155" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="155" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A155" s="23" t="s">
         <v>164</v>
       </c>
@@ -6294,7 +6301,7 @@
       <c r="J155" s="11"/>
       <c r="K155" s="20"/>
     </row>
-    <row r="156" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="156" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A156" s="40">
         <v>38718</v>
       </c>
@@ -6318,7 +6325,7 @@
         <v>167</v>
       </c>
     </row>
-    <row r="157" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="157" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A157" s="41"/>
       <c r="B157" s="15" t="s">
         <v>141</v>
@@ -6338,7 +6345,7 @@
         <v>168</v>
       </c>
     </row>
-    <row r="158" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="158" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A158" s="40"/>
       <c r="B158" s="20" t="s">
         <v>101</v>
@@ -6360,7 +6367,7 @@
         <v>169</v>
       </c>
     </row>
-    <row r="159" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="159" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A159" s="40"/>
       <c r="B159" s="20" t="s">
         <v>166</v>
@@ -6380,7 +6387,7 @@
       <c r="J159" s="11"/>
       <c r="K159" s="20"/>
     </row>
-    <row r="160" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="160" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A160" s="40">
         <v>38749</v>
       </c>
@@ -6406,7 +6413,7 @@
         <v>38750</v>
       </c>
     </row>
-    <row r="161" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="161" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A161" s="40"/>
       <c r="B161" s="20" t="s">
         <v>53</v>
@@ -6428,7 +6435,7 @@
         <v>171</v>
       </c>
     </row>
-    <row r="162" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="162" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A162" s="40"/>
       <c r="B162" s="20" t="s">
         <v>170</v>
@@ -6448,7 +6455,7 @@
       <c r="J162" s="11"/>
       <c r="K162" s="20"/>
     </row>
-    <row r="163" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="163" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A163" s="40">
         <v>38777</v>
       </c>
@@ -6474,7 +6481,7 @@
         <v>38871</v>
       </c>
     </row>
-    <row r="164" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="164" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A164" s="40"/>
       <c r="B164" s="20" t="s">
         <v>173</v>
@@ -6494,7 +6501,7 @@
       <c r="J164" s="11"/>
       <c r="K164" s="20"/>
     </row>
-    <row r="165" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="165" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A165" s="40">
         <v>38808</v>
       </c>
@@ -6520,7 +6527,7 @@
         <v>38872</v>
       </c>
     </row>
-    <row r="166" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="166" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A166" s="40"/>
       <c r="B166" s="20" t="s">
         <v>48</v>
@@ -6542,7 +6549,7 @@
         <v>38842</v>
       </c>
     </row>
-    <row r="167" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="167" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A167" s="40"/>
       <c r="B167" s="20" t="s">
         <v>53</v>
@@ -6564,7 +6571,7 @@
         <v>175</v>
       </c>
     </row>
-    <row r="168" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="168" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A168" s="40"/>
       <c r="B168" s="20" t="s">
         <v>53</v>
@@ -6586,7 +6593,7 @@
         <v>176</v>
       </c>
     </row>
-    <row r="169" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="169" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A169" s="40"/>
       <c r="B169" s="20" t="s">
         <v>174</v>
@@ -6610,7 +6617,7 @@
         <v>177</v>
       </c>
     </row>
-    <row r="170" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="170" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A170" s="40">
         <v>38838</v>
       </c>
@@ -6632,7 +6639,7 @@
       <c r="J170" s="11"/>
       <c r="K170" s="20"/>
     </row>
-    <row r="171" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="171" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A171" s="40"/>
       <c r="B171" s="20" t="s">
         <v>179</v>
@@ -6656,7 +6663,7 @@
         <v>180</v>
       </c>
     </row>
-    <row r="172" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="172" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A172" s="40">
         <v>38869</v>
       </c>
@@ -6682,7 +6689,7 @@
         <v>38904</v>
       </c>
     </row>
-    <row r="173" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="173" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A173" s="40"/>
       <c r="B173" s="20" t="s">
         <v>181</v>
@@ -6702,7 +6709,7 @@
       <c r="J173" s="11"/>
       <c r="K173" s="20"/>
     </row>
-    <row r="174" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="174" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A174" s="41">
         <v>38899</v>
       </c>
@@ -6728,7 +6735,7 @@
         <v>183</v>
       </c>
     </row>
-    <row r="175" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="175" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A175" s="40"/>
       <c r="B175" s="20" t="s">
         <v>182</v>
@@ -6748,7 +6755,7 @@
       <c r="J175" s="11"/>
       <c r="K175" s="20"/>
     </row>
-    <row r="176" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="176" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A176" s="40">
         <v>38930</v>
       </c>
@@ -6774,7 +6781,7 @@
         <v>185</v>
       </c>
     </row>
-    <row r="177" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="177" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A177" s="40"/>
       <c r="B177" s="20" t="s">
         <v>101</v>
@@ -6796,7 +6803,7 @@
         <v>186</v>
       </c>
     </row>
-    <row r="178" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="178" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A178" s="40"/>
       <c r="B178" s="20" t="s">
         <v>146</v>
@@ -6818,7 +6825,7 @@
         <v>187</v>
       </c>
     </row>
-    <row r="179" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="179" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A179" s="40"/>
       <c r="B179" s="20" t="s">
         <v>146</v>
@@ -6840,7 +6847,7 @@
         <v>188</v>
       </c>
     </row>
-    <row r="180" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="180" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A180" s="40"/>
       <c r="B180" s="20" t="s">
         <v>184</v>
@@ -6860,7 +6867,7 @@
       <c r="J180" s="11"/>
       <c r="K180" s="49"/>
     </row>
-    <row r="181" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="181" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A181" s="40">
         <v>38961</v>
       </c>
@@ -6886,7 +6893,7 @@
         <v>191</v>
       </c>
     </row>
-    <row r="182" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="182" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A182" s="40"/>
       <c r="B182" s="20" t="s">
         <v>189</v>
@@ -6908,7 +6915,7 @@
         <v>192</v>
       </c>
     </row>
-    <row r="183" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="183" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A183" s="40"/>
       <c r="B183" s="20" t="s">
         <v>190</v>
@@ -6928,7 +6935,7 @@
       <c r="J183" s="11"/>
       <c r="K183" s="20"/>
     </row>
-    <row r="184" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="184" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A184" s="40">
         <v>38991</v>
       </c>
@@ -6954,7 +6961,7 @@
         <v>194</v>
       </c>
     </row>
-    <row r="185" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="185" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A185" s="40"/>
       <c r="B185" s="20" t="s">
         <v>53</v>
@@ -6976,7 +6983,7 @@
         <v>195</v>
       </c>
     </row>
-    <row r="186" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="186" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A186" s="40"/>
       <c r="B186" s="20" t="s">
         <v>193</v>
@@ -6996,7 +7003,7 @@
       <c r="J186" s="11"/>
       <c r="K186" s="20"/>
     </row>
-    <row r="187" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="187" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A187" s="40">
         <v>39022</v>
       </c>
@@ -7022,7 +7029,7 @@
         <v>198</v>
       </c>
     </row>
-    <row r="188" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="188" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A188" s="40"/>
       <c r="B188" s="20" t="s">
         <v>101</v>
@@ -7044,7 +7051,7 @@
         <v>199</v>
       </c>
     </row>
-    <row r="189" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="189" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A189" s="40"/>
       <c r="B189" s="20" t="s">
         <v>101</v>
@@ -7066,7 +7073,7 @@
         <v>200</v>
       </c>
     </row>
-    <row r="190" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="190" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A190" s="41"/>
       <c r="B190" s="15" t="s">
         <v>197</v>
@@ -7086,7 +7093,7 @@
       <c r="J190" s="12"/>
       <c r="K190" s="15"/>
     </row>
-    <row r="191" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="191" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A191" s="40">
         <v>39052</v>
       </c>
@@ -7108,7 +7115,7 @@
       <c r="J191" s="11"/>
       <c r="K191" s="20"/>
     </row>
-    <row r="192" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="192" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A192" s="40"/>
       <c r="B192" s="20" t="s">
         <v>101</v>
@@ -7130,7 +7137,7 @@
         <v>203</v>
       </c>
     </row>
-    <row r="193" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="193" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A193" s="40"/>
       <c r="B193" s="20" t="s">
         <v>202</v>
@@ -7154,7 +7161,7 @@
         <v>204</v>
       </c>
     </row>
-    <row r="194" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="194" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A194" s="23" t="s">
         <v>205</v>
       </c>
@@ -7172,7 +7179,7 @@
       <c r="J194" s="11"/>
       <c r="K194" s="20"/>
     </row>
-    <row r="195" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="195" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A195" s="40">
         <v>39083</v>
       </c>
@@ -7196,7 +7203,7 @@
         <v>208</v>
       </c>
     </row>
-    <row r="196" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="196" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A196" s="40"/>
       <c r="B196" s="20" t="s">
         <v>154</v>
@@ -7218,7 +7225,7 @@
         <v>209</v>
       </c>
     </row>
-    <row r="197" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="197" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A197" s="40"/>
       <c r="B197" s="20" t="s">
         <v>206</v>
@@ -7238,7 +7245,7 @@
         <v>210</v>
       </c>
     </row>
-    <row r="198" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="198" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A198" s="40"/>
       <c r="B198" s="20" t="s">
         <v>207</v>
@@ -7258,7 +7265,7 @@
       <c r="J198" s="11"/>
       <c r="K198" s="20"/>
     </row>
-    <row r="199" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="199" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A199" s="40">
         <v>39114</v>
       </c>
@@ -7284,7 +7291,7 @@
         <v>211</v>
       </c>
     </row>
-    <row r="200" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="200" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A200" s="40">
         <v>39142</v>
       </c>
@@ -7308,7 +7315,7 @@
       <c r="J200" s="11"/>
       <c r="K200" s="20"/>
     </row>
-    <row r="201" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="201" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A201" s="40">
         <v>39173</v>
       </c>
@@ -7334,7 +7341,7 @@
         <v>214</v>
       </c>
     </row>
-    <row r="202" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="202" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A202" s="40"/>
       <c r="B202" s="20" t="s">
         <v>146</v>
@@ -7356,7 +7363,7 @@
         <v>215</v>
       </c>
     </row>
-    <row r="203" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="203" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A203" s="40"/>
       <c r="B203" s="20" t="s">
         <v>213</v>
@@ -7376,7 +7383,7 @@
       <c r="J203" s="11"/>
       <c r="K203" s="20"/>
     </row>
-    <row r="204" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="204" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A204" s="40">
         <v>39203</v>
       </c>
@@ -7402,7 +7409,7 @@
         <v>217</v>
       </c>
     </row>
-    <row r="205" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="205" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A205" s="41"/>
       <c r="B205" s="15" t="s">
         <v>216</v>
@@ -7422,7 +7429,7 @@
       <c r="J205" s="12"/>
       <c r="K205" s="15"/>
     </row>
-    <row r="206" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="206" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A206" s="40">
         <v>39234</v>
       </c>
@@ -7448,7 +7455,7 @@
         <v>219</v>
       </c>
     </row>
-    <row r="207" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="207" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A207" s="40"/>
       <c r="B207" s="20" t="s">
         <v>218</v>
@@ -7468,7 +7475,7 @@
       <c r="J207" s="11"/>
       <c r="K207" s="20"/>
     </row>
-    <row r="208" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="208" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A208" s="40">
         <v>39264</v>
       </c>
@@ -7494,7 +7501,7 @@
         <v>39393</v>
       </c>
     </row>
-    <row r="209" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="209" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A209" s="40"/>
       <c r="B209" s="20" t="s">
         <v>220</v>
@@ -7516,7 +7523,7 @@
         <v>222</v>
       </c>
     </row>
-    <row r="210" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="210" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A210" s="40"/>
       <c r="B210" s="20" t="s">
         <v>221</v>
@@ -7536,7 +7543,7 @@
       <c r="J210" s="11"/>
       <c r="K210" s="20"/>
     </row>
-    <row r="211" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="211" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A211" s="40">
         <v>39295</v>
       </c>
@@ -7560,7 +7567,7 @@
         <v>225</v>
       </c>
     </row>
-    <row r="212" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="212" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A212" s="40"/>
       <c r="B212" s="20" t="s">
         <v>224</v>
@@ -7580,7 +7587,7 @@
       <c r="J212" s="11"/>
       <c r="K212" s="20"/>
     </row>
-    <row r="213" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="213" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A213" s="40">
         <v>39326</v>
       </c>
@@ -7606,7 +7613,7 @@
         <v>228</v>
       </c>
     </row>
-    <row r="214" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="214" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A214" s="40"/>
       <c r="B214" s="20" t="s">
         <v>226</v>
@@ -7628,7 +7635,7 @@
         <v>229</v>
       </c>
     </row>
-    <row r="215" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="215" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A215" s="40"/>
       <c r="B215" s="20" t="s">
         <v>223</v>
@@ -7650,7 +7657,7 @@
         <v>230</v>
       </c>
     </row>
-    <row r="216" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="216" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A216" s="40"/>
       <c r="B216" s="20" t="s">
         <v>227</v>
@@ -7670,7 +7677,7 @@
       <c r="J216" s="11"/>
       <c r="K216" s="20"/>
     </row>
-    <row r="217" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="217" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A217" s="40">
         <v>39356</v>
       </c>
@@ -7694,7 +7701,7 @@
         <v>39304</v>
       </c>
     </row>
-    <row r="218" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="218" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A218" s="40"/>
       <c r="B218" s="20" t="s">
         <v>231</v>
@@ -7714,7 +7721,7 @@
       <c r="J218" s="11"/>
       <c r="K218" s="20"/>
     </row>
-    <row r="219" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="219" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A219" s="40"/>
       <c r="B219" s="20" t="s">
         <v>232</v>
@@ -7736,7 +7743,7 @@
         <v>233</v>
       </c>
     </row>
-    <row r="220" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="220" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A220" s="40">
         <v>39387</v>
       </c>
@@ -7758,7 +7765,7 @@
       <c r="J220" s="11"/>
       <c r="K220" s="20"/>
     </row>
-    <row r="221" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="221" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A221" s="40"/>
       <c r="B221" s="20" t="s">
         <v>226</v>
@@ -7780,7 +7787,7 @@
         <v>235</v>
       </c>
     </row>
-    <row r="222" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="222" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A222" s="40"/>
       <c r="B222" s="20" t="s">
         <v>223</v>
@@ -7802,7 +7809,7 @@
         <v>236</v>
       </c>
     </row>
-    <row r="223" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="223" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A223" s="41"/>
       <c r="B223" s="15" t="s">
         <v>234</v>
@@ -7826,7 +7833,7 @@
         <v>237</v>
       </c>
     </row>
-    <row r="224" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="224" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A224" s="40">
         <v>39417</v>
       </c>
@@ -7850,7 +7857,7 @@
         <v>240</v>
       </c>
     </row>
-    <row r="225" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="225" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A225" s="40"/>
       <c r="B225" s="20" t="s">
         <v>226</v>
@@ -7870,7 +7877,7 @@
         <v>39367</v>
       </c>
     </row>
-    <row r="226" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="226" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A226" s="40"/>
       <c r="B226" s="20" t="s">
         <v>226</v>
@@ -7890,7 +7897,7 @@
         <v>241</v>
       </c>
     </row>
-    <row r="227" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="227" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A227" s="40"/>
       <c r="B227" s="20" t="s">
         <v>226</v>
@@ -7910,7 +7917,7 @@
         <v>242</v>
       </c>
     </row>
-    <row r="228" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="228" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A228" s="40"/>
       <c r="B228" s="20" t="s">
         <v>239</v>
@@ -7930,7 +7937,7 @@
       <c r="J228" s="11"/>
       <c r="K228" s="20"/>
     </row>
-    <row r="229" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="229" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A229" s="23" t="s">
         <v>243</v>
       </c>
@@ -7948,7 +7955,7 @@
       <c r="J229" s="11"/>
       <c r="K229" s="20"/>
     </row>
-    <row r="230" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="230" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A230" s="40">
         <v>39448</v>
       </c>
@@ -7972,7 +7979,7 @@
         <v>245</v>
       </c>
     </row>
-    <row r="231" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="231" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A231" s="40"/>
       <c r="B231" s="20" t="s">
         <v>165</v>
@@ -7992,7 +7999,7 @@
         <v>246</v>
       </c>
     </row>
-    <row r="232" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="232" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A232" s="40"/>
       <c r="B232" s="20" t="s">
         <v>244</v>
@@ -8012,7 +8019,7 @@
       <c r="J232" s="11"/>
       <c r="K232" s="20"/>
     </row>
-    <row r="233" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="233" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A233" s="40">
         <v>39479</v>
       </c>
@@ -8038,7 +8045,7 @@
         <v>249</v>
       </c>
     </row>
-    <row r="234" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="234" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A234" s="40"/>
       <c r="B234" s="20" t="s">
         <v>223</v>
@@ -8060,7 +8067,7 @@
         <v>39662</v>
       </c>
     </row>
-    <row r="235" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="235" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A235" s="40"/>
       <c r="B235" s="20" t="s">
         <v>223</v>
@@ -8082,7 +8089,7 @@
         <v>39693</v>
       </c>
     </row>
-    <row r="236" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="236" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A236" s="40"/>
       <c r="B236" s="20" t="s">
         <v>223</v>
@@ -8104,7 +8111,7 @@
         <v>250</v>
       </c>
     </row>
-    <row r="237" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="237" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A237" s="40"/>
       <c r="B237" s="20" t="s">
         <v>248</v>
@@ -8121,7 +8128,7 @@
       <c r="J237" s="11"/>
       <c r="K237" s="20"/>
     </row>
-    <row r="238" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="238" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A238" s="41">
         <v>68728</v>
       </c>
@@ -8142,7 +8149,7 @@
         <v>251</v>
       </c>
     </row>
-    <row r="239" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="239" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A239" s="40"/>
       <c r="B239" s="20" t="s">
         <v>247</v>
@@ -8159,7 +8166,7 @@
         <v>252</v>
       </c>
     </row>
-    <row r="240" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="240" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A240" s="40"/>
       <c r="B240" s="20" t="s">
         <v>247</v>
@@ -8176,7 +8183,7 @@
         <v>39482</v>
       </c>
     </row>
-    <row r="241" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="241" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A241" s="40"/>
       <c r="B241" s="20" t="s">
         <v>253</v>
@@ -8193,7 +8200,7 @@
       <c r="J241" s="11"/>
       <c r="K241" s="49"/>
     </row>
-    <row r="242" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="242" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A242" s="40">
         <v>39539</v>
       </c>
@@ -8216,7 +8223,7 @@
         <v>255</v>
       </c>
     </row>
-    <row r="243" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="243" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A243" s="40"/>
       <c r="B243" s="20" t="s">
         <v>146</v>
@@ -8235,7 +8242,7 @@
         <v>256</v>
       </c>
     </row>
-    <row r="244" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="244" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A244" s="40"/>
       <c r="B244" s="20" t="s">
         <v>254</v>
@@ -8252,7 +8259,7 @@
       <c r="J244" s="11"/>
       <c r="K244" s="20"/>
     </row>
-    <row r="245" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="245" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A245" s="40">
         <v>39569</v>
       </c>
@@ -8275,7 +8282,7 @@
         <v>39696</v>
       </c>
     </row>
-    <row r="246" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="246" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A246" s="40"/>
       <c r="B246" s="20" t="s">
         <v>101</v>
@@ -8294,7 +8301,7 @@
         <v>258</v>
       </c>
     </row>
-    <row r="247" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="247" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A247" s="40"/>
       <c r="B247" s="20" t="s">
         <v>101</v>
@@ -8313,7 +8320,7 @@
         <v>259</v>
       </c>
     </row>
-    <row r="248" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="248" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A248" s="40"/>
       <c r="B248" s="20" t="s">
         <v>101</v>
@@ -8328,7 +8335,7 @@
       <c r="J248" s="11"/>
       <c r="K248" s="20"/>
     </row>
-    <row r="249" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="249" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A249" s="40"/>
       <c r="B249" s="20" t="s">
         <v>257</v>
@@ -8345,7 +8352,7 @@
       <c r="J249" s="11"/>
       <c r="K249" s="20"/>
     </row>
-    <row r="250" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="250" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A250" s="40">
         <v>39600</v>
       </c>
@@ -8371,7 +8378,7 @@
         <v>261</v>
       </c>
     </row>
-    <row r="251" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="251" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A251" s="40"/>
       <c r="B251" s="20" t="s">
         <v>223</v>
@@ -8393,7 +8400,7 @@
         <v>262</v>
       </c>
     </row>
-    <row r="252" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="252" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A252" s="40"/>
       <c r="B252" s="20" t="s">
         <v>260</v>
@@ -8413,7 +8420,7 @@
       <c r="J252" s="11"/>
       <c r="K252" s="20"/>
     </row>
-    <row r="253" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="253" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A253" s="40">
         <v>39630</v>
       </c>
@@ -8437,7 +8444,7 @@
       <c r="J253" s="11"/>
       <c r="K253" s="20"/>
     </row>
-    <row r="254" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="254" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A254" s="40">
         <v>39661</v>
       </c>
@@ -8461,7 +8468,7 @@
       <c r="J254" s="11"/>
       <c r="K254" s="20"/>
     </row>
-    <row r="255" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="255" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A255" s="41">
         <v>39692</v>
       </c>
@@ -8487,7 +8494,7 @@
         <v>39577</v>
       </c>
     </row>
-    <row r="256" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="256" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A256" s="40"/>
       <c r="B256" s="20" t="s">
         <v>223</v>
@@ -8509,7 +8516,7 @@
         <v>39700</v>
       </c>
     </row>
-    <row r="257" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="257" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A257" s="40"/>
       <c r="B257" s="20" t="s">
         <v>223</v>
@@ -8531,7 +8538,7 @@
         <v>266</v>
       </c>
     </row>
-    <row r="258" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="258" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A258" s="40"/>
       <c r="B258" s="20" t="s">
         <v>223</v>
@@ -8551,7 +8558,7 @@
       <c r="J258" s="11"/>
       <c r="K258" s="20"/>
     </row>
-    <row r="259" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="259" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A259" s="40"/>
       <c r="B259" s="20" t="s">
         <v>265</v>
@@ -8571,7 +8578,7 @@
       <c r="J259" s="11"/>
       <c r="K259" s="20"/>
     </row>
-    <row r="260" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="260" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A260" s="40">
         <v>39722</v>
       </c>
@@ -8595,7 +8602,7 @@
         <v>267</v>
       </c>
     </row>
-    <row r="261" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="261" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A261" s="40"/>
       <c r="B261" s="20" t="s">
         <v>223</v>
@@ -8615,7 +8622,7 @@
         <v>268</v>
       </c>
     </row>
-    <row r="262" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="262" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A262" s="40"/>
       <c r="B262" s="20" t="s">
         <v>247</v>
@@ -8637,7 +8644,7 @@
         <v>271</v>
       </c>
     </row>
-    <row r="263" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="263" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A263" s="40"/>
       <c r="B263" s="20" t="s">
         <v>270</v>
@@ -8657,7 +8664,7 @@
       <c r="J263" s="11"/>
       <c r="K263" s="20"/>
     </row>
-    <row r="264" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="264" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A264" s="40">
         <v>39753</v>
       </c>
@@ -8683,7 +8690,7 @@
         <v>274</v>
       </c>
     </row>
-    <row r="265" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="265" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A265" s="40"/>
       <c r="B265" s="20" t="s">
         <v>272</v>
@@ -8705,7 +8712,7 @@
         <v>275</v>
       </c>
     </row>
-    <row r="266" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="266" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A266" s="40"/>
       <c r="B266" s="20" t="s">
         <v>273</v>
@@ -8725,7 +8732,7 @@
       <c r="J266" s="11"/>
       <c r="K266" s="20"/>
     </row>
-    <row r="267" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="267" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A267" s="40">
         <v>39783</v>
       </c>
@@ -8751,7 +8758,7 @@
         <v>39783</v>
       </c>
     </row>
-    <row r="268" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="268" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A268" s="40"/>
       <c r="B268" s="20" t="s">
         <v>101</v>
@@ -8773,7 +8780,7 @@
         <v>277</v>
       </c>
     </row>
-    <row r="269" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="269" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A269" s="40"/>
       <c r="B269" s="20" t="s">
         <v>276</v>
@@ -8793,7 +8800,7 @@
       <c r="J269" s="11"/>
       <c r="K269" s="20"/>
     </row>
-    <row r="270" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="270" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A270" s="40"/>
       <c r="B270" s="20"/>
       <c r="C270" s="13"/>
@@ -8809,7 +8816,7 @@
       <c r="J270" s="11"/>
       <c r="K270" s="20"/>
     </row>
-    <row r="271" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="271" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A271" s="54" t="s">
         <v>269</v>
       </c>
@@ -8829,7 +8836,7 @@
       <c r="J271" s="12"/>
       <c r="K271" s="15"/>
     </row>
-    <row r="272" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="272" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A272" s="40">
         <v>39814</v>
       </c>
@@ -8853,7 +8860,7 @@
         <v>279</v>
       </c>
     </row>
-    <row r="273" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="273" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A273" s="40"/>
       <c r="B273" s="20" t="s">
         <v>278</v>
@@ -8873,7 +8880,7 @@
       <c r="J273" s="11"/>
       <c r="K273" s="20"/>
     </row>
-    <row r="274" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="274" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A274" s="40">
         <v>39845</v>
       </c>
@@ -8897,7 +8904,7 @@
       <c r="J274" s="11"/>
       <c r="K274" s="20"/>
     </row>
-    <row r="275" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="275" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A275" s="40">
         <v>39873</v>
       </c>
@@ -8923,7 +8930,7 @@
         <v>282</v>
       </c>
     </row>
-    <row r="276" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="276" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A276" s="40"/>
       <c r="B276" s="20" t="s">
         <v>165</v>
@@ -8943,7 +8950,7 @@
         <v>283</v>
       </c>
     </row>
-    <row r="277" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="277" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A277" s="40"/>
       <c r="B277" s="20" t="s">
         <v>165</v>
@@ -8963,7 +8970,7 @@
         <v>284</v>
       </c>
     </row>
-    <row r="278" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="278" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A278" s="40"/>
       <c r="B278" s="20" t="s">
         <v>165</v>
@@ -8983,7 +8990,7 @@
         <v>285</v>
       </c>
     </row>
-    <row r="279" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="279" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A279" s="40"/>
       <c r="B279" s="20" t="s">
         <v>281</v>
@@ -9001,7 +9008,7 @@
       <c r="J279" s="11"/>
       <c r="K279" s="20"/>
     </row>
-    <row r="280" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="280" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A280" s="40">
         <v>39904</v>
       </c>
@@ -9027,7 +9034,7 @@
         <v>287</v>
       </c>
     </row>
-    <row r="281" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="281" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A281" s="40"/>
       <c r="B281" s="20" t="s">
         <v>223</v>
@@ -9049,7 +9056,7 @@
         <v>39938</v>
       </c>
     </row>
-    <row r="282" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="282" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A282" s="41"/>
       <c r="B282" s="15" t="s">
         <v>286</v>
@@ -9067,7 +9074,7 @@
       <c r="J282" s="12"/>
       <c r="K282" s="15"/>
     </row>
-    <row r="283" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="283" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A283" s="40">
         <v>39934</v>
       </c>
@@ -9093,7 +9100,7 @@
         <v>40030</v>
       </c>
     </row>
-    <row r="284" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="284" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A284" s="40"/>
       <c r="B284" s="20" t="s">
         <v>288</v>
@@ -9113,7 +9120,7 @@
       <c r="J284" s="11"/>
       <c r="K284" s="20"/>
     </row>
-    <row r="285" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="285" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A285" s="40">
         <v>39965</v>
       </c>
@@ -9139,7 +9146,7 @@
         <v>290</v>
       </c>
     </row>
-    <row r="286" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="286" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A286" s="40"/>
       <c r="B286" s="20" t="s">
         <v>289</v>
@@ -9159,7 +9166,7 @@
       <c r="J286" s="11"/>
       <c r="K286" s="20"/>
     </row>
-    <row r="287" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="287" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A287" s="40">
         <v>39995</v>
       </c>
@@ -9183,7 +9190,7 @@
       <c r="J287" s="11"/>
       <c r="K287" s="20"/>
     </row>
-    <row r="288" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="288" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A288" s="40">
         <v>40026</v>
       </c>
@@ -9209,7 +9216,7 @@
         <v>293</v>
       </c>
     </row>
-    <row r="289" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="289" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A289" s="40"/>
       <c r="B289" s="20" t="s">
         <v>292</v>
@@ -9231,7 +9238,7 @@
         <v>294</v>
       </c>
     </row>
-    <row r="290" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="290" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A290" s="40"/>
       <c r="B290" s="20" t="s">
         <v>296</v>
@@ -9251,7 +9258,7 @@
       <c r="J290" s="11"/>
       <c r="K290" s="20"/>
     </row>
-    <row r="291" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="291" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A291" s="40">
         <v>40057</v>
       </c>
@@ -9275,7 +9282,7 @@
       <c r="J291" s="11"/>
       <c r="K291" s="20"/>
     </row>
-    <row r="292" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="292" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A292" s="40">
         <v>40087</v>
       </c>
@@ -9301,7 +9308,7 @@
         <v>299</v>
       </c>
     </row>
-    <row r="293" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="293" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A293" s="40"/>
       <c r="B293" s="20" t="s">
         <v>298</v>
@@ -9321,7 +9328,7 @@
       <c r="J293" s="11"/>
       <c r="K293" s="20"/>
     </row>
-    <row r="294" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="294" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A294" s="40">
         <v>40118</v>
       </c>
@@ -9347,7 +9354,7 @@
         <v>40067</v>
       </c>
     </row>
-    <row r="295" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="295" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A295" s="40"/>
       <c r="B295" s="20" t="s">
         <v>223</v>
@@ -9369,7 +9376,7 @@
         <v>301</v>
       </c>
     </row>
-    <row r="296" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="296" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A296" s="40"/>
       <c r="B296" s="20" t="s">
         <v>300</v>
@@ -9389,7 +9396,7 @@
       <c r="J296" s="11"/>
       <c r="K296" s="20"/>
     </row>
-    <row r="297" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="297" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A297" s="41">
         <v>40148</v>
       </c>
@@ -9415,7 +9422,7 @@
         <v>303</v>
       </c>
     </row>
-    <row r="298" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="298" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A298" s="40"/>
       <c r="B298" s="20" t="s">
         <v>302</v>
@@ -9435,7 +9442,7 @@
       <c r="J298" s="11"/>
       <c r="K298" s="20"/>
     </row>
-    <row r="299" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="299" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A299" s="23" t="s">
         <v>304</v>
       </c>
@@ -9453,7 +9460,7 @@
       <c r="J299" s="11"/>
       <c r="K299" s="20"/>
     </row>
-    <row r="300" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="300" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A300" s="40">
         <v>40179</v>
       </c>
@@ -9477,7 +9484,7 @@
         <v>305</v>
       </c>
     </row>
-    <row r="301" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="301" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A301" s="40"/>
       <c r="B301" s="20" t="s">
         <v>292</v>
@@ -9499,7 +9506,7 @@
         <v>306</v>
       </c>
     </row>
-    <row r="302" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="302" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A302" s="40"/>
       <c r="B302" s="20" t="s">
         <v>555</v>
@@ -9519,7 +9526,7 @@
       <c r="J302" s="11"/>
       <c r="K302" s="20"/>
     </row>
-    <row r="303" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="303" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A303" s="40">
         <v>40210</v>
       </c>
@@ -9545,7 +9552,7 @@
         <v>40453</v>
       </c>
     </row>
-    <row r="304" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="304" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A304" s="40"/>
       <c r="B304" s="20" t="s">
         <v>226</v>
@@ -9567,7 +9574,7 @@
         <v>308</v>
       </c>
     </row>
-    <row r="305" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="305" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A305" s="40"/>
       <c r="B305" s="20" t="s">
         <v>307</v>
@@ -9587,7 +9594,7 @@
       <c r="J305" s="11"/>
       <c r="K305" s="20"/>
     </row>
-    <row r="306" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="306" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A306" s="40">
         <v>40238</v>
       </c>
@@ -9613,7 +9620,7 @@
         <v>40333</v>
       </c>
     </row>
-    <row r="307" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="307" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A307" s="40"/>
       <c r="B307" s="20" t="s">
         <v>309</v>
@@ -9633,7 +9640,7 @@
         <v>311</v>
       </c>
     </row>
-    <row r="308" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="308" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A308" s="40"/>
       <c r="B308" s="20" t="s">
         <v>310</v>
@@ -9653,7 +9660,7 @@
       <c r="J308" s="11"/>
       <c r="K308" s="20"/>
     </row>
-    <row r="309" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="309" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A309" s="40">
         <v>40269</v>
       </c>
@@ -9679,7 +9686,7 @@
         <v>313</v>
       </c>
     </row>
-    <row r="310" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="310" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A310" s="40"/>
       <c r="B310" s="20" t="s">
         <v>223</v>
@@ -9701,7 +9708,7 @@
         <v>314</v>
       </c>
     </row>
-    <row r="311" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="311" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A311" s="41"/>
       <c r="B311" s="15" t="s">
         <v>312</v>
@@ -9721,7 +9728,7 @@
       <c r="J311" s="12"/>
       <c r="K311" s="15"/>
     </row>
-    <row r="312" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="312" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A312" s="40">
         <v>40299</v>
       </c>
@@ -9745,7 +9752,7 @@
         <v>40273</v>
       </c>
     </row>
-    <row r="313" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="313" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A313" s="40"/>
       <c r="B313" s="20" t="s">
         <v>278</v>
@@ -9767,7 +9774,7 @@
       <c r="J313" s="11"/>
       <c r="K313" s="20"/>
     </row>
-    <row r="314" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="314" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A314" s="40">
         <v>40330</v>
       </c>
@@ -9793,7 +9800,7 @@
         <v>40184</v>
       </c>
     </row>
-    <row r="315" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="315" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A315" s="40"/>
       <c r="B315" s="20" t="s">
         <v>165</v>
@@ -9813,7 +9820,7 @@
         <v>316</v>
       </c>
     </row>
-    <row r="316" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="316" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A316" s="40"/>
       <c r="B316" s="20" t="s">
         <v>223</v>
@@ -9835,7 +9842,7 @@
         <v>317</v>
       </c>
     </row>
-    <row r="317" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="317" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A317" s="40"/>
       <c r="B317" s="20" t="s">
         <v>315</v>
@@ -9855,7 +9862,7 @@
       <c r="J317" s="11"/>
       <c r="K317" s="20"/>
     </row>
-    <row r="318" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="318" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A318" s="40">
         <v>40360</v>
       </c>
@@ -9881,7 +9888,7 @@
         <v>40428</v>
       </c>
     </row>
-    <row r="319" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="319" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A319" s="40"/>
       <c r="B319" s="20" t="s">
         <v>247</v>
@@ -9903,7 +9910,7 @@
         <v>320</v>
       </c>
     </row>
-    <row r="320" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="320" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A320" s="40"/>
       <c r="B320" s="20" t="s">
         <v>318</v>
@@ -9925,7 +9932,7 @@
         <v>321</v>
       </c>
     </row>
-    <row r="321" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="321" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A321" s="40"/>
       <c r="B321" s="20" t="s">
         <v>319</v>
@@ -9945,7 +9952,7 @@
       <c r="J321" s="11"/>
       <c r="K321" s="20"/>
     </row>
-    <row r="322" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="322" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A322" s="41">
         <v>40391</v>
       </c>
@@ -9971,7 +9978,7 @@
         <v>324</v>
       </c>
     </row>
-    <row r="323" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="323" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A323" s="40">
         <v>40422</v>
       </c>
@@ -9991,7 +9998,7 @@
       <c r="J323" s="11"/>
       <c r="K323" s="20"/>
     </row>
-    <row r="324" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="324" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A324" s="40"/>
       <c r="B324" s="20" t="s">
         <v>323</v>
@@ -10013,7 +10020,7 @@
       <c r="J324" s="11"/>
       <c r="K324" s="20"/>
     </row>
-    <row r="325" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="325" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A325" s="40">
         <v>40452</v>
       </c>
@@ -10037,7 +10044,7 @@
         <v>326</v>
       </c>
     </row>
-    <row r="326" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="326" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A326" s="40"/>
       <c r="B326" s="20" t="s">
         <v>325</v>
@@ -10061,7 +10068,7 @@
         <v>327</v>
       </c>
     </row>
-    <row r="327" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="327" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A327" s="40">
         <v>40483</v>
       </c>
@@ -10081,7 +10088,7 @@
       <c r="J327" s="11"/>
       <c r="K327" s="20"/>
     </row>
-    <row r="328" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="328" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A328" s="40"/>
       <c r="B328" s="20" t="s">
         <v>231</v>
@@ -10105,7 +10112,7 @@
         <v>330</v>
       </c>
     </row>
-    <row r="329" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="329" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A329" s="40"/>
       <c r="B329" s="20" t="s">
         <v>329</v>
@@ -10129,7 +10136,7 @@
         <v>331</v>
       </c>
     </row>
-    <row r="330" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="330" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A330" s="40">
         <v>40513</v>
       </c>
@@ -10153,7 +10160,7 @@
       <c r="J330" s="11"/>
       <c r="K330" s="20"/>
     </row>
-    <row r="331" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="331" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A331" s="48" t="s">
         <v>333</v>
       </c>
@@ -10171,7 +10178,7 @@
       <c r="J331" s="11"/>
       <c r="K331" s="20"/>
     </row>
-    <row r="332" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="332" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A332" s="40">
         <v>40544</v>
       </c>
@@ -10195,7 +10202,7 @@
         <v>40725</v>
       </c>
     </row>
-    <row r="333" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="333" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A333" s="40"/>
       <c r="B333" s="20" t="s">
         <v>223</v>
@@ -10213,7 +10220,7 @@
       <c r="J333" s="11"/>
       <c r="K333" s="20"/>
     </row>
-    <row r="334" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="334" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A334" s="40"/>
       <c r="B334" s="20" t="s">
         <v>226</v>
@@ -10235,7 +10242,7 @@
         <v>336</v>
       </c>
     </row>
-    <row r="335" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="335" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A335" s="41"/>
       <c r="B335" s="15" t="s">
         <v>334</v>
@@ -10257,7 +10264,7 @@
         <v>337</v>
       </c>
     </row>
-    <row r="336" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="336" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A336" s="40"/>
       <c r="B336" s="20" t="s">
         <v>335</v>
@@ -10279,7 +10286,7 @@
       <c r="J336" s="11"/>
       <c r="K336" s="20"/>
     </row>
-    <row r="337" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="337" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A337" s="40">
         <v>40575</v>
       </c>
@@ -10303,7 +10310,7 @@
         <v>339</v>
       </c>
     </row>
-    <row r="338" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="338" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A338" s="40"/>
       <c r="B338" s="20" t="s">
         <v>272</v>
@@ -10323,7 +10330,7 @@
         <v>340</v>
       </c>
     </row>
-    <row r="339" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="339" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A339" s="40"/>
       <c r="B339" s="20" t="s">
         <v>165</v>
@@ -10343,7 +10350,7 @@
         <v>341</v>
       </c>
     </row>
-    <row r="340" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="340" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A340" s="40"/>
       <c r="B340" s="20" t="s">
         <v>338</v>
@@ -10365,7 +10372,7 @@
       <c r="J340" s="11"/>
       <c r="K340" s="20"/>
     </row>
-    <row r="341" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="341" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A341" s="40">
         <v>40603</v>
       </c>
@@ -10389,7 +10396,7 @@
       <c r="J341" s="11"/>
       <c r="K341" s="20"/>
     </row>
-    <row r="342" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="342" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A342" s="40">
         <v>40634</v>
       </c>
@@ -10413,7 +10420,7 @@
       <c r="J342" s="11"/>
       <c r="K342" s="20"/>
     </row>
-    <row r="343" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="343" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A343" s="40">
         <v>40664</v>
       </c>
@@ -10439,7 +10446,7 @@
         <v>344</v>
       </c>
     </row>
-    <row r="344" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="344" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A344" s="40"/>
       <c r="B344" s="20" t="s">
         <v>346</v>
@@ -10457,7 +10464,7 @@
       <c r="J344" s="11"/>
       <c r="K344" s="49"/>
     </row>
-    <row r="345" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="345" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A345" s="40">
         <v>37043</v>
       </c>
@@ -10481,7 +10488,7 @@
         <v>40792</v>
       </c>
     </row>
-    <row r="346" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="346" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A346" s="40"/>
       <c r="B346" s="20" t="s">
         <v>345</v>
@@ -10503,7 +10510,7 @@
       <c r="J346" s="11"/>
       <c r="K346" s="20"/>
     </row>
-    <row r="347" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="347" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A347" s="41">
         <v>40725</v>
       </c>
@@ -10527,7 +10534,7 @@
         <v>348</v>
       </c>
     </row>
-    <row r="348" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="348" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A348" s="40"/>
       <c r="B348" s="20" t="s">
         <v>347</v>
@@ -10549,7 +10556,7 @@
       <c r="J348" s="11"/>
       <c r="K348" s="20"/>
     </row>
-    <row r="349" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="349" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A349" s="40">
         <v>40756</v>
       </c>
@@ -10573,7 +10580,7 @@
         <v>350</v>
       </c>
     </row>
-    <row r="350" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="350" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A350" s="40"/>
       <c r="B350" s="20" t="s">
         <v>349</v>
@@ -10595,7 +10602,7 @@
       <c r="J350" s="11"/>
       <c r="K350" s="20"/>
     </row>
-    <row r="351" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="351" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A351" s="40">
         <v>40787</v>
       </c>
@@ -10619,7 +10626,7 @@
         <v>40703</v>
       </c>
     </row>
-    <row r="352" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="352" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A352" s="40"/>
       <c r="B352" s="20" t="s">
         <v>226</v>
@@ -10641,7 +10648,7 @@
         <v>352</v>
       </c>
     </row>
-    <row r="353" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="353" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A353" s="40"/>
       <c r="B353" s="20" t="s">
         <v>351</v>
@@ -10663,7 +10670,7 @@
       <c r="J353" s="11"/>
       <c r="K353" s="20"/>
     </row>
-    <row r="354" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="354" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A354" s="40">
         <v>40817</v>
       </c>
@@ -10687,7 +10694,7 @@
         <v>355</v>
       </c>
     </row>
-    <row r="355" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="355" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A355" s="40"/>
       <c r="B355" s="20" t="s">
         <v>354</v>
@@ -10709,7 +10716,7 @@
       <c r="J355" s="11"/>
       <c r="K355" s="20"/>
     </row>
-    <row r="356" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="356" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A356" s="40">
         <v>40848</v>
       </c>
@@ -10733,7 +10740,7 @@
         <v>358</v>
       </c>
     </row>
-    <row r="357" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="357" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A357" s="40"/>
       <c r="B357" s="20" t="s">
         <v>356</v>
@@ -10755,7 +10762,7 @@
       <c r="J357" s="11"/>
       <c r="K357" s="20"/>
     </row>
-    <row r="358" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="358" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A358" s="40">
         <v>40878</v>
       </c>
@@ -10779,7 +10786,7 @@
         <v>40736</v>
       </c>
     </row>
-    <row r="359" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="359" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A359" s="40"/>
       <c r="B359" s="20" t="s">
         <v>226</v>
@@ -10801,7 +10808,7 @@
         <v>359</v>
       </c>
     </row>
-    <row r="360" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="360" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A360" s="40"/>
       <c r="B360" s="20" t="s">
         <v>357</v>
@@ -10823,7 +10830,7 @@
       <c r="J360" s="11"/>
       <c r="K360" s="20"/>
     </row>
-    <row r="361" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="361" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A361" s="55" t="s">
         <v>360</v>
       </c>
@@ -10841,7 +10848,7 @@
       <c r="J361" s="12"/>
       <c r="K361" s="15"/>
     </row>
-    <row r="362" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="362" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A362" s="40">
         <v>40909</v>
       </c>
@@ -10865,7 +10872,7 @@
         <v>362</v>
       </c>
     </row>
-    <row r="363" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="363" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A363" s="40"/>
       <c r="B363" s="20" t="s">
         <v>361</v>
@@ -10885,7 +10892,7 @@
       <c r="J363" s="11"/>
       <c r="K363" s="20"/>
     </row>
-    <row r="364" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="364" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A364" s="40">
         <v>40940</v>
       </c>
@@ -10909,7 +10916,7 @@
         <v>365</v>
       </c>
     </row>
-    <row r="365" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="365" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A365" s="40"/>
       <c r="B365" s="20" t="s">
         <v>165</v>
@@ -10929,7 +10936,7 @@
         <v>366</v>
       </c>
     </row>
-    <row r="366" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="366" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A366" s="40"/>
       <c r="B366" s="20" t="s">
         <v>165</v>
@@ -10949,7 +10956,7 @@
         <v>367</v>
       </c>
     </row>
-    <row r="367" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="367" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A367" s="40"/>
       <c r="B367" s="20" t="s">
         <v>364</v>
@@ -10969,7 +10976,7 @@
       <c r="J367" s="11"/>
       <c r="K367" s="20"/>
     </row>
-    <row r="368" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="368" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A368" s="40">
         <v>40969</v>
       </c>
@@ -10993,7 +11000,7 @@
       <c r="J368" s="11"/>
       <c r="K368" s="20"/>
     </row>
-    <row r="369" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="369" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A369" s="40">
         <v>41000</v>
       </c>
@@ -11017,7 +11024,7 @@
         <v>370</v>
       </c>
     </row>
-    <row r="370" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="370" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A370" s="40"/>
       <c r="B370" s="20" t="s">
         <v>226</v>
@@ -11039,7 +11046,7 @@
         <v>371</v>
       </c>
     </row>
-    <row r="371" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="371" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A371" s="40"/>
       <c r="B371" s="20" t="s">
         <v>369</v>
@@ -11061,7 +11068,7 @@
       <c r="J371" s="11"/>
       <c r="K371" s="20"/>
     </row>
-    <row r="372" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="372" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A372" s="40">
         <v>41030</v>
       </c>
@@ -11085,7 +11092,7 @@
         <v>41126</v>
       </c>
     </row>
-    <row r="373" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="373" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A373" s="40"/>
       <c r="B373" s="20" t="s">
         <v>353</v>
@@ -11107,7 +11114,7 @@
       <c r="J373" s="11"/>
       <c r="K373" s="20"/>
     </row>
-    <row r="374" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="374" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A374" s="41">
         <v>41061</v>
       </c>
@@ -11131,7 +11138,7 @@
         <v>372</v>
       </c>
     </row>
-    <row r="375" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="375" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A375" s="40"/>
       <c r="B375" s="20" t="s">
         <v>223</v>
@@ -11155,7 +11162,7 @@
         <v>373</v>
       </c>
     </row>
-    <row r="376" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="376" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A376" s="40">
         <v>41091</v>
       </c>
@@ -11175,7 +11182,7 @@
       <c r="J376" s="11"/>
       <c r="K376" s="20"/>
     </row>
-    <row r="377" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="377" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A377" s="40"/>
       <c r="B377" s="20" t="s">
         <v>226</v>
@@ -11197,7 +11204,7 @@
         <v>375</v>
       </c>
     </row>
-    <row r="378" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="378" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A378" s="40"/>
       <c r="B378" s="20" t="s">
         <v>374</v>
@@ -11221,7 +11228,7 @@
       <c r="J378" s="11"/>
       <c r="K378" s="20"/>
     </row>
-    <row r="379" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="379" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A379" s="40">
         <v>41122</v>
       </c>
@@ -11245,7 +11252,7 @@
       <c r="J379" s="11"/>
       <c r="K379" s="20"/>
     </row>
-    <row r="380" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="380" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A380" s="40">
         <v>41153</v>
       </c>
@@ -11269,7 +11276,7 @@
         <v>377</v>
       </c>
     </row>
-    <row r="381" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="381" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A381" s="40"/>
       <c r="B381" s="20" t="s">
         <v>378</v>
@@ -11291,7 +11298,7 @@
         <v>380</v>
       </c>
     </row>
-    <row r="382" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="382" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A382" s="40"/>
       <c r="B382" s="20" t="s">
         <v>223</v>
@@ -11313,7 +11320,7 @@
         <v>381</v>
       </c>
     </row>
-    <row r="383" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="383" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A383" s="40"/>
       <c r="B383" s="20" t="s">
         <v>223</v>
@@ -11335,7 +11342,7 @@
         <v>382</v>
       </c>
     </row>
-    <row r="384" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="384" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A384" s="40"/>
       <c r="B384" s="20" t="s">
         <v>379</v>
@@ -11355,7 +11362,7 @@
       <c r="J384" s="11"/>
       <c r="K384" s="20"/>
     </row>
-    <row r="385" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="385" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A385" s="41">
         <v>41183</v>
       </c>
@@ -11379,7 +11386,7 @@
         <v>44905</v>
       </c>
     </row>
-    <row r="386" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="386" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A386" s="40"/>
       <c r="B386" s="20" t="s">
         <v>57</v>
@@ -11401,7 +11408,7 @@
         <v>384</v>
       </c>
     </row>
-    <row r="387" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="387" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A387" s="40"/>
       <c r="B387" s="20" t="s">
         <v>383</v>
@@ -11427,7 +11434,7 @@
         <v>385</v>
       </c>
     </row>
-    <row r="388" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="388" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A388" s="40">
         <v>41214</v>
       </c>
@@ -11451,7 +11458,7 @@
         <v>387</v>
       </c>
     </row>
-    <row r="389" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="389" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A389" s="40"/>
       <c r="B389" s="20" t="s">
         <v>364</v>
@@ -11473,7 +11480,7 @@
       <c r="J389" s="11"/>
       <c r="K389" s="20"/>
     </row>
-    <row r="390" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="390" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A390" s="40">
         <v>41244</v>
       </c>
@@ -11497,7 +11504,7 @@
       <c r="J390" s="11"/>
       <c r="K390" s="20"/>
     </row>
-    <row r="391" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="391" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A391" s="48" t="s">
         <v>388</v>
       </c>
@@ -11515,7 +11522,7 @@
       <c r="J391" s="11"/>
       <c r="K391" s="20"/>
     </row>
-    <row r="392" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="392" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A392" s="40">
         <v>41275</v>
       </c>
@@ -11537,7 +11544,7 @@
         <v>390</v>
       </c>
     </row>
-    <row r="393" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="393" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A393" s="40"/>
       <c r="B393" s="20" t="s">
         <v>389</v>
@@ -11559,7 +11566,7 @@
       <c r="J393" s="11"/>
       <c r="K393" s="20"/>
     </row>
-    <row r="394" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="394" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A394" s="40">
         <v>41306</v>
       </c>
@@ -11583,7 +11590,7 @@
         <v>392</v>
       </c>
     </row>
-    <row r="395" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="395" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A395" s="40"/>
       <c r="B395" s="20" t="s">
         <v>165</v>
@@ -11603,7 +11610,7 @@
         <v>393</v>
       </c>
     </row>
-    <row r="396" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="396" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A396" s="41"/>
       <c r="B396" s="15" t="s">
         <v>165</v>
@@ -11623,7 +11630,7 @@
         <v>394</v>
       </c>
     </row>
-    <row r="397" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="397" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A397" s="40">
         <v>41334</v>
       </c>
@@ -11649,7 +11656,7 @@
         <v>395</v>
       </c>
     </row>
-    <row r="398" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="398" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A398" s="40">
         <v>41365</v>
       </c>
@@ -11673,7 +11680,7 @@
       <c r="J398" s="11"/>
       <c r="K398" s="20"/>
     </row>
-    <row r="399" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="399" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A399" s="40">
         <v>41395</v>
       </c>
@@ -11699,7 +11706,7 @@
         <v>41310</v>
       </c>
     </row>
-    <row r="400" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="400" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A400" s="40"/>
       <c r="B400" s="20" t="s">
         <v>223</v>
@@ -11721,7 +11728,7 @@
         <v>41552</v>
       </c>
     </row>
-    <row r="401" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="401" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A401" s="40"/>
       <c r="B401" s="20" t="s">
         <v>397</v>
@@ -11741,7 +11748,7 @@
       <c r="J401" s="11"/>
       <c r="K401" s="20"/>
     </row>
-    <row r="402" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="402" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A402" s="40">
         <v>41426</v>
       </c>
@@ -11765,7 +11772,7 @@
       <c r="J402" s="11"/>
       <c r="K402" s="20"/>
     </row>
-    <row r="403" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="403" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A403" s="40">
         <v>41456</v>
       </c>
@@ -11789,7 +11796,7 @@
       <c r="J403" s="11"/>
       <c r="K403" s="20"/>
     </row>
-    <row r="404" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="404" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A404" s="40">
         <v>41487</v>
       </c>
@@ -11813,7 +11820,7 @@
         <v>402</v>
       </c>
     </row>
-    <row r="405" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="405" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A405" s="41"/>
       <c r="B405" s="15" t="s">
         <v>400</v>
@@ -11835,7 +11842,7 @@
       <c r="J405" s="12"/>
       <c r="K405" s="15"/>
     </row>
-    <row r="406" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="406" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A406" s="40">
         <v>41518</v>
       </c>
@@ -11859,7 +11866,7 @@
         <v>403</v>
       </c>
     </row>
-    <row r="407" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="407" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A407" s="40"/>
       <c r="B407" s="20" t="s">
         <v>401</v>
@@ -11881,7 +11888,7 @@
       <c r="J407" s="11"/>
       <c r="K407" s="20"/>
     </row>
-    <row r="408" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="408" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A408" s="40">
         <v>41548</v>
       </c>
@@ -11905,7 +11912,7 @@
         <v>405</v>
       </c>
     </row>
-    <row r="409" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="409" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A409" s="40"/>
       <c r="B409" s="20" t="s">
         <v>404</v>
@@ -11927,7 +11934,7 @@
       <c r="J409" s="11"/>
       <c r="K409" s="20"/>
     </row>
-    <row r="410" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="410" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A410" s="40">
         <v>41579</v>
       </c>
@@ -11951,7 +11958,7 @@
         <v>41405</v>
       </c>
     </row>
-    <row r="411" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="411" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A411" s="40"/>
       <c r="B411" s="20" t="s">
         <v>226</v>
@@ -11973,7 +11980,7 @@
         <v>407</v>
       </c>
     </row>
-    <row r="412" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="412" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A412" s="40"/>
       <c r="B412" s="20" t="s">
         <v>223</v>
@@ -11995,7 +12002,7 @@
         <v>41528</v>
       </c>
     </row>
-    <row r="413" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="413" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A413" s="40"/>
       <c r="B413" s="20" t="s">
         <v>406</v>
@@ -12017,7 +12024,7 @@
       <c r="J413" s="11"/>
       <c r="K413" s="20"/>
     </row>
-    <row r="414" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="414" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A414" s="40">
         <v>41609</v>
       </c>
@@ -12041,7 +12048,7 @@
         <v>41345</v>
       </c>
     </row>
-    <row r="415" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="415" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A415" s="40"/>
       <c r="B415" s="20" t="s">
         <v>364</v>
@@ -12063,7 +12070,7 @@
       <c r="J415" s="11"/>
       <c r="K415" s="20"/>
     </row>
-    <row r="416" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="416" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A416" s="23" t="s">
         <v>408</v>
       </c>
@@ -12081,7 +12088,7 @@
       <c r="J416" s="11"/>
       <c r="K416" s="20"/>
     </row>
-    <row r="417" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="417" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A417" s="41">
         <v>41640</v>
       </c>
@@ -12103,7 +12110,7 @@
         <v>410</v>
       </c>
     </row>
-    <row r="418" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="418" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A418" s="40"/>
       <c r="B418" s="20" t="s">
         <v>411</v>
@@ -12125,7 +12132,7 @@
       <c r="J418" s="11"/>
       <c r="K418" s="20"/>
     </row>
-    <row r="419" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="419" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A419" s="40">
         <v>41671</v>
       </c>
@@ -12149,7 +12156,7 @@
         <v>413</v>
       </c>
     </row>
-    <row r="420" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="420" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A420" s="40"/>
       <c r="B420" s="20" t="s">
         <v>412</v>
@@ -12171,7 +12178,7 @@
       <c r="J420" s="11"/>
       <c r="K420" s="20"/>
     </row>
-    <row r="421" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="421" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A421" s="40">
         <v>41699</v>
       </c>
@@ -12195,7 +12202,7 @@
         <v>414</v>
       </c>
     </row>
-    <row r="422" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="422" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A422" s="40"/>
       <c r="B422" s="20" t="s">
         <v>226</v>
@@ -12217,7 +12224,7 @@
         <v>415</v>
       </c>
     </row>
-    <row r="423" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="423" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A423" s="40"/>
       <c r="B423" s="20" t="s">
         <v>345</v>
@@ -12239,7 +12246,7 @@
       <c r="J423" s="11"/>
       <c r="K423" s="20"/>
     </row>
-    <row r="424" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="424" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A424" s="40">
         <v>41730</v>
       </c>
@@ -12263,7 +12270,7 @@
         <v>41855</v>
       </c>
     </row>
-    <row r="425" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="425" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A425" s="40"/>
       <c r="B425" s="20" t="s">
         <v>223</v>
@@ -12285,7 +12292,7 @@
         <v>417</v>
       </c>
     </row>
-    <row r="426" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="426" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A426" s="40"/>
       <c r="B426" s="20" t="s">
         <v>247</v>
@@ -12307,7 +12314,7 @@
         <v>41675</v>
       </c>
     </row>
-    <row r="427" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="427" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A427" s="40"/>
       <c r="B427" s="20" t="s">
         <v>416</v>
@@ -12329,7 +12336,7 @@
       <c r="J427" s="11"/>
       <c r="K427" s="20"/>
     </row>
-    <row r="428" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="428" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A428" s="40">
         <v>41760</v>
       </c>
@@ -12347,7 +12354,7 @@
       <c r="J428" s="11"/>
       <c r="K428" s="20"/>
     </row>
-    <row r="429" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="429" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A429" s="40"/>
       <c r="B429" s="20" t="s">
         <v>223</v>
@@ -12369,7 +12376,7 @@
         <v>41856</v>
       </c>
     </row>
-    <row r="430" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="430" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A430" s="40"/>
       <c r="B430" s="20" t="s">
         <v>223</v>
@@ -12391,7 +12398,7 @@
         <v>418</v>
       </c>
     </row>
-    <row r="431" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="431" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A431" s="40"/>
       <c r="B431" s="20" t="s">
         <v>223</v>
@@ -12413,7 +12420,7 @@
         <v>41735</v>
       </c>
     </row>
-    <row r="432" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="432" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A432" s="40"/>
       <c r="B432" s="20" t="s">
         <v>416</v>
@@ -12435,7 +12442,7 @@
       <c r="J432" s="11"/>
       <c r="K432" s="20"/>
     </row>
-    <row r="433" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="433" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A433" s="40">
         <v>41791</v>
       </c>
@@ -12459,7 +12466,7 @@
       <c r="J433" s="11"/>
       <c r="K433" s="20"/>
     </row>
-    <row r="434" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="434" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A434" s="40">
         <v>41821</v>
       </c>
@@ -12483,7 +12490,7 @@
       <c r="J434" s="11"/>
       <c r="K434" s="20"/>
     </row>
-    <row r="435" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="435" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A435" s="41">
         <v>41852</v>
       </c>
@@ -12505,7 +12512,7 @@
         <v>41951</v>
       </c>
     </row>
-    <row r="436" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="436" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A436" s="40"/>
       <c r="B436" s="20" t="s">
         <v>165</v>
@@ -12525,7 +12532,7 @@
         <v>421</v>
       </c>
     </row>
-    <row r="437" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="437" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A437" s="40"/>
       <c r="B437" s="20" t="s">
         <v>223</v>
@@ -12547,7 +12554,7 @@
         <v>422</v>
       </c>
     </row>
-    <row r="438" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="438" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A438" s="40"/>
       <c r="B438" s="20" t="s">
         <v>223</v>
@@ -12569,7 +12576,7 @@
         <v>41648</v>
       </c>
     </row>
-    <row r="439" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="439" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A439" s="40"/>
       <c r="B439" s="20" t="s">
         <v>423</v>
@@ -12591,7 +12598,7 @@
       <c r="J439" s="11"/>
       <c r="K439" s="20"/>
     </row>
-    <row r="440" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="440" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A440" s="40">
         <v>41883</v>
       </c>
@@ -12615,7 +12622,7 @@
         <v>41830</v>
       </c>
     </row>
-    <row r="441" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="441" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A441" s="40"/>
       <c r="B441" s="20" t="s">
         <v>424</v>
@@ -12637,7 +12644,7 @@
       <c r="J441" s="11"/>
       <c r="K441" s="20"/>
     </row>
-    <row r="442" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="442" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A442" s="40">
         <v>41913</v>
       </c>
@@ -12661,7 +12668,7 @@
         <v>426</v>
       </c>
     </row>
-    <row r="443" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="443" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A443" s="40"/>
       <c r="B443" s="20" t="s">
         <v>399</v>
@@ -12683,7 +12690,7 @@
       <c r="J443" s="11"/>
       <c r="K443" s="20"/>
     </row>
-    <row r="444" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="444" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A444" s="40">
         <v>41944</v>
       </c>
@@ -12707,7 +12714,7 @@
         <v>428</v>
       </c>
     </row>
-    <row r="445" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="445" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A445" s="40"/>
       <c r="B445" s="20" t="s">
         <v>427</v>
@@ -12729,7 +12736,7 @@
       <c r="J445" s="11"/>
       <c r="K445" s="20"/>
     </row>
-    <row r="446" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="446" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A446" s="40">
         <v>41974</v>
       </c>
@@ -12753,7 +12760,7 @@
         <v>41894</v>
       </c>
     </row>
-    <row r="447" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="447" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A447" s="40"/>
       <c r="B447" s="20" t="s">
         <v>346</v>
@@ -12775,7 +12782,7 @@
       <c r="J447" s="11"/>
       <c r="K447" s="20"/>
     </row>
-    <row r="448" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="448" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A448" s="55" t="s">
         <v>429</v>
       </c>
@@ -12793,7 +12800,7 @@
       <c r="J448" s="12"/>
       <c r="K448" s="15"/>
     </row>
-    <row r="449" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="449" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A449" s="40">
         <v>42005</v>
       </c>
@@ -12813,7 +12820,7 @@
       <c r="J449" s="11"/>
       <c r="K449" s="20"/>
     </row>
-    <row r="450" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="450" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A450" s="40">
         <v>42036</v>
       </c>
@@ -12837,7 +12844,7 @@
       <c r="J450" s="11"/>
       <c r="K450" s="20"/>
     </row>
-    <row r="451" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="451" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A451" s="40">
         <v>42064</v>
       </c>
@@ -12857,7 +12864,7 @@
       <c r="J451" s="11"/>
       <c r="K451" s="20"/>
     </row>
-    <row r="452" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="452" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A452" s="40">
         <v>42095</v>
       </c>
@@ -12879,7 +12886,7 @@
         <v>432</v>
       </c>
     </row>
-    <row r="453" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="453" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A453" s="40"/>
       <c r="B453" s="20" t="s">
         <v>223</v>
@@ -12901,7 +12908,7 @@
         <v>433</v>
       </c>
     </row>
-    <row r="454" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="454" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A454" s="40"/>
       <c r="B454" s="20" t="s">
         <v>431</v>
@@ -12923,7 +12930,7 @@
       <c r="J454" s="11"/>
       <c r="K454" s="20"/>
     </row>
-    <row r="455" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="455" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A455" s="40">
         <v>42125</v>
       </c>
@@ -12947,7 +12954,7 @@
       <c r="J455" s="11"/>
       <c r="K455" s="20"/>
     </row>
-    <row r="456" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="456" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A456" s="40">
         <v>42156</v>
       </c>
@@ -12971,7 +12978,7 @@
         <v>42069</v>
       </c>
     </row>
-    <row r="457" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="457" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A457" s="40"/>
       <c r="B457" s="20" t="s">
         <v>165</v>
@@ -12991,7 +12998,7 @@
         <v>435</v>
       </c>
     </row>
-    <row r="458" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="458" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A458" s="40"/>
       <c r="B458" s="20" t="s">
         <v>436</v>
@@ -13013,7 +13020,7 @@
       <c r="J458" s="11"/>
       <c r="K458" s="20"/>
     </row>
-    <row r="459" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="459" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A459" s="40">
         <v>42186</v>
       </c>
@@ -13037,7 +13044,7 @@
       <c r="J459" s="11"/>
       <c r="K459" s="20"/>
     </row>
-    <row r="460" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="460" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A460" s="40">
         <v>42217</v>
       </c>
@@ -13061,7 +13068,7 @@
         <v>42013</v>
       </c>
     </row>
-    <row r="461" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="461" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A461" s="40"/>
       <c r="B461" s="20" t="s">
         <v>438</v>
@@ -13083,7 +13090,7 @@
       <c r="J461" s="11"/>
       <c r="K461" s="20"/>
     </row>
-    <row r="462" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="462" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A462" s="41">
         <v>42248</v>
       </c>
@@ -13107,7 +13114,7 @@
         <v>440</v>
       </c>
     </row>
-    <row r="463" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="463" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A463" s="40"/>
       <c r="B463" s="20" t="s">
         <v>439</v>
@@ -13129,7 +13136,7 @@
       <c r="J463" s="11"/>
       <c r="K463" s="20"/>
     </row>
-    <row r="464" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="464" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A464" s="40">
         <v>42278</v>
       </c>
@@ -13153,7 +13160,7 @@
         <v>442</v>
       </c>
     </row>
-    <row r="465" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="465" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A465" s="40"/>
       <c r="B465" s="20" t="s">
         <v>223</v>
@@ -13175,7 +13182,7 @@
         <v>443</v>
       </c>
     </row>
-    <row r="466" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="466" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A466" s="40"/>
       <c r="B466" s="20" t="s">
         <v>441</v>
@@ -13197,7 +13204,7 @@
       <c r="J466" s="11"/>
       <c r="K466" s="20"/>
     </row>
-    <row r="467" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="467" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A467" s="40">
         <v>42309</v>
       </c>
@@ -13221,7 +13228,7 @@
         <v>42349</v>
       </c>
     </row>
-    <row r="468" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="468" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A468" s="40"/>
       <c r="B468" s="20" t="s">
         <v>223</v>
@@ -13243,7 +13250,7 @@
         <v>445</v>
       </c>
     </row>
-    <row r="469" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="469" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A469" s="40"/>
       <c r="B469" s="20" t="s">
         <v>223</v>
@@ -13265,7 +13272,7 @@
         <v>446</v>
       </c>
     </row>
-    <row r="470" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="470" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A470" s="41"/>
       <c r="B470" s="15" t="s">
         <v>444</v>
@@ -13287,7 +13294,7 @@
       <c r="J470" s="12"/>
       <c r="K470" s="15"/>
     </row>
-    <row r="471" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="471" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A471" s="40">
         <v>42339</v>
       </c>
@@ -13313,7 +13320,7 @@
         <v>42106</v>
       </c>
     </row>
-    <row r="472" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="472" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A472" s="40"/>
       <c r="B472" s="20" t="s">
         <v>223</v>
@@ -13333,7 +13340,7 @@
       <c r="J472" s="11"/>
       <c r="K472" s="20"/>
     </row>
-    <row r="473" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="473" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A473" s="40"/>
       <c r="B473" s="20" t="s">
         <v>447</v>
@@ -13355,7 +13362,7 @@
       <c r="J473" s="11"/>
       <c r="K473" s="20"/>
     </row>
-    <row r="474" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="474" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A474" s="23" t="s">
         <v>448</v>
       </c>
@@ -13373,7 +13380,7 @@
       <c r="J474" s="11"/>
       <c r="K474" s="20"/>
     </row>
-    <row r="475" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="475" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A475" s="40">
         <v>42370</v>
       </c>
@@ -13397,7 +13404,7 @@
         <v>449</v>
       </c>
     </row>
-    <row r="476" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="476" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A476" s="40"/>
       <c r="B476" s="20" t="s">
         <v>165</v>
@@ -13417,7 +13424,7 @@
         <v>450</v>
       </c>
     </row>
-    <row r="477" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="477" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A477" s="40"/>
       <c r="B477" s="20" t="s">
         <v>451</v>
@@ -13439,7 +13446,7 @@
         <v>453</v>
       </c>
     </row>
-    <row r="478" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="478" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A478" s="40"/>
       <c r="B478" s="20" t="s">
         <v>452</v>
@@ -13461,7 +13468,7 @@
       <c r="J478" s="11"/>
       <c r="K478" s="20"/>
     </row>
-    <row r="479" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="479" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A479" s="41">
         <v>42401</v>
       </c>
@@ -13485,7 +13492,7 @@
         <v>42492</v>
       </c>
     </row>
-    <row r="480" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="480" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A480" s="40"/>
       <c r="B480" s="20" t="s">
         <v>223</v>
@@ -13507,7 +13514,7 @@
         <v>455</v>
       </c>
     </row>
-    <row r="481" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="481" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A481" s="40"/>
       <c r="B481" s="20" t="s">
         <v>223</v>
@@ -13529,7 +13536,7 @@
         <v>42372</v>
       </c>
     </row>
-    <row r="482" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="482" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A482" s="40"/>
       <c r="B482" s="20" t="s">
         <v>454</v>
@@ -13551,7 +13558,7 @@
       <c r="J482" s="11"/>
       <c r="K482" s="20"/>
     </row>
-    <row r="483" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="483" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A483" s="40">
         <v>42430</v>
       </c>
@@ -13575,7 +13582,7 @@
       <c r="J483" s="11"/>
       <c r="K483" s="20"/>
     </row>
-    <row r="484" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="484" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A484" s="40">
         <v>42461</v>
       </c>
@@ -13597,7 +13604,7 @@
         <v>457</v>
       </c>
     </row>
-    <row r="485" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="485" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A485" s="40"/>
       <c r="B485" s="20" t="s">
         <v>223</v>
@@ -13619,7 +13626,7 @@
         <v>459</v>
       </c>
     </row>
-    <row r="486" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="486" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A486" s="40"/>
       <c r="B486" s="20" t="s">
         <v>318</v>
@@ -13641,7 +13648,7 @@
         <v>460</v>
       </c>
     </row>
-    <row r="487" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="487" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A487" s="40"/>
       <c r="B487" s="20" t="s">
         <v>458</v>
@@ -13663,7 +13670,7 @@
       <c r="J487" s="11"/>
       <c r="K487" s="20"/>
     </row>
-    <row r="488" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="488" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A488" s="40">
         <v>42491</v>
       </c>
@@ -13687,7 +13694,7 @@
         <v>461</v>
       </c>
     </row>
-    <row r="489" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="489" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A489" s="40"/>
       <c r="B489" s="20" t="s">
         <v>462</v>
@@ -13709,7 +13716,7 @@
       <c r="J489" s="11"/>
       <c r="K489" s="20"/>
     </row>
-    <row r="490" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="490" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A490" s="41">
         <v>42522</v>
       </c>
@@ -13733,7 +13740,7 @@
         <v>42557</v>
       </c>
     </row>
-    <row r="491" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="491" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A491" s="40"/>
       <c r="B491" s="20" t="s">
         <v>363</v>
@@ -13753,7 +13760,7 @@
         <v>464</v>
       </c>
     </row>
-    <row r="492" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="492" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A492" s="40"/>
       <c r="B492" s="20" t="s">
         <v>223</v>
@@ -13775,7 +13782,7 @@
         <v>465</v>
       </c>
     </row>
-    <row r="493" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="493" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A493" s="40"/>
       <c r="B493" s="20" t="s">
         <v>463</v>
@@ -13797,7 +13804,7 @@
       <c r="J493" s="11"/>
       <c r="K493" s="20"/>
     </row>
-    <row r="494" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="494" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A494" s="40">
         <v>42552</v>
       </c>
@@ -13821,7 +13828,7 @@
       <c r="J494" s="11"/>
       <c r="K494" s="20"/>
     </row>
-    <row r="495" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="495" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A495" s="40">
         <v>42583</v>
       </c>
@@ -13845,7 +13852,7 @@
         <v>42651</v>
       </c>
     </row>
-    <row r="496" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="496" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A496" s="40"/>
       <c r="B496" s="20" t="s">
         <v>292</v>
@@ -13867,7 +13874,7 @@
         <v>468</v>
       </c>
     </row>
-    <row r="497" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="497" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A497" s="40"/>
       <c r="B497" s="20" t="s">
         <v>226</v>
@@ -13889,7 +13896,7 @@
         <v>469</v>
       </c>
     </row>
-    <row r="498" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="498" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A498" s="40"/>
       <c r="B498" s="20" t="s">
         <v>467</v>
@@ -13913,7 +13920,7 @@
         <v>470</v>
       </c>
     </row>
-    <row r="499" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="499" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A499" s="40">
         <v>42614</v>
       </c>
@@ -13937,7 +13944,7 @@
         <v>42591</v>
       </c>
     </row>
-    <row r="500" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="500" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A500" s="40"/>
       <c r="B500" s="20" t="s">
         <v>223</v>
@@ -13959,7 +13966,7 @@
         <v>472</v>
       </c>
     </row>
-    <row r="501" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="501" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A501" s="40"/>
       <c r="B501" s="20" t="s">
         <v>223</v>
@@ -13981,7 +13988,7 @@
         <v>473</v>
       </c>
     </row>
-    <row r="502" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="502" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A502" s="40"/>
       <c r="B502" s="20" t="s">
         <v>223</v>
@@ -14003,7 +14010,7 @@
         <v>474</v>
       </c>
     </row>
-    <row r="503" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="503" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A503" s="40"/>
       <c r="B503" s="20" t="s">
         <v>471</v>
@@ -14025,7 +14032,7 @@
       <c r="J503" s="11"/>
       <c r="K503" s="20"/>
     </row>
-    <row r="504" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="504" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A504" s="40">
         <v>42644</v>
       </c>
@@ -14049,7 +14056,7 @@
         <v>42500</v>
       </c>
     </row>
-    <row r="505" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="505" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A505" s="40"/>
       <c r="B505" s="20" t="s">
         <v>437</v>
@@ -14071,7 +14078,7 @@
         <v>476</v>
       </c>
     </row>
-    <row r="506" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="506" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A506" s="40"/>
       <c r="B506" s="20" t="s">
         <v>223</v>
@@ -14093,7 +14100,7 @@
         <v>477</v>
       </c>
     </row>
-    <row r="507" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="507" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A507" s="40"/>
       <c r="B507" s="20" t="s">
         <v>437</v>
@@ -14113,7 +14120,7 @@
       <c r="J507" s="11"/>
       <c r="K507" s="20"/>
     </row>
-    <row r="508" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="508" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A508" s="40"/>
       <c r="B508" s="20" t="s">
         <v>223</v>
@@ -14135,7 +14142,7 @@
         <v>478</v>
       </c>
     </row>
-    <row r="509" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="509" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A509" s="41"/>
       <c r="B509" s="15" t="s">
         <v>223</v>
@@ -14157,7 +14164,7 @@
         <v>42685</v>
       </c>
     </row>
-    <row r="510" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="510" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A510" s="40"/>
       <c r="B510" s="20" t="s">
         <v>475</v>
@@ -14179,7 +14186,7 @@
       <c r="J510" s="11"/>
       <c r="K510" s="20"/>
     </row>
-    <row r="511" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="511" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A511" s="40">
         <v>42675</v>
       </c>
@@ -14203,7 +14210,7 @@
         <v>479</v>
       </c>
     </row>
-    <row r="512" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="512" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A512" s="40"/>
       <c r="B512" s="20" t="s">
         <v>223</v>
@@ -14225,7 +14232,7 @@
         <v>480</v>
       </c>
     </row>
-    <row r="513" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="513" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A513" s="40"/>
       <c r="B513" s="20" t="s">
         <v>226</v>
@@ -14247,7 +14254,7 @@
         <v>481</v>
       </c>
     </row>
-    <row r="514" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="514" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A514" s="40"/>
       <c r="B514" s="20" t="s">
         <v>276</v>
@@ -14269,7 +14276,7 @@
       <c r="J514" s="11"/>
       <c r="K514" s="20"/>
     </row>
-    <row r="515" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="515" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A515" s="40">
         <v>42705</v>
       </c>
@@ -14293,7 +14300,7 @@
         <v>483</v>
       </c>
     </row>
-    <row r="516" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="516" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A516" s="40"/>
       <c r="B516" s="20" t="s">
         <v>425</v>
@@ -14315,7 +14322,7 @@
       <c r="J516" s="11"/>
       <c r="K516" s="20"/>
     </row>
-    <row r="517" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="517" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A517" s="40"/>
       <c r="B517" s="20" t="s">
         <v>482</v>
@@ -14335,7 +14342,7 @@
       <c r="J517" s="11"/>
       <c r="K517" s="20"/>
     </row>
-    <row r="518" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="518" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A518" s="48" t="s">
         <v>484</v>
       </c>
@@ -14353,7 +14360,7 @@
       <c r="J518" s="11"/>
       <c r="K518" s="20"/>
     </row>
-    <row r="519" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="519" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A519" s="40">
         <v>42736</v>
       </c>
@@ -14373,7 +14380,7 @@
       <c r="J519" s="11"/>
       <c r="K519" s="20"/>
     </row>
-    <row r="520" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="520" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A520" s="40"/>
       <c r="B520" s="20" t="s">
         <v>226</v>
@@ -14397,7 +14404,7 @@
         <v>486</v>
       </c>
     </row>
-    <row r="521" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="521" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A521" s="40"/>
       <c r="B521" s="20" t="s">
         <v>223</v>
@@ -14419,7 +14426,7 @@
         <v>487</v>
       </c>
     </row>
-    <row r="522" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="522" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A522" s="40"/>
       <c r="B522" s="20" t="s">
         <v>485</v>
@@ -14441,7 +14448,7 @@
         <v>488</v>
       </c>
     </row>
-    <row r="523" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="523" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A523" s="40"/>
       <c r="B523" s="20"/>
       <c r="C523" s="13">
@@ -14461,7 +14468,7 @@
         <v>489</v>
       </c>
     </row>
-    <row r="524" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="524" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A524" s="40">
         <v>42767</v>
       </c>
@@ -14485,7 +14492,7 @@
         <v>490</v>
       </c>
     </row>
-    <row r="525" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="525" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A525" s="41"/>
       <c r="B525" s="15" t="s">
         <v>60</v>
@@ -14509,7 +14516,7 @@
         <v>491</v>
       </c>
     </row>
-    <row r="526" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="526" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A526" s="40">
         <v>42795</v>
       </c>
@@ -14535,7 +14542,7 @@
         <v>492</v>
       </c>
     </row>
-    <row r="527" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="527" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A527" s="40"/>
       <c r="B527" s="20" t="s">
         <v>223</v>
@@ -14557,7 +14564,7 @@
         <v>493</v>
       </c>
     </row>
-    <row r="528" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="528" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A528" s="40"/>
       <c r="B528" s="20" t="s">
         <v>223</v>
@@ -14581,7 +14588,7 @@
         <v>494</v>
       </c>
     </row>
-    <row r="529" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="529" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A529" s="40">
         <v>42826</v>
       </c>
@@ -14607,7 +14614,7 @@
         <v>42920</v>
       </c>
     </row>
-    <row r="530" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="530" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A530" s="40"/>
       <c r="B530" s="20" t="s">
         <v>223</v>
@@ -14627,7 +14634,7 @@
       <c r="J530" s="11"/>
       <c r="K530" s="20"/>
     </row>
-    <row r="531" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="531" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A531" s="40"/>
       <c r="B531" s="20" t="s">
         <v>226</v>
@@ -14649,7 +14656,7 @@
         <v>495</v>
       </c>
     </row>
-    <row r="532" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="532" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A532" s="40"/>
       <c r="B532" s="20" t="s">
         <v>223</v>
@@ -14671,7 +14678,7 @@
         <v>496</v>
       </c>
     </row>
-    <row r="533" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="533" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A533" s="40">
         <v>42856</v>
       </c>
@@ -14691,7 +14698,7 @@
       <c r="J533" s="11"/>
       <c r="K533" s="20"/>
     </row>
-    <row r="534" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="534" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A534" s="40">
         <v>42887</v>
       </c>
@@ -14715,7 +14722,7 @@
         <v>497</v>
       </c>
     </row>
-    <row r="535" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="535" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A535" s="40">
         <v>42917</v>
       </c>
@@ -14741,7 +14748,7 @@
         <v>498</v>
       </c>
     </row>
-    <row r="536" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="536" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A536" s="40">
         <v>42948</v>
       </c>
@@ -14767,7 +14774,7 @@
         <v>499</v>
       </c>
     </row>
-    <row r="537" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="537" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A537" s="40"/>
       <c r="B537" s="20" t="s">
         <v>226</v>
@@ -14789,7 +14796,7 @@
         <v>500</v>
       </c>
     </row>
-    <row r="538" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="538" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A538" s="40"/>
       <c r="B538" s="20" t="s">
         <v>223</v>
@@ -14811,7 +14818,7 @@
         <v>501</v>
       </c>
     </row>
-    <row r="539" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="539" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A539" s="40">
         <v>42979</v>
       </c>
@@ -14831,7 +14838,7 @@
       <c r="J539" s="11"/>
       <c r="K539" s="20"/>
     </row>
-    <row r="540" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="540" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A540" s="40">
         <v>43009</v>
       </c>
@@ -14855,7 +14862,7 @@
         <v>504</v>
       </c>
     </row>
-    <row r="541" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="541" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A541" s="40"/>
       <c r="B541" s="20" t="s">
         <v>223</v>
@@ -14879,7 +14886,7 @@
         <v>505</v>
       </c>
     </row>
-    <row r="542" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="542" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A542" s="40">
         <v>43040</v>
       </c>
@@ -14903,7 +14910,7 @@
         <v>502</v>
       </c>
     </row>
-    <row r="543" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="543" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A543" s="40"/>
       <c r="B543" s="20" t="s">
         <v>223</v>
@@ -14927,7 +14934,7 @@
         <v>503</v>
       </c>
     </row>
-    <row r="544" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="544" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A544" s="40">
         <v>43070</v>
       </c>
@@ -14951,7 +14958,7 @@
         <v>506</v>
       </c>
     </row>
-    <row r="545" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="545" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A545" s="40"/>
       <c r="B545" s="20"/>
       <c r="C545" s="13">
@@ -14969,7 +14976,7 @@
       <c r="J545" s="11"/>
       <c r="K545" s="20"/>
     </row>
-    <row r="546" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="546" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A546" s="23" t="s">
         <v>507</v>
       </c>
@@ -14987,7 +14994,7 @@
       <c r="J546" s="11"/>
       <c r="K546" s="20"/>
     </row>
-    <row r="547" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="547" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A547" s="40">
         <v>43101</v>
       </c>
@@ -15013,7 +15020,7 @@
         <v>508</v>
       </c>
     </row>
-    <row r="548" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="548" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A548" s="40">
         <v>43132</v>
       </c>
@@ -15037,7 +15044,7 @@
         <v>510</v>
       </c>
     </row>
-    <row r="549" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="549" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A549" s="40"/>
       <c r="B549" s="20" t="s">
         <v>165</v>
@@ -15059,7 +15066,7 @@
         <v>511</v>
       </c>
     </row>
-    <row r="550" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="550" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A550" s="41">
         <v>43160</v>
       </c>
@@ -15079,7 +15086,7 @@
       <c r="J550" s="12"/>
       <c r="K550" s="15"/>
     </row>
-    <row r="551" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="551" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A551" s="40">
         <v>43191</v>
       </c>
@@ -15101,7 +15108,7 @@
         <v>512</v>
       </c>
     </row>
-    <row r="552" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="552" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A552" s="40"/>
       <c r="B552" s="20" t="s">
         <v>223</v>
@@ -15125,7 +15132,7 @@
         <v>513</v>
       </c>
     </row>
-    <row r="553" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="553" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A553" s="40">
         <v>43221</v>
       </c>
@@ -15147,7 +15154,7 @@
       <c r="J553" s="11"/>
       <c r="K553" s="20"/>
     </row>
-    <row r="554" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="554" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A554" s="40"/>
       <c r="B554" s="20" t="s">
         <v>223</v>
@@ -15169,7 +15176,7 @@
         <v>514</v>
       </c>
     </row>
-    <row r="555" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="555" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A555" s="40"/>
       <c r="B555" s="20" t="s">
         <v>223</v>
@@ -15191,7 +15198,7 @@
         <v>43286</v>
       </c>
     </row>
-    <row r="556" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="556" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A556" s="40">
         <v>43252</v>
       </c>
@@ -15211,7 +15218,7 @@
       <c r="J556" s="11"/>
       <c r="K556" s="20"/>
     </row>
-    <row r="557" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="557" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A557" s="40">
         <v>43282</v>
       </c>
@@ -15237,7 +15244,7 @@
         <v>515</v>
       </c>
     </row>
-    <row r="558" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="558" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A558" s="40">
         <v>43313</v>
       </c>
@@ -15257,7 +15264,7 @@
       <c r="J558" s="11"/>
       <c r="K558" s="20"/>
     </row>
-    <row r="559" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="559" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A559" s="40">
         <v>43344</v>
       </c>
@@ -15277,7 +15284,7 @@
       <c r="J559" s="11"/>
       <c r="K559" s="20"/>
     </row>
-    <row r="560" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="560" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A560" s="40">
         <v>43374</v>
       </c>
@@ -15299,7 +15306,7 @@
       <c r="J560" s="11"/>
       <c r="K560" s="20"/>
     </row>
-    <row r="561" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="561" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A561" s="40">
         <v>43405</v>
       </c>
@@ -15325,7 +15332,7 @@
         <v>43323</v>
       </c>
     </row>
-    <row r="562" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="562" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A562" s="40"/>
       <c r="B562" s="20" t="s">
         <v>223</v>
@@ -15347,7 +15354,7 @@
         <v>516</v>
       </c>
     </row>
-    <row r="563" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="563" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A563" s="40">
         <v>43435</v>
       </c>
@@ -15373,7 +15380,7 @@
         <v>517</v>
       </c>
     </row>
-    <row r="564" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="564" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A564" s="40"/>
       <c r="B564" s="20" t="s">
         <v>165</v>
@@ -15393,7 +15400,7 @@
         <v>518</v>
       </c>
     </row>
-    <row r="565" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="565" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A565" s="23" t="s">
         <v>519</v>
       </c>
@@ -15411,7 +15418,7 @@
       <c r="J565" s="11"/>
       <c r="K565" s="20"/>
     </row>
-    <row r="566" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="566" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A566" s="41">
         <v>43466</v>
       </c>
@@ -15433,7 +15440,7 @@
       <c r="J566" s="12"/>
       <c r="K566" s="15"/>
     </row>
-    <row r="567" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="567" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A567" s="40">
         <v>43497</v>
       </c>
@@ -15453,7 +15460,7 @@
       <c r="J567" s="11"/>
       <c r="K567" s="20"/>
     </row>
-    <row r="568" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="568" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A568" s="40">
         <v>43160</v>
       </c>
@@ -15473,7 +15480,7 @@
       <c r="J568" s="11"/>
       <c r="K568" s="20"/>
     </row>
-    <row r="569" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="569" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A569" s="40">
         <v>43556</v>
       </c>
@@ -15497,7 +15504,7 @@
         <v>520</v>
       </c>
     </row>
-    <row r="570" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="570" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A570" s="40"/>
       <c r="B570" s="20" t="s">
         <v>223</v>
@@ -15519,7 +15526,7 @@
         <v>521</v>
       </c>
     </row>
-    <row r="571" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="571" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A571" s="40">
         <v>43586</v>
       </c>
@@ -15543,7 +15550,7 @@
         <v>43529</v>
       </c>
     </row>
-    <row r="572" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="572" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A572" s="40">
         <v>43617</v>
       </c>
@@ -15569,7 +15576,7 @@
         <v>522</v>
       </c>
     </row>
-    <row r="573" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="573" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A573" s="40">
         <v>43647</v>
       </c>
@@ -15595,7 +15602,7 @@
         <v>523</v>
       </c>
     </row>
-    <row r="574" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="574" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A574" s="41"/>
       <c r="B574" s="15" t="s">
         <v>223</v>
@@ -15617,7 +15624,7 @@
         <v>43806</v>
       </c>
     </row>
-    <row r="575" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="575" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A575" s="40"/>
       <c r="B575" s="20" t="s">
         <v>223</v>
@@ -15639,7 +15646,7 @@
         <v>524</v>
       </c>
     </row>
-    <row r="576" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="576" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A576" s="40">
         <v>43678</v>
       </c>
@@ -15665,7 +15672,7 @@
         <v>525</v>
       </c>
     </row>
-    <row r="577" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="577" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A577" s="40">
         <v>43709</v>
       </c>
@@ -15691,7 +15698,7 @@
         <v>43505</v>
       </c>
     </row>
-    <row r="578" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="578" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A578" s="40">
         <v>43739</v>
       </c>
@@ -15711,7 +15718,7 @@
       <c r="J578" s="11"/>
       <c r="K578" s="20"/>
     </row>
-    <row r="579" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="579" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A579" s="40">
         <v>43770</v>
       </c>
@@ -15737,7 +15744,7 @@
         <v>526</v>
       </c>
     </row>
-    <row r="580" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="580" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A580" s="40">
         <v>43800</v>
       </c>
@@ -15761,7 +15768,7 @@
       <c r="J580" s="11"/>
       <c r="K580" s="20"/>
     </row>
-    <row r="581" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="581" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A581" s="23" t="s">
         <v>528</v>
       </c>
@@ -15779,7 +15786,7 @@
       <c r="J581" s="11"/>
       <c r="K581" s="20"/>
     </row>
-    <row r="582" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="582" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A582" s="40">
         <v>43831</v>
       </c>
@@ -15803,7 +15810,7 @@
         <v>530</v>
       </c>
     </row>
-    <row r="583" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="583" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A583" s="40"/>
       <c r="B583" s="20" t="s">
         <v>409</v>
@@ -15823,7 +15830,7 @@
         <v>531</v>
       </c>
     </row>
-    <row r="584" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="584" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A584" s="40">
         <v>43862</v>
       </c>
@@ -15843,7 +15850,7 @@
       <c r="J584" s="11"/>
       <c r="K584" s="20"/>
     </row>
-    <row r="585" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="585" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A585" s="40">
         <v>43891</v>
       </c>
@@ -15863,7 +15870,7 @@
       <c r="J585" s="11"/>
       <c r="K585" s="20"/>
     </row>
-    <row r="586" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="586" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A586" s="41">
         <v>43922</v>
       </c>
@@ -15883,7 +15890,7 @@
       <c r="J586" s="12"/>
       <c r="K586" s="15"/>
     </row>
-    <row r="587" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="587" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A587" s="40">
         <v>43952</v>
       </c>
@@ -15907,7 +15914,7 @@
         <v>532</v>
       </c>
     </row>
-    <row r="588" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="588" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A588" s="40">
         <v>43983</v>
       </c>
@@ -15927,7 +15934,7 @@
       <c r="J588" s="11"/>
       <c r="K588" s="20"/>
     </row>
-    <row r="589" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="589" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A589" s="40">
         <v>44013</v>
       </c>
@@ -15947,7 +15954,7 @@
       <c r="J589" s="11"/>
       <c r="K589" s="20"/>
     </row>
-    <row r="590" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="590" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A590" s="40">
         <v>44044</v>
       </c>
@@ -15971,7 +15978,7 @@
         <v>43839</v>
       </c>
     </row>
-    <row r="591" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="591" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A591" s="40">
         <v>44075</v>
       </c>
@@ -15993,7 +16000,7 @@
       <c r="J591" s="11"/>
       <c r="K591" s="20"/>
     </row>
-    <row r="592" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="592" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A592" s="40">
         <v>44105</v>
       </c>
@@ -16017,7 +16024,7 @@
         <v>534</v>
       </c>
     </row>
-    <row r="593" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="593" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A593" s="40"/>
       <c r="B593" s="20" t="s">
         <v>292</v>
@@ -16039,7 +16046,7 @@
         <v>535</v>
       </c>
     </row>
-    <row r="594" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="594" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A594" s="40">
         <v>44136</v>
       </c>
@@ -16059,7 +16066,7 @@
       <c r="J594" s="11"/>
       <c r="K594" s="20"/>
     </row>
-    <row r="595" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="595" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A595" s="40">
         <v>44166</v>
       </c>
@@ -16083,7 +16090,7 @@
         <v>536</v>
       </c>
     </row>
-    <row r="596" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="596" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A596" s="41"/>
       <c r="B596" s="15" t="s">
         <v>451</v>
@@ -16105,7 +16112,7 @@
         <v>537</v>
       </c>
     </row>
-    <row r="597" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="597" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A597" s="40"/>
       <c r="B597" s="20" t="s">
         <v>334</v>
@@ -16129,7 +16136,7 @@
         <v>538</v>
       </c>
     </row>
-    <row r="598" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="598" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A598" s="48" t="s">
         <v>539</v>
       </c>
@@ -16147,7 +16154,7 @@
       <c r="J598" s="11"/>
       <c r="K598" s="20"/>
     </row>
-    <row r="599" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="599" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A599" s="40">
         <v>44197</v>
       </c>
@@ -16173,7 +16180,7 @@
         <v>44531</v>
       </c>
     </row>
-    <row r="600" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="600" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A600" s="40">
         <v>44228</v>
       </c>
@@ -16197,7 +16204,7 @@
         <v>44229</v>
       </c>
     </row>
-    <row r="601" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="601" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A601" s="40"/>
       <c r="B601" s="20" t="s">
         <v>451</v>
@@ -16221,7 +16228,7 @@
         <v>540</v>
       </c>
     </row>
-    <row r="602" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="602" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A602" s="40">
         <v>44256</v>
       </c>
@@ -16247,7 +16254,7 @@
         <v>541</v>
       </c>
     </row>
-    <row r="603" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="603" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A603" s="40">
         <v>44287</v>
       </c>
@@ -16271,7 +16278,7 @@
         <v>44381</v>
       </c>
     </row>
-    <row r="604" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="604" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A604" s="40">
         <v>44317</v>
       </c>
@@ -16291,7 +16298,7 @@
       <c r="J604" s="11"/>
       <c r="K604" s="20"/>
     </row>
-    <row r="605" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="605" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A605" s="40">
         <v>44348</v>
       </c>
@@ -16315,7 +16322,7 @@
         <v>543</v>
       </c>
     </row>
-    <row r="606" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="606" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A606" s="40"/>
       <c r="B606" s="20" t="s">
         <v>226</v>
@@ -16339,7 +16346,7 @@
         <v>544</v>
       </c>
     </row>
-    <row r="607" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="607" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A607" s="40">
         <v>44378</v>
       </c>
@@ -16363,7 +16370,7 @@
         <v>545</v>
       </c>
     </row>
-    <row r="608" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="608" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A608" s="40"/>
       <c r="B608" s="20" t="s">
         <v>223</v>
@@ -16387,7 +16394,7 @@
         <v>44446</v>
       </c>
     </row>
-    <row r="609" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="609" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A609" s="40">
         <v>44409</v>
       </c>
@@ -16407,7 +16414,7 @@
       <c r="J609" s="11"/>
       <c r="K609" s="20"/>
     </row>
-    <row r="610" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="610" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A610" s="40">
         <v>44440</v>
       </c>
@@ -16427,7 +16434,7 @@
       <c r="J610" s="11"/>
       <c r="K610" s="20"/>
     </row>
-    <row r="611" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="611" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A611" s="40">
         <v>44470</v>
       </c>
@@ -16447,7 +16454,7 @@
       <c r="J611" s="11"/>
       <c r="K611" s="20"/>
     </row>
-    <row r="612" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="612" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A612" s="40">
         <v>44501</v>
       </c>
@@ -16467,7 +16474,7 @@
       <c r="J612" s="11"/>
       <c r="K612" s="20"/>
     </row>
-    <row r="613" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="613" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A613" s="40">
         <v>44531</v>
       </c>
@@ -16487,7 +16494,7 @@
       <c r="J613" s="11"/>
       <c r="K613" s="20"/>
     </row>
-    <row r="614" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="614" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A614" s="54" t="s">
         <v>546</v>
       </c>
@@ -16505,7 +16512,7 @@
       <c r="J614" s="12"/>
       <c r="K614" s="15"/>
     </row>
-    <row r="615" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="615" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A615" s="40">
         <v>44562</v>
       </c>
@@ -16525,7 +16532,7 @@
       <c r="J615" s="11"/>
       <c r="K615" s="20"/>
     </row>
-    <row r="616" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="616" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A616" s="40">
         <v>44593</v>
       </c>
@@ -16549,7 +16556,7 @@
         <v>547</v>
       </c>
     </row>
-    <row r="617" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="617" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A617" s="40"/>
       <c r="B617" s="20" t="s">
         <v>165</v>
@@ -16571,7 +16578,7 @@
         <v>548</v>
       </c>
     </row>
-    <row r="618" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="618" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A618" s="40">
         <v>44621</v>
       </c>
@@ -16595,7 +16602,7 @@
         <v>549</v>
       </c>
     </row>
-    <row r="619" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="619" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A619" s="40"/>
       <c r="B619" s="20" t="s">
         <v>223</v>
@@ -16619,7 +16626,7 @@
         <v>550</v>
       </c>
     </row>
-    <row r="620" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="620" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A620" s="40">
         <v>44652</v>
       </c>
@@ -16645,7 +16652,7 @@
         <v>551</v>
       </c>
     </row>
-    <row r="621" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="621" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A621" s="40">
         <v>44682</v>
       </c>
@@ -16665,7 +16672,7 @@
       <c r="J621" s="11"/>
       <c r="K621" s="20"/>
     </row>
-    <row r="622" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="622" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A622" s="40">
         <v>44713</v>
       </c>
@@ -16691,7 +16698,7 @@
         <v>552</v>
       </c>
     </row>
-    <row r="623" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="623" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A623" s="40"/>
       <c r="B623" s="20" t="s">
         <v>223</v>
@@ -16713,7 +16720,7 @@
         <v>553</v>
       </c>
     </row>
-    <row r="624" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="624" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A624" s="40">
         <v>44743</v>
       </c>
@@ -16735,7 +16742,7 @@
         <v>553</v>
       </c>
     </row>
-    <row r="625" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="625" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A625" s="40">
         <v>44774</v>
       </c>
@@ -16755,7 +16762,7 @@
       <c r="J625" s="11"/>
       <c r="K625" s="20"/>
     </row>
-    <row r="626" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="626" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A626" s="40">
         <v>44805</v>
       </c>
@@ -16781,7 +16788,7 @@
         <v>44811</v>
       </c>
     </row>
-    <row r="627" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="627" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A627" s="40">
         <v>44835</v>
       </c>
@@ -16807,7 +16814,7 @@
         <v>44838</v>
       </c>
     </row>
-    <row r="628" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="628" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A628" s="40">
         <v>44866</v>
       </c>
@@ -16827,7 +16834,7 @@
       <c r="J628" s="11"/>
       <c r="K628" s="20"/>
     </row>
-    <row r="629" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="629" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A629" s="40">
         <v>44896</v>
       </c>
@@ -16853,7 +16860,7 @@
         <v>44896</v>
       </c>
     </row>
-    <row r="630" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="630" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A630" s="41"/>
       <c r="B630" s="15" t="s">
         <v>53</v>
@@ -16875,7 +16882,7 @@
         <v>44914</v>
       </c>
     </row>
-    <row r="631" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="631" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A631" s="41"/>
       <c r="B631" s="15" t="s">
         <v>57</v>
@@ -16897,7 +16904,7 @@
         <v>559</v>
       </c>
     </row>
-    <row r="632" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="632" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A632" s="54" t="s">
         <v>557</v>
       </c>
@@ -16915,7 +16922,7 @@
       <c r="J632" s="12"/>
       <c r="K632" s="15"/>
     </row>
-    <row r="633" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="633" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A633" s="40">
         <v>44927</v>
       </c>
@@ -16935,12 +16942,12 @@
       <c r="J633" s="11"/>
       <c r="K633" s="20"/>
     </row>
-    <row r="634" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="634" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A634" s="40">
         <v>44958</v>
       </c>
       <c r="B634" s="20" t="s">
-        <v>334</v>
+        <v>118</v>
       </c>
       <c r="C634" s="13">
         <v>1.25</v>
@@ -16961,29 +16968,37 @@
         <v>560</v>
       </c>
     </row>
-    <row r="635" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="635" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A635" s="40">
         <v>44986</v>
       </c>
-      <c r="B635" s="20"/>
-      <c r="C635" s="13"/>
-      <c r="D635" s="39"/>
+      <c r="B635" s="20" t="s">
+        <v>64</v>
+      </c>
+      <c r="C635" s="13">
+        <v>1.25</v>
+      </c>
+      <c r="D635" s="39">
+        <v>2</v>
+      </c>
       <c r="E635" s="9"/>
       <c r="F635" s="20"/>
-      <c r="G635" s="13" t="str">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v/>
+      <c r="G635" s="13">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v>1.25</v>
       </c>
       <c r="H635" s="39"/>
       <c r="I635" s="9"/>
       <c r="J635" s="11"/>
-      <c r="K635" s="20"/>
-    </row>
-    <row r="636" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A636" s="40">
-        <v>45017</v>
-      </c>
-      <c r="B636" s="15"/>
+      <c r="K635" s="20" t="s">
+        <v>561</v>
+      </c>
+    </row>
+    <row r="636" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A636" s="40"/>
+      <c r="B636" s="15" t="s">
+        <v>562</v>
+      </c>
       <c r="C636" s="42"/>
       <c r="D636" s="43"/>
       <c r="E636" s="9"/>
@@ -16995,29 +17010,31 @@
       <c r="H636" s="43"/>
       <c r="I636" s="9"/>
       <c r="J636" s="12"/>
-      <c r="K636" s="15"/>
-    </row>
-    <row r="637" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="K636" s="15" t="s">
+        <v>563</v>
+      </c>
+    </row>
+    <row r="637" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A637" s="40">
+        <v>45017</v>
+      </c>
+      <c r="B637" s="15"/>
+      <c r="C637" s="42"/>
+      <c r="D637" s="43"/>
+      <c r="E637" s="9"/>
+      <c r="F637" s="15"/>
+      <c r="G637" s="42" t="str">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v/>
+      </c>
+      <c r="H637" s="43"/>
+      <c r="I637" s="9"/>
+      <c r="J637" s="12"/>
+      <c r="K637" s="15"/>
+    </row>
+    <row r="638" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A638" s="40">
         <v>45047</v>
-      </c>
-      <c r="B637" s="20"/>
-      <c r="C637" s="13"/>
-      <c r="D637" s="39"/>
-      <c r="E637" s="9"/>
-      <c r="F637" s="20"/>
-      <c r="G637" s="13" t="str">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v/>
-      </c>
-      <c r="H637" s="39"/>
-      <c r="I637" s="9"/>
-      <c r="J637" s="11"/>
-      <c r="K637" s="20"/>
-    </row>
-    <row r="638" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A638" s="40">
-        <v>45078</v>
       </c>
       <c r="B638" s="20"/>
       <c r="C638" s="13"/>
@@ -17033,9 +17050,9 @@
       <c r="J638" s="11"/>
       <c r="K638" s="20"/>
     </row>
-    <row r="639" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="639" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A639" s="40">
-        <v>45108</v>
+        <v>45078</v>
       </c>
       <c r="B639" s="20"/>
       <c r="C639" s="13"/>
@@ -17051,9 +17068,9 @@
       <c r="J639" s="11"/>
       <c r="K639" s="20"/>
     </row>
-    <row r="640" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="640" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A640" s="40">
-        <v>45139</v>
+        <v>45108</v>
       </c>
       <c r="B640" s="20"/>
       <c r="C640" s="13"/>
@@ -17069,9 +17086,9 @@
       <c r="J640" s="11"/>
       <c r="K640" s="20"/>
     </row>
-    <row r="641" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="641" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A641" s="40">
-        <v>45170</v>
+        <v>45139</v>
       </c>
       <c r="B641" s="20"/>
       <c r="C641" s="13"/>
@@ -17087,9 +17104,9 @@
       <c r="J641" s="11"/>
       <c r="K641" s="20"/>
     </row>
-    <row r="642" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="642" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A642" s="40">
-        <v>45200</v>
+        <v>45170</v>
       </c>
       <c r="B642" s="20"/>
       <c r="C642" s="13"/>
@@ -17105,9 +17122,9 @@
       <c r="J642" s="11"/>
       <c r="K642" s="20"/>
     </row>
-    <row r="643" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="643" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A643" s="40">
-        <v>45231</v>
+        <v>45200</v>
       </c>
       <c r="B643" s="20"/>
       <c r="C643" s="13"/>
@@ -17123,9 +17140,9 @@
       <c r="J643" s="11"/>
       <c r="K643" s="20"/>
     </row>
-    <row r="644" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="644" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A644" s="40">
-        <v>45261</v>
+        <v>45231</v>
       </c>
       <c r="B644" s="20"/>
       <c r="C644" s="13"/>
@@ -17141,9 +17158,9 @@
       <c r="J644" s="11"/>
       <c r="K644" s="20"/>
     </row>
-    <row r="645" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="645" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A645" s="40">
-        <v>45292</v>
+        <v>45261</v>
       </c>
       <c r="B645" s="20"/>
       <c r="C645" s="13"/>
@@ -17159,9 +17176,9 @@
       <c r="J645" s="11"/>
       <c r="K645" s="20"/>
     </row>
-    <row r="646" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="646" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A646" s="40">
-        <v>45323</v>
+        <v>45292</v>
       </c>
       <c r="B646" s="20"/>
       <c r="C646" s="13"/>
@@ -17177,9 +17194,9 @@
       <c r="J646" s="11"/>
       <c r="K646" s="20"/>
     </row>
-    <row r="647" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="647" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A647" s="40">
-        <v>45352</v>
+        <v>45323</v>
       </c>
       <c r="B647" s="20"/>
       <c r="C647" s="13"/>
@@ -17195,9 +17212,9 @@
       <c r="J647" s="11"/>
       <c r="K647" s="20"/>
     </row>
-    <row r="648" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="648" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A648" s="40">
-        <v>45383</v>
+        <v>45352</v>
       </c>
       <c r="B648" s="20"/>
       <c r="C648" s="13"/>
@@ -17213,9 +17230,9 @@
       <c r="J648" s="11"/>
       <c r="K648" s="20"/>
     </row>
-    <row r="649" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="649" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A649" s="40">
-        <v>45413</v>
+        <v>45383</v>
       </c>
       <c r="B649" s="20"/>
       <c r="C649" s="13"/>
@@ -17231,9 +17248,9 @@
       <c r="J649" s="11"/>
       <c r="K649" s="20"/>
     </row>
-    <row r="650" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="650" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A650" s="40">
-        <v>45444</v>
+        <v>45413</v>
       </c>
       <c r="B650" s="20"/>
       <c r="C650" s="13"/>
@@ -17249,9 +17266,9 @@
       <c r="J650" s="11"/>
       <c r="K650" s="20"/>
     </row>
-    <row r="651" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="651" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A651" s="40">
-        <v>45474</v>
+        <v>45444</v>
       </c>
       <c r="B651" s="20"/>
       <c r="C651" s="13"/>
@@ -17267,9 +17284,9 @@
       <c r="J651" s="11"/>
       <c r="K651" s="20"/>
     </row>
-    <row r="652" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="652" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A652" s="40">
-        <v>45505</v>
+        <v>45474</v>
       </c>
       <c r="B652" s="20"/>
       <c r="C652" s="13"/>
@@ -17285,9 +17302,9 @@
       <c r="J652" s="11"/>
       <c r="K652" s="20"/>
     </row>
-    <row r="653" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="653" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A653" s="40">
-        <v>45536</v>
+        <v>45505</v>
       </c>
       <c r="B653" s="20"/>
       <c r="C653" s="13"/>
@@ -17303,9 +17320,9 @@
       <c r="J653" s="11"/>
       <c r="K653" s="20"/>
     </row>
-    <row r="654" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="654" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A654" s="40">
-        <v>45566</v>
+        <v>45536</v>
       </c>
       <c r="B654" s="20"/>
       <c r="C654" s="13"/>
@@ -17321,9 +17338,9 @@
       <c r="J654" s="11"/>
       <c r="K654" s="20"/>
     </row>
-    <row r="655" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="655" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A655" s="40">
-        <v>45597</v>
+        <v>45566</v>
       </c>
       <c r="B655" s="20"/>
       <c r="C655" s="13"/>
@@ -17339,9 +17356,9 @@
       <c r="J655" s="11"/>
       <c r="K655" s="20"/>
     </row>
-    <row r="656" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="656" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A656" s="40">
-        <v>45627</v>
+        <v>45597</v>
       </c>
       <c r="B656" s="20"/>
       <c r="C656" s="13"/>
@@ -17357,9 +17374,9 @@
       <c r="J656" s="11"/>
       <c r="K656" s="20"/>
     </row>
-    <row r="657" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="657" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A657" s="40">
-        <v>45658</v>
+        <v>45627</v>
       </c>
       <c r="B657" s="20"/>
       <c r="C657" s="13"/>
@@ -17375,9 +17392,9 @@
       <c r="J657" s="11"/>
       <c r="K657" s="20"/>
     </row>
-    <row r="658" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="658" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A658" s="40">
-        <v>45689</v>
+        <v>45658</v>
       </c>
       <c r="B658" s="20"/>
       <c r="C658" s="13"/>
@@ -17393,9 +17410,9 @@
       <c r="J658" s="11"/>
       <c r="K658" s="20"/>
     </row>
-    <row r="659" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="659" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A659" s="40">
-        <v>45717</v>
+        <v>45689</v>
       </c>
       <c r="B659" s="20"/>
       <c r="C659" s="13"/>
@@ -17411,9 +17428,9 @@
       <c r="J659" s="11"/>
       <c r="K659" s="20"/>
     </row>
-    <row r="660" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="660" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A660" s="40">
-        <v>45748</v>
+        <v>45717</v>
       </c>
       <c r="B660" s="20"/>
       <c r="C660" s="13"/>
@@ -17429,9 +17446,9 @@
       <c r="J660" s="11"/>
       <c r="K660" s="20"/>
     </row>
-    <row r="661" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="661" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A661" s="40">
-        <v>45778</v>
+        <v>45748</v>
       </c>
       <c r="B661" s="20"/>
       <c r="C661" s="13"/>
@@ -17447,9 +17464,9 @@
       <c r="J661" s="11"/>
       <c r="K661" s="20"/>
     </row>
-    <row r="662" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="662" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A662" s="40">
-        <v>45809</v>
+        <v>45778</v>
       </c>
       <c r="B662" s="20"/>
       <c r="C662" s="13"/>
@@ -17465,9 +17482,9 @@
       <c r="J662" s="11"/>
       <c r="K662" s="20"/>
     </row>
-    <row r="663" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="663" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A663" s="40">
-        <v>45839</v>
+        <v>45809</v>
       </c>
       <c r="B663" s="20"/>
       <c r="C663" s="13"/>
@@ -17483,9 +17500,9 @@
       <c r="J663" s="11"/>
       <c r="K663" s="20"/>
     </row>
-    <row r="664" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="664" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A664" s="40">
-        <v>45870</v>
+        <v>45839</v>
       </c>
       <c r="B664" s="20"/>
       <c r="C664" s="13"/>
@@ -17501,9 +17518,9 @@
       <c r="J664" s="11"/>
       <c r="K664" s="20"/>
     </row>
-    <row r="665" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="665" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A665" s="40">
-        <v>45901</v>
+        <v>45870</v>
       </c>
       <c r="B665" s="20"/>
       <c r="C665" s="13"/>
@@ -17519,9 +17536,9 @@
       <c r="J665" s="11"/>
       <c r="K665" s="20"/>
     </row>
-    <row r="666" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="666" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A666" s="40">
-        <v>45931</v>
+        <v>45901</v>
       </c>
       <c r="B666" s="20"/>
       <c r="C666" s="13"/>
@@ -17537,9 +17554,9 @@
       <c r="J666" s="11"/>
       <c r="K666" s="20"/>
     </row>
-    <row r="667" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="667" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A667" s="40">
-        <v>45962</v>
+        <v>45931</v>
       </c>
       <c r="B667" s="20"/>
       <c r="C667" s="13"/>
@@ -17555,9 +17572,9 @@
       <c r="J667" s="11"/>
       <c r="K667" s="20"/>
     </row>
-    <row r="668" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="668" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A668" s="40">
-        <v>45992</v>
+        <v>45962</v>
       </c>
       <c r="B668" s="20"/>
       <c r="C668" s="13"/>
@@ -17573,9 +17590,9 @@
       <c r="J668" s="11"/>
       <c r="K668" s="20"/>
     </row>
-    <row r="669" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="669" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A669" s="40">
-        <v>46023</v>
+        <v>45992</v>
       </c>
       <c r="B669" s="20"/>
       <c r="C669" s="13"/>
@@ -17591,9 +17608,9 @@
       <c r="J669" s="11"/>
       <c r="K669" s="20"/>
     </row>
-    <row r="670" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="670" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A670" s="40">
-        <v>46054</v>
+        <v>46023</v>
       </c>
       <c r="B670" s="20"/>
       <c r="C670" s="13"/>
@@ -17609,9 +17626,9 @@
       <c r="J670" s="11"/>
       <c r="K670" s="20"/>
     </row>
-    <row r="671" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="671" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A671" s="40">
-        <v>46082</v>
+        <v>46054</v>
       </c>
       <c r="B671" s="20"/>
       <c r="C671" s="13"/>
@@ -17627,9 +17644,9 @@
       <c r="J671" s="11"/>
       <c r="K671" s="20"/>
     </row>
-    <row r="672" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="672" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A672" s="40">
-        <v>46113</v>
+        <v>46082</v>
       </c>
       <c r="B672" s="20"/>
       <c r="C672" s="13"/>
@@ -17645,9 +17662,9 @@
       <c r="J672" s="11"/>
       <c r="K672" s="20"/>
     </row>
-    <row r="673" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="673" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A673" s="40">
-        <v>46143</v>
+        <v>46113</v>
       </c>
       <c r="B673" s="20"/>
       <c r="C673" s="13"/>
@@ -17663,9 +17680,9 @@
       <c r="J673" s="11"/>
       <c r="K673" s="20"/>
     </row>
-    <row r="674" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="674" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A674" s="40">
-        <v>46174</v>
+        <v>46143</v>
       </c>
       <c r="B674" s="20"/>
       <c r="C674" s="13"/>
@@ -17681,9 +17698,9 @@
       <c r="J674" s="11"/>
       <c r="K674" s="20"/>
     </row>
-    <row r="675" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="675" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A675" s="40">
-        <v>46204</v>
+        <v>46174</v>
       </c>
       <c r="B675" s="20"/>
       <c r="C675" s="13"/>
@@ -17699,9 +17716,9 @@
       <c r="J675" s="11"/>
       <c r="K675" s="20"/>
     </row>
-    <row r="676" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="676" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A676" s="40">
-        <v>46235</v>
+        <v>46204</v>
       </c>
       <c r="B676" s="20"/>
       <c r="C676" s="13"/>
@@ -17717,9 +17734,9 @@
       <c r="J676" s="11"/>
       <c r="K676" s="20"/>
     </row>
-    <row r="677" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="677" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A677" s="40">
-        <v>46266</v>
+        <v>46235</v>
       </c>
       <c r="B677" s="20"/>
       <c r="C677" s="13"/>
@@ -17735,9 +17752,9 @@
       <c r="J677" s="11"/>
       <c r="K677" s="20"/>
     </row>
-    <row r="678" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="678" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A678" s="40">
-        <v>46296</v>
+        <v>46266</v>
       </c>
       <c r="B678" s="20"/>
       <c r="C678" s="13"/>
@@ -17753,9 +17770,9 @@
       <c r="J678" s="11"/>
       <c r="K678" s="20"/>
     </row>
-    <row r="679" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="679" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A679" s="40">
-        <v>46327</v>
+        <v>46296</v>
       </c>
       <c r="B679" s="20"/>
       <c r="C679" s="13"/>
@@ -17771,9 +17788,9 @@
       <c r="J679" s="11"/>
       <c r="K679" s="20"/>
     </row>
-    <row r="680" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="680" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A680" s="40">
-        <v>46357</v>
+        <v>46327</v>
       </c>
       <c r="B680" s="20"/>
       <c r="C680" s="13"/>
@@ -17789,9 +17806,9 @@
       <c r="J680" s="11"/>
       <c r="K680" s="20"/>
     </row>
-    <row r="681" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="681" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A681" s="40">
-        <v>46388</v>
+        <v>46357</v>
       </c>
       <c r="B681" s="20"/>
       <c r="C681" s="13"/>
@@ -17807,9 +17824,9 @@
       <c r="J681" s="11"/>
       <c r="K681" s="20"/>
     </row>
-    <row r="682" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="682" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A682" s="40">
-        <v>46419</v>
+        <v>46388</v>
       </c>
       <c r="B682" s="20"/>
       <c r="C682" s="13"/>
@@ -17825,9 +17842,9 @@
       <c r="J682" s="11"/>
       <c r="K682" s="20"/>
     </row>
-    <row r="683" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="683" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A683" s="40">
-        <v>46447</v>
+        <v>46419</v>
       </c>
       <c r="B683" s="20"/>
       <c r="C683" s="13"/>
@@ -17843,9 +17860,9 @@
       <c r="J683" s="11"/>
       <c r="K683" s="20"/>
     </row>
-    <row r="684" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="684" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A684" s="40">
-        <v>46478</v>
+        <v>46447</v>
       </c>
       <c r="B684" s="20"/>
       <c r="C684" s="13"/>
@@ -17861,9 +17878,9 @@
       <c r="J684" s="11"/>
       <c r="K684" s="20"/>
     </row>
-    <row r="685" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="685" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A685" s="40">
-        <v>46508</v>
+        <v>46478</v>
       </c>
       <c r="B685" s="20"/>
       <c r="C685" s="13"/>
@@ -17879,9 +17896,9 @@
       <c r="J685" s="11"/>
       <c r="K685" s="20"/>
     </row>
-    <row r="686" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="686" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A686" s="40">
-        <v>46539</v>
+        <v>46508</v>
       </c>
       <c r="B686" s="20"/>
       <c r="C686" s="13"/>
@@ -17897,9 +17914,9 @@
       <c r="J686" s="11"/>
       <c r="K686" s="20"/>
     </row>
-    <row r="687" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="687" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A687" s="40">
-        <v>46569</v>
+        <v>46539</v>
       </c>
       <c r="B687" s="20"/>
       <c r="C687" s="13"/>
@@ -17915,9 +17932,9 @@
       <c r="J687" s="11"/>
       <c r="K687" s="20"/>
     </row>
-    <row r="688" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="688" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A688" s="40">
-        <v>46600</v>
+        <v>46569</v>
       </c>
       <c r="B688" s="20"/>
       <c r="C688" s="13"/>
@@ -17933,9 +17950,9 @@
       <c r="J688" s="11"/>
       <c r="K688" s="20"/>
     </row>
-    <row r="689" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="689" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A689" s="40">
-        <v>46631</v>
+        <v>46600</v>
       </c>
       <c r="B689" s="20"/>
       <c r="C689" s="13"/>
@@ -17951,9 +17968,9 @@
       <c r="J689" s="11"/>
       <c r="K689" s="20"/>
     </row>
-    <row r="690" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="690" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A690" s="40">
-        <v>46661</v>
+        <v>46631</v>
       </c>
       <c r="B690" s="20"/>
       <c r="C690" s="13"/>
@@ -17969,9 +17986,9 @@
       <c r="J690" s="11"/>
       <c r="K690" s="20"/>
     </row>
-    <row r="691" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="691" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A691" s="40">
-        <v>46692</v>
+        <v>46661</v>
       </c>
       <c r="B691" s="20"/>
       <c r="C691" s="13"/>
@@ -17987,9 +18004,9 @@
       <c r="J691" s="11"/>
       <c r="K691" s="20"/>
     </row>
-    <row r="692" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="692" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A692" s="40">
-        <v>46722</v>
+        <v>46692</v>
       </c>
       <c r="B692" s="20"/>
       <c r="C692" s="13"/>
@@ -18005,9 +18022,9 @@
       <c r="J692" s="11"/>
       <c r="K692" s="20"/>
     </row>
-    <row r="693" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="693" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A693" s="40">
-        <v>46753</v>
+        <v>46722</v>
       </c>
       <c r="B693" s="20"/>
       <c r="C693" s="13"/>
@@ -18023,9 +18040,9 @@
       <c r="J693" s="11"/>
       <c r="K693" s="20"/>
     </row>
-    <row r="694" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="694" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A694" s="40">
-        <v>46784</v>
+        <v>46753</v>
       </c>
       <c r="B694" s="20"/>
       <c r="C694" s="13"/>
@@ -18041,9 +18058,9 @@
       <c r="J694" s="11"/>
       <c r="K694" s="20"/>
     </row>
-    <row r="695" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="695" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A695" s="40">
-        <v>46813</v>
+        <v>46784</v>
       </c>
       <c r="B695" s="20"/>
       <c r="C695" s="13"/>
@@ -18059,9 +18076,9 @@
       <c r="J695" s="11"/>
       <c r="K695" s="20"/>
     </row>
-    <row r="696" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="696" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A696" s="40">
-        <v>46844</v>
+        <v>46813</v>
       </c>
       <c r="B696" s="20"/>
       <c r="C696" s="13"/>
@@ -18077,9 +18094,9 @@
       <c r="J696" s="11"/>
       <c r="K696" s="20"/>
     </row>
-    <row r="697" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="697" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A697" s="40">
-        <v>46874</v>
+        <v>46844</v>
       </c>
       <c r="B697" s="20"/>
       <c r="C697" s="13"/>
@@ -18095,9 +18112,9 @@
       <c r="J697" s="11"/>
       <c r="K697" s="20"/>
     </row>
-    <row r="698" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="698" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A698" s="40">
-        <v>46905</v>
+        <v>46874</v>
       </c>
       <c r="B698" s="20"/>
       <c r="C698" s="13"/>
@@ -18113,9 +18130,9 @@
       <c r="J698" s="11"/>
       <c r="K698" s="20"/>
     </row>
-    <row r="699" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="699" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A699" s="40">
-        <v>46935</v>
+        <v>46905</v>
       </c>
       <c r="B699" s="20"/>
       <c r="C699" s="13"/>
@@ -18131,9 +18148,9 @@
       <c r="J699" s="11"/>
       <c r="K699" s="20"/>
     </row>
-    <row r="700" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="700" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A700" s="40">
-        <v>46966</v>
+        <v>46935</v>
       </c>
       <c r="B700" s="20"/>
       <c r="C700" s="13"/>
@@ -18149,9 +18166,9 @@
       <c r="J700" s="11"/>
       <c r="K700" s="20"/>
     </row>
-    <row r="701" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="701" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A701" s="40">
-        <v>46997</v>
+        <v>46966</v>
       </c>
       <c r="B701" s="20"/>
       <c r="C701" s="13"/>
@@ -18167,9 +18184,9 @@
       <c r="J701" s="11"/>
       <c r="K701" s="20"/>
     </row>
-    <row r="702" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="702" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A702" s="40">
-        <v>47027</v>
+        <v>46997</v>
       </c>
       <c r="B702" s="20"/>
       <c r="C702" s="13"/>
@@ -18185,9 +18202,9 @@
       <c r="J702" s="11"/>
       <c r="K702" s="20"/>
     </row>
-    <row r="703" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="703" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A703" s="40">
-        <v>47058</v>
+        <v>47027</v>
       </c>
       <c r="B703" s="20"/>
       <c r="C703" s="13"/>
@@ -18203,9 +18220,9 @@
       <c r="J703" s="11"/>
       <c r="K703" s="20"/>
     </row>
-    <row r="704" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="704" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A704" s="40">
-        <v>47088</v>
+        <v>47058</v>
       </c>
       <c r="B704" s="20"/>
       <c r="C704" s="13"/>
@@ -18221,9 +18238,9 @@
       <c r="J704" s="11"/>
       <c r="K704" s="20"/>
     </row>
-    <row r="705" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="705" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A705" s="40">
-        <v>47119</v>
+        <v>47088</v>
       </c>
       <c r="B705" s="20"/>
       <c r="C705" s="13"/>
@@ -18239,9 +18256,9 @@
       <c r="J705" s="11"/>
       <c r="K705" s="20"/>
     </row>
-    <row r="706" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="706" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A706" s="40">
-        <v>47150</v>
+        <v>47119</v>
       </c>
       <c r="B706" s="20"/>
       <c r="C706" s="13"/>
@@ -18257,9 +18274,9 @@
       <c r="J706" s="11"/>
       <c r="K706" s="20"/>
     </row>
-    <row r="707" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="707" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A707" s="40">
-        <v>47178</v>
+        <v>47150</v>
       </c>
       <c r="B707" s="20"/>
       <c r="C707" s="13"/>
@@ -18275,9 +18292,9 @@
       <c r="J707" s="11"/>
       <c r="K707" s="20"/>
     </row>
-    <row r="708" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="708" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A708" s="40">
-        <v>47209</v>
+        <v>47178</v>
       </c>
       <c r="B708" s="20"/>
       <c r="C708" s="13"/>
@@ -18293,9 +18310,9 @@
       <c r="J708" s="11"/>
       <c r="K708" s="20"/>
     </row>
-    <row r="709" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="709" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A709" s="40">
-        <v>47239</v>
+        <v>47209</v>
       </c>
       <c r="B709" s="20"/>
       <c r="C709" s="13"/>
@@ -18311,9 +18328,9 @@
       <c r="J709" s="11"/>
       <c r="K709" s="20"/>
     </row>
-    <row r="710" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="710" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A710" s="40">
-        <v>47270</v>
+        <v>47239</v>
       </c>
       <c r="B710" s="20"/>
       <c r="C710" s="13"/>
@@ -18329,9 +18346,9 @@
       <c r="J710" s="11"/>
       <c r="K710" s="20"/>
     </row>
-    <row r="711" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="711" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A711" s="40">
-        <v>47300</v>
+        <v>47270</v>
       </c>
       <c r="B711" s="20"/>
       <c r="C711" s="13"/>
@@ -18347,9 +18364,9 @@
       <c r="J711" s="11"/>
       <c r="K711" s="20"/>
     </row>
-    <row r="712" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="712" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A712" s="40">
-        <v>47331</v>
+        <v>47300</v>
       </c>
       <c r="B712" s="20"/>
       <c r="C712" s="13"/>
@@ -18365,9 +18382,9 @@
       <c r="J712" s="11"/>
       <c r="K712" s="20"/>
     </row>
-    <row r="713" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="713" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A713" s="40">
-        <v>47362</v>
+        <v>47331</v>
       </c>
       <c r="B713" s="20"/>
       <c r="C713" s="13"/>
@@ -18383,9 +18400,9 @@
       <c r="J713" s="11"/>
       <c r="K713" s="20"/>
     </row>
-    <row r="714" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="714" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A714" s="40">
-        <v>47392</v>
+        <v>47362</v>
       </c>
       <c r="B714" s="20"/>
       <c r="C714" s="13"/>
@@ -18401,9 +18418,9 @@
       <c r="J714" s="11"/>
       <c r="K714" s="20"/>
     </row>
-    <row r="715" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="715" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A715" s="40">
-        <v>47423</v>
+        <v>47392</v>
       </c>
       <c r="B715" s="20"/>
       <c r="C715" s="13"/>
@@ -18419,9 +18436,9 @@
       <c r="J715" s="11"/>
       <c r="K715" s="20"/>
     </row>
-    <row r="716" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="716" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A716" s="40">
-        <v>47453</v>
+        <v>47423</v>
       </c>
       <c r="B716" s="20"/>
       <c r="C716" s="13"/>
@@ -18437,9 +18454,9 @@
       <c r="J716" s="11"/>
       <c r="K716" s="20"/>
     </row>
-    <row r="717" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="717" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A717" s="40">
-        <v>47484</v>
+        <v>47453</v>
       </c>
       <c r="B717" s="20"/>
       <c r="C717" s="13"/>
@@ -18455,9 +18472,9 @@
       <c r="J717" s="11"/>
       <c r="K717" s="20"/>
     </row>
-    <row r="718" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="718" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A718" s="40">
-        <v>47515</v>
+        <v>47484</v>
       </c>
       <c r="B718" s="20"/>
       <c r="C718" s="13"/>
@@ -18473,9 +18490,9 @@
       <c r="J718" s="11"/>
       <c r="K718" s="20"/>
     </row>
-    <row r="719" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="719" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A719" s="40">
-        <v>47543</v>
+        <v>47515</v>
       </c>
       <c r="B719" s="20"/>
       <c r="C719" s="13"/>
@@ -18491,9 +18508,9 @@
       <c r="J719" s="11"/>
       <c r="K719" s="20"/>
     </row>
-    <row r="720" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="720" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A720" s="40">
-        <v>47574</v>
+        <v>47543</v>
       </c>
       <c r="B720" s="20"/>
       <c r="C720" s="13"/>
@@ -18509,9 +18526,9 @@
       <c r="J720" s="11"/>
       <c r="K720" s="20"/>
     </row>
-    <row r="721" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="721" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A721" s="40">
-        <v>47604</v>
+        <v>47574</v>
       </c>
       <c r="B721" s="20"/>
       <c r="C721" s="13"/>
@@ -18527,9 +18544,9 @@
       <c r="J721" s="11"/>
       <c r="K721" s="20"/>
     </row>
-    <row r="722" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="722" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A722" s="40">
-        <v>47635</v>
+        <v>47604</v>
       </c>
       <c r="B722" s="20"/>
       <c r="C722" s="13"/>
@@ -18545,9 +18562,9 @@
       <c r="J722" s="11"/>
       <c r="K722" s="20"/>
     </row>
-    <row r="723" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="723" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A723" s="40">
-        <v>47665</v>
+        <v>47635</v>
       </c>
       <c r="B723" s="20"/>
       <c r="C723" s="13"/>
@@ -18563,9 +18580,9 @@
       <c r="J723" s="11"/>
       <c r="K723" s="20"/>
     </row>
-    <row r="724" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="724" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A724" s="40">
-        <v>47696</v>
+        <v>47665</v>
       </c>
       <c r="B724" s="20"/>
       <c r="C724" s="13"/>
@@ -18581,9 +18598,9 @@
       <c r="J724" s="11"/>
       <c r="K724" s="20"/>
     </row>
-    <row r="725" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="725" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A725" s="40">
-        <v>47727</v>
+        <v>47696</v>
       </c>
       <c r="B725" s="20"/>
       <c r="C725" s="13"/>
@@ -18599,9 +18616,9 @@
       <c r="J725" s="11"/>
       <c r="K725" s="20"/>
     </row>
-    <row r="726" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="726" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A726" s="40">
-        <v>47757</v>
+        <v>47727</v>
       </c>
       <c r="B726" s="20"/>
       <c r="C726" s="13"/>
@@ -18617,9 +18634,9 @@
       <c r="J726" s="11"/>
       <c r="K726" s="20"/>
     </row>
-    <row r="727" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="727" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A727" s="40">
-        <v>47788</v>
+        <v>47757</v>
       </c>
       <c r="B727" s="20"/>
       <c r="C727" s="13"/>
@@ -18635,9 +18652,9 @@
       <c r="J727" s="11"/>
       <c r="K727" s="20"/>
     </row>
-    <row r="728" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="728" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A728" s="40">
-        <v>47818</v>
+        <v>47788</v>
       </c>
       <c r="B728" s="20"/>
       <c r="C728" s="13"/>
@@ -18653,9 +18670,9 @@
       <c r="J728" s="11"/>
       <c r="K728" s="20"/>
     </row>
-    <row r="729" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="729" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A729" s="40">
-        <v>47849</v>
+        <v>47818</v>
       </c>
       <c r="B729" s="20"/>
       <c r="C729" s="13"/>
@@ -18671,9 +18688,9 @@
       <c r="J729" s="11"/>
       <c r="K729" s="20"/>
     </row>
-    <row r="730" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="730" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A730" s="40">
-        <v>47880</v>
+        <v>47849</v>
       </c>
       <c r="B730" s="20"/>
       <c r="C730" s="13"/>
@@ -18689,9 +18706,9 @@
       <c r="J730" s="11"/>
       <c r="K730" s="20"/>
     </row>
-    <row r="731" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="731" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A731" s="40">
-        <v>47908</v>
+        <v>47880</v>
       </c>
       <c r="B731" s="20"/>
       <c r="C731" s="13"/>
@@ -18707,9 +18724,9 @@
       <c r="J731" s="11"/>
       <c r="K731" s="20"/>
     </row>
-    <row r="732" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="732" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A732" s="40">
-        <v>47939</v>
+        <v>47908</v>
       </c>
       <c r="B732" s="20"/>
       <c r="C732" s="13"/>
@@ -18725,9 +18742,9 @@
       <c r="J732" s="11"/>
       <c r="K732" s="20"/>
     </row>
-    <row r="733" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="733" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A733" s="40">
-        <v>47969</v>
+        <v>47939</v>
       </c>
       <c r="B733" s="20"/>
       <c r="C733" s="13"/>
@@ -18743,9 +18760,9 @@
       <c r="J733" s="11"/>
       <c r="K733" s="20"/>
     </row>
-    <row r="734" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="734" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A734" s="40">
-        <v>48000</v>
+        <v>47969</v>
       </c>
       <c r="B734" s="20"/>
       <c r="C734" s="13"/>
@@ -18761,9 +18778,9 @@
       <c r="J734" s="11"/>
       <c r="K734" s="20"/>
     </row>
-    <row r="735" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="735" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A735" s="40">
-        <v>48030</v>
+        <v>48000</v>
       </c>
       <c r="B735" s="20"/>
       <c r="C735" s="13"/>
@@ -18779,9 +18796,9 @@
       <c r="J735" s="11"/>
       <c r="K735" s="20"/>
     </row>
-    <row r="736" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="736" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A736" s="40">
-        <v>48061</v>
+        <v>48030</v>
       </c>
       <c r="B736" s="20"/>
       <c r="C736" s="13"/>
@@ -18797,9 +18814,9 @@
       <c r="J736" s="11"/>
       <c r="K736" s="20"/>
     </row>
-    <row r="737" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="737" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A737" s="40">
-        <v>48092</v>
+        <v>48061</v>
       </c>
       <c r="B737" s="20"/>
       <c r="C737" s="13"/>
@@ -18815,9 +18832,9 @@
       <c r="J737" s="11"/>
       <c r="K737" s="20"/>
     </row>
-    <row r="738" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="738" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A738" s="40">
-        <v>48122</v>
+        <v>48092</v>
       </c>
       <c r="B738" s="20"/>
       <c r="C738" s="13"/>
@@ -18833,9 +18850,9 @@
       <c r="J738" s="11"/>
       <c r="K738" s="20"/>
     </row>
-    <row r="739" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="739" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A739" s="40">
-        <v>48153</v>
+        <v>48122</v>
       </c>
       <c r="B739" s="20"/>
       <c r="C739" s="13"/>
@@ -18851,9 +18868,9 @@
       <c r="J739" s="11"/>
       <c r="K739" s="20"/>
     </row>
-    <row r="740" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="740" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A740" s="40">
-        <v>48183</v>
+        <v>48153</v>
       </c>
       <c r="B740" s="20"/>
       <c r="C740" s="13"/>
@@ -18869,9 +18886,9 @@
       <c r="J740" s="11"/>
       <c r="K740" s="20"/>
     </row>
-    <row r="741" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="741" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A741" s="40">
-        <v>48214</v>
+        <v>48183</v>
       </c>
       <c r="B741" s="20"/>
       <c r="C741" s="13"/>
@@ -18887,9 +18904,9 @@
       <c r="J741" s="11"/>
       <c r="K741" s="20"/>
     </row>
-    <row r="742" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="742" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A742" s="40">
-        <v>48245</v>
+        <v>48214</v>
       </c>
       <c r="B742" s="20"/>
       <c r="C742" s="13"/>
@@ -18905,9 +18922,9 @@
       <c r="J742" s="11"/>
       <c r="K742" s="20"/>
     </row>
-    <row r="743" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="743" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A743" s="40">
-        <v>48274</v>
+        <v>48245</v>
       </c>
       <c r="B743" s="20"/>
       <c r="C743" s="13"/>
@@ -18923,9 +18940,9 @@
       <c r="J743" s="11"/>
       <c r="K743" s="20"/>
     </row>
-    <row r="744" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="744" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A744" s="40">
-        <v>48305</v>
+        <v>48274</v>
       </c>
       <c r="B744" s="20"/>
       <c r="C744" s="13"/>
@@ -18941,9 +18958,9 @@
       <c r="J744" s="11"/>
       <c r="K744" s="20"/>
     </row>
-    <row r="745" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="745" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A745" s="40">
-        <v>48335</v>
+        <v>48305</v>
       </c>
       <c r="B745" s="20"/>
       <c r="C745" s="13"/>
@@ -18959,9 +18976,9 @@
       <c r="J745" s="11"/>
       <c r="K745" s="20"/>
     </row>
-    <row r="746" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="746" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A746" s="40">
-        <v>48366</v>
+        <v>48335</v>
       </c>
       <c r="B746" s="20"/>
       <c r="C746" s="13"/>
@@ -18977,9 +18994,9 @@
       <c r="J746" s="11"/>
       <c r="K746" s="20"/>
     </row>
-    <row r="747" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="747" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A747" s="40">
-        <v>48396</v>
+        <v>48366</v>
       </c>
       <c r="B747" s="20"/>
       <c r="C747" s="13"/>
@@ -18995,9 +19012,9 @@
       <c r="J747" s="11"/>
       <c r="K747" s="20"/>
     </row>
-    <row r="748" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="748" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A748" s="40">
-        <v>48427</v>
+        <v>48396</v>
       </c>
       <c r="B748" s="20"/>
       <c r="C748" s="13"/>
@@ -19013,9 +19030,9 @@
       <c r="J748" s="11"/>
       <c r="K748" s="20"/>
     </row>
-    <row r="749" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="749" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A749" s="40">
-        <v>48458</v>
+        <v>48427</v>
       </c>
       <c r="B749" s="20"/>
       <c r="C749" s="13"/>
@@ -19031,9 +19048,9 @@
       <c r="J749" s="11"/>
       <c r="K749" s="20"/>
     </row>
-    <row r="750" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="750" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A750" s="40">
-        <v>48488</v>
+        <v>48458</v>
       </c>
       <c r="B750" s="20"/>
       <c r="C750" s="13"/>
@@ -19049,9 +19066,9 @@
       <c r="J750" s="11"/>
       <c r="K750" s="20"/>
     </row>
-    <row r="751" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="751" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A751" s="40">
-        <v>48519</v>
+        <v>48488</v>
       </c>
       <c r="B751" s="20"/>
       <c r="C751" s="13"/>
@@ -19067,9 +19084,9 @@
       <c r="J751" s="11"/>
       <c r="K751" s="20"/>
     </row>
-    <row r="752" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="752" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A752" s="40">
-        <v>48549</v>
+        <v>48519</v>
       </c>
       <c r="B752" s="20"/>
       <c r="C752" s="13"/>
@@ -19085,9 +19102,9 @@
       <c r="J752" s="11"/>
       <c r="K752" s="20"/>
     </row>
-    <row r="753" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="753" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A753" s="40">
-        <v>48580</v>
+        <v>48549</v>
       </c>
       <c r="B753" s="20"/>
       <c r="C753" s="13"/>
@@ -19103,9 +19120,9 @@
       <c r="J753" s="11"/>
       <c r="K753" s="20"/>
     </row>
-    <row r="754" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="754" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A754" s="40">
-        <v>48611</v>
+        <v>48580</v>
       </c>
       <c r="B754" s="20"/>
       <c r="C754" s="13"/>
@@ -19121,9 +19138,9 @@
       <c r="J754" s="11"/>
       <c r="K754" s="20"/>
     </row>
-    <row r="755" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="755" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A755" s="40">
-        <v>48639</v>
+        <v>48611</v>
       </c>
       <c r="B755" s="20"/>
       <c r="C755" s="13"/>
@@ -19139,9 +19156,9 @@
       <c r="J755" s="11"/>
       <c r="K755" s="20"/>
     </row>
-    <row r="756" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="756" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A756" s="40">
-        <v>48670</v>
+        <v>48639</v>
       </c>
       <c r="B756" s="20"/>
       <c r="C756" s="13"/>
@@ -19157,9 +19174,9 @@
       <c r="J756" s="11"/>
       <c r="K756" s="20"/>
     </row>
-    <row r="757" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="757" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A757" s="40">
-        <v>48700</v>
+        <v>48670</v>
       </c>
       <c r="B757" s="20"/>
       <c r="C757" s="13"/>
@@ -19175,9 +19192,9 @@
       <c r="J757" s="11"/>
       <c r="K757" s="20"/>
     </row>
-    <row r="758" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="758" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A758" s="40">
-        <v>48731</v>
+        <v>48700</v>
       </c>
       <c r="B758" s="20"/>
       <c r="C758" s="13"/>
@@ -19193,9 +19210,9 @@
       <c r="J758" s="11"/>
       <c r="K758" s="20"/>
     </row>
-    <row r="759" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="759" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A759" s="40">
-        <v>48761</v>
+        <v>48731</v>
       </c>
       <c r="B759" s="20"/>
       <c r="C759" s="13"/>
@@ -19211,9 +19228,9 @@
       <c r="J759" s="11"/>
       <c r="K759" s="20"/>
     </row>
-    <row r="760" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="760" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A760" s="40">
-        <v>48792</v>
+        <v>48761</v>
       </c>
       <c r="B760" s="20"/>
       <c r="C760" s="13"/>
@@ -19229,9 +19246,9 @@
       <c r="J760" s="11"/>
       <c r="K760" s="20"/>
     </row>
-    <row r="761" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="761" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A761" s="40">
-        <v>48823</v>
+        <v>48792</v>
       </c>
       <c r="B761" s="20"/>
       <c r="C761" s="13"/>
@@ -19247,9 +19264,9 @@
       <c r="J761" s="11"/>
       <c r="K761" s="20"/>
     </row>
-    <row r="762" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="762" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A762" s="40">
-        <v>48853</v>
+        <v>48823</v>
       </c>
       <c r="B762" s="20"/>
       <c r="C762" s="13"/>
@@ -19265,9 +19282,9 @@
       <c r="J762" s="11"/>
       <c r="K762" s="20"/>
     </row>
-    <row r="763" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="763" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A763" s="40">
-        <v>48884</v>
+        <v>48853</v>
       </c>
       <c r="B763" s="20"/>
       <c r="C763" s="13"/>
@@ -19283,9 +19300,9 @@
       <c r="J763" s="11"/>
       <c r="K763" s="20"/>
     </row>
-    <row r="764" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="764" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A764" s="40">
-        <v>48914</v>
+        <v>48884</v>
       </c>
       <c r="B764" s="20"/>
       <c r="C764" s="13"/>
@@ -19301,9 +19318,9 @@
       <c r="J764" s="11"/>
       <c r="K764" s="20"/>
     </row>
-    <row r="765" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="765" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A765" s="40">
-        <v>48945</v>
+        <v>48914</v>
       </c>
       <c r="B765" s="20"/>
       <c r="C765" s="13"/>
@@ -19319,9 +19336,9 @@
       <c r="J765" s="11"/>
       <c r="K765" s="20"/>
     </row>
-    <row r="766" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="766" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A766" s="40">
-        <v>48976</v>
+        <v>48945</v>
       </c>
       <c r="B766" s="20"/>
       <c r="C766" s="13"/>
@@ -19337,9 +19354,9 @@
       <c r="J766" s="11"/>
       <c r="K766" s="20"/>
     </row>
-    <row r="767" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="767" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A767" s="40">
-        <v>49004</v>
+        <v>48976</v>
       </c>
       <c r="B767" s="20"/>
       <c r="C767" s="13"/>
@@ -19355,9 +19372,9 @@
       <c r="J767" s="11"/>
       <c r="K767" s="20"/>
     </row>
-    <row r="768" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="768" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A768" s="40">
-        <v>49035</v>
+        <v>49004</v>
       </c>
       <c r="B768" s="20"/>
       <c r="C768" s="13"/>
@@ -19373,9 +19390,9 @@
       <c r="J768" s="11"/>
       <c r="K768" s="20"/>
     </row>
-    <row r="769" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="769" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A769" s="40">
-        <v>49065</v>
+        <v>49035</v>
       </c>
       <c r="B769" s="20"/>
       <c r="C769" s="13"/>
@@ -19391,9 +19408,9 @@
       <c r="J769" s="11"/>
       <c r="K769" s="20"/>
     </row>
-    <row r="770" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="770" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A770" s="40">
-        <v>49096</v>
+        <v>49065</v>
       </c>
       <c r="B770" s="20"/>
       <c r="C770" s="13"/>
@@ -19409,9 +19426,9 @@
       <c r="J770" s="11"/>
       <c r="K770" s="20"/>
     </row>
-    <row r="771" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="771" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A771" s="40">
-        <v>49126</v>
+        <v>49096</v>
       </c>
       <c r="B771" s="20"/>
       <c r="C771" s="13"/>
@@ -19427,9 +19444,9 @@
       <c r="J771" s="11"/>
       <c r="K771" s="20"/>
     </row>
-    <row r="772" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="772" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A772" s="40">
-        <v>49157</v>
+        <v>49126</v>
       </c>
       <c r="B772" s="20"/>
       <c r="C772" s="13"/>
@@ -19445,9 +19462,9 @@
       <c r="J772" s="11"/>
       <c r="K772" s="20"/>
     </row>
-    <row r="773" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="773" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A773" s="40">
-        <v>49188</v>
+        <v>49157</v>
       </c>
       <c r="B773" s="20"/>
       <c r="C773" s="13"/>
@@ -19463,9 +19480,9 @@
       <c r="J773" s="11"/>
       <c r="K773" s="20"/>
     </row>
-    <row r="774" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="774" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A774" s="40">
-        <v>49218</v>
+        <v>49188</v>
       </c>
       <c r="B774" s="20"/>
       <c r="C774" s="13"/>
@@ -19481,9 +19498,9 @@
       <c r="J774" s="11"/>
       <c r="K774" s="20"/>
     </row>
-    <row r="775" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="775" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A775" s="40">
-        <v>49249</v>
+        <v>49218</v>
       </c>
       <c r="B775" s="20"/>
       <c r="C775" s="13"/>
@@ -19499,9 +19516,9 @@
       <c r="J775" s="11"/>
       <c r="K775" s="20"/>
     </row>
-    <row r="776" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="776" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A776" s="40">
-        <v>49279</v>
+        <v>49249</v>
       </c>
       <c r="B776" s="20"/>
       <c r="C776" s="13"/>
@@ -19517,9 +19534,9 @@
       <c r="J776" s="11"/>
       <c r="K776" s="20"/>
     </row>
-    <row r="777" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="777" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A777" s="40">
-        <v>49310</v>
+        <v>49279</v>
       </c>
       <c r="B777" s="20"/>
       <c r="C777" s="13"/>
@@ -19535,9 +19552,9 @@
       <c r="J777" s="11"/>
       <c r="K777" s="20"/>
     </row>
-    <row r="778" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="778" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A778" s="40">
-        <v>49341</v>
+        <v>49310</v>
       </c>
       <c r="B778" s="20"/>
       <c r="C778" s="13"/>
@@ -19553,9 +19570,9 @@
       <c r="J778" s="11"/>
       <c r="K778" s="20"/>
     </row>
-    <row r="779" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="779" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A779" s="40">
-        <v>49369</v>
+        <v>49341</v>
       </c>
       <c r="B779" s="20"/>
       <c r="C779" s="13"/>
@@ -19571,9 +19588,9 @@
       <c r="J779" s="11"/>
       <c r="K779" s="20"/>
     </row>
-    <row r="780" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="780" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A780" s="40">
-        <v>49400</v>
+        <v>49369</v>
       </c>
       <c r="B780" s="20"/>
       <c r="C780" s="13"/>
@@ -19589,9 +19606,9 @@
       <c r="J780" s="11"/>
       <c r="K780" s="20"/>
     </row>
-    <row r="781" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="781" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A781" s="40">
-        <v>49430</v>
+        <v>49400</v>
       </c>
       <c r="B781" s="20"/>
       <c r="C781" s="13"/>
@@ -19607,9 +19624,9 @@
       <c r="J781" s="11"/>
       <c r="K781" s="20"/>
     </row>
-    <row r="782" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="782" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A782" s="40">
-        <v>49461</v>
+        <v>49430</v>
       </c>
       <c r="B782" s="20"/>
       <c r="C782" s="13"/>
@@ -19625,9 +19642,9 @@
       <c r="J782" s="11"/>
       <c r="K782" s="20"/>
     </row>
-    <row r="783" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="783" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A783" s="40">
-        <v>49491</v>
+        <v>49461</v>
       </c>
       <c r="B783" s="20"/>
       <c r="C783" s="13"/>
@@ -19643,9 +19660,9 @@
       <c r="J783" s="11"/>
       <c r="K783" s="20"/>
     </row>
-    <row r="784" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="784" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A784" s="40">
-        <v>49522</v>
+        <v>49491</v>
       </c>
       <c r="B784" s="20"/>
       <c r="C784" s="13"/>
@@ -19661,9 +19678,9 @@
       <c r="J784" s="11"/>
       <c r="K784" s="20"/>
     </row>
-    <row r="785" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="785" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A785" s="40">
-        <v>49553</v>
+        <v>49522</v>
       </c>
       <c r="B785" s="20"/>
       <c r="C785" s="13"/>
@@ -19679,9 +19696,9 @@
       <c r="J785" s="11"/>
       <c r="K785" s="20"/>
     </row>
-    <row r="786" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="786" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A786" s="40">
-        <v>49583</v>
+        <v>49553</v>
       </c>
       <c r="B786" s="20"/>
       <c r="C786" s="13"/>
@@ -19697,9 +19714,9 @@
       <c r="J786" s="11"/>
       <c r="K786" s="20"/>
     </row>
-    <row r="787" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="787" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A787" s="40">
-        <v>49614</v>
+        <v>49583</v>
       </c>
       <c r="B787" s="20"/>
       <c r="C787" s="13"/>
@@ -19715,9 +19732,9 @@
       <c r="J787" s="11"/>
       <c r="K787" s="20"/>
     </row>
-    <row r="788" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="788" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A788" s="40">
-        <v>49644</v>
+        <v>49614</v>
       </c>
       <c r="B788" s="20"/>
       <c r="C788" s="13"/>
@@ -19733,9 +19750,9 @@
       <c r="J788" s="11"/>
       <c r="K788" s="20"/>
     </row>
-    <row r="789" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="789" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A789" s="40">
-        <v>49675</v>
+        <v>49644</v>
       </c>
       <c r="B789" s="20"/>
       <c r="C789" s="13"/>
@@ -19751,9 +19768,9 @@
       <c r="J789" s="11"/>
       <c r="K789" s="20"/>
     </row>
-    <row r="790" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="790" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A790" s="40">
-        <v>49706</v>
+        <v>49675</v>
       </c>
       <c r="B790" s="20"/>
       <c r="C790" s="13"/>
@@ -19769,9 +19786,9 @@
       <c r="J790" s="11"/>
       <c r="K790" s="20"/>
     </row>
-    <row r="791" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="791" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A791" s="40">
-        <v>49735</v>
+        <v>49706</v>
       </c>
       <c r="B791" s="20"/>
       <c r="C791" s="13"/>
@@ -19787,9 +19804,9 @@
       <c r="J791" s="11"/>
       <c r="K791" s="20"/>
     </row>
-    <row r="792" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="792" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A792" s="40">
-        <v>49766</v>
+        <v>49735</v>
       </c>
       <c r="B792" s="20"/>
       <c r="C792" s="13"/>
@@ -19805,9 +19822,9 @@
       <c r="J792" s="11"/>
       <c r="K792" s="20"/>
     </row>
-    <row r="793" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="793" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A793" s="40">
-        <v>49796</v>
+        <v>49766</v>
       </c>
       <c r="B793" s="20"/>
       <c r="C793" s="13"/>
@@ -19823,9 +19840,9 @@
       <c r="J793" s="11"/>
       <c r="K793" s="20"/>
     </row>
-    <row r="794" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="794" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A794" s="40">
-        <v>49827</v>
+        <v>49796</v>
       </c>
       <c r="B794" s="20"/>
       <c r="C794" s="13"/>
@@ -19841,9 +19858,9 @@
       <c r="J794" s="11"/>
       <c r="K794" s="20"/>
     </row>
-    <row r="795" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="795" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A795" s="40">
-        <v>49857</v>
+        <v>49827</v>
       </c>
       <c r="B795" s="20"/>
       <c r="C795" s="13"/>
@@ -19859,9 +19876,9 @@
       <c r="J795" s="11"/>
       <c r="K795" s="20"/>
     </row>
-    <row r="796" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="796" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A796" s="40">
-        <v>49888</v>
+        <v>49857</v>
       </c>
       <c r="B796" s="20"/>
       <c r="C796" s="13"/>
@@ -19877,9 +19894,9 @@
       <c r="J796" s="11"/>
       <c r="K796" s="20"/>
     </row>
-    <row r="797" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="797" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A797" s="40">
-        <v>49919</v>
+        <v>49888</v>
       </c>
       <c r="B797" s="20"/>
       <c r="C797" s="13"/>
@@ -19895,9 +19912,9 @@
       <c r="J797" s="11"/>
       <c r="K797" s="20"/>
     </row>
-    <row r="798" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="798" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A798" s="40">
-        <v>49949</v>
+        <v>49919</v>
       </c>
       <c r="B798" s="20"/>
       <c r="C798" s="13"/>
@@ -19913,9 +19930,9 @@
       <c r="J798" s="11"/>
       <c r="K798" s="20"/>
     </row>
-    <row r="799" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="799" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A799" s="40">
-        <v>49980</v>
+        <v>49949</v>
       </c>
       <c r="B799" s="20"/>
       <c r="C799" s="13"/>
@@ -19931,9 +19948,9 @@
       <c r="J799" s="11"/>
       <c r="K799" s="20"/>
     </row>
-    <row r="800" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="800" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A800" s="40">
-        <v>50010</v>
+        <v>49980</v>
       </c>
       <c r="B800" s="20"/>
       <c r="C800" s="13"/>
@@ -19949,9 +19966,9 @@
       <c r="J800" s="11"/>
       <c r="K800" s="20"/>
     </row>
-    <row r="801" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="801" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A801" s="40">
-        <v>50041</v>
+        <v>50010</v>
       </c>
       <c r="B801" s="20"/>
       <c r="C801" s="13"/>
@@ -19967,9 +19984,9 @@
       <c r="J801" s="11"/>
       <c r="K801" s="20"/>
     </row>
-    <row r="802" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="802" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A802" s="40">
-        <v>50072</v>
+        <v>50041</v>
       </c>
       <c r="B802" s="20"/>
       <c r="C802" s="13"/>
@@ -19985,9 +20002,9 @@
       <c r="J802" s="11"/>
       <c r="K802" s="20"/>
     </row>
-    <row r="803" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="803" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A803" s="40">
-        <v>50100</v>
+        <v>50072</v>
       </c>
       <c r="B803" s="20"/>
       <c r="C803" s="13"/>
@@ -20003,9 +20020,9 @@
       <c r="J803" s="11"/>
       <c r="K803" s="20"/>
     </row>
-    <row r="804" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="804" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A804" s="40">
-        <v>50131</v>
+        <v>50100</v>
       </c>
       <c r="B804" s="20"/>
       <c r="C804" s="13"/>
@@ -20021,9 +20038,9 @@
       <c r="J804" s="11"/>
       <c r="K804" s="20"/>
     </row>
-    <row r="805" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="805" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A805" s="40">
-        <v>50161</v>
+        <v>50131</v>
       </c>
       <c r="B805" s="20"/>
       <c r="C805" s="13"/>
@@ -20039,9 +20056,9 @@
       <c r="J805" s="11"/>
       <c r="K805" s="20"/>
     </row>
-    <row r="806" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="806" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A806" s="40">
-        <v>50192</v>
+        <v>50161</v>
       </c>
       <c r="B806" s="20"/>
       <c r="C806" s="13"/>
@@ -20057,9 +20074,9 @@
       <c r="J806" s="11"/>
       <c r="K806" s="20"/>
     </row>
-    <row r="807" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="807" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A807" s="40">
-        <v>50222</v>
+        <v>50192</v>
       </c>
       <c r="B807" s="20"/>
       <c r="C807" s="13"/>
@@ -20075,9 +20092,9 @@
       <c r="J807" s="11"/>
       <c r="K807" s="20"/>
     </row>
-    <row r="808" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="808" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A808" s="40">
-        <v>50253</v>
+        <v>50222</v>
       </c>
       <c r="B808" s="20"/>
       <c r="C808" s="13"/>
@@ -20093,9 +20110,9 @@
       <c r="J808" s="11"/>
       <c r="K808" s="20"/>
     </row>
-    <row r="809" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="809" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A809" s="40">
-        <v>50284</v>
+        <v>50253</v>
       </c>
       <c r="B809" s="20"/>
       <c r="C809" s="13"/>
@@ -20111,9 +20128,9 @@
       <c r="J809" s="11"/>
       <c r="K809" s="20"/>
     </row>
-    <row r="810" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="810" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A810" s="40">
-        <v>50314</v>
+        <v>50284</v>
       </c>
       <c r="B810" s="20"/>
       <c r="C810" s="13"/>
@@ -20129,9 +20146,9 @@
       <c r="J810" s="11"/>
       <c r="K810" s="20"/>
     </row>
-    <row r="811" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="811" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A811" s="40">
-        <v>50345</v>
+        <v>50314</v>
       </c>
       <c r="B811" s="20"/>
       <c r="C811" s="13"/>
@@ -20147,9 +20164,9 @@
       <c r="J811" s="11"/>
       <c r="K811" s="20"/>
     </row>
-    <row r="812" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="812" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A812" s="40">
-        <v>50375</v>
+        <v>50345</v>
       </c>
       <c r="B812" s="20"/>
       <c r="C812" s="13"/>
@@ -20165,9 +20182,9 @@
       <c r="J812" s="11"/>
       <c r="K812" s="20"/>
     </row>
-    <row r="813" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="813" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A813" s="40">
-        <v>50406</v>
+        <v>50375</v>
       </c>
       <c r="B813" s="20"/>
       <c r="C813" s="13"/>
@@ -20183,9 +20200,9 @@
       <c r="J813" s="11"/>
       <c r="K813" s="20"/>
     </row>
-    <row r="814" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="814" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A814" s="40">
-        <v>50437</v>
+        <v>50406</v>
       </c>
       <c r="B814" s="20"/>
       <c r="C814" s="13"/>
@@ -20201,9 +20218,9 @@
       <c r="J814" s="11"/>
       <c r="K814" s="20"/>
     </row>
-    <row r="815" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="815" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A815" s="40">
-        <v>50465</v>
+        <v>50437</v>
       </c>
       <c r="B815" s="20"/>
       <c r="C815" s="13"/>
@@ -20219,9 +20236,9 @@
       <c r="J815" s="11"/>
       <c r="K815" s="20"/>
     </row>
-    <row r="816" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="816" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A816" s="40">
-        <v>50496</v>
+        <v>50465</v>
       </c>
       <c r="B816" s="20"/>
       <c r="C816" s="13"/>
@@ -20237,9 +20254,9 @@
       <c r="J816" s="11"/>
       <c r="K816" s="20"/>
     </row>
-    <row r="817" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="817" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A817" s="40">
-        <v>50526</v>
+        <v>50496</v>
       </c>
       <c r="B817" s="20"/>
       <c r="C817" s="13"/>
@@ -20255,9 +20272,9 @@
       <c r="J817" s="11"/>
       <c r="K817" s="20"/>
     </row>
-    <row r="818" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="818" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A818" s="40">
-        <v>50557</v>
+        <v>50526</v>
       </c>
       <c r="B818" s="20"/>
       <c r="C818" s="13"/>
@@ -20273,9 +20290,9 @@
       <c r="J818" s="11"/>
       <c r="K818" s="20"/>
     </row>
-    <row r="819" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="819" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A819" s="40">
-        <v>50587</v>
+        <v>50557</v>
       </c>
       <c r="B819" s="20"/>
       <c r="C819" s="13"/>
@@ -20291,9 +20308,9 @@
       <c r="J819" s="11"/>
       <c r="K819" s="20"/>
     </row>
-    <row r="820" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="820" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A820" s="40">
-        <v>50618</v>
+        <v>50587</v>
       </c>
       <c r="B820" s="20"/>
       <c r="C820" s="13"/>
@@ -20309,9 +20326,9 @@
       <c r="J820" s="11"/>
       <c r="K820" s="20"/>
     </row>
-    <row r="821" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="821" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A821" s="40">
-        <v>50649</v>
+        <v>50618</v>
       </c>
       <c r="B821" s="20"/>
       <c r="C821" s="13"/>
@@ -20327,9 +20344,9 @@
       <c r="J821" s="11"/>
       <c r="K821" s="20"/>
     </row>
-    <row r="822" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="822" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A822" s="40">
-        <v>50679</v>
+        <v>50649</v>
       </c>
       <c r="B822" s="20"/>
       <c r="C822" s="13"/>
@@ -20345,9 +20362,9 @@
       <c r="J822" s="11"/>
       <c r="K822" s="20"/>
     </row>
-    <row r="823" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="823" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A823" s="40">
-        <v>50710</v>
+        <v>50679</v>
       </c>
       <c r="B823" s="20"/>
       <c r="C823" s="13"/>
@@ -20363,9 +20380,9 @@
       <c r="J823" s="11"/>
       <c r="K823" s="20"/>
     </row>
-    <row r="824" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="824" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A824" s="40">
-        <v>50740</v>
+        <v>50710</v>
       </c>
       <c r="B824" s="20"/>
       <c r="C824" s="13"/>
@@ -20381,9 +20398,9 @@
       <c r="J824" s="11"/>
       <c r="K824" s="20"/>
     </row>
-    <row r="825" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="825" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A825" s="40">
-        <v>50771</v>
+        <v>50740</v>
       </c>
       <c r="B825" s="20"/>
       <c r="C825" s="13"/>
@@ -20399,9 +20416,9 @@
       <c r="J825" s="11"/>
       <c r="K825" s="20"/>
     </row>
-    <row r="826" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="826" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A826" s="40">
-        <v>50802</v>
+        <v>50771</v>
       </c>
       <c r="B826" s="20"/>
       <c r="C826" s="13"/>
@@ -20417,9 +20434,9 @@
       <c r="J826" s="11"/>
       <c r="K826" s="20"/>
     </row>
-    <row r="827" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="827" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A827" s="40">
-        <v>50830</v>
+        <v>50802</v>
       </c>
       <c r="B827" s="20"/>
       <c r="C827" s="13"/>
@@ -20435,9 +20452,9 @@
       <c r="J827" s="11"/>
       <c r="K827" s="20"/>
     </row>
-    <row r="828" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="828" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A828" s="40">
-        <v>50861</v>
+        <v>50830</v>
       </c>
       <c r="B828" s="20"/>
       <c r="C828" s="13"/>
@@ -20453,9 +20470,9 @@
       <c r="J828" s="11"/>
       <c r="K828" s="20"/>
     </row>
-    <row r="829" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="829" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A829" s="40">
-        <v>50891</v>
+        <v>50861</v>
       </c>
       <c r="B829" s="20"/>
       <c r="C829" s="13"/>
@@ -20471,9 +20488,9 @@
       <c r="J829" s="11"/>
       <c r="K829" s="20"/>
     </row>
-    <row r="830" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="830" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A830" s="40">
-        <v>50922</v>
+        <v>50891</v>
       </c>
       <c r="B830" s="20"/>
       <c r="C830" s="13"/>
@@ -20489,9 +20506,9 @@
       <c r="J830" s="11"/>
       <c r="K830" s="20"/>
     </row>
-    <row r="831" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="831" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A831" s="40">
-        <v>50952</v>
+        <v>50922</v>
       </c>
       <c r="B831" s="20"/>
       <c r="C831" s="13"/>
@@ -20506,6 +20523,24 @@
       <c r="I831" s="9"/>
       <c r="J831" s="11"/>
       <c r="K831" s="20"/>
+    </row>
+    <row r="832" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A832" s="40">
+        <v>50952</v>
+      </c>
+      <c r="B832" s="20"/>
+      <c r="C832" s="13"/>
+      <c r="D832" s="39"/>
+      <c r="E832" s="9"/>
+      <c r="F832" s="20"/>
+      <c r="G832" s="13" t="str">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v/>
+      </c>
+      <c r="H832" s="39"/>
+      <c r="I832" s="9"/>
+      <c r="J832" s="11"/>
+      <c r="K832" s="20"/>
     </row>
   </sheetData>
   <mergeCells count="11">
@@ -20523,10 +20558,10 @@
   </mergeCells>
   <phoneticPr fontId="5" type="noConversion"/>
   <dataValidations count="2">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F2:G2" xr:uid="{3C67B38A-DE91-4BA1-85D0-F5C61D6395E6}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F2:G2">
       <formula1>"1 - Married (and not separated), 2 - Widowed (including living common law), 3 - Separated (including living common law), 4 - Divorced (including living common law), 5 - Single (including living common law)"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B4:C4" xr:uid="{C9F25C0C-606E-415B-87B4-B098DE141EB5}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B4:C4">
       <formula1>"PERMANENT, CO-TERMINUS, CASUAL, JOBCON"</formula1>
     </dataValidation>
   </dataValidations>
@@ -20549,28 +20584,28 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1CB8F789-193C-43F9-8D48-B0DEE5C76ADA}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:L67"/>
   <sheetViews>
     <sheetView topLeftCell="A29" workbookViewId="0">
       <selection activeCell="F13" sqref="F13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="21.33203125" customWidth="1"/>
-    <col min="2" max="2" width="20.6640625" customWidth="1"/>
-    <col min="4" max="4" width="15.5546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="12.6640625" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="15.5546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="26.109375" customWidth="1"/>
-    <col min="9" max="9" width="16.33203125" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="14.88671875" customWidth="1"/>
-    <col min="11" max="11" width="14.88671875" style="37" hidden="1" customWidth="1"/>
-    <col min="12" max="12" width="14.88671875" customWidth="1"/>
+    <col min="1" max="1" width="21.28515625" customWidth="1"/>
+    <col min="2" max="2" width="20.7109375" customWidth="1"/>
+    <col min="4" max="4" width="15.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="12.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="15.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="26.140625" customWidth="1"/>
+    <col min="9" max="9" width="16.28515625" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="14.85546875" customWidth="1"/>
+    <col min="11" max="11" width="14.85546875" style="37" hidden="1" customWidth="1"/>
+    <col min="12" max="12" width="14.85546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
       <c r="D1" s="66" t="s">
         <v>33</v>
       </c>
@@ -20583,7 +20618,7 @@
       <c r="K1" s="67"/>
       <c r="L1" s="67"/>
     </row>
-    <row r="2" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A2" s="32" t="s">
         <v>24</v>
       </c>
@@ -20612,7 +20647,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="3" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A3" s="11">
         <v>30.503</v>
       </c>
@@ -20640,17 +20675,17 @@
         <v>---</v>
       </c>
     </row>
-    <row r="4" spans="1:12" hidden="1" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="G4" s="33"/>
       <c r="J4" s="1" t="str">
         <f>IF(TEXT(J3,"D")=1,1,TEXT(J3,"D"))</f>
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:12" x14ac:dyDescent="0.25">
       <c r="J5" s="1"/>
     </row>
-    <row r="6" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:12" x14ac:dyDescent="0.25">
       <c r="C6" s="38" t="s">
         <v>28</v>
       </c>
@@ -20671,7 +20706,7 @@
       <c r="K6" s="68"/>
       <c r="L6" s="68"/>
     </row>
-    <row r="7" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:12" x14ac:dyDescent="0.25">
       <c r="C7" s="37">
         <v>1</v>
       </c>
@@ -20698,7 +20733,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="8" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:12" x14ac:dyDescent="0.25">
       <c r="C8" s="37">
         <v>2</v>
       </c>
@@ -20724,7 +20759,7 @@
         <v>4.2000000000000003E-2</v>
       </c>
     </row>
-    <row r="9" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:12" x14ac:dyDescent="0.25">
       <c r="C9" s="37">
         <v>3</v>
       </c>
@@ -20750,7 +20785,7 @@
         <v>8.3000000000000004E-2</v>
       </c>
     </row>
-    <row r="10" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:12" x14ac:dyDescent="0.25">
       <c r="C10" s="37">
         <v>4</v>
       </c>
@@ -20776,7 +20811,7 @@
         <v>0.125</v>
       </c>
     </row>
-    <row r="11" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:12" x14ac:dyDescent="0.25">
       <c r="C11" s="37">
         <v>5</v>
       </c>
@@ -20802,7 +20837,7 @@
         <v>0.16700000000000001</v>
       </c>
     </row>
-    <row r="12" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:12" x14ac:dyDescent="0.25">
       <c r="C12" s="37">
         <v>6</v>
       </c>
@@ -20831,7 +20866,7 @@
         <v>0.20800000000000002</v>
       </c>
     </row>
-    <row r="13" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:12" x14ac:dyDescent="0.25">
       <c r="C13" s="37">
         <v>7</v>
       </c>
@@ -20857,7 +20892,7 @@
         <v>0.25</v>
       </c>
     </row>
-    <row r="14" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:12" x14ac:dyDescent="0.25">
       <c r="C14" s="37">
         <v>8</v>
       </c>
@@ -20883,7 +20918,7 @@
         <v>0.29199999999999998</v>
       </c>
     </row>
-    <row r="15" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:12" x14ac:dyDescent="0.25">
       <c r="C15" s="37">
         <v>9</v>
       </c>
@@ -20903,7 +20938,7 @@
         <v>0.33299999999999996</v>
       </c>
     </row>
-    <row r="16" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:12" x14ac:dyDescent="0.25">
       <c r="C16" s="37">
         <v>10</v>
       </c>
@@ -20923,7 +20958,7 @@
         <v>0.37499999999999994</v>
       </c>
     </row>
-    <row r="17" spans="3:12" x14ac:dyDescent="0.3">
+    <row r="17" spans="3:12" x14ac:dyDescent="0.25">
       <c r="C17" s="37">
         <v>11</v>
       </c>
@@ -20943,7 +20978,7 @@
         <v>0.41699999999999993</v>
       </c>
     </row>
-    <row r="18" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="18" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C18" s="37">
         <v>12</v>
       </c>
@@ -20964,7 +20999,7 @@
         <v>0.45799999999999991</v>
       </c>
     </row>
-    <row r="19" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="19" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C19" s="37">
         <v>13</v>
       </c>
@@ -20985,7 +21020,7 @@
         <v>0.49999999999999989</v>
       </c>
     </row>
-    <row r="20" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="20" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C20" s="37">
         <v>14</v>
       </c>
@@ -21006,7 +21041,7 @@
         <v>0.54199999999999993</v>
       </c>
     </row>
-    <row r="21" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="21" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C21" s="37">
         <v>15</v>
       </c>
@@ -21027,7 +21062,7 @@
         <v>0.58299999999999996</v>
       </c>
     </row>
-    <row r="22" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="22" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C22" s="37">
         <v>16</v>
       </c>
@@ -21048,7 +21083,7 @@
         <v>0.625</v>
       </c>
     </row>
-    <row r="23" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="23" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C23" s="37">
         <v>17</v>
       </c>
@@ -21069,7 +21104,7 @@
         <v>0.66700000000000004</v>
       </c>
     </row>
-    <row r="24" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="24" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C24" s="37">
         <v>18</v>
       </c>
@@ -21090,7 +21125,7 @@
         <v>0.70800000000000007</v>
       </c>
     </row>
-    <row r="25" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="25" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C25" s="37">
         <v>19</v>
       </c>
@@ -21111,7 +21146,7 @@
         <v>0.75000000000000011</v>
       </c>
     </row>
-    <row r="26" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="26" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C26" s="37">
         <v>20</v>
       </c>
@@ -21132,7 +21167,7 @@
         <v>0.79200000000000015</v>
       </c>
     </row>
-    <row r="27" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="27" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C27" s="37">
         <v>21</v>
       </c>
@@ -21153,7 +21188,7 @@
         <v>0.83300000000000018</v>
       </c>
     </row>
-    <row r="28" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="28" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C28" s="37">
         <v>22</v>
       </c>
@@ -21174,7 +21209,7 @@
         <v>0.87500000000000022</v>
       </c>
     </row>
-    <row r="29" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="29" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C29" s="37">
         <v>23</v>
       </c>
@@ -21195,7 +21230,7 @@
         <v>0.91700000000000026</v>
       </c>
     </row>
-    <row r="30" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="30" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C30" s="37">
         <v>24</v>
       </c>
@@ -21216,7 +21251,7 @@
         <v>0.9580000000000003</v>
       </c>
     </row>
-    <row r="31" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="31" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C31" s="37">
         <v>25</v>
       </c>
@@ -21237,7 +21272,7 @@
         <v>1.0000000000000002</v>
       </c>
     </row>
-    <row r="32" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="32" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C32" s="37">
         <v>26</v>
       </c>
@@ -21258,7 +21293,7 @@
         <v>1.0420000000000003</v>
       </c>
     </row>
-    <row r="33" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="33" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C33" s="37">
         <v>27</v>
       </c>
@@ -21279,7 +21314,7 @@
         <v>1.0830000000000002</v>
       </c>
     </row>
-    <row r="34" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="34" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C34" s="37">
         <v>28</v>
       </c>
@@ -21300,7 +21335,7 @@
         <v>1.1250000000000002</v>
       </c>
     </row>
-    <row r="35" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="35" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C35" s="37">
         <v>29</v>
       </c>
@@ -21321,7 +21356,7 @@
         <v>1.1670000000000003</v>
       </c>
     </row>
-    <row r="36" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="36" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C36" s="37">
         <v>30</v>
       </c>
@@ -21342,7 +21377,7 @@
         <v>1.2080000000000002</v>
       </c>
     </row>
-    <row r="37" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="37" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C37" s="37">
         <v>31</v>
       </c>
@@ -21363,7 +21398,7 @@
         <v>1.2500000000000002</v>
       </c>
     </row>
-    <row r="38" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="38" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C38" s="37">
         <v>32</v>
       </c>
@@ -21372,7 +21407,7 @@
       </c>
       <c r="G38"/>
     </row>
-    <row r="39" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="39" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C39" s="37">
         <v>33</v>
       </c>
@@ -21381,7 +21416,7 @@
       </c>
       <c r="G39"/>
     </row>
-    <row r="40" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="40" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C40" s="37">
         <v>34</v>
       </c>
@@ -21390,7 +21425,7 @@
       </c>
       <c r="G40"/>
     </row>
-    <row r="41" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="41" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C41" s="37">
         <v>35</v>
       </c>
@@ -21399,7 +21434,7 @@
       </c>
       <c r="G41"/>
     </row>
-    <row r="42" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="42" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C42" s="37">
         <v>36</v>
       </c>
@@ -21408,7 +21443,7 @@
       </c>
       <c r="G42"/>
     </row>
-    <row r="43" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="43" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C43" s="37">
         <v>37</v>
       </c>
@@ -21417,7 +21452,7 @@
       </c>
       <c r="G43"/>
     </row>
-    <row r="44" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="44" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C44" s="37">
         <v>38</v>
       </c>
@@ -21426,7 +21461,7 @@
       </c>
       <c r="G44"/>
     </row>
-    <row r="45" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="45" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C45" s="37">
         <v>39</v>
       </c>
@@ -21435,7 +21470,7 @@
       </c>
       <c r="G45"/>
     </row>
-    <row r="46" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="46" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C46" s="37">
         <v>40</v>
       </c>
@@ -21444,7 +21479,7 @@
       </c>
       <c r="G46"/>
     </row>
-    <row r="47" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="47" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C47" s="37">
         <v>41</v>
       </c>
@@ -21453,7 +21488,7 @@
       </c>
       <c r="G47"/>
     </row>
-    <row r="48" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="48" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C48" s="37">
         <v>42</v>
       </c>
@@ -21462,7 +21497,7 @@
       </c>
       <c r="G48"/>
     </row>
-    <row r="49" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="49" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C49" s="37">
         <v>43</v>
       </c>
@@ -21471,7 +21506,7 @@
       </c>
       <c r="G49"/>
     </row>
-    <row r="50" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="50" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C50" s="37">
         <v>44</v>
       </c>
@@ -21480,7 +21515,7 @@
       </c>
       <c r="G50"/>
     </row>
-    <row r="51" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="51" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C51" s="37">
         <v>45</v>
       </c>
@@ -21489,7 +21524,7 @@
       </c>
       <c r="G51"/>
     </row>
-    <row r="52" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="52" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C52" s="37">
         <v>46</v>
       </c>
@@ -21498,7 +21533,7 @@
       </c>
       <c r="G52"/>
     </row>
-    <row r="53" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="53" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C53" s="37">
         <v>47</v>
       </c>
@@ -21507,7 +21542,7 @@
       </c>
       <c r="G53"/>
     </row>
-    <row r="54" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="54" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C54" s="37">
         <v>48</v>
       </c>
@@ -21516,7 +21551,7 @@
       </c>
       <c r="G54"/>
     </row>
-    <row r="55" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="55" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C55" s="37">
         <v>49</v>
       </c>
@@ -21525,7 +21560,7 @@
       </c>
       <c r="G55"/>
     </row>
-    <row r="56" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="56" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C56" s="37">
         <v>50</v>
       </c>
@@ -21534,7 +21569,7 @@
       </c>
       <c r="G56"/>
     </row>
-    <row r="57" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="57" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C57" s="37">
         <v>51</v>
       </c>
@@ -21543,7 +21578,7 @@
       </c>
       <c r="G57"/>
     </row>
-    <row r="58" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="58" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C58" s="37">
         <v>52</v>
       </c>
@@ -21552,7 +21587,7 @@
       </c>
       <c r="G58"/>
     </row>
-    <row r="59" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="59" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C59" s="37">
         <v>53</v>
       </c>
@@ -21561,7 +21596,7 @@
       </c>
       <c r="G59"/>
     </row>
-    <row r="60" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="60" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C60" s="37">
         <v>54</v>
       </c>
@@ -21570,7 +21605,7 @@
       </c>
       <c r="G60"/>
     </row>
-    <row r="61" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="61" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C61" s="37">
         <v>55</v>
       </c>
@@ -21579,7 +21614,7 @@
       </c>
       <c r="G61"/>
     </row>
-    <row r="62" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="62" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C62" s="37">
         <v>56</v>
       </c>
@@ -21588,7 +21623,7 @@
       </c>
       <c r="G62"/>
     </row>
-    <row r="63" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="63" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C63" s="37">
         <v>57</v>
       </c>
@@ -21597,7 +21632,7 @@
       </c>
       <c r="G63"/>
     </row>
-    <row r="64" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="64" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C64" s="37">
         <v>58</v>
       </c>
@@ -21606,7 +21641,7 @@
       </c>
       <c r="G64"/>
     </row>
-    <row r="65" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="65" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C65" s="37">
         <v>59</v>
       </c>
@@ -21615,7 +21650,7 @@
       </c>
       <c r="G65"/>
     </row>
-    <row r="66" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="66" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C66" s="37">
         <v>60</v>
       </c>
@@ -21624,7 +21659,7 @@
       </c>
       <c r="G66"/>
     </row>
-    <row r="67" spans="3:12" x14ac:dyDescent="0.3">
+    <row r="67" spans="3:12" x14ac:dyDescent="0.25">
       <c r="J67" s="1"/>
       <c r="K67" s="1"/>
       <c r="L67" s="1"/>

--- a/REGULAR/PERIDO , EDWIN.xlsx
+++ b/REGULAR/PERIDO , EDWIN.xlsx
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="888" uniqueCount="564">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="889" uniqueCount="564">
   <si>
     <t>PERIOD</t>
   </si>
@@ -2898,8 +2898,8 @@
   <dimension ref="A2:K832"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <pane ySplit="9" topLeftCell="A623" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="F633" sqref="F633"/>
+      <pane ySplit="9" topLeftCell="A632" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="K640" sqref="K640"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3066,7 +3066,7 @@
       <c r="D9" s="11"/>
       <c r="E9" s="13">
         <f>SUM(Table1[EARNED])-SUM(Table1[Absence Undertime W/ Pay])+CONVERTION!$A$3</f>
-        <v>149.03099999999989</v>
+        <v>152.78099999999989</v>
       </c>
       <c r="F9" s="11"/>
       <c r="G9" s="13" t="str">
@@ -3076,7 +3076,7 @@
       <c r="H9" s="11"/>
       <c r="I9" s="13">
         <f>SUM(Table1[[EARNED ]])-SUM(Table1[Absence Undertime  W/ Pay])+CONVERTION!$B$3</f>
-        <v>95.448000000000008</v>
+        <v>99.198000000000008</v>
       </c>
       <c r="J9" s="11"/>
       <c r="K9" s="20"/>
@@ -16999,13 +16999,15 @@
       <c r="B636" s="15" t="s">
         <v>562</v>
       </c>
-      <c r="C636" s="42"/>
+      <c r="C636" s="13">
+        <v>1.25</v>
+      </c>
       <c r="D636" s="43"/>
       <c r="E636" s="9"/>
       <c r="F636" s="15"/>
-      <c r="G636" s="42" t="str">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v/>
+      <c r="G636" s="42">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v>1.25</v>
       </c>
       <c r="H636" s="43"/>
       <c r="I636" s="9"/>
@@ -17019,13 +17021,15 @@
         <v>45017</v>
       </c>
       <c r="B637" s="15"/>
-      <c r="C637" s="42"/>
+      <c r="C637" s="13">
+        <v>1.25</v>
+      </c>
       <c r="D637" s="43"/>
       <c r="E637" s="9"/>
       <c r="F637" s="15"/>
-      <c r="G637" s="42" t="str">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v/>
+      <c r="G637" s="42">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v>1.25</v>
       </c>
       <c r="H637" s="43"/>
       <c r="I637" s="9"/>
@@ -17037,13 +17041,15 @@
         <v>45047</v>
       </c>
       <c r="B638" s="20"/>
-      <c r="C638" s="13"/>
+      <c r="C638" s="13">
+        <v>1.25</v>
+      </c>
       <c r="D638" s="39"/>
       <c r="E638" s="9"/>
       <c r="F638" s="20"/>
-      <c r="G638" s="13" t="str">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v/>
+      <c r="G638" s="13">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v>1.25</v>
       </c>
       <c r="H638" s="39"/>
       <c r="I638" s="9"/>
@@ -17054,7 +17060,9 @@
       <c r="A639" s="40">
         <v>45078</v>
       </c>
-      <c r="B639" s="20"/>
+      <c r="B639" s="20" t="s">
+        <v>554</v>
+      </c>
       <c r="C639" s="13"/>
       <c r="D639" s="39"/>
       <c r="E639" s="9"/>
@@ -17066,7 +17074,9 @@
       <c r="H639" s="39"/>
       <c r="I639" s="9"/>
       <c r="J639" s="11"/>
-      <c r="K639" s="20"/>
+      <c r="K639" s="49">
+        <v>45093</v>
+      </c>
     </row>
     <row r="640" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A640" s="40">

--- a/REGULAR/PERIDO , EDWIN.xlsx
+++ b/REGULAR/PERIDO , EDWIN.xlsx
@@ -1,15 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26501"/>
+  <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\DESKTOP-JHL336T\Users\ASUS\Desktop\LEAVE-CARD\REGULAR\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ASUS\Desktop\LEAVE-CARD\REGULAR\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C6F94372-463F-480C-9966-9A7B233EB321}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-105" yWindow="-105" windowWidth="23250" windowHeight="12570"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -23,7 +24,7 @@
     <definedName name="BALANCE_1">Table1[[#Headers],[BALANCE]]</definedName>
     <definedName name="_xlnm.Print_Titles" localSheetId="0">Sheet1!$1:$9</definedName>
   </definedNames>
-  <calcPr calcId="152511"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -33,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="889" uniqueCount="564">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="890" uniqueCount="564">
   <si>
     <t>PERIOD</t>
   </si>
@@ -1850,7 +1851,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="4">
     <numFmt numFmtId="164" formatCode="0.000"/>
     <numFmt numFmtId="165" formatCode="mm/dd/yy;@"/>
@@ -2549,7 +2550,7 @@
 </file>
 
 <file path=xl/externalLinks/externalLink1.xml><?xml version="1.0" encoding="utf-8"?>
-<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" mc:Ignorable="x14">
+<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xxl21="http://schemas.microsoft.com/office/spreadsheetml/2021/extlinks2021" mc:Ignorable="x14 xxl21">
   <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
     <sheetNames>
       <sheetName val="Sheet1"/>
@@ -2566,25 +2567,25 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A8:K832" totalsRowShown="0" headerRowDxfId="14" headerRowBorderDxfId="13" tableBorderDxfId="12" totalsRowBorderDxfId="11">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{00000000-000C-0000-FFFF-FFFF00000000}" name="Table1" displayName="Table1" ref="A8:K832" totalsRowShown="0" headerRowDxfId="14" headerRowBorderDxfId="13" tableBorderDxfId="12" totalsRowBorderDxfId="11">
   <tableColumns count="11">
-    <tableColumn id="1" name="PERIOD" dataDxfId="10"/>
-    <tableColumn id="2" name="PARTICULARS" dataDxfId="9"/>
-    <tableColumn id="3" name="EARNED" dataDxfId="8"/>
-    <tableColumn id="4" name="Absence Undertime W/ Pay" dataDxfId="7"/>
-    <tableColumn id="5" name="BALANCE" dataDxfId="6">
+    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0000-000001000000}" name="PERIOD" dataDxfId="10"/>
+    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0000-000002000000}" name="PARTICULARS" dataDxfId="9"/>
+    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0000-000003000000}" name="EARNED" dataDxfId="8"/>
+    <tableColumn id="4" xr3:uid="{00000000-0010-0000-0000-000004000000}" name="Absence Undertime W/ Pay" dataDxfId="7"/>
+    <tableColumn id="5" xr3:uid="{00000000-0010-0000-0000-000005000000}" name="BALANCE" dataDxfId="6">
       <calculatedColumnFormula>SUM(Table1[EARNED])-SUM(Table1[Absence Undertime W/ Pay])+CONVERTION!$A$3</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="6" name="Absence Undertime W/O Pay" dataDxfId="5"/>
-    <tableColumn id="7" name="EARNED " dataDxfId="4">
+    <tableColumn id="6" xr3:uid="{00000000-0010-0000-0000-000006000000}" name="Absence Undertime W/O Pay" dataDxfId="5"/>
+    <tableColumn id="7" xr3:uid="{00000000-0010-0000-0000-000007000000}" name="EARNED " dataDxfId="4">
       <calculatedColumnFormula>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="8" name="Absence Undertime  W/ Pay" dataDxfId="3"/>
-    <tableColumn id="9" name="BALANCE " dataDxfId="2">
+    <tableColumn id="8" xr3:uid="{00000000-0010-0000-0000-000008000000}" name="Absence Undertime  W/ Pay" dataDxfId="3"/>
+    <tableColumn id="9" xr3:uid="{00000000-0010-0000-0000-000009000000}" name="BALANCE " dataDxfId="2">
       <calculatedColumnFormula>SUM(Table1[[EARNED ]])-SUM(Table1[Absence Undertime  W/ Pay])+CONVERTION!$B$3</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="10" name="Absence Undertime  W/O Pay" dataDxfId="1"/>
-    <tableColumn id="11" name="REMARKS" dataDxfId="0"/>
+    <tableColumn id="10" xr3:uid="{00000000-0010-0000-0000-00000A000000}" name="Absence Undertime  W/O Pay" dataDxfId="1"/>
+    <tableColumn id="11" xr3:uid="{00000000-0010-0000-0000-00000B000000}" name="REMARKS" dataDxfId="0"/>
   </tableColumns>
   <tableStyleInfo showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
   <extLst>
@@ -2891,7 +2892,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
@@ -2899,25 +2900,25 @@
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
       <pane ySplit="9" topLeftCell="A632" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="K640" sqref="K640"/>
+      <selection pane="bottomLeft" activeCell="K641" sqref="K641"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="10.28515625" style="1" customWidth="1"/>
-    <col min="2" max="2" width="16.5703125" style="1" customWidth="1"/>
-    <col min="3" max="3" width="12.140625" style="30" customWidth="1"/>
-    <col min="4" max="4" width="12.7109375" style="1" customWidth="1"/>
-    <col min="5" max="5" width="11.7109375" style="1" customWidth="1"/>
-    <col min="6" max="6" width="12.7109375" style="1" customWidth="1"/>
-    <col min="7" max="7" width="12.140625" style="30" customWidth="1"/>
-    <col min="8" max="8" width="12.7109375" style="1" customWidth="1"/>
-    <col min="9" max="9" width="11.7109375" style="1" customWidth="1"/>
-    <col min="10" max="10" width="12.7109375" style="1" customWidth="1"/>
-    <col min="11" max="11" width="24.85546875" style="1" customWidth="1"/>
+    <col min="1" max="1" width="10.33203125" style="1" customWidth="1"/>
+    <col min="2" max="2" width="16.5546875" style="1" customWidth="1"/>
+    <col min="3" max="3" width="12.109375" style="30" customWidth="1"/>
+    <col min="4" max="4" width="12.6640625" style="1" customWidth="1"/>
+    <col min="5" max="5" width="11.6640625" style="1" customWidth="1"/>
+    <col min="6" max="6" width="12.6640625" style="1" customWidth="1"/>
+    <col min="7" max="7" width="12.109375" style="30" customWidth="1"/>
+    <col min="8" max="8" width="12.6640625" style="1" customWidth="1"/>
+    <col min="9" max="9" width="11.6640625" style="1" customWidth="1"/>
+    <col min="10" max="10" width="12.6640625" style="1" customWidth="1"/>
+    <col min="11" max="11" width="24.88671875" style="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:11" ht="20.45" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:11" ht="20.399999999999999" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A2" s="29" t="s">
         <v>9</v>
       </c>
@@ -2940,7 +2941,7 @@
       <c r="J2" s="60"/>
       <c r="K2" s="61"/>
     </row>
-    <row r="3" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A3" s="18" t="s">
         <v>15</v>
       </c>
@@ -2962,7 +2963,7 @@
       <c r="J3" s="62"/>
       <c r="K3" s="63"/>
     </row>
-    <row r="4" spans="1:11" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:11" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A4" s="18" t="s">
         <v>16</v>
       </c>
@@ -2984,7 +2985,7 @@
       <c r="J4" s="60"/>
       <c r="K4" s="61"/>
     </row>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A5" s="16"/>
       <c r="H5" s="27" t="s">
         <v>18</v>
@@ -2992,7 +2993,7 @@
       <c r="I5" s="27"/>
       <c r="K5" s="4"/>
     </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A6" s="17"/>
       <c r="B6" s="8"/>
       <c r="C6" s="31"/>
@@ -3005,7 +3006,7 @@
       <c r="J6" s="8"/>
       <c r="K6" s="19"/>
     </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A7" s="14"/>
       <c r="B7" s="14"/>
       <c r="C7" s="58" t="s">
@@ -3022,7 +3023,7 @@
       <c r="J7" s="58"/>
       <c r="K7" s="14"/>
     </row>
-    <row r="8" spans="1:11" ht="45" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:11" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A8" s="7" t="s">
         <v>0</v>
       </c>
@@ -3057,7 +3058,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="9" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A9" s="23"/>
       <c r="B9" s="24" t="s">
         <v>23</v>
@@ -3066,7 +3067,7 @@
       <c r="D9" s="11"/>
       <c r="E9" s="13">
         <f>SUM(Table1[EARNED])-SUM(Table1[Absence Undertime W/ Pay])+CONVERTION!$A$3</f>
-        <v>152.78099999999989</v>
+        <v>154.03099999999989</v>
       </c>
       <c r="F9" s="11"/>
       <c r="G9" s="13" t="str">
@@ -3076,12 +3077,12 @@
       <c r="H9" s="11"/>
       <c r="I9" s="13">
         <f>SUM(Table1[[EARNED ]])-SUM(Table1[Absence Undertime  W/ Pay])+CONVERTION!$B$3</f>
-        <v>99.198000000000008</v>
+        <v>99.448000000000008</v>
       </c>
       <c r="J9" s="11"/>
       <c r="K9" s="20"/>
     </row>
-    <row r="10" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A10" s="48" t="s">
         <v>47</v>
       </c>
@@ -3103,7 +3104,7 @@
       <c r="J10" s="11"/>
       <c r="K10" s="20"/>
     </row>
-    <row r="11" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A11" s="40">
         <v>35947</v>
       </c>
@@ -3123,7 +3124,7 @@
       <c r="J11" s="11"/>
       <c r="K11" s="20"/>
     </row>
-    <row r="12" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A12" s="40">
         <v>35977</v>
       </c>
@@ -3149,7 +3150,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="13" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A13" s="40">
         <v>36008</v>
       </c>
@@ -3169,7 +3170,7 @@
       <c r="J13" s="11"/>
       <c r="K13" s="20"/>
     </row>
-    <row r="14" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A14" s="40">
         <v>36039</v>
       </c>
@@ -3189,7 +3190,7 @@
       <c r="J14" s="11"/>
       <c r="K14" s="20"/>
     </row>
-    <row r="15" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A15" s="40">
         <v>36069</v>
       </c>
@@ -3209,7 +3210,7 @@
       <c r="J15" s="11"/>
       <c r="K15" s="20"/>
     </row>
-    <row r="16" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A16" s="41">
         <v>36100</v>
       </c>
@@ -3229,7 +3230,7 @@
       <c r="J16" s="12"/>
       <c r="K16" s="15"/>
     </row>
-    <row r="17" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A17" s="40">
         <v>36130</v>
       </c>
@@ -3255,7 +3256,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="18" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A18" s="48" t="s">
         <v>52</v>
       </c>
@@ -3273,7 +3274,7 @@
       <c r="J18" s="11"/>
       <c r="K18" s="20"/>
     </row>
-    <row r="19" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A19" s="40">
         <v>36161</v>
       </c>
@@ -3299,7 +3300,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="20" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A20" s="40">
         <v>36192</v>
       </c>
@@ -3319,7 +3320,7 @@
       <c r="J20" s="11"/>
       <c r="K20" s="20"/>
     </row>
-    <row r="21" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A21" s="40">
         <v>36220</v>
       </c>
@@ -3339,7 +3340,7 @@
       <c r="J21" s="11"/>
       <c r="K21" s="20"/>
     </row>
-    <row r="22" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A22" s="40">
         <v>36251</v>
       </c>
@@ -3359,7 +3360,7 @@
       <c r="J22" s="11"/>
       <c r="K22" s="20"/>
     </row>
-    <row r="23" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A23" s="40">
         <v>36281</v>
       </c>
@@ -3379,7 +3380,7 @@
       <c r="J23" s="11"/>
       <c r="K23" s="20"/>
     </row>
-    <row r="24" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A24" s="40">
         <v>36312</v>
       </c>
@@ -3399,7 +3400,7 @@
       <c r="J24" s="11"/>
       <c r="K24" s="20"/>
     </row>
-    <row r="25" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A25" s="40">
         <v>36342</v>
       </c>
@@ -3419,7 +3420,7 @@
       <c r="J25" s="11"/>
       <c r="K25" s="20"/>
     </row>
-    <row r="26" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A26" s="40">
         <v>36373</v>
       </c>
@@ -3445,7 +3446,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="27" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A27" s="40">
         <v>36404</v>
       </c>
@@ -3469,7 +3470,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="28" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A28" s="40"/>
       <c r="B28" s="20" t="s">
         <v>57</v>
@@ -3493,7 +3494,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="29" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A29" s="40">
         <v>36434</v>
       </c>
@@ -3517,7 +3518,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="30" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A30" s="40"/>
       <c r="B30" s="20"/>
       <c r="C30" s="13">
@@ -3535,7 +3536,7 @@
       <c r="J30" s="11"/>
       <c r="K30" s="20"/>
     </row>
-    <row r="31" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A31" s="40">
         <v>36465</v>
       </c>
@@ -3557,7 +3558,7 @@
         <v>36170</v>
       </c>
     </row>
-    <row r="32" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A32" s="40">
         <v>36495</v>
       </c>
@@ -3581,7 +3582,7 @@
       <c r="J32" s="11"/>
       <c r="K32" s="20"/>
     </row>
-    <row r="33" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A33" s="23" t="s">
         <v>63</v>
       </c>
@@ -3599,7 +3600,7 @@
       <c r="J33" s="11"/>
       <c r="K33" s="20"/>
     </row>
-    <row r="34" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A34" s="40">
         <v>36526</v>
       </c>
@@ -3619,7 +3620,7 @@
       <c r="J34" s="11"/>
       <c r="K34" s="20"/>
     </row>
-    <row r="35" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A35" s="40">
         <v>36557</v>
       </c>
@@ -3639,7 +3640,7 @@
       <c r="J35" s="11"/>
       <c r="K35" s="20"/>
     </row>
-    <row r="36" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A36" s="40">
         <v>36586</v>
       </c>
@@ -3661,7 +3662,7 @@
       <c r="J36" s="11"/>
       <c r="K36" s="20"/>
     </row>
-    <row r="37" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A37" s="40"/>
       <c r="B37" s="20"/>
       <c r="C37" s="13">
@@ -3679,7 +3680,7 @@
       <c r="J37" s="11"/>
       <c r="K37" s="20"/>
     </row>
-    <row r="38" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A38" s="40">
         <v>36617</v>
       </c>
@@ -3705,7 +3706,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="39" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A39" s="40"/>
       <c r="B39" s="20" t="s">
         <v>66</v>
@@ -3727,7 +3728,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="40" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A40" s="40">
         <v>36647</v>
       </c>
@@ -3747,7 +3748,7 @@
       <c r="J40" s="11"/>
       <c r="K40" s="20"/>
     </row>
-    <row r="41" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A41" s="40">
         <v>36678</v>
       </c>
@@ -3767,7 +3768,7 @@
       <c r="J41" s="11"/>
       <c r="K41" s="20"/>
     </row>
-    <row r="42" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A42" s="40">
         <v>36708</v>
       </c>
@@ -3787,7 +3788,7 @@
       <c r="J42" s="11"/>
       <c r="K42" s="20"/>
     </row>
-    <row r="43" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A43" s="40">
         <v>36739</v>
       </c>
@@ -3807,7 +3808,7 @@
       <c r="J43" s="11"/>
       <c r="K43" s="20"/>
     </row>
-    <row r="44" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A44" s="40">
         <v>36770</v>
       </c>
@@ -3827,7 +3828,7 @@
       <c r="J44" s="11"/>
       <c r="K44" s="20"/>
     </row>
-    <row r="45" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A45" s="40">
         <v>36800</v>
       </c>
@@ -3853,7 +3854,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="46" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A46" s="40">
         <v>36831</v>
       </c>
@@ -3879,7 +3880,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="47" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A47" s="40">
         <v>36861</v>
       </c>
@@ -3903,7 +3904,7 @@
         <v>72</v>
       </c>
     </row>
-    <row r="48" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A48" s="48" t="s">
         <v>73</v>
       </c>
@@ -3921,7 +3922,7 @@
       <c r="J48" s="11"/>
       <c r="K48" s="20"/>
     </row>
-    <row r="49" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A49" s="40">
         <v>36892</v>
       </c>
@@ -3941,7 +3942,7 @@
       <c r="J49" s="11"/>
       <c r="K49" s="20"/>
     </row>
-    <row r="50" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A50" s="40">
         <v>36923</v>
       </c>
@@ -3961,7 +3962,7 @@
       <c r="J50" s="11"/>
       <c r="K50" s="20"/>
     </row>
-    <row r="51" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A51" s="40">
         <v>36951</v>
       </c>
@@ -3981,7 +3982,7 @@
       <c r="J51" s="11"/>
       <c r="K51" s="20"/>
     </row>
-    <row r="52" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A52" s="40">
         <v>36982</v>
       </c>
@@ -4001,7 +4002,7 @@
       <c r="J52" s="11"/>
       <c r="K52" s="20"/>
     </row>
-    <row r="53" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A53" s="40">
         <v>37012</v>
       </c>
@@ -4021,7 +4022,7 @@
       <c r="J53" s="11"/>
       <c r="K53" s="20"/>
     </row>
-    <row r="54" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A54" s="40">
         <v>37043</v>
       </c>
@@ -4041,7 +4042,7 @@
       <c r="J54" s="11"/>
       <c r="K54" s="20"/>
     </row>
-    <row r="55" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A55" s="40">
         <v>37073</v>
       </c>
@@ -4067,7 +4068,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="56" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A56" s="40">
         <v>37104</v>
       </c>
@@ -4087,7 +4088,7 @@
       <c r="J56" s="11"/>
       <c r="K56" s="20"/>
     </row>
-    <row r="57" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A57" s="40">
         <v>37135</v>
       </c>
@@ -4113,7 +4114,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="58" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A58" s="40">
         <v>37165</v>
       </c>
@@ -4133,7 +4134,7 @@
       <c r="J58" s="11"/>
       <c r="K58" s="20"/>
     </row>
-    <row r="59" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A59" s="40">
         <v>37196</v>
       </c>
@@ -4153,7 +4154,7 @@
       <c r="J59" s="11"/>
       <c r="K59" s="20"/>
     </row>
-    <row r="60" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A60" s="40">
         <v>37226</v>
       </c>
@@ -4177,7 +4178,7 @@
       <c r="J60" s="11"/>
       <c r="K60" s="20"/>
     </row>
-    <row r="61" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A61" s="48" t="s">
         <v>76</v>
       </c>
@@ -4195,7 +4196,7 @@
       <c r="J61" s="11"/>
       <c r="K61" s="20"/>
     </row>
-    <row r="62" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A62" s="40">
         <v>37257</v>
       </c>
@@ -4215,7 +4216,7 @@
       <c r="J62" s="11"/>
       <c r="K62" s="20"/>
     </row>
-    <row r="63" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A63" s="40">
         <v>37288</v>
       </c>
@@ -4243,7 +4244,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="64" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A64" s="40">
         <v>37316</v>
       </c>
@@ -4269,7 +4270,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="65" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A65" s="40">
         <v>37347</v>
       </c>
@@ -4293,7 +4294,7 @@
       <c r="J65" s="11"/>
       <c r="K65" s="20"/>
     </row>
-    <row r="66" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A66" s="40">
         <v>37377</v>
       </c>
@@ -4317,7 +4318,7 @@
       <c r="J66" s="11"/>
       <c r="K66" s="20"/>
     </row>
-    <row r="67" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A67" s="40">
         <v>37408</v>
       </c>
@@ -4341,7 +4342,7 @@
       <c r="J67" s="11"/>
       <c r="K67" s="20"/>
     </row>
-    <row r="68" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A68" s="40">
         <v>37438</v>
       </c>
@@ -4363,7 +4364,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="69" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A69" s="40"/>
       <c r="B69" s="20" t="s">
         <v>77</v>
@@ -4385,7 +4386,7 @@
       <c r="J69" s="11"/>
       <c r="K69" s="20"/>
     </row>
-    <row r="70" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A70" s="40">
         <v>37469</v>
       </c>
@@ -4405,7 +4406,7 @@
       <c r="J70" s="11"/>
       <c r="K70" s="20"/>
     </row>
-    <row r="71" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A71" s="40">
         <v>37500</v>
       </c>
@@ -4431,7 +4432,7 @@
         <v>83</v>
       </c>
     </row>
-    <row r="72" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A72" s="40">
         <v>37530</v>
       </c>
@@ -4457,7 +4458,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="73" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A73" s="40">
         <v>37561</v>
       </c>
@@ -4477,7 +4478,7 @@
       <c r="J73" s="11"/>
       <c r="K73" s="20"/>
     </row>
-    <row r="74" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A74" s="40">
         <v>37591</v>
       </c>
@@ -4497,7 +4498,7 @@
       <c r="J74" s="11"/>
       <c r="K74" s="20"/>
     </row>
-    <row r="75" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A75" s="48" t="s">
         <v>85</v>
       </c>
@@ -4515,7 +4516,7 @@
       <c r="J75" s="11"/>
       <c r="K75" s="20"/>
     </row>
-    <row r="76" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A76" s="40">
         <v>37622</v>
       </c>
@@ -4535,7 +4536,7 @@
       <c r="J76" s="11"/>
       <c r="K76" s="20"/>
     </row>
-    <row r="77" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A77" s="40">
         <v>37653</v>
       </c>
@@ -4555,7 +4556,7 @@
       <c r="J77" s="11"/>
       <c r="K77" s="20"/>
     </row>
-    <row r="78" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A78" s="40">
         <v>37712</v>
       </c>
@@ -4575,7 +4576,7 @@
       <c r="J78" s="11"/>
       <c r="K78" s="20"/>
     </row>
-    <row r="79" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A79" s="40">
         <v>37742</v>
       </c>
@@ -4597,7 +4598,7 @@
         <v>87</v>
       </c>
     </row>
-    <row r="80" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A80" s="40">
         <v>37773</v>
       </c>
@@ -4619,7 +4620,7 @@
         <v>88</v>
       </c>
     </row>
-    <row r="81" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A81" s="40">
         <v>37803</v>
       </c>
@@ -4645,7 +4646,7 @@
         <v>89</v>
       </c>
     </row>
-    <row r="82" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="82" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A82" s="40"/>
       <c r="B82" s="20" t="s">
         <v>86</v>
@@ -4667,7 +4668,7 @@
       <c r="J82" s="11"/>
       <c r="K82" s="20"/>
     </row>
-    <row r="83" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="83" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A83" s="40">
         <v>37834</v>
       </c>
@@ -4693,7 +4694,7 @@
         <v>92</v>
       </c>
     </row>
-    <row r="84" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="84" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A84" s="40"/>
       <c r="B84" s="20" t="s">
         <v>53</v>
@@ -4717,7 +4718,7 @@
         <v>37841</v>
       </c>
     </row>
-    <row r="85" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="85" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A85" s="40"/>
       <c r="B85" s="20" t="s">
         <v>91</v>
@@ -4735,7 +4736,7 @@
       <c r="J85" s="11"/>
       <c r="K85" s="20"/>
     </row>
-    <row r="86" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="86" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A86" s="40">
         <v>37865</v>
       </c>
@@ -4759,7 +4760,7 @@
       <c r="J86" s="11"/>
       <c r="K86" s="20"/>
     </row>
-    <row r="87" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="87" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A87" s="40">
         <v>37895</v>
       </c>
@@ -4783,7 +4784,7 @@
         <v>95</v>
       </c>
     </row>
-    <row r="88" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="88" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A88" s="40"/>
       <c r="B88" s="20" t="s">
         <v>57</v>
@@ -4807,7 +4808,7 @@
         <v>96</v>
       </c>
     </row>
-    <row r="89" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="89" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A89" s="40">
         <v>37926</v>
       </c>
@@ -4827,7 +4828,7 @@
       <c r="J89" s="11"/>
       <c r="K89" s="20"/>
     </row>
-    <row r="90" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="90" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A90" s="40">
         <v>37956</v>
       </c>
@@ -4851,7 +4852,7 @@
       <c r="J90" s="11"/>
       <c r="K90" s="20"/>
     </row>
-    <row r="91" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="91" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A91" s="48" t="s">
         <v>98</v>
       </c>
@@ -4869,7 +4870,7 @@
       <c r="J91" s="11"/>
       <c r="K91" s="20"/>
     </row>
-    <row r="92" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="92" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A92" s="40">
         <v>37987</v>
       </c>
@@ -4895,7 +4896,7 @@
         <v>38139</v>
       </c>
     </row>
-    <row r="93" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="93" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A93" s="40"/>
       <c r="B93" s="20" t="s">
         <v>99</v>
@@ -4919,7 +4920,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="94" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="94" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A94" s="40">
         <v>38018</v>
       </c>
@@ -4945,7 +4946,7 @@
         <v>103</v>
       </c>
     </row>
-    <row r="95" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="95" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A95" s="40"/>
       <c r="B95" s="20" t="s">
         <v>102</v>
@@ -4967,7 +4968,7 @@
       <c r="J95" s="11"/>
       <c r="K95" s="20"/>
     </row>
-    <row r="96" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="96" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A96" s="40">
         <v>38047</v>
       </c>
@@ -4993,7 +4994,7 @@
         <v>105</v>
       </c>
     </row>
-    <row r="97" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="97" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A97" s="40"/>
       <c r="B97" s="20" t="s">
         <v>554</v>
@@ -5013,7 +5014,7 @@
         <v>106</v>
       </c>
     </row>
-    <row r="98" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="98" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A98" s="40">
         <v>38078</v>
       </c>
@@ -5033,7 +5034,7 @@
       <c r="J98" s="11"/>
       <c r="K98" s="20"/>
     </row>
-    <row r="99" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="99" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A99" s="40">
         <v>38108</v>
       </c>
@@ -5059,7 +5060,7 @@
         <v>111</v>
       </c>
     </row>
-    <row r="100" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="100" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A100" s="40"/>
       <c r="B100" s="20" t="s">
         <v>108</v>
@@ -5081,7 +5082,7 @@
         <v>112</v>
       </c>
     </row>
-    <row r="101" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="101" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A101" s="40"/>
       <c r="B101" s="20" t="s">
         <v>109</v>
@@ -5103,7 +5104,7 @@
         <v>113</v>
       </c>
     </row>
-    <row r="102" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="102" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A102" s="40"/>
       <c r="B102" s="20" t="s">
         <v>110</v>
@@ -5123,7 +5124,7 @@
       <c r="J102" s="11"/>
       <c r="K102" s="20"/>
     </row>
-    <row r="103" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="103" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A103" s="40"/>
       <c r="B103" s="20" t="s">
         <v>109</v>
@@ -5143,7 +5144,7 @@
         <v>37992</v>
       </c>
     </row>
-    <row r="104" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="104" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A104" s="40">
         <v>38139</v>
       </c>
@@ -5169,7 +5170,7 @@
         <v>114</v>
       </c>
     </row>
-    <row r="105" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="105" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A105" s="40">
         <v>38169</v>
       </c>
@@ -5189,7 +5190,7 @@
       <c r="J105" s="11"/>
       <c r="K105" s="20"/>
     </row>
-    <row r="106" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="106" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A106" s="40">
         <v>38200</v>
       </c>
@@ -5215,7 +5216,7 @@
         <v>38238</v>
       </c>
     </row>
-    <row r="107" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="107" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A107" s="40"/>
       <c r="B107" s="20" t="s">
         <v>115</v>
@@ -5235,7 +5236,7 @@
       <c r="J107" s="11"/>
       <c r="K107" s="20"/>
     </row>
-    <row r="108" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="108" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A108" s="40">
         <v>38231</v>
       </c>
@@ -5259,7 +5260,7 @@
       <c r="J108" s="11"/>
       <c r="K108" s="20"/>
     </row>
-    <row r="109" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="109" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A109" s="40">
         <v>38261</v>
       </c>
@@ -5285,7 +5286,7 @@
         <v>119</v>
       </c>
     </row>
-    <row r="110" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="110" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A110" s="40"/>
       <c r="B110" s="20" t="s">
         <v>53</v>
@@ -5307,7 +5308,7 @@
         <v>120</v>
       </c>
     </row>
-    <row r="111" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="111" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A111" s="40"/>
       <c r="B111" s="20" t="s">
         <v>53</v>
@@ -5329,7 +5330,7 @@
         <v>121</v>
       </c>
     </row>
-    <row r="112" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="112" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A112" s="40"/>
       <c r="B112" s="20" t="s">
         <v>118</v>
@@ -5351,7 +5352,7 @@
         <v>122</v>
       </c>
     </row>
-    <row r="113" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="113" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A113" s="40">
         <v>38261</v>
       </c>
@@ -5373,7 +5374,7 @@
         <v>123</v>
       </c>
     </row>
-    <row r="114" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="114" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A114" s="40">
         <v>38292</v>
       </c>
@@ -5393,7 +5394,7 @@
       <c r="J114" s="11"/>
       <c r="K114" s="20"/>
     </row>
-    <row r="115" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="115" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A115" s="40">
         <v>38322</v>
       </c>
@@ -5415,7 +5416,7 @@
       <c r="J115" s="11"/>
       <c r="K115" s="20"/>
     </row>
-    <row r="116" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="116" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A116" s="40"/>
       <c r="B116" s="20" t="s">
         <v>53</v>
@@ -5437,7 +5438,7 @@
         <v>38029</v>
       </c>
     </row>
-    <row r="117" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="117" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A117" s="40"/>
       <c r="B117" s="20" t="s">
         <v>53</v>
@@ -5459,7 +5460,7 @@
         <v>38211</v>
       </c>
     </row>
-    <row r="118" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="118" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A118" s="40"/>
       <c r="B118" s="20" t="s">
         <v>53</v>
@@ -5481,7 +5482,7 @@
         <v>124</v>
       </c>
     </row>
-    <row r="119" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="119" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A119" s="48" t="s">
         <v>125</v>
       </c>
@@ -5499,7 +5500,7 @@
       <c r="J119" s="11"/>
       <c r="K119" s="20"/>
     </row>
-    <row r="120" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="120" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A120" s="40">
         <v>38353</v>
       </c>
@@ -5525,7 +5526,7 @@
         <v>127</v>
       </c>
     </row>
-    <row r="121" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="121" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A121" s="40"/>
       <c r="B121" s="20" t="s">
         <v>57</v>
@@ -5547,7 +5548,7 @@
         <v>129</v>
       </c>
     </row>
-    <row r="122" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="122" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A122" s="40"/>
       <c r="B122" s="20" t="s">
         <v>57</v>
@@ -5569,7 +5570,7 @@
         <v>130</v>
       </c>
     </row>
-    <row r="123" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="123" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A123" s="40"/>
       <c r="B123" s="20" t="s">
         <v>128</v>
@@ -5589,7 +5590,7 @@
       <c r="J123" s="11"/>
       <c r="K123" s="20"/>
     </row>
-    <row r="124" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="124" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A124" s="41">
         <v>38384</v>
       </c>
@@ -5615,7 +5616,7 @@
         <v>38540</v>
       </c>
     </row>
-    <row r="125" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="125" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A125" s="40"/>
       <c r="B125" s="20" t="s">
         <v>53</v>
@@ -5637,7 +5638,7 @@
         <v>38566</v>
       </c>
     </row>
-    <row r="126" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="126" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A126" s="40"/>
       <c r="B126" s="20" t="s">
         <v>94</v>
@@ -5659,7 +5660,7 @@
         <v>131</v>
       </c>
     </row>
-    <row r="127" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="127" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A127" s="40"/>
       <c r="B127" s="20" t="s">
         <v>132</v>
@@ -5679,7 +5680,7 @@
       <c r="J127" s="11"/>
       <c r="K127" s="20"/>
     </row>
-    <row r="128" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="128" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A128" s="40">
         <v>38412</v>
       </c>
@@ -5703,7 +5704,7 @@
         <v>134</v>
       </c>
     </row>
-    <row r="129" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="129" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A129" s="40"/>
       <c r="B129" s="20" t="s">
         <v>133</v>
@@ -5723,7 +5724,7 @@
       <c r="J129" s="11"/>
       <c r="K129" s="20"/>
     </row>
-    <row r="130" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="130" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A130" s="40">
         <v>38443</v>
       </c>
@@ -5745,7 +5746,7 @@
       <c r="J130" s="11"/>
       <c r="K130" s="20"/>
     </row>
-    <row r="131" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="131" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A131" s="40"/>
       <c r="B131" s="20" t="s">
         <v>109</v>
@@ -5767,7 +5768,7 @@
         <v>137</v>
       </c>
     </row>
-    <row r="132" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="132" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A132" s="40"/>
       <c r="B132" s="20" t="s">
         <v>136</v>
@@ -5791,7 +5792,7 @@
         <v>38416</v>
       </c>
     </row>
-    <row r="133" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="133" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A133" s="40">
         <v>38473</v>
       </c>
@@ -5817,7 +5818,7 @@
         <v>139</v>
       </c>
     </row>
-    <row r="134" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="134" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A134" s="40"/>
       <c r="B134" s="20" t="s">
         <v>53</v>
@@ -5839,7 +5840,7 @@
         <v>140</v>
       </c>
     </row>
-    <row r="135" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="135" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A135" s="40"/>
       <c r="B135" s="20" t="s">
         <v>138</v>
@@ -5859,7 +5860,7 @@
       <c r="J135" s="11"/>
       <c r="K135" s="20"/>
     </row>
-    <row r="136" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="136" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A136" s="40">
         <v>38504</v>
       </c>
@@ -5885,7 +5886,7 @@
         <v>143</v>
       </c>
     </row>
-    <row r="137" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="137" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A137" s="40"/>
       <c r="B137" s="20" t="s">
         <v>141</v>
@@ -5905,7 +5906,7 @@
         <v>144</v>
       </c>
     </row>
-    <row r="138" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="138" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A138" s="40"/>
       <c r="B138" s="20" t="s">
         <v>142</v>
@@ -5925,7 +5926,7 @@
         <v>145</v>
       </c>
     </row>
-    <row r="139" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="139" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A139" s="40">
         <v>38534</v>
       </c>
@@ -5949,7 +5950,7 @@
         <v>148</v>
       </c>
     </row>
-    <row r="140" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="140" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A140" s="40"/>
       <c r="B140" s="20" t="s">
         <v>101</v>
@@ -5969,7 +5970,7 @@
         <v>38663</v>
       </c>
     </row>
-    <row r="141" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="141" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A141" s="40"/>
       <c r="B141" s="20" t="s">
         <v>101</v>
@@ -5989,7 +5990,7 @@
         <v>149</v>
       </c>
     </row>
-    <row r="142" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="142" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A142" s="40"/>
       <c r="B142" s="20" t="s">
         <v>147</v>
@@ -6009,7 +6010,7 @@
       <c r="J142" s="11"/>
       <c r="K142" s="20"/>
     </row>
-    <row r="143" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="143" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A143" s="40">
         <v>38565</v>
       </c>
@@ -6033,7 +6034,7 @@
       <c r="J143" s="11"/>
       <c r="K143" s="20"/>
     </row>
-    <row r="144" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="144" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A144" s="40">
         <v>38596</v>
       </c>
@@ -6059,7 +6060,7 @@
         <v>152</v>
       </c>
     </row>
-    <row r="145" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="145" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A145" s="40"/>
       <c r="B145" s="20" t="s">
         <v>109</v>
@@ -6081,7 +6082,7 @@
         <v>153</v>
       </c>
     </row>
-    <row r="146" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="146" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A146" s="41"/>
       <c r="B146" s="15" t="s">
         <v>151</v>
@@ -6101,7 +6102,7 @@
       <c r="J146" s="12"/>
       <c r="K146" s="15"/>
     </row>
-    <row r="147" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="147" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A147" s="40">
         <v>38626</v>
       </c>
@@ -6127,7 +6128,7 @@
         <v>157</v>
       </c>
     </row>
-    <row r="148" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="148" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A148" s="40"/>
       <c r="B148" s="20" t="s">
         <v>146</v>
@@ -6149,7 +6150,7 @@
         <v>158</v>
       </c>
     </row>
-    <row r="149" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="149" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A149" s="40"/>
       <c r="B149" s="20" t="s">
         <v>154</v>
@@ -6171,7 +6172,7 @@
         <v>159</v>
       </c>
     </row>
-    <row r="150" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="150" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A150" s="40"/>
       <c r="B150" s="20" t="s">
         <v>155</v>
@@ -6193,7 +6194,7 @@
         <v>160</v>
       </c>
     </row>
-    <row r="151" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="151" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A151" s="40"/>
       <c r="B151" s="20" t="s">
         <v>161</v>
@@ -6213,7 +6214,7 @@
       <c r="J151" s="11"/>
       <c r="K151" s="20"/>
     </row>
-    <row r="152" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="152" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A152" s="40">
         <v>38657</v>
       </c>
@@ -6239,7 +6240,7 @@
         <v>162</v>
       </c>
     </row>
-    <row r="153" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="153" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A153" s="40"/>
       <c r="B153" s="20" t="s">
         <v>156</v>
@@ -6259,7 +6260,7 @@
       <c r="J153" s="11"/>
       <c r="K153" s="20"/>
     </row>
-    <row r="154" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="154" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A154" s="40">
         <v>38687</v>
       </c>
@@ -6283,7 +6284,7 @@
       <c r="J154" s="11"/>
       <c r="K154" s="20"/>
     </row>
-    <row r="155" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="155" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A155" s="23" t="s">
         <v>164</v>
       </c>
@@ -6301,7 +6302,7 @@
       <c r="J155" s="11"/>
       <c r="K155" s="20"/>
     </row>
-    <row r="156" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="156" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A156" s="40">
         <v>38718</v>
       </c>
@@ -6325,7 +6326,7 @@
         <v>167</v>
       </c>
     </row>
-    <row r="157" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="157" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A157" s="41"/>
       <c r="B157" s="15" t="s">
         <v>141</v>
@@ -6345,7 +6346,7 @@
         <v>168</v>
       </c>
     </row>
-    <row r="158" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="158" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A158" s="40"/>
       <c r="B158" s="20" t="s">
         <v>101</v>
@@ -6367,7 +6368,7 @@
         <v>169</v>
       </c>
     </row>
-    <row r="159" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="159" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A159" s="40"/>
       <c r="B159" s="20" t="s">
         <v>166</v>
@@ -6387,7 +6388,7 @@
       <c r="J159" s="11"/>
       <c r="K159" s="20"/>
     </row>
-    <row r="160" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="160" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A160" s="40">
         <v>38749</v>
       </c>
@@ -6413,7 +6414,7 @@
         <v>38750</v>
       </c>
     </row>
-    <row r="161" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="161" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A161" s="40"/>
       <c r="B161" s="20" t="s">
         <v>53</v>
@@ -6435,7 +6436,7 @@
         <v>171</v>
       </c>
     </row>
-    <row r="162" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="162" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A162" s="40"/>
       <c r="B162" s="20" t="s">
         <v>170</v>
@@ -6455,7 +6456,7 @@
       <c r="J162" s="11"/>
       <c r="K162" s="20"/>
     </row>
-    <row r="163" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="163" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A163" s="40">
         <v>38777</v>
       </c>
@@ -6481,7 +6482,7 @@
         <v>38871</v>
       </c>
     </row>
-    <row r="164" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="164" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A164" s="40"/>
       <c r="B164" s="20" t="s">
         <v>173</v>
@@ -6501,7 +6502,7 @@
       <c r="J164" s="11"/>
       <c r="K164" s="20"/>
     </row>
-    <row r="165" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="165" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A165" s="40">
         <v>38808</v>
       </c>
@@ -6527,7 +6528,7 @@
         <v>38872</v>
       </c>
     </row>
-    <row r="166" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="166" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A166" s="40"/>
       <c r="B166" s="20" t="s">
         <v>48</v>
@@ -6549,7 +6550,7 @@
         <v>38842</v>
       </c>
     </row>
-    <row r="167" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="167" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A167" s="40"/>
       <c r="B167" s="20" t="s">
         <v>53</v>
@@ -6571,7 +6572,7 @@
         <v>175</v>
       </c>
     </row>
-    <row r="168" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="168" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A168" s="40"/>
       <c r="B168" s="20" t="s">
         <v>53</v>
@@ -6593,7 +6594,7 @@
         <v>176</v>
       </c>
     </row>
-    <row r="169" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="169" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A169" s="40"/>
       <c r="B169" s="20" t="s">
         <v>174</v>
@@ -6617,7 +6618,7 @@
         <v>177</v>
       </c>
     </row>
-    <row r="170" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="170" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A170" s="40">
         <v>38838</v>
       </c>
@@ -6639,7 +6640,7 @@
       <c r="J170" s="11"/>
       <c r="K170" s="20"/>
     </row>
-    <row r="171" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="171" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A171" s="40"/>
       <c r="B171" s="20" t="s">
         <v>179</v>
@@ -6663,7 +6664,7 @@
         <v>180</v>
       </c>
     </row>
-    <row r="172" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="172" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A172" s="40">
         <v>38869</v>
       </c>
@@ -6689,7 +6690,7 @@
         <v>38904</v>
       </c>
     </row>
-    <row r="173" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="173" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A173" s="40"/>
       <c r="B173" s="20" t="s">
         <v>181</v>
@@ -6709,7 +6710,7 @@
       <c r="J173" s="11"/>
       <c r="K173" s="20"/>
     </row>
-    <row r="174" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="174" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A174" s="41">
         <v>38899</v>
       </c>
@@ -6735,7 +6736,7 @@
         <v>183</v>
       </c>
     </row>
-    <row r="175" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="175" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A175" s="40"/>
       <c r="B175" s="20" t="s">
         <v>182</v>
@@ -6755,7 +6756,7 @@
       <c r="J175" s="11"/>
       <c r="K175" s="20"/>
     </row>
-    <row r="176" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="176" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A176" s="40">
         <v>38930</v>
       </c>
@@ -6781,7 +6782,7 @@
         <v>185</v>
       </c>
     </row>
-    <row r="177" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="177" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A177" s="40"/>
       <c r="B177" s="20" t="s">
         <v>101</v>
@@ -6803,7 +6804,7 @@
         <v>186</v>
       </c>
     </row>
-    <row r="178" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="178" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A178" s="40"/>
       <c r="B178" s="20" t="s">
         <v>146</v>
@@ -6825,7 +6826,7 @@
         <v>187</v>
       </c>
     </row>
-    <row r="179" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="179" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A179" s="40"/>
       <c r="B179" s="20" t="s">
         <v>146</v>
@@ -6847,7 +6848,7 @@
         <v>188</v>
       </c>
     </row>
-    <row r="180" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="180" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A180" s="40"/>
       <c r="B180" s="20" t="s">
         <v>184</v>
@@ -6867,7 +6868,7 @@
       <c r="J180" s="11"/>
       <c r="K180" s="49"/>
     </row>
-    <row r="181" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="181" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A181" s="40">
         <v>38961</v>
       </c>
@@ -6893,7 +6894,7 @@
         <v>191</v>
       </c>
     </row>
-    <row r="182" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="182" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A182" s="40"/>
       <c r="B182" s="20" t="s">
         <v>189</v>
@@ -6915,7 +6916,7 @@
         <v>192</v>
       </c>
     </row>
-    <row r="183" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="183" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A183" s="40"/>
       <c r="B183" s="20" t="s">
         <v>190</v>
@@ -6935,7 +6936,7 @@
       <c r="J183" s="11"/>
       <c r="K183" s="20"/>
     </row>
-    <row r="184" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="184" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A184" s="40">
         <v>38991</v>
       </c>
@@ -6961,7 +6962,7 @@
         <v>194</v>
       </c>
     </row>
-    <row r="185" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="185" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A185" s="40"/>
       <c r="B185" s="20" t="s">
         <v>53</v>
@@ -6983,7 +6984,7 @@
         <v>195</v>
       </c>
     </row>
-    <row r="186" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="186" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A186" s="40"/>
       <c r="B186" s="20" t="s">
         <v>193</v>
@@ -7003,7 +7004,7 @@
       <c r="J186" s="11"/>
       <c r="K186" s="20"/>
     </row>
-    <row r="187" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="187" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A187" s="40">
         <v>39022</v>
       </c>
@@ -7029,7 +7030,7 @@
         <v>198</v>
       </c>
     </row>
-    <row r="188" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="188" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A188" s="40"/>
       <c r="B188" s="20" t="s">
         <v>101</v>
@@ -7051,7 +7052,7 @@
         <v>199</v>
       </c>
     </row>
-    <row r="189" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="189" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A189" s="40"/>
       <c r="B189" s="20" t="s">
         <v>101</v>
@@ -7073,7 +7074,7 @@
         <v>200</v>
       </c>
     </row>
-    <row r="190" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="190" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A190" s="41"/>
       <c r="B190" s="15" t="s">
         <v>197</v>
@@ -7093,7 +7094,7 @@
       <c r="J190" s="12"/>
       <c r="K190" s="15"/>
     </row>
-    <row r="191" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="191" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A191" s="40">
         <v>39052</v>
       </c>
@@ -7115,7 +7116,7 @@
       <c r="J191" s="11"/>
       <c r="K191" s="20"/>
     </row>
-    <row r="192" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="192" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A192" s="40"/>
       <c r="B192" s="20" t="s">
         <v>101</v>
@@ -7137,7 +7138,7 @@
         <v>203</v>
       </c>
     </row>
-    <row r="193" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="193" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A193" s="40"/>
       <c r="B193" s="20" t="s">
         <v>202</v>
@@ -7161,7 +7162,7 @@
         <v>204</v>
       </c>
     </row>
-    <row r="194" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="194" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A194" s="23" t="s">
         <v>205</v>
       </c>
@@ -7179,7 +7180,7 @@
       <c r="J194" s="11"/>
       <c r="K194" s="20"/>
     </row>
-    <row r="195" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="195" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A195" s="40">
         <v>39083</v>
       </c>
@@ -7203,7 +7204,7 @@
         <v>208</v>
       </c>
     </row>
-    <row r="196" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="196" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A196" s="40"/>
       <c r="B196" s="20" t="s">
         <v>154</v>
@@ -7225,7 +7226,7 @@
         <v>209</v>
       </c>
     </row>
-    <row r="197" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="197" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A197" s="40"/>
       <c r="B197" s="20" t="s">
         <v>206</v>
@@ -7245,7 +7246,7 @@
         <v>210</v>
       </c>
     </row>
-    <row r="198" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="198" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A198" s="40"/>
       <c r="B198" s="20" t="s">
         <v>207</v>
@@ -7265,7 +7266,7 @@
       <c r="J198" s="11"/>
       <c r="K198" s="20"/>
     </row>
-    <row r="199" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="199" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A199" s="40">
         <v>39114</v>
       </c>
@@ -7291,7 +7292,7 @@
         <v>211</v>
       </c>
     </row>
-    <row r="200" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="200" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A200" s="40">
         <v>39142</v>
       </c>
@@ -7315,7 +7316,7 @@
       <c r="J200" s="11"/>
       <c r="K200" s="20"/>
     </row>
-    <row r="201" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="201" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A201" s="40">
         <v>39173</v>
       </c>
@@ -7341,7 +7342,7 @@
         <v>214</v>
       </c>
     </row>
-    <row r="202" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="202" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A202" s="40"/>
       <c r="B202" s="20" t="s">
         <v>146</v>
@@ -7363,7 +7364,7 @@
         <v>215</v>
       </c>
     </row>
-    <row r="203" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="203" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A203" s="40"/>
       <c r="B203" s="20" t="s">
         <v>213</v>
@@ -7383,7 +7384,7 @@
       <c r="J203" s="11"/>
       <c r="K203" s="20"/>
     </row>
-    <row r="204" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="204" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A204" s="40">
         <v>39203</v>
       </c>
@@ -7409,7 +7410,7 @@
         <v>217</v>
       </c>
     </row>
-    <row r="205" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="205" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A205" s="41"/>
       <c r="B205" s="15" t="s">
         <v>216</v>
@@ -7429,7 +7430,7 @@
       <c r="J205" s="12"/>
       <c r="K205" s="15"/>
     </row>
-    <row r="206" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="206" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A206" s="40">
         <v>39234</v>
       </c>
@@ -7455,7 +7456,7 @@
         <v>219</v>
       </c>
     </row>
-    <row r="207" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="207" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A207" s="40"/>
       <c r="B207" s="20" t="s">
         <v>218</v>
@@ -7475,7 +7476,7 @@
       <c r="J207" s="11"/>
       <c r="K207" s="20"/>
     </row>
-    <row r="208" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="208" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A208" s="40">
         <v>39264</v>
       </c>
@@ -7501,7 +7502,7 @@
         <v>39393</v>
       </c>
     </row>
-    <row r="209" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="209" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A209" s="40"/>
       <c r="B209" s="20" t="s">
         <v>220</v>
@@ -7523,7 +7524,7 @@
         <v>222</v>
       </c>
     </row>
-    <row r="210" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="210" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A210" s="40"/>
       <c r="B210" s="20" t="s">
         <v>221</v>
@@ -7543,7 +7544,7 @@
       <c r="J210" s="11"/>
       <c r="K210" s="20"/>
     </row>
-    <row r="211" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="211" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A211" s="40">
         <v>39295</v>
       </c>
@@ -7567,7 +7568,7 @@
         <v>225</v>
       </c>
     </row>
-    <row r="212" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="212" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A212" s="40"/>
       <c r="B212" s="20" t="s">
         <v>224</v>
@@ -7587,7 +7588,7 @@
       <c r="J212" s="11"/>
       <c r="K212" s="20"/>
     </row>
-    <row r="213" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="213" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A213" s="40">
         <v>39326</v>
       </c>
@@ -7613,7 +7614,7 @@
         <v>228</v>
       </c>
     </row>
-    <row r="214" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="214" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A214" s="40"/>
       <c r="B214" s="20" t="s">
         <v>226</v>
@@ -7635,7 +7636,7 @@
         <v>229</v>
       </c>
     </row>
-    <row r="215" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="215" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A215" s="40"/>
       <c r="B215" s="20" t="s">
         <v>223</v>
@@ -7657,7 +7658,7 @@
         <v>230</v>
       </c>
     </row>
-    <row r="216" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="216" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A216" s="40"/>
       <c r="B216" s="20" t="s">
         <v>227</v>
@@ -7677,7 +7678,7 @@
       <c r="J216" s="11"/>
       <c r="K216" s="20"/>
     </row>
-    <row r="217" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="217" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A217" s="40">
         <v>39356</v>
       </c>
@@ -7701,7 +7702,7 @@
         <v>39304</v>
       </c>
     </row>
-    <row r="218" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="218" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A218" s="40"/>
       <c r="B218" s="20" t="s">
         <v>231</v>
@@ -7721,7 +7722,7 @@
       <c r="J218" s="11"/>
       <c r="K218" s="20"/>
     </row>
-    <row r="219" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="219" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A219" s="40"/>
       <c r="B219" s="20" t="s">
         <v>232</v>
@@ -7743,7 +7744,7 @@
         <v>233</v>
       </c>
     </row>
-    <row r="220" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="220" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A220" s="40">
         <v>39387</v>
       </c>
@@ -7765,7 +7766,7 @@
       <c r="J220" s="11"/>
       <c r="K220" s="20"/>
     </row>
-    <row r="221" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="221" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A221" s="40"/>
       <c r="B221" s="20" t="s">
         <v>226</v>
@@ -7787,7 +7788,7 @@
         <v>235</v>
       </c>
     </row>
-    <row r="222" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="222" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A222" s="40"/>
       <c r="B222" s="20" t="s">
         <v>223</v>
@@ -7809,7 +7810,7 @@
         <v>236</v>
       </c>
     </row>
-    <row r="223" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="223" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A223" s="41"/>
       <c r="B223" s="15" t="s">
         <v>234</v>
@@ -7833,7 +7834,7 @@
         <v>237</v>
       </c>
     </row>
-    <row r="224" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="224" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A224" s="40">
         <v>39417</v>
       </c>
@@ -7857,7 +7858,7 @@
         <v>240</v>
       </c>
     </row>
-    <row r="225" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="225" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A225" s="40"/>
       <c r="B225" s="20" t="s">
         <v>226</v>
@@ -7877,7 +7878,7 @@
         <v>39367</v>
       </c>
     </row>
-    <row r="226" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="226" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A226" s="40"/>
       <c r="B226" s="20" t="s">
         <v>226</v>
@@ -7897,7 +7898,7 @@
         <v>241</v>
       </c>
     </row>
-    <row r="227" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="227" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A227" s="40"/>
       <c r="B227" s="20" t="s">
         <v>226</v>
@@ -7917,7 +7918,7 @@
         <v>242</v>
       </c>
     </row>
-    <row r="228" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="228" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A228" s="40"/>
       <c r="B228" s="20" t="s">
         <v>239</v>
@@ -7937,7 +7938,7 @@
       <c r="J228" s="11"/>
       <c r="K228" s="20"/>
     </row>
-    <row r="229" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="229" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A229" s="23" t="s">
         <v>243</v>
       </c>
@@ -7955,7 +7956,7 @@
       <c r="J229" s="11"/>
       <c r="K229" s="20"/>
     </row>
-    <row r="230" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="230" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A230" s="40">
         <v>39448</v>
       </c>
@@ -7979,7 +7980,7 @@
         <v>245</v>
       </c>
     </row>
-    <row r="231" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="231" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A231" s="40"/>
       <c r="B231" s="20" t="s">
         <v>165</v>
@@ -7999,7 +8000,7 @@
         <v>246</v>
       </c>
     </row>
-    <row r="232" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="232" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A232" s="40"/>
       <c r="B232" s="20" t="s">
         <v>244</v>
@@ -8019,7 +8020,7 @@
       <c r="J232" s="11"/>
       <c r="K232" s="20"/>
     </row>
-    <row r="233" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="233" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A233" s="40">
         <v>39479</v>
       </c>
@@ -8045,7 +8046,7 @@
         <v>249</v>
       </c>
     </row>
-    <row r="234" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="234" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A234" s="40"/>
       <c r="B234" s="20" t="s">
         <v>223</v>
@@ -8067,7 +8068,7 @@
         <v>39662</v>
       </c>
     </row>
-    <row r="235" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="235" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A235" s="40"/>
       <c r="B235" s="20" t="s">
         <v>223</v>
@@ -8089,7 +8090,7 @@
         <v>39693</v>
       </c>
     </row>
-    <row r="236" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="236" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A236" s="40"/>
       <c r="B236" s="20" t="s">
         <v>223</v>
@@ -8111,7 +8112,7 @@
         <v>250</v>
       </c>
     </row>
-    <row r="237" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="237" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A237" s="40"/>
       <c r="B237" s="20" t="s">
         <v>248</v>
@@ -8128,7 +8129,7 @@
       <c r="J237" s="11"/>
       <c r="K237" s="20"/>
     </row>
-    <row r="238" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="238" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A238" s="41">
         <v>68728</v>
       </c>
@@ -8149,7 +8150,7 @@
         <v>251</v>
       </c>
     </row>
-    <row r="239" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="239" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A239" s="40"/>
       <c r="B239" s="20" t="s">
         <v>247</v>
@@ -8166,7 +8167,7 @@
         <v>252</v>
       </c>
     </row>
-    <row r="240" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="240" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A240" s="40"/>
       <c r="B240" s="20" t="s">
         <v>247</v>
@@ -8183,7 +8184,7 @@
         <v>39482</v>
       </c>
     </row>
-    <row r="241" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="241" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A241" s="40"/>
       <c r="B241" s="20" t="s">
         <v>253</v>
@@ -8200,7 +8201,7 @@
       <c r="J241" s="11"/>
       <c r="K241" s="49"/>
     </row>
-    <row r="242" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="242" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A242" s="40">
         <v>39539</v>
       </c>
@@ -8223,7 +8224,7 @@
         <v>255</v>
       </c>
     </row>
-    <row r="243" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="243" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A243" s="40"/>
       <c r="B243" s="20" t="s">
         <v>146</v>
@@ -8242,7 +8243,7 @@
         <v>256</v>
       </c>
     </row>
-    <row r="244" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="244" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A244" s="40"/>
       <c r="B244" s="20" t="s">
         <v>254</v>
@@ -8259,7 +8260,7 @@
       <c r="J244" s="11"/>
       <c r="K244" s="20"/>
     </row>
-    <row r="245" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="245" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A245" s="40">
         <v>39569</v>
       </c>
@@ -8282,7 +8283,7 @@
         <v>39696</v>
       </c>
     </row>
-    <row r="246" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="246" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A246" s="40"/>
       <c r="B246" s="20" t="s">
         <v>101</v>
@@ -8301,7 +8302,7 @@
         <v>258</v>
       </c>
     </row>
-    <row r="247" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="247" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A247" s="40"/>
       <c r="B247" s="20" t="s">
         <v>101</v>
@@ -8320,7 +8321,7 @@
         <v>259</v>
       </c>
     </row>
-    <row r="248" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="248" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A248" s="40"/>
       <c r="B248" s="20" t="s">
         <v>101</v>
@@ -8335,7 +8336,7 @@
       <c r="J248" s="11"/>
       <c r="K248" s="20"/>
     </row>
-    <row r="249" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="249" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A249" s="40"/>
       <c r="B249" s="20" t="s">
         <v>257</v>
@@ -8352,7 +8353,7 @@
       <c r="J249" s="11"/>
       <c r="K249" s="20"/>
     </row>
-    <row r="250" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="250" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A250" s="40">
         <v>39600</v>
       </c>
@@ -8378,7 +8379,7 @@
         <v>261</v>
       </c>
     </row>
-    <row r="251" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="251" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A251" s="40"/>
       <c r="B251" s="20" t="s">
         <v>223</v>
@@ -8400,7 +8401,7 @@
         <v>262</v>
       </c>
     </row>
-    <row r="252" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="252" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A252" s="40"/>
       <c r="B252" s="20" t="s">
         <v>260</v>
@@ -8420,7 +8421,7 @@
       <c r="J252" s="11"/>
       <c r="K252" s="20"/>
     </row>
-    <row r="253" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="253" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A253" s="40">
         <v>39630</v>
       </c>
@@ -8444,7 +8445,7 @@
       <c r="J253" s="11"/>
       <c r="K253" s="20"/>
     </row>
-    <row r="254" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="254" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A254" s="40">
         <v>39661</v>
       </c>
@@ -8468,7 +8469,7 @@
       <c r="J254" s="11"/>
       <c r="K254" s="20"/>
     </row>
-    <row r="255" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="255" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A255" s="41">
         <v>39692</v>
       </c>
@@ -8494,7 +8495,7 @@
         <v>39577</v>
       </c>
     </row>
-    <row r="256" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="256" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A256" s="40"/>
       <c r="B256" s="20" t="s">
         <v>223</v>
@@ -8516,7 +8517,7 @@
         <v>39700</v>
       </c>
     </row>
-    <row r="257" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="257" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A257" s="40"/>
       <c r="B257" s="20" t="s">
         <v>223</v>
@@ -8538,7 +8539,7 @@
         <v>266</v>
       </c>
     </row>
-    <row r="258" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="258" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A258" s="40"/>
       <c r="B258" s="20" t="s">
         <v>223</v>
@@ -8558,7 +8559,7 @@
       <c r="J258" s="11"/>
       <c r="K258" s="20"/>
     </row>
-    <row r="259" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="259" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A259" s="40"/>
       <c r="B259" s="20" t="s">
         <v>265</v>
@@ -8578,7 +8579,7 @@
       <c r="J259" s="11"/>
       <c r="K259" s="20"/>
     </row>
-    <row r="260" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="260" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A260" s="40">
         <v>39722</v>
       </c>
@@ -8602,7 +8603,7 @@
         <v>267</v>
       </c>
     </row>
-    <row r="261" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="261" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A261" s="40"/>
       <c r="B261" s="20" t="s">
         <v>223</v>
@@ -8622,7 +8623,7 @@
         <v>268</v>
       </c>
     </row>
-    <row r="262" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="262" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A262" s="40"/>
       <c r="B262" s="20" t="s">
         <v>247</v>
@@ -8644,7 +8645,7 @@
         <v>271</v>
       </c>
     </row>
-    <row r="263" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="263" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A263" s="40"/>
       <c r="B263" s="20" t="s">
         <v>270</v>
@@ -8664,7 +8665,7 @@
       <c r="J263" s="11"/>
       <c r="K263" s="20"/>
     </row>
-    <row r="264" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="264" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A264" s="40">
         <v>39753</v>
       </c>
@@ -8690,7 +8691,7 @@
         <v>274</v>
       </c>
     </row>
-    <row r="265" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="265" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A265" s="40"/>
       <c r="B265" s="20" t="s">
         <v>272</v>
@@ -8712,7 +8713,7 @@
         <v>275</v>
       </c>
     </row>
-    <row r="266" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="266" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A266" s="40"/>
       <c r="B266" s="20" t="s">
         <v>273</v>
@@ -8732,7 +8733,7 @@
       <c r="J266" s="11"/>
       <c r="K266" s="20"/>
     </row>
-    <row r="267" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="267" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A267" s="40">
         <v>39783</v>
       </c>
@@ -8758,7 +8759,7 @@
         <v>39783</v>
       </c>
     </row>
-    <row r="268" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="268" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A268" s="40"/>
       <c r="B268" s="20" t="s">
         <v>101</v>
@@ -8780,7 +8781,7 @@
         <v>277</v>
       </c>
     </row>
-    <row r="269" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="269" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A269" s="40"/>
       <c r="B269" s="20" t="s">
         <v>276</v>
@@ -8800,7 +8801,7 @@
       <c r="J269" s="11"/>
       <c r="K269" s="20"/>
     </row>
-    <row r="270" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="270" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A270" s="40"/>
       <c r="B270" s="20"/>
       <c r="C270" s="13"/>
@@ -8816,7 +8817,7 @@
       <c r="J270" s="11"/>
       <c r="K270" s="20"/>
     </row>
-    <row r="271" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="271" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A271" s="54" t="s">
         <v>269</v>
       </c>
@@ -8836,7 +8837,7 @@
       <c r="J271" s="12"/>
       <c r="K271" s="15"/>
     </row>
-    <row r="272" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="272" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A272" s="40">
         <v>39814</v>
       </c>
@@ -8860,7 +8861,7 @@
         <v>279</v>
       </c>
     </row>
-    <row r="273" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="273" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A273" s="40"/>
       <c r="B273" s="20" t="s">
         <v>278</v>
@@ -8880,7 +8881,7 @@
       <c r="J273" s="11"/>
       <c r="K273" s="20"/>
     </row>
-    <row r="274" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="274" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A274" s="40">
         <v>39845</v>
       </c>
@@ -8904,7 +8905,7 @@
       <c r="J274" s="11"/>
       <c r="K274" s="20"/>
     </row>
-    <row r="275" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="275" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A275" s="40">
         <v>39873</v>
       </c>
@@ -8930,7 +8931,7 @@
         <v>282</v>
       </c>
     </row>
-    <row r="276" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="276" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A276" s="40"/>
       <c r="B276" s="20" t="s">
         <v>165</v>
@@ -8950,7 +8951,7 @@
         <v>283</v>
       </c>
     </row>
-    <row r="277" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="277" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A277" s="40"/>
       <c r="B277" s="20" t="s">
         <v>165</v>
@@ -8970,7 +8971,7 @@
         <v>284</v>
       </c>
     </row>
-    <row r="278" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="278" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A278" s="40"/>
       <c r="B278" s="20" t="s">
         <v>165</v>
@@ -8990,7 +8991,7 @@
         <v>285</v>
       </c>
     </row>
-    <row r="279" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="279" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A279" s="40"/>
       <c r="B279" s="20" t="s">
         <v>281</v>
@@ -9008,7 +9009,7 @@
       <c r="J279" s="11"/>
       <c r="K279" s="20"/>
     </row>
-    <row r="280" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="280" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A280" s="40">
         <v>39904</v>
       </c>
@@ -9034,7 +9035,7 @@
         <v>287</v>
       </c>
     </row>
-    <row r="281" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="281" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A281" s="40"/>
       <c r="B281" s="20" t="s">
         <v>223</v>
@@ -9056,7 +9057,7 @@
         <v>39938</v>
       </c>
     </row>
-    <row r="282" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="282" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A282" s="41"/>
       <c r="B282" s="15" t="s">
         <v>286</v>
@@ -9074,7 +9075,7 @@
       <c r="J282" s="12"/>
       <c r="K282" s="15"/>
     </row>
-    <row r="283" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="283" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A283" s="40">
         <v>39934</v>
       </c>
@@ -9100,7 +9101,7 @@
         <v>40030</v>
       </c>
     </row>
-    <row r="284" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="284" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A284" s="40"/>
       <c r="B284" s="20" t="s">
         <v>288</v>
@@ -9120,7 +9121,7 @@
       <c r="J284" s="11"/>
       <c r="K284" s="20"/>
     </row>
-    <row r="285" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="285" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A285" s="40">
         <v>39965</v>
       </c>
@@ -9146,7 +9147,7 @@
         <v>290</v>
       </c>
     </row>
-    <row r="286" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="286" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A286" s="40"/>
       <c r="B286" s="20" t="s">
         <v>289</v>
@@ -9166,7 +9167,7 @@
       <c r="J286" s="11"/>
       <c r="K286" s="20"/>
     </row>
-    <row r="287" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="287" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A287" s="40">
         <v>39995</v>
       </c>
@@ -9190,7 +9191,7 @@
       <c r="J287" s="11"/>
       <c r="K287" s="20"/>
     </row>
-    <row r="288" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="288" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A288" s="40">
         <v>40026</v>
       </c>
@@ -9216,7 +9217,7 @@
         <v>293</v>
       </c>
     </row>
-    <row r="289" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="289" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A289" s="40"/>
       <c r="B289" s="20" t="s">
         <v>292</v>
@@ -9238,7 +9239,7 @@
         <v>294</v>
       </c>
     </row>
-    <row r="290" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="290" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A290" s="40"/>
       <c r="B290" s="20" t="s">
         <v>296</v>
@@ -9258,7 +9259,7 @@
       <c r="J290" s="11"/>
       <c r="K290" s="20"/>
     </row>
-    <row r="291" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="291" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A291" s="40">
         <v>40057</v>
       </c>
@@ -9282,7 +9283,7 @@
       <c r="J291" s="11"/>
       <c r="K291" s="20"/>
     </row>
-    <row r="292" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="292" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A292" s="40">
         <v>40087</v>
       </c>
@@ -9308,7 +9309,7 @@
         <v>299</v>
       </c>
     </row>
-    <row r="293" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="293" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A293" s="40"/>
       <c r="B293" s="20" t="s">
         <v>298</v>
@@ -9328,7 +9329,7 @@
       <c r="J293" s="11"/>
       <c r="K293" s="20"/>
     </row>
-    <row r="294" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="294" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A294" s="40">
         <v>40118</v>
       </c>
@@ -9354,7 +9355,7 @@
         <v>40067</v>
       </c>
     </row>
-    <row r="295" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="295" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A295" s="40"/>
       <c r="B295" s="20" t="s">
         <v>223</v>
@@ -9376,7 +9377,7 @@
         <v>301</v>
       </c>
     </row>
-    <row r="296" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="296" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A296" s="40"/>
       <c r="B296" s="20" t="s">
         <v>300</v>
@@ -9396,7 +9397,7 @@
       <c r="J296" s="11"/>
       <c r="K296" s="20"/>
     </row>
-    <row r="297" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="297" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A297" s="41">
         <v>40148</v>
       </c>
@@ -9422,7 +9423,7 @@
         <v>303</v>
       </c>
     </row>
-    <row r="298" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="298" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A298" s="40"/>
       <c r="B298" s="20" t="s">
         <v>302</v>
@@ -9442,7 +9443,7 @@
       <c r="J298" s="11"/>
       <c r="K298" s="20"/>
     </row>
-    <row r="299" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="299" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A299" s="23" t="s">
         <v>304</v>
       </c>
@@ -9460,7 +9461,7 @@
       <c r="J299" s="11"/>
       <c r="K299" s="20"/>
     </row>
-    <row r="300" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="300" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A300" s="40">
         <v>40179</v>
       </c>
@@ -9484,7 +9485,7 @@
         <v>305</v>
       </c>
     </row>
-    <row r="301" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="301" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A301" s="40"/>
       <c r="B301" s="20" t="s">
         <v>292</v>
@@ -9506,7 +9507,7 @@
         <v>306</v>
       </c>
     </row>
-    <row r="302" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="302" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A302" s="40"/>
       <c r="B302" s="20" t="s">
         <v>555</v>
@@ -9526,7 +9527,7 @@
       <c r="J302" s="11"/>
       <c r="K302" s="20"/>
     </row>
-    <row r="303" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="303" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A303" s="40">
         <v>40210</v>
       </c>
@@ -9552,7 +9553,7 @@
         <v>40453</v>
       </c>
     </row>
-    <row r="304" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="304" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A304" s="40"/>
       <c r="B304" s="20" t="s">
         <v>226</v>
@@ -9574,7 +9575,7 @@
         <v>308</v>
       </c>
     </row>
-    <row r="305" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="305" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A305" s="40"/>
       <c r="B305" s="20" t="s">
         <v>307</v>
@@ -9594,7 +9595,7 @@
       <c r="J305" s="11"/>
       <c r="K305" s="20"/>
     </row>
-    <row r="306" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="306" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A306" s="40">
         <v>40238</v>
       </c>
@@ -9620,7 +9621,7 @@
         <v>40333</v>
       </c>
     </row>
-    <row r="307" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="307" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A307" s="40"/>
       <c r="B307" s="20" t="s">
         <v>309</v>
@@ -9640,7 +9641,7 @@
         <v>311</v>
       </c>
     </row>
-    <row r="308" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="308" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A308" s="40"/>
       <c r="B308" s="20" t="s">
         <v>310</v>
@@ -9660,7 +9661,7 @@
       <c r="J308" s="11"/>
       <c r="K308" s="20"/>
     </row>
-    <row r="309" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="309" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A309" s="40">
         <v>40269</v>
       </c>
@@ -9686,7 +9687,7 @@
         <v>313</v>
       </c>
     </row>
-    <row r="310" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="310" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A310" s="40"/>
       <c r="B310" s="20" t="s">
         <v>223</v>
@@ -9708,7 +9709,7 @@
         <v>314</v>
       </c>
     </row>
-    <row r="311" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="311" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A311" s="41"/>
       <c r="B311" s="15" t="s">
         <v>312</v>
@@ -9728,7 +9729,7 @@
       <c r="J311" s="12"/>
       <c r="K311" s="15"/>
     </row>
-    <row r="312" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="312" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A312" s="40">
         <v>40299</v>
       </c>
@@ -9752,7 +9753,7 @@
         <v>40273</v>
       </c>
     </row>
-    <row r="313" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="313" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A313" s="40"/>
       <c r="B313" s="20" t="s">
         <v>278</v>
@@ -9774,7 +9775,7 @@
       <c r="J313" s="11"/>
       <c r="K313" s="20"/>
     </row>
-    <row r="314" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="314" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A314" s="40">
         <v>40330</v>
       </c>
@@ -9800,7 +9801,7 @@
         <v>40184</v>
       </c>
     </row>
-    <row r="315" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="315" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A315" s="40"/>
       <c r="B315" s="20" t="s">
         <v>165</v>
@@ -9820,7 +9821,7 @@
         <v>316</v>
       </c>
     </row>
-    <row r="316" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="316" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A316" s="40"/>
       <c r="B316" s="20" t="s">
         <v>223</v>
@@ -9842,7 +9843,7 @@
         <v>317</v>
       </c>
     </row>
-    <row r="317" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="317" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A317" s="40"/>
       <c r="B317" s="20" t="s">
         <v>315</v>
@@ -9862,7 +9863,7 @@
       <c r="J317" s="11"/>
       <c r="K317" s="20"/>
     </row>
-    <row r="318" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="318" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A318" s="40">
         <v>40360</v>
       </c>
@@ -9888,7 +9889,7 @@
         <v>40428</v>
       </c>
     </row>
-    <row r="319" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="319" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A319" s="40"/>
       <c r="B319" s="20" t="s">
         <v>247</v>
@@ -9910,7 +9911,7 @@
         <v>320</v>
       </c>
     </row>
-    <row r="320" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="320" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A320" s="40"/>
       <c r="B320" s="20" t="s">
         <v>318</v>
@@ -9932,7 +9933,7 @@
         <v>321</v>
       </c>
     </row>
-    <row r="321" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="321" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A321" s="40"/>
       <c r="B321" s="20" t="s">
         <v>319</v>
@@ -9952,7 +9953,7 @@
       <c r="J321" s="11"/>
       <c r="K321" s="20"/>
     </row>
-    <row r="322" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="322" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A322" s="41">
         <v>40391</v>
       </c>
@@ -9978,7 +9979,7 @@
         <v>324</v>
       </c>
     </row>
-    <row r="323" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="323" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A323" s="40">
         <v>40422</v>
       </c>
@@ -9998,7 +9999,7 @@
       <c r="J323" s="11"/>
       <c r="K323" s="20"/>
     </row>
-    <row r="324" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="324" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A324" s="40"/>
       <c r="B324" s="20" t="s">
         <v>323</v>
@@ -10020,7 +10021,7 @@
       <c r="J324" s="11"/>
       <c r="K324" s="20"/>
     </row>
-    <row r="325" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="325" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A325" s="40">
         <v>40452</v>
       </c>
@@ -10044,7 +10045,7 @@
         <v>326</v>
       </c>
     </row>
-    <row r="326" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="326" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A326" s="40"/>
       <c r="B326" s="20" t="s">
         <v>325</v>
@@ -10068,7 +10069,7 @@
         <v>327</v>
       </c>
     </row>
-    <row r="327" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="327" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A327" s="40">
         <v>40483</v>
       </c>
@@ -10088,7 +10089,7 @@
       <c r="J327" s="11"/>
       <c r="K327" s="20"/>
     </row>
-    <row r="328" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="328" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A328" s="40"/>
       <c r="B328" s="20" t="s">
         <v>231</v>
@@ -10112,7 +10113,7 @@
         <v>330</v>
       </c>
     </row>
-    <row r="329" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="329" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A329" s="40"/>
       <c r="B329" s="20" t="s">
         <v>329</v>
@@ -10136,7 +10137,7 @@
         <v>331</v>
       </c>
     </row>
-    <row r="330" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="330" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A330" s="40">
         <v>40513</v>
       </c>
@@ -10160,7 +10161,7 @@
       <c r="J330" s="11"/>
       <c r="K330" s="20"/>
     </row>
-    <row r="331" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="331" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A331" s="48" t="s">
         <v>333</v>
       </c>
@@ -10178,7 +10179,7 @@
       <c r="J331" s="11"/>
       <c r="K331" s="20"/>
     </row>
-    <row r="332" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="332" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A332" s="40">
         <v>40544</v>
       </c>
@@ -10202,7 +10203,7 @@
         <v>40725</v>
       </c>
     </row>
-    <row r="333" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="333" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A333" s="40"/>
       <c r="B333" s="20" t="s">
         <v>223</v>
@@ -10220,7 +10221,7 @@
       <c r="J333" s="11"/>
       <c r="K333" s="20"/>
     </row>
-    <row r="334" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="334" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A334" s="40"/>
       <c r="B334" s="20" t="s">
         <v>226</v>
@@ -10242,7 +10243,7 @@
         <v>336</v>
       </c>
     </row>
-    <row r="335" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="335" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A335" s="41"/>
       <c r="B335" s="15" t="s">
         <v>334</v>
@@ -10264,7 +10265,7 @@
         <v>337</v>
       </c>
     </row>
-    <row r="336" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="336" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A336" s="40"/>
       <c r="B336" s="20" t="s">
         <v>335</v>
@@ -10286,7 +10287,7 @@
       <c r="J336" s="11"/>
       <c r="K336" s="20"/>
     </row>
-    <row r="337" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="337" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A337" s="40">
         <v>40575</v>
       </c>
@@ -10310,7 +10311,7 @@
         <v>339</v>
       </c>
     </row>
-    <row r="338" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="338" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A338" s="40"/>
       <c r="B338" s="20" t="s">
         <v>272</v>
@@ -10330,7 +10331,7 @@
         <v>340</v>
       </c>
     </row>
-    <row r="339" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="339" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A339" s="40"/>
       <c r="B339" s="20" t="s">
         <v>165</v>
@@ -10350,7 +10351,7 @@
         <v>341</v>
       </c>
     </row>
-    <row r="340" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="340" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A340" s="40"/>
       <c r="B340" s="20" t="s">
         <v>338</v>
@@ -10372,7 +10373,7 @@
       <c r="J340" s="11"/>
       <c r="K340" s="20"/>
     </row>
-    <row r="341" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="341" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A341" s="40">
         <v>40603</v>
       </c>
@@ -10396,7 +10397,7 @@
       <c r="J341" s="11"/>
       <c r="K341" s="20"/>
     </row>
-    <row r="342" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="342" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A342" s="40">
         <v>40634</v>
       </c>
@@ -10420,7 +10421,7 @@
       <c r="J342" s="11"/>
       <c r="K342" s="20"/>
     </row>
-    <row r="343" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="343" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A343" s="40">
         <v>40664</v>
       </c>
@@ -10446,7 +10447,7 @@
         <v>344</v>
       </c>
     </row>
-    <row r="344" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="344" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A344" s="40"/>
       <c r="B344" s="20" t="s">
         <v>346</v>
@@ -10464,7 +10465,7 @@
       <c r="J344" s="11"/>
       <c r="K344" s="49"/>
     </row>
-    <row r="345" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="345" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A345" s="40">
         <v>37043</v>
       </c>
@@ -10488,7 +10489,7 @@
         <v>40792</v>
       </c>
     </row>
-    <row r="346" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="346" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A346" s="40"/>
       <c r="B346" s="20" t="s">
         <v>345</v>
@@ -10510,7 +10511,7 @@
       <c r="J346" s="11"/>
       <c r="K346" s="20"/>
     </row>
-    <row r="347" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="347" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A347" s="41">
         <v>40725</v>
       </c>
@@ -10534,7 +10535,7 @@
         <v>348</v>
       </c>
     </row>
-    <row r="348" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="348" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A348" s="40"/>
       <c r="B348" s="20" t="s">
         <v>347</v>
@@ -10556,7 +10557,7 @@
       <c r="J348" s="11"/>
       <c r="K348" s="20"/>
     </row>
-    <row r="349" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="349" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A349" s="40">
         <v>40756</v>
       </c>
@@ -10580,7 +10581,7 @@
         <v>350</v>
       </c>
     </row>
-    <row r="350" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="350" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A350" s="40"/>
       <c r="B350" s="20" t="s">
         <v>349</v>
@@ -10602,7 +10603,7 @@
       <c r="J350" s="11"/>
       <c r="K350" s="20"/>
     </row>
-    <row r="351" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="351" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A351" s="40">
         <v>40787</v>
       </c>
@@ -10626,7 +10627,7 @@
         <v>40703</v>
       </c>
     </row>
-    <row r="352" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="352" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A352" s="40"/>
       <c r="B352" s="20" t="s">
         <v>226</v>
@@ -10648,7 +10649,7 @@
         <v>352</v>
       </c>
     </row>
-    <row r="353" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="353" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A353" s="40"/>
       <c r="B353" s="20" t="s">
         <v>351</v>
@@ -10670,7 +10671,7 @@
       <c r="J353" s="11"/>
       <c r="K353" s="20"/>
     </row>
-    <row r="354" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="354" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A354" s="40">
         <v>40817</v>
       </c>
@@ -10694,7 +10695,7 @@
         <v>355</v>
       </c>
     </row>
-    <row r="355" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="355" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A355" s="40"/>
       <c r="B355" s="20" t="s">
         <v>354</v>
@@ -10716,7 +10717,7 @@
       <c r="J355" s="11"/>
       <c r="K355" s="20"/>
     </row>
-    <row r="356" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="356" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A356" s="40">
         <v>40848</v>
       </c>
@@ -10740,7 +10741,7 @@
         <v>358</v>
       </c>
     </row>
-    <row r="357" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="357" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A357" s="40"/>
       <c r="B357" s="20" t="s">
         <v>356</v>
@@ -10762,7 +10763,7 @@
       <c r="J357" s="11"/>
       <c r="K357" s="20"/>
     </row>
-    <row r="358" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="358" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A358" s="40">
         <v>40878</v>
       </c>
@@ -10786,7 +10787,7 @@
         <v>40736</v>
       </c>
     </row>
-    <row r="359" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="359" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A359" s="40"/>
       <c r="B359" s="20" t="s">
         <v>226</v>
@@ -10808,7 +10809,7 @@
         <v>359</v>
       </c>
     </row>
-    <row r="360" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="360" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A360" s="40"/>
       <c r="B360" s="20" t="s">
         <v>357</v>
@@ -10830,7 +10831,7 @@
       <c r="J360" s="11"/>
       <c r="K360" s="20"/>
     </row>
-    <row r="361" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="361" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A361" s="55" t="s">
         <v>360</v>
       </c>
@@ -10848,7 +10849,7 @@
       <c r="J361" s="12"/>
       <c r="K361" s="15"/>
     </row>
-    <row r="362" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="362" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A362" s="40">
         <v>40909</v>
       </c>
@@ -10872,7 +10873,7 @@
         <v>362</v>
       </c>
     </row>
-    <row r="363" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="363" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A363" s="40"/>
       <c r="B363" s="20" t="s">
         <v>361</v>
@@ -10892,7 +10893,7 @@
       <c r="J363" s="11"/>
       <c r="K363" s="20"/>
     </row>
-    <row r="364" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="364" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A364" s="40">
         <v>40940</v>
       </c>
@@ -10916,7 +10917,7 @@
         <v>365</v>
       </c>
     </row>
-    <row r="365" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="365" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A365" s="40"/>
       <c r="B365" s="20" t="s">
         <v>165</v>
@@ -10936,7 +10937,7 @@
         <v>366</v>
       </c>
     </row>
-    <row r="366" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="366" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A366" s="40"/>
       <c r="B366" s="20" t="s">
         <v>165</v>
@@ -10956,7 +10957,7 @@
         <v>367</v>
       </c>
     </row>
-    <row r="367" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="367" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A367" s="40"/>
       <c r="B367" s="20" t="s">
         <v>364</v>
@@ -10976,7 +10977,7 @@
       <c r="J367" s="11"/>
       <c r="K367" s="20"/>
     </row>
-    <row r="368" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="368" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A368" s="40">
         <v>40969</v>
       </c>
@@ -11000,7 +11001,7 @@
       <c r="J368" s="11"/>
       <c r="K368" s="20"/>
     </row>
-    <row r="369" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="369" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A369" s="40">
         <v>41000</v>
       </c>
@@ -11024,7 +11025,7 @@
         <v>370</v>
       </c>
     </row>
-    <row r="370" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="370" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A370" s="40"/>
       <c r="B370" s="20" t="s">
         <v>226</v>
@@ -11046,7 +11047,7 @@
         <v>371</v>
       </c>
     </row>
-    <row r="371" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="371" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A371" s="40"/>
       <c r="B371" s="20" t="s">
         <v>369</v>
@@ -11068,7 +11069,7 @@
       <c r="J371" s="11"/>
       <c r="K371" s="20"/>
     </row>
-    <row r="372" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="372" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A372" s="40">
         <v>41030</v>
       </c>
@@ -11092,7 +11093,7 @@
         <v>41126</v>
       </c>
     </row>
-    <row r="373" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="373" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A373" s="40"/>
       <c r="B373" s="20" t="s">
         <v>353</v>
@@ -11114,7 +11115,7 @@
       <c r="J373" s="11"/>
       <c r="K373" s="20"/>
     </row>
-    <row r="374" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="374" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A374" s="41">
         <v>41061</v>
       </c>
@@ -11138,7 +11139,7 @@
         <v>372</v>
       </c>
     </row>
-    <row r="375" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="375" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A375" s="40"/>
       <c r="B375" s="20" t="s">
         <v>223</v>
@@ -11162,7 +11163,7 @@
         <v>373</v>
       </c>
     </row>
-    <row r="376" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="376" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A376" s="40">
         <v>41091</v>
       </c>
@@ -11182,7 +11183,7 @@
       <c r="J376" s="11"/>
       <c r="K376" s="20"/>
     </row>
-    <row r="377" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="377" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A377" s="40"/>
       <c r="B377" s="20" t="s">
         <v>226</v>
@@ -11204,7 +11205,7 @@
         <v>375</v>
       </c>
     </row>
-    <row r="378" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="378" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A378" s="40"/>
       <c r="B378" s="20" t="s">
         <v>374</v>
@@ -11228,7 +11229,7 @@
       <c r="J378" s="11"/>
       <c r="K378" s="20"/>
     </row>
-    <row r="379" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="379" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A379" s="40">
         <v>41122</v>
       </c>
@@ -11252,7 +11253,7 @@
       <c r="J379" s="11"/>
       <c r="K379" s="20"/>
     </row>
-    <row r="380" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="380" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A380" s="40">
         <v>41153</v>
       </c>
@@ -11276,7 +11277,7 @@
         <v>377</v>
       </c>
     </row>
-    <row r="381" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="381" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A381" s="40"/>
       <c r="B381" s="20" t="s">
         <v>378</v>
@@ -11298,7 +11299,7 @@
         <v>380</v>
       </c>
     </row>
-    <row r="382" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="382" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A382" s="40"/>
       <c r="B382" s="20" t="s">
         <v>223</v>
@@ -11320,7 +11321,7 @@
         <v>381</v>
       </c>
     </row>
-    <row r="383" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="383" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A383" s="40"/>
       <c r="B383" s="20" t="s">
         <v>223</v>
@@ -11342,7 +11343,7 @@
         <v>382</v>
       </c>
     </row>
-    <row r="384" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="384" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A384" s="40"/>
       <c r="B384" s="20" t="s">
         <v>379</v>
@@ -11362,7 +11363,7 @@
       <c r="J384" s="11"/>
       <c r="K384" s="20"/>
     </row>
-    <row r="385" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="385" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A385" s="41">
         <v>41183</v>
       </c>
@@ -11386,7 +11387,7 @@
         <v>44905</v>
       </c>
     </row>
-    <row r="386" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="386" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A386" s="40"/>
       <c r="B386" s="20" t="s">
         <v>57</v>
@@ -11408,7 +11409,7 @@
         <v>384</v>
       </c>
     </row>
-    <row r="387" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="387" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A387" s="40"/>
       <c r="B387" s="20" t="s">
         <v>383</v>
@@ -11434,7 +11435,7 @@
         <v>385</v>
       </c>
     </row>
-    <row r="388" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="388" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A388" s="40">
         <v>41214</v>
       </c>
@@ -11458,7 +11459,7 @@
         <v>387</v>
       </c>
     </row>
-    <row r="389" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="389" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A389" s="40"/>
       <c r="B389" s="20" t="s">
         <v>364</v>
@@ -11480,7 +11481,7 @@
       <c r="J389" s="11"/>
       <c r="K389" s="20"/>
     </row>
-    <row r="390" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="390" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A390" s="40">
         <v>41244</v>
       </c>
@@ -11504,7 +11505,7 @@
       <c r="J390" s="11"/>
       <c r="K390" s="20"/>
     </row>
-    <row r="391" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="391" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A391" s="48" t="s">
         <v>388</v>
       </c>
@@ -11522,7 +11523,7 @@
       <c r="J391" s="11"/>
       <c r="K391" s="20"/>
     </row>
-    <row r="392" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="392" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A392" s="40">
         <v>41275</v>
       </c>
@@ -11544,7 +11545,7 @@
         <v>390</v>
       </c>
     </row>
-    <row r="393" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="393" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A393" s="40"/>
       <c r="B393" s="20" t="s">
         <v>389</v>
@@ -11566,7 +11567,7 @@
       <c r="J393" s="11"/>
       <c r="K393" s="20"/>
     </row>
-    <row r="394" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="394" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A394" s="40">
         <v>41306</v>
       </c>
@@ -11590,7 +11591,7 @@
         <v>392</v>
       </c>
     </row>
-    <row r="395" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="395" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A395" s="40"/>
       <c r="B395" s="20" t="s">
         <v>165</v>
@@ -11610,7 +11611,7 @@
         <v>393</v>
       </c>
     </row>
-    <row r="396" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="396" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A396" s="41"/>
       <c r="B396" s="15" t="s">
         <v>165</v>
@@ -11630,7 +11631,7 @@
         <v>394</v>
       </c>
     </row>
-    <row r="397" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="397" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A397" s="40">
         <v>41334</v>
       </c>
@@ -11656,7 +11657,7 @@
         <v>395</v>
       </c>
     </row>
-    <row r="398" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="398" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A398" s="40">
         <v>41365</v>
       </c>
@@ -11680,7 +11681,7 @@
       <c r="J398" s="11"/>
       <c r="K398" s="20"/>
     </row>
-    <row r="399" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="399" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A399" s="40">
         <v>41395</v>
       </c>
@@ -11706,7 +11707,7 @@
         <v>41310</v>
       </c>
     </row>
-    <row r="400" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="400" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A400" s="40"/>
       <c r="B400" s="20" t="s">
         <v>223</v>
@@ -11728,7 +11729,7 @@
         <v>41552</v>
       </c>
     </row>
-    <row r="401" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="401" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A401" s="40"/>
       <c r="B401" s="20" t="s">
         <v>397</v>
@@ -11748,7 +11749,7 @@
       <c r="J401" s="11"/>
       <c r="K401" s="20"/>
     </row>
-    <row r="402" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="402" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A402" s="40">
         <v>41426</v>
       </c>
@@ -11772,7 +11773,7 @@
       <c r="J402" s="11"/>
       <c r="K402" s="20"/>
     </row>
-    <row r="403" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="403" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A403" s="40">
         <v>41456</v>
       </c>
@@ -11796,7 +11797,7 @@
       <c r="J403" s="11"/>
       <c r="K403" s="20"/>
     </row>
-    <row r="404" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="404" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A404" s="40">
         <v>41487</v>
       </c>
@@ -11820,7 +11821,7 @@
         <v>402</v>
       </c>
     </row>
-    <row r="405" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="405" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A405" s="41"/>
       <c r="B405" s="15" t="s">
         <v>400</v>
@@ -11842,7 +11843,7 @@
       <c r="J405" s="12"/>
       <c r="K405" s="15"/>
     </row>
-    <row r="406" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="406" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A406" s="40">
         <v>41518</v>
       </c>
@@ -11866,7 +11867,7 @@
         <v>403</v>
       </c>
     </row>
-    <row r="407" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="407" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A407" s="40"/>
       <c r="B407" s="20" t="s">
         <v>401</v>
@@ -11888,7 +11889,7 @@
       <c r="J407" s="11"/>
       <c r="K407" s="20"/>
     </row>
-    <row r="408" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="408" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A408" s="40">
         <v>41548</v>
       </c>
@@ -11912,7 +11913,7 @@
         <v>405</v>
       </c>
     </row>
-    <row r="409" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="409" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A409" s="40"/>
       <c r="B409" s="20" t="s">
         <v>404</v>
@@ -11934,7 +11935,7 @@
       <c r="J409" s="11"/>
       <c r="K409" s="20"/>
     </row>
-    <row r="410" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="410" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A410" s="40">
         <v>41579</v>
       </c>
@@ -11958,7 +11959,7 @@
         <v>41405</v>
       </c>
     </row>
-    <row r="411" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="411" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A411" s="40"/>
       <c r="B411" s="20" t="s">
         <v>226</v>
@@ -11980,7 +11981,7 @@
         <v>407</v>
       </c>
     </row>
-    <row r="412" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="412" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A412" s="40"/>
       <c r="B412" s="20" t="s">
         <v>223</v>
@@ -12002,7 +12003,7 @@
         <v>41528</v>
       </c>
     </row>
-    <row r="413" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="413" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A413" s="40"/>
       <c r="B413" s="20" t="s">
         <v>406</v>
@@ -12024,7 +12025,7 @@
       <c r="J413" s="11"/>
       <c r="K413" s="20"/>
     </row>
-    <row r="414" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="414" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A414" s="40">
         <v>41609</v>
       </c>
@@ -12048,7 +12049,7 @@
         <v>41345</v>
       </c>
     </row>
-    <row r="415" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="415" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A415" s="40"/>
       <c r="B415" s="20" t="s">
         <v>364</v>
@@ -12070,7 +12071,7 @@
       <c r="J415" s="11"/>
       <c r="K415" s="20"/>
     </row>
-    <row r="416" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="416" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A416" s="23" t="s">
         <v>408</v>
       </c>
@@ -12088,7 +12089,7 @@
       <c r="J416" s="11"/>
       <c r="K416" s="20"/>
     </row>
-    <row r="417" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="417" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A417" s="41">
         <v>41640</v>
       </c>
@@ -12110,7 +12111,7 @@
         <v>410</v>
       </c>
     </row>
-    <row r="418" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="418" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A418" s="40"/>
       <c r="B418" s="20" t="s">
         <v>411</v>
@@ -12132,7 +12133,7 @@
       <c r="J418" s="11"/>
       <c r="K418" s="20"/>
     </row>
-    <row r="419" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="419" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A419" s="40">
         <v>41671</v>
       </c>
@@ -12156,7 +12157,7 @@
         <v>413</v>
       </c>
     </row>
-    <row r="420" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="420" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A420" s="40"/>
       <c r="B420" s="20" t="s">
         <v>412</v>
@@ -12178,7 +12179,7 @@
       <c r="J420" s="11"/>
       <c r="K420" s="20"/>
     </row>
-    <row r="421" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="421" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A421" s="40">
         <v>41699</v>
       </c>
@@ -12202,7 +12203,7 @@
         <v>414</v>
       </c>
     </row>
-    <row r="422" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="422" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A422" s="40"/>
       <c r="B422" s="20" t="s">
         <v>226</v>
@@ -12224,7 +12225,7 @@
         <v>415</v>
       </c>
     </row>
-    <row r="423" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="423" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A423" s="40"/>
       <c r="B423" s="20" t="s">
         <v>345</v>
@@ -12246,7 +12247,7 @@
       <c r="J423" s="11"/>
       <c r="K423" s="20"/>
     </row>
-    <row r="424" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="424" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A424" s="40">
         <v>41730</v>
       </c>
@@ -12270,7 +12271,7 @@
         <v>41855</v>
       </c>
     </row>
-    <row r="425" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="425" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A425" s="40"/>
       <c r="B425" s="20" t="s">
         <v>223</v>
@@ -12292,7 +12293,7 @@
         <v>417</v>
       </c>
     </row>
-    <row r="426" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="426" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A426" s="40"/>
       <c r="B426" s="20" t="s">
         <v>247</v>
@@ -12314,7 +12315,7 @@
         <v>41675</v>
       </c>
     </row>
-    <row r="427" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="427" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A427" s="40"/>
       <c r="B427" s="20" t="s">
         <v>416</v>
@@ -12336,7 +12337,7 @@
       <c r="J427" s="11"/>
       <c r="K427" s="20"/>
     </row>
-    <row r="428" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="428" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A428" s="40">
         <v>41760</v>
       </c>
@@ -12354,7 +12355,7 @@
       <c r="J428" s="11"/>
       <c r="K428" s="20"/>
     </row>
-    <row r="429" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="429" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A429" s="40"/>
       <c r="B429" s="20" t="s">
         <v>223</v>
@@ -12376,7 +12377,7 @@
         <v>41856</v>
       </c>
     </row>
-    <row r="430" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="430" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A430" s="40"/>
       <c r="B430" s="20" t="s">
         <v>223</v>
@@ -12398,7 +12399,7 @@
         <v>418</v>
       </c>
     </row>
-    <row r="431" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="431" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A431" s="40"/>
       <c r="B431" s="20" t="s">
         <v>223</v>
@@ -12420,7 +12421,7 @@
         <v>41735</v>
       </c>
     </row>
-    <row r="432" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="432" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A432" s="40"/>
       <c r="B432" s="20" t="s">
         <v>416</v>
@@ -12442,7 +12443,7 @@
       <c r="J432" s="11"/>
       <c r="K432" s="20"/>
     </row>
-    <row r="433" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="433" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A433" s="40">
         <v>41791</v>
       </c>
@@ -12466,7 +12467,7 @@
       <c r="J433" s="11"/>
       <c r="K433" s="20"/>
     </row>
-    <row r="434" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="434" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A434" s="40">
         <v>41821</v>
       </c>
@@ -12490,7 +12491,7 @@
       <c r="J434" s="11"/>
       <c r="K434" s="20"/>
     </row>
-    <row r="435" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="435" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A435" s="41">
         <v>41852</v>
       </c>
@@ -12512,7 +12513,7 @@
         <v>41951</v>
       </c>
     </row>
-    <row r="436" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="436" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A436" s="40"/>
       <c r="B436" s="20" t="s">
         <v>165</v>
@@ -12532,7 +12533,7 @@
         <v>421</v>
       </c>
     </row>
-    <row r="437" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="437" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A437" s="40"/>
       <c r="B437" s="20" t="s">
         <v>223</v>
@@ -12554,7 +12555,7 @@
         <v>422</v>
       </c>
     </row>
-    <row r="438" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="438" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A438" s="40"/>
       <c r="B438" s="20" t="s">
         <v>223</v>
@@ -12576,7 +12577,7 @@
         <v>41648</v>
       </c>
     </row>
-    <row r="439" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="439" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A439" s="40"/>
       <c r="B439" s="20" t="s">
         <v>423</v>
@@ -12598,7 +12599,7 @@
       <c r="J439" s="11"/>
       <c r="K439" s="20"/>
     </row>
-    <row r="440" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="440" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A440" s="40">
         <v>41883</v>
       </c>
@@ -12622,7 +12623,7 @@
         <v>41830</v>
       </c>
     </row>
-    <row r="441" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="441" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A441" s="40"/>
       <c r="B441" s="20" t="s">
         <v>424</v>
@@ -12644,7 +12645,7 @@
       <c r="J441" s="11"/>
       <c r="K441" s="20"/>
     </row>
-    <row r="442" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="442" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A442" s="40">
         <v>41913</v>
       </c>
@@ -12668,7 +12669,7 @@
         <v>426</v>
       </c>
     </row>
-    <row r="443" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="443" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A443" s="40"/>
       <c r="B443" s="20" t="s">
         <v>399</v>
@@ -12690,7 +12691,7 @@
       <c r="J443" s="11"/>
       <c r="K443" s="20"/>
     </row>
-    <row r="444" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="444" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A444" s="40">
         <v>41944</v>
       </c>
@@ -12714,7 +12715,7 @@
         <v>428</v>
       </c>
     </row>
-    <row r="445" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="445" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A445" s="40"/>
       <c r="B445" s="20" t="s">
         <v>427</v>
@@ -12736,7 +12737,7 @@
       <c r="J445" s="11"/>
       <c r="K445" s="20"/>
     </row>
-    <row r="446" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="446" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A446" s="40">
         <v>41974</v>
       </c>
@@ -12760,7 +12761,7 @@
         <v>41894</v>
       </c>
     </row>
-    <row r="447" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="447" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A447" s="40"/>
       <c r="B447" s="20" t="s">
         <v>346</v>
@@ -12782,7 +12783,7 @@
       <c r="J447" s="11"/>
       <c r="K447" s="20"/>
     </row>
-    <row r="448" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="448" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A448" s="55" t="s">
         <v>429</v>
       </c>
@@ -12800,7 +12801,7 @@
       <c r="J448" s="12"/>
       <c r="K448" s="15"/>
     </row>
-    <row r="449" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="449" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A449" s="40">
         <v>42005</v>
       </c>
@@ -12820,7 +12821,7 @@
       <c r="J449" s="11"/>
       <c r="K449" s="20"/>
     </row>
-    <row r="450" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="450" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A450" s="40">
         <v>42036</v>
       </c>
@@ -12844,7 +12845,7 @@
       <c r="J450" s="11"/>
       <c r="K450" s="20"/>
     </row>
-    <row r="451" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="451" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A451" s="40">
         <v>42064</v>
       </c>
@@ -12864,7 +12865,7 @@
       <c r="J451" s="11"/>
       <c r="K451" s="20"/>
     </row>
-    <row r="452" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="452" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A452" s="40">
         <v>42095</v>
       </c>
@@ -12886,7 +12887,7 @@
         <v>432</v>
       </c>
     </row>
-    <row r="453" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="453" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A453" s="40"/>
       <c r="B453" s="20" t="s">
         <v>223</v>
@@ -12908,7 +12909,7 @@
         <v>433</v>
       </c>
     </row>
-    <row r="454" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="454" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A454" s="40"/>
       <c r="B454" s="20" t="s">
         <v>431</v>
@@ -12930,7 +12931,7 @@
       <c r="J454" s="11"/>
       <c r="K454" s="20"/>
     </row>
-    <row r="455" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="455" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A455" s="40">
         <v>42125</v>
       </c>
@@ -12954,7 +12955,7 @@
       <c r="J455" s="11"/>
       <c r="K455" s="20"/>
     </row>
-    <row r="456" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="456" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A456" s="40">
         <v>42156</v>
       </c>
@@ -12978,7 +12979,7 @@
         <v>42069</v>
       </c>
     </row>
-    <row r="457" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="457" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A457" s="40"/>
       <c r="B457" s="20" t="s">
         <v>165</v>
@@ -12998,7 +12999,7 @@
         <v>435</v>
       </c>
     </row>
-    <row r="458" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="458" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A458" s="40"/>
       <c r="B458" s="20" t="s">
         <v>436</v>
@@ -13020,7 +13021,7 @@
       <c r="J458" s="11"/>
       <c r="K458" s="20"/>
     </row>
-    <row r="459" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="459" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A459" s="40">
         <v>42186</v>
       </c>
@@ -13044,7 +13045,7 @@
       <c r="J459" s="11"/>
       <c r="K459" s="20"/>
     </row>
-    <row r="460" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="460" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A460" s="40">
         <v>42217</v>
       </c>
@@ -13068,7 +13069,7 @@
         <v>42013</v>
       </c>
     </row>
-    <row r="461" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="461" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A461" s="40"/>
       <c r="B461" s="20" t="s">
         <v>438</v>
@@ -13090,7 +13091,7 @@
       <c r="J461" s="11"/>
       <c r="K461" s="20"/>
     </row>
-    <row r="462" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="462" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A462" s="41">
         <v>42248</v>
       </c>
@@ -13114,7 +13115,7 @@
         <v>440</v>
       </c>
     </row>
-    <row r="463" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="463" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A463" s="40"/>
       <c r="B463" s="20" t="s">
         <v>439</v>
@@ -13136,7 +13137,7 @@
       <c r="J463" s="11"/>
       <c r="K463" s="20"/>
     </row>
-    <row r="464" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="464" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A464" s="40">
         <v>42278</v>
       </c>
@@ -13160,7 +13161,7 @@
         <v>442</v>
       </c>
     </row>
-    <row r="465" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="465" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A465" s="40"/>
       <c r="B465" s="20" t="s">
         <v>223</v>
@@ -13182,7 +13183,7 @@
         <v>443</v>
       </c>
     </row>
-    <row r="466" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="466" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A466" s="40"/>
       <c r="B466" s="20" t="s">
         <v>441</v>
@@ -13204,7 +13205,7 @@
       <c r="J466" s="11"/>
       <c r="K466" s="20"/>
     </row>
-    <row r="467" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="467" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A467" s="40">
         <v>42309</v>
       </c>
@@ -13228,7 +13229,7 @@
         <v>42349</v>
       </c>
     </row>
-    <row r="468" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="468" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A468" s="40"/>
       <c r="B468" s="20" t="s">
         <v>223</v>
@@ -13250,7 +13251,7 @@
         <v>445</v>
       </c>
     </row>
-    <row r="469" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="469" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A469" s="40"/>
       <c r="B469" s="20" t="s">
         <v>223</v>
@@ -13272,7 +13273,7 @@
         <v>446</v>
       </c>
     </row>
-    <row r="470" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="470" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A470" s="41"/>
       <c r="B470" s="15" t="s">
         <v>444</v>
@@ -13294,7 +13295,7 @@
       <c r="J470" s="12"/>
       <c r="K470" s="15"/>
     </row>
-    <row r="471" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="471" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A471" s="40">
         <v>42339</v>
       </c>
@@ -13320,7 +13321,7 @@
         <v>42106</v>
       </c>
     </row>
-    <row r="472" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="472" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A472" s="40"/>
       <c r="B472" s="20" t="s">
         <v>223</v>
@@ -13340,7 +13341,7 @@
       <c r="J472" s="11"/>
       <c r="K472" s="20"/>
     </row>
-    <row r="473" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="473" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A473" s="40"/>
       <c r="B473" s="20" t="s">
         <v>447</v>
@@ -13362,7 +13363,7 @@
       <c r="J473" s="11"/>
       <c r="K473" s="20"/>
     </row>
-    <row r="474" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="474" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A474" s="23" t="s">
         <v>448</v>
       </c>
@@ -13380,7 +13381,7 @@
       <c r="J474" s="11"/>
       <c r="K474" s="20"/>
     </row>
-    <row r="475" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="475" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A475" s="40">
         <v>42370</v>
       </c>
@@ -13404,7 +13405,7 @@
         <v>449</v>
       </c>
     </row>
-    <row r="476" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="476" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A476" s="40"/>
       <c r="B476" s="20" t="s">
         <v>165</v>
@@ -13424,7 +13425,7 @@
         <v>450</v>
       </c>
     </row>
-    <row r="477" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="477" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A477" s="40"/>
       <c r="B477" s="20" t="s">
         <v>451</v>
@@ -13446,7 +13447,7 @@
         <v>453</v>
       </c>
     </row>
-    <row r="478" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="478" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A478" s="40"/>
       <c r="B478" s="20" t="s">
         <v>452</v>
@@ -13468,7 +13469,7 @@
       <c r="J478" s="11"/>
       <c r="K478" s="20"/>
     </row>
-    <row r="479" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="479" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A479" s="41">
         <v>42401</v>
       </c>
@@ -13492,7 +13493,7 @@
         <v>42492</v>
       </c>
     </row>
-    <row r="480" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="480" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A480" s="40"/>
       <c r="B480" s="20" t="s">
         <v>223</v>
@@ -13514,7 +13515,7 @@
         <v>455</v>
       </c>
     </row>
-    <row r="481" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="481" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A481" s="40"/>
       <c r="B481" s="20" t="s">
         <v>223</v>
@@ -13536,7 +13537,7 @@
         <v>42372</v>
       </c>
     </row>
-    <row r="482" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="482" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A482" s="40"/>
       <c r="B482" s="20" t="s">
         <v>454</v>
@@ -13558,7 +13559,7 @@
       <c r="J482" s="11"/>
       <c r="K482" s="20"/>
     </row>
-    <row r="483" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="483" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A483" s="40">
         <v>42430</v>
       </c>
@@ -13582,7 +13583,7 @@
       <c r="J483" s="11"/>
       <c r="K483" s="20"/>
     </row>
-    <row r="484" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="484" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A484" s="40">
         <v>42461</v>
       </c>
@@ -13604,7 +13605,7 @@
         <v>457</v>
       </c>
     </row>
-    <row r="485" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="485" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A485" s="40"/>
       <c r="B485" s="20" t="s">
         <v>223</v>
@@ -13626,7 +13627,7 @@
         <v>459</v>
       </c>
     </row>
-    <row r="486" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="486" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A486" s="40"/>
       <c r="B486" s="20" t="s">
         <v>318</v>
@@ -13648,7 +13649,7 @@
         <v>460</v>
       </c>
     </row>
-    <row r="487" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="487" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A487" s="40"/>
       <c r="B487" s="20" t="s">
         <v>458</v>
@@ -13670,7 +13671,7 @@
       <c r="J487" s="11"/>
       <c r="K487" s="20"/>
     </row>
-    <row r="488" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="488" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A488" s="40">
         <v>42491</v>
       </c>
@@ -13694,7 +13695,7 @@
         <v>461</v>
       </c>
     </row>
-    <row r="489" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="489" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A489" s="40"/>
       <c r="B489" s="20" t="s">
         <v>462</v>
@@ -13716,7 +13717,7 @@
       <c r="J489" s="11"/>
       <c r="K489" s="20"/>
     </row>
-    <row r="490" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="490" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A490" s="41">
         <v>42522</v>
       </c>
@@ -13740,7 +13741,7 @@
         <v>42557</v>
       </c>
     </row>
-    <row r="491" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="491" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A491" s="40"/>
       <c r="B491" s="20" t="s">
         <v>363</v>
@@ -13760,7 +13761,7 @@
         <v>464</v>
       </c>
     </row>
-    <row r="492" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="492" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A492" s="40"/>
       <c r="B492" s="20" t="s">
         <v>223</v>
@@ -13782,7 +13783,7 @@
         <v>465</v>
       </c>
     </row>
-    <row r="493" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="493" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A493" s="40"/>
       <c r="B493" s="20" t="s">
         <v>463</v>
@@ -13804,7 +13805,7 @@
       <c r="J493" s="11"/>
       <c r="K493" s="20"/>
     </row>
-    <row r="494" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="494" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A494" s="40">
         <v>42552</v>
       </c>
@@ -13828,7 +13829,7 @@
       <c r="J494" s="11"/>
       <c r="K494" s="20"/>
     </row>
-    <row r="495" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="495" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A495" s="40">
         <v>42583</v>
       </c>
@@ -13852,7 +13853,7 @@
         <v>42651</v>
       </c>
     </row>
-    <row r="496" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="496" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A496" s="40"/>
       <c r="B496" s="20" t="s">
         <v>292</v>
@@ -13874,7 +13875,7 @@
         <v>468</v>
       </c>
     </row>
-    <row r="497" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="497" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A497" s="40"/>
       <c r="B497" s="20" t="s">
         <v>226</v>
@@ -13896,7 +13897,7 @@
         <v>469</v>
       </c>
     </row>
-    <row r="498" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="498" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A498" s="40"/>
       <c r="B498" s="20" t="s">
         <v>467</v>
@@ -13920,7 +13921,7 @@
         <v>470</v>
       </c>
     </row>
-    <row r="499" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="499" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A499" s="40">
         <v>42614</v>
       </c>
@@ -13944,7 +13945,7 @@
         <v>42591</v>
       </c>
     </row>
-    <row r="500" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="500" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A500" s="40"/>
       <c r="B500" s="20" t="s">
         <v>223</v>
@@ -13966,7 +13967,7 @@
         <v>472</v>
       </c>
     </row>
-    <row r="501" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="501" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A501" s="40"/>
       <c r="B501" s="20" t="s">
         <v>223</v>
@@ -13988,7 +13989,7 @@
         <v>473</v>
       </c>
     </row>
-    <row r="502" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="502" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A502" s="40"/>
       <c r="B502" s="20" t="s">
         <v>223</v>
@@ -14010,7 +14011,7 @@
         <v>474</v>
       </c>
     </row>
-    <row r="503" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="503" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A503" s="40"/>
       <c r="B503" s="20" t="s">
         <v>471</v>
@@ -14032,7 +14033,7 @@
       <c r="J503" s="11"/>
       <c r="K503" s="20"/>
     </row>
-    <row r="504" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="504" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A504" s="40">
         <v>42644</v>
       </c>
@@ -14056,7 +14057,7 @@
         <v>42500</v>
       </c>
     </row>
-    <row r="505" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="505" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A505" s="40"/>
       <c r="B505" s="20" t="s">
         <v>437</v>
@@ -14078,7 +14079,7 @@
         <v>476</v>
       </c>
     </row>
-    <row r="506" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="506" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A506" s="40"/>
       <c r="B506" s="20" t="s">
         <v>223</v>
@@ -14100,7 +14101,7 @@
         <v>477</v>
       </c>
     </row>
-    <row r="507" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="507" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A507" s="40"/>
       <c r="B507" s="20" t="s">
         <v>437</v>
@@ -14120,7 +14121,7 @@
       <c r="J507" s="11"/>
       <c r="K507" s="20"/>
     </row>
-    <row r="508" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="508" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A508" s="40"/>
       <c r="B508" s="20" t="s">
         <v>223</v>
@@ -14142,7 +14143,7 @@
         <v>478</v>
       </c>
     </row>
-    <row r="509" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="509" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A509" s="41"/>
       <c r="B509" s="15" t="s">
         <v>223</v>
@@ -14164,7 +14165,7 @@
         <v>42685</v>
       </c>
     </row>
-    <row r="510" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="510" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A510" s="40"/>
       <c r="B510" s="20" t="s">
         <v>475</v>
@@ -14186,7 +14187,7 @@
       <c r="J510" s="11"/>
       <c r="K510" s="20"/>
     </row>
-    <row r="511" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="511" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A511" s="40">
         <v>42675</v>
       </c>
@@ -14210,7 +14211,7 @@
         <v>479</v>
       </c>
     </row>
-    <row r="512" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="512" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A512" s="40"/>
       <c r="B512" s="20" t="s">
         <v>223</v>
@@ -14232,7 +14233,7 @@
         <v>480</v>
       </c>
     </row>
-    <row r="513" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="513" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A513" s="40"/>
       <c r="B513" s="20" t="s">
         <v>226</v>
@@ -14254,7 +14255,7 @@
         <v>481</v>
       </c>
     </row>
-    <row r="514" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="514" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A514" s="40"/>
       <c r="B514" s="20" t="s">
         <v>276</v>
@@ -14276,7 +14277,7 @@
       <c r="J514" s="11"/>
       <c r="K514" s="20"/>
     </row>
-    <row r="515" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="515" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A515" s="40">
         <v>42705</v>
       </c>
@@ -14300,7 +14301,7 @@
         <v>483</v>
       </c>
     </row>
-    <row r="516" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="516" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A516" s="40"/>
       <c r="B516" s="20" t="s">
         <v>425</v>
@@ -14322,7 +14323,7 @@
       <c r="J516" s="11"/>
       <c r="K516" s="20"/>
     </row>
-    <row r="517" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="517" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A517" s="40"/>
       <c r="B517" s="20" t="s">
         <v>482</v>
@@ -14342,7 +14343,7 @@
       <c r="J517" s="11"/>
       <c r="K517" s="20"/>
     </row>
-    <row r="518" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="518" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A518" s="48" t="s">
         <v>484</v>
       </c>
@@ -14360,7 +14361,7 @@
       <c r="J518" s="11"/>
       <c r="K518" s="20"/>
     </row>
-    <row r="519" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="519" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A519" s="40">
         <v>42736</v>
       </c>
@@ -14380,7 +14381,7 @@
       <c r="J519" s="11"/>
       <c r="K519" s="20"/>
     </row>
-    <row r="520" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="520" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A520" s="40"/>
       <c r="B520" s="20" t="s">
         <v>226</v>
@@ -14404,7 +14405,7 @@
         <v>486</v>
       </c>
     </row>
-    <row r="521" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="521" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A521" s="40"/>
       <c r="B521" s="20" t="s">
         <v>223</v>
@@ -14426,7 +14427,7 @@
         <v>487</v>
       </c>
     </row>
-    <row r="522" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="522" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A522" s="40"/>
       <c r="B522" s="20" t="s">
         <v>485</v>
@@ -14448,7 +14449,7 @@
         <v>488</v>
       </c>
     </row>
-    <row r="523" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="523" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A523" s="40"/>
       <c r="B523" s="20"/>
       <c r="C523" s="13">
@@ -14468,7 +14469,7 @@
         <v>489</v>
       </c>
     </row>
-    <row r="524" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="524" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A524" s="40">
         <v>42767</v>
       </c>
@@ -14492,7 +14493,7 @@
         <v>490</v>
       </c>
     </row>
-    <row r="525" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="525" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A525" s="41"/>
       <c r="B525" s="15" t="s">
         <v>60</v>
@@ -14516,7 +14517,7 @@
         <v>491</v>
       </c>
     </row>
-    <row r="526" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="526" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A526" s="40">
         <v>42795</v>
       </c>
@@ -14542,7 +14543,7 @@
         <v>492</v>
       </c>
     </row>
-    <row r="527" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="527" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A527" s="40"/>
       <c r="B527" s="20" t="s">
         <v>223</v>
@@ -14564,7 +14565,7 @@
         <v>493</v>
       </c>
     </row>
-    <row r="528" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="528" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A528" s="40"/>
       <c r="B528" s="20" t="s">
         <v>223</v>
@@ -14588,7 +14589,7 @@
         <v>494</v>
       </c>
     </row>
-    <row r="529" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="529" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A529" s="40">
         <v>42826</v>
       </c>
@@ -14614,7 +14615,7 @@
         <v>42920</v>
       </c>
     </row>
-    <row r="530" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="530" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A530" s="40"/>
       <c r="B530" s="20" t="s">
         <v>223</v>
@@ -14634,7 +14635,7 @@
       <c r="J530" s="11"/>
       <c r="K530" s="20"/>
     </row>
-    <row r="531" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="531" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A531" s="40"/>
       <c r="B531" s="20" t="s">
         <v>226</v>
@@ -14656,7 +14657,7 @@
         <v>495</v>
       </c>
     </row>
-    <row r="532" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="532" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A532" s="40"/>
       <c r="B532" s="20" t="s">
         <v>223</v>
@@ -14678,7 +14679,7 @@
         <v>496</v>
       </c>
     </row>
-    <row r="533" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="533" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A533" s="40">
         <v>42856</v>
       </c>
@@ -14698,7 +14699,7 @@
       <c r="J533" s="11"/>
       <c r="K533" s="20"/>
     </row>
-    <row r="534" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="534" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A534" s="40">
         <v>42887</v>
       </c>
@@ -14722,7 +14723,7 @@
         <v>497</v>
       </c>
     </row>
-    <row r="535" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="535" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A535" s="40">
         <v>42917</v>
       </c>
@@ -14748,7 +14749,7 @@
         <v>498</v>
       </c>
     </row>
-    <row r="536" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="536" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A536" s="40">
         <v>42948</v>
       </c>
@@ -14774,7 +14775,7 @@
         <v>499</v>
       </c>
     </row>
-    <row r="537" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="537" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A537" s="40"/>
       <c r="B537" s="20" t="s">
         <v>226</v>
@@ -14796,7 +14797,7 @@
         <v>500</v>
       </c>
     </row>
-    <row r="538" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="538" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A538" s="40"/>
       <c r="B538" s="20" t="s">
         <v>223</v>
@@ -14818,7 +14819,7 @@
         <v>501</v>
       </c>
     </row>
-    <row r="539" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="539" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A539" s="40">
         <v>42979</v>
       </c>
@@ -14838,7 +14839,7 @@
       <c r="J539" s="11"/>
       <c r="K539" s="20"/>
     </row>
-    <row r="540" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="540" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A540" s="40">
         <v>43009</v>
       </c>
@@ -14862,7 +14863,7 @@
         <v>504</v>
       </c>
     </row>
-    <row r="541" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="541" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A541" s="40"/>
       <c r="B541" s="20" t="s">
         <v>223</v>
@@ -14886,7 +14887,7 @@
         <v>505</v>
       </c>
     </row>
-    <row r="542" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="542" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A542" s="40">
         <v>43040</v>
       </c>
@@ -14910,7 +14911,7 @@
         <v>502</v>
       </c>
     </row>
-    <row r="543" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="543" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A543" s="40"/>
       <c r="B543" s="20" t="s">
         <v>223</v>
@@ -14934,7 +14935,7 @@
         <v>503</v>
       </c>
     </row>
-    <row r="544" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="544" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A544" s="40">
         <v>43070</v>
       </c>
@@ -14958,7 +14959,7 @@
         <v>506</v>
       </c>
     </row>
-    <row r="545" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="545" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A545" s="40"/>
       <c r="B545" s="20"/>
       <c r="C545" s="13">
@@ -14976,7 +14977,7 @@
       <c r="J545" s="11"/>
       <c r="K545" s="20"/>
     </row>
-    <row r="546" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="546" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A546" s="23" t="s">
         <v>507</v>
       </c>
@@ -14994,7 +14995,7 @@
       <c r="J546" s="11"/>
       <c r="K546" s="20"/>
     </row>
-    <row r="547" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="547" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A547" s="40">
         <v>43101</v>
       </c>
@@ -15020,7 +15021,7 @@
         <v>508</v>
       </c>
     </row>
-    <row r="548" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="548" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A548" s="40">
         <v>43132</v>
       </c>
@@ -15044,7 +15045,7 @@
         <v>510</v>
       </c>
     </row>
-    <row r="549" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="549" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A549" s="40"/>
       <c r="B549" s="20" t="s">
         <v>165</v>
@@ -15066,7 +15067,7 @@
         <v>511</v>
       </c>
     </row>
-    <row r="550" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="550" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A550" s="41">
         <v>43160</v>
       </c>
@@ -15086,7 +15087,7 @@
       <c r="J550" s="12"/>
       <c r="K550" s="15"/>
     </row>
-    <row r="551" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="551" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A551" s="40">
         <v>43191</v>
       </c>
@@ -15108,7 +15109,7 @@
         <v>512</v>
       </c>
     </row>
-    <row r="552" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="552" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A552" s="40"/>
       <c r="B552" s="20" t="s">
         <v>223</v>
@@ -15132,7 +15133,7 @@
         <v>513</v>
       </c>
     </row>
-    <row r="553" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="553" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A553" s="40">
         <v>43221</v>
       </c>
@@ -15154,7 +15155,7 @@
       <c r="J553" s="11"/>
       <c r="K553" s="20"/>
     </row>
-    <row r="554" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="554" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A554" s="40"/>
       <c r="B554" s="20" t="s">
         <v>223</v>
@@ -15176,7 +15177,7 @@
         <v>514</v>
       </c>
     </row>
-    <row r="555" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="555" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A555" s="40"/>
       <c r="B555" s="20" t="s">
         <v>223</v>
@@ -15198,7 +15199,7 @@
         <v>43286</v>
       </c>
     </row>
-    <row r="556" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="556" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A556" s="40">
         <v>43252</v>
       </c>
@@ -15218,7 +15219,7 @@
       <c r="J556" s="11"/>
       <c r="K556" s="20"/>
     </row>
-    <row r="557" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="557" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A557" s="40">
         <v>43282</v>
       </c>
@@ -15244,7 +15245,7 @@
         <v>515</v>
       </c>
     </row>
-    <row r="558" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="558" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A558" s="40">
         <v>43313</v>
       </c>
@@ -15264,7 +15265,7 @@
       <c r="J558" s="11"/>
       <c r="K558" s="20"/>
     </row>
-    <row r="559" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="559" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A559" s="40">
         <v>43344</v>
       </c>
@@ -15284,7 +15285,7 @@
       <c r="J559" s="11"/>
       <c r="K559" s="20"/>
     </row>
-    <row r="560" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="560" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A560" s="40">
         <v>43374</v>
       </c>
@@ -15306,7 +15307,7 @@
       <c r="J560" s="11"/>
       <c r="K560" s="20"/>
     </row>
-    <row r="561" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="561" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A561" s="40">
         <v>43405</v>
       </c>
@@ -15332,7 +15333,7 @@
         <v>43323</v>
       </c>
     </row>
-    <row r="562" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="562" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A562" s="40"/>
       <c r="B562" s="20" t="s">
         <v>223</v>
@@ -15354,7 +15355,7 @@
         <v>516</v>
       </c>
     </row>
-    <row r="563" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="563" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A563" s="40">
         <v>43435</v>
       </c>
@@ -15380,7 +15381,7 @@
         <v>517</v>
       </c>
     </row>
-    <row r="564" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="564" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A564" s="40"/>
       <c r="B564" s="20" t="s">
         <v>165</v>
@@ -15400,7 +15401,7 @@
         <v>518</v>
       </c>
     </row>
-    <row r="565" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="565" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A565" s="23" t="s">
         <v>519</v>
       </c>
@@ -15418,7 +15419,7 @@
       <c r="J565" s="11"/>
       <c r="K565" s="20"/>
     </row>
-    <row r="566" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="566" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A566" s="41">
         <v>43466</v>
       </c>
@@ -15440,7 +15441,7 @@
       <c r="J566" s="12"/>
       <c r="K566" s="15"/>
     </row>
-    <row r="567" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="567" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A567" s="40">
         <v>43497</v>
       </c>
@@ -15460,7 +15461,7 @@
       <c r="J567" s="11"/>
       <c r="K567" s="20"/>
     </row>
-    <row r="568" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="568" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A568" s="40">
         <v>43160</v>
       </c>
@@ -15480,7 +15481,7 @@
       <c r="J568" s="11"/>
       <c r="K568" s="20"/>
     </row>
-    <row r="569" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="569" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A569" s="40">
         <v>43556</v>
       </c>
@@ -15504,7 +15505,7 @@
         <v>520</v>
       </c>
     </row>
-    <row r="570" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="570" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A570" s="40"/>
       <c r="B570" s="20" t="s">
         <v>223</v>
@@ -15526,7 +15527,7 @@
         <v>521</v>
       </c>
     </row>
-    <row r="571" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="571" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A571" s="40">
         <v>43586</v>
       </c>
@@ -15550,7 +15551,7 @@
         <v>43529</v>
       </c>
     </row>
-    <row r="572" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="572" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A572" s="40">
         <v>43617</v>
       </c>
@@ -15576,7 +15577,7 @@
         <v>522</v>
       </c>
     </row>
-    <row r="573" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="573" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A573" s="40">
         <v>43647</v>
       </c>
@@ -15602,7 +15603,7 @@
         <v>523</v>
       </c>
     </row>
-    <row r="574" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="574" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A574" s="41"/>
       <c r="B574" s="15" t="s">
         <v>223</v>
@@ -15624,7 +15625,7 @@
         <v>43806</v>
       </c>
     </row>
-    <row r="575" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="575" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A575" s="40"/>
       <c r="B575" s="20" t="s">
         <v>223</v>
@@ -15646,7 +15647,7 @@
         <v>524</v>
       </c>
     </row>
-    <row r="576" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="576" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A576" s="40">
         <v>43678</v>
       </c>
@@ -15672,7 +15673,7 @@
         <v>525</v>
       </c>
     </row>
-    <row r="577" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="577" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A577" s="40">
         <v>43709</v>
       </c>
@@ -15698,7 +15699,7 @@
         <v>43505</v>
       </c>
     </row>
-    <row r="578" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="578" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A578" s="40">
         <v>43739</v>
       </c>
@@ -15718,7 +15719,7 @@
       <c r="J578" s="11"/>
       <c r="K578" s="20"/>
     </row>
-    <row r="579" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="579" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A579" s="40">
         <v>43770</v>
       </c>
@@ -15744,7 +15745,7 @@
         <v>526</v>
       </c>
     </row>
-    <row r="580" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="580" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A580" s="40">
         <v>43800</v>
       </c>
@@ -15768,7 +15769,7 @@
       <c r="J580" s="11"/>
       <c r="K580" s="20"/>
     </row>
-    <row r="581" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="581" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A581" s="23" t="s">
         <v>528</v>
       </c>
@@ -15786,7 +15787,7 @@
       <c r="J581" s="11"/>
       <c r="K581" s="20"/>
     </row>
-    <row r="582" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="582" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A582" s="40">
         <v>43831</v>
       </c>
@@ -15810,7 +15811,7 @@
         <v>530</v>
       </c>
     </row>
-    <row r="583" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="583" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A583" s="40"/>
       <c r="B583" s="20" t="s">
         <v>409</v>
@@ -15830,7 +15831,7 @@
         <v>531</v>
       </c>
     </row>
-    <row r="584" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="584" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A584" s="40">
         <v>43862</v>
       </c>
@@ -15850,7 +15851,7 @@
       <c r="J584" s="11"/>
       <c r="K584" s="20"/>
     </row>
-    <row r="585" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="585" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A585" s="40">
         <v>43891</v>
       </c>
@@ -15870,7 +15871,7 @@
       <c r="J585" s="11"/>
       <c r="K585" s="20"/>
     </row>
-    <row r="586" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="586" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A586" s="41">
         <v>43922</v>
       </c>
@@ -15890,7 +15891,7 @@
       <c r="J586" s="12"/>
       <c r="K586" s="15"/>
     </row>
-    <row r="587" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="587" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A587" s="40">
         <v>43952</v>
       </c>
@@ -15914,7 +15915,7 @@
         <v>532</v>
       </c>
     </row>
-    <row r="588" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="588" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A588" s="40">
         <v>43983</v>
       </c>
@@ -15934,7 +15935,7 @@
       <c r="J588" s="11"/>
       <c r="K588" s="20"/>
     </row>
-    <row r="589" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="589" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A589" s="40">
         <v>44013</v>
       </c>
@@ -15954,7 +15955,7 @@
       <c r="J589" s="11"/>
       <c r="K589" s="20"/>
     </row>
-    <row r="590" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="590" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A590" s="40">
         <v>44044</v>
       </c>
@@ -15978,7 +15979,7 @@
         <v>43839</v>
       </c>
     </row>
-    <row r="591" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="591" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A591" s="40">
         <v>44075</v>
       </c>
@@ -16000,7 +16001,7 @@
       <c r="J591" s="11"/>
       <c r="K591" s="20"/>
     </row>
-    <row r="592" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="592" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A592" s="40">
         <v>44105</v>
       </c>
@@ -16024,7 +16025,7 @@
         <v>534</v>
       </c>
     </row>
-    <row r="593" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="593" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A593" s="40"/>
       <c r="B593" s="20" t="s">
         <v>292</v>
@@ -16046,7 +16047,7 @@
         <v>535</v>
       </c>
     </row>
-    <row r="594" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="594" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A594" s="40">
         <v>44136</v>
       </c>
@@ -16066,7 +16067,7 @@
       <c r="J594" s="11"/>
       <c r="K594" s="20"/>
     </row>
-    <row r="595" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="595" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A595" s="40">
         <v>44166</v>
       </c>
@@ -16090,7 +16091,7 @@
         <v>536</v>
       </c>
     </row>
-    <row r="596" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="596" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A596" s="41"/>
       <c r="B596" s="15" t="s">
         <v>451</v>
@@ -16112,7 +16113,7 @@
         <v>537</v>
       </c>
     </row>
-    <row r="597" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="597" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A597" s="40"/>
       <c r="B597" s="20" t="s">
         <v>334</v>
@@ -16136,7 +16137,7 @@
         <v>538</v>
       </c>
     </row>
-    <row r="598" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="598" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A598" s="48" t="s">
         <v>539</v>
       </c>
@@ -16154,7 +16155,7 @@
       <c r="J598" s="11"/>
       <c r="K598" s="20"/>
     </row>
-    <row r="599" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="599" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A599" s="40">
         <v>44197</v>
       </c>
@@ -16180,7 +16181,7 @@
         <v>44531</v>
       </c>
     </row>
-    <row r="600" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="600" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A600" s="40">
         <v>44228</v>
       </c>
@@ -16204,7 +16205,7 @@
         <v>44229</v>
       </c>
     </row>
-    <row r="601" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="601" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A601" s="40"/>
       <c r="B601" s="20" t="s">
         <v>451</v>
@@ -16228,7 +16229,7 @@
         <v>540</v>
       </c>
     </row>
-    <row r="602" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="602" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A602" s="40">
         <v>44256</v>
       </c>
@@ -16254,7 +16255,7 @@
         <v>541</v>
       </c>
     </row>
-    <row r="603" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="603" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A603" s="40">
         <v>44287</v>
       </c>
@@ -16278,7 +16279,7 @@
         <v>44381</v>
       </c>
     </row>
-    <row r="604" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="604" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A604" s="40">
         <v>44317</v>
       </c>
@@ -16298,7 +16299,7 @@
       <c r="J604" s="11"/>
       <c r="K604" s="20"/>
     </row>
-    <row r="605" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="605" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A605" s="40">
         <v>44348</v>
       </c>
@@ -16322,7 +16323,7 @@
         <v>543</v>
       </c>
     </row>
-    <row r="606" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="606" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A606" s="40"/>
       <c r="B606" s="20" t="s">
         <v>226</v>
@@ -16346,7 +16347,7 @@
         <v>544</v>
       </c>
     </row>
-    <row r="607" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="607" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A607" s="40">
         <v>44378</v>
       </c>
@@ -16370,7 +16371,7 @@
         <v>545</v>
       </c>
     </row>
-    <row r="608" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="608" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A608" s="40"/>
       <c r="B608" s="20" t="s">
         <v>223</v>
@@ -16394,7 +16395,7 @@
         <v>44446</v>
       </c>
     </row>
-    <row r="609" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="609" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A609" s="40">
         <v>44409</v>
       </c>
@@ -16414,7 +16415,7 @@
       <c r="J609" s="11"/>
       <c r="K609" s="20"/>
     </row>
-    <row r="610" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="610" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A610" s="40">
         <v>44440</v>
       </c>
@@ -16434,7 +16435,7 @@
       <c r="J610" s="11"/>
       <c r="K610" s="20"/>
     </row>
-    <row r="611" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="611" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A611" s="40">
         <v>44470</v>
       </c>
@@ -16454,7 +16455,7 @@
       <c r="J611" s="11"/>
       <c r="K611" s="20"/>
     </row>
-    <row r="612" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="612" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A612" s="40">
         <v>44501</v>
       </c>
@@ -16474,7 +16475,7 @@
       <c r="J612" s="11"/>
       <c r="K612" s="20"/>
     </row>
-    <row r="613" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="613" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A613" s="40">
         <v>44531</v>
       </c>
@@ -16494,7 +16495,7 @@
       <c r="J613" s="11"/>
       <c r="K613" s="20"/>
     </row>
-    <row r="614" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="614" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A614" s="54" t="s">
         <v>546</v>
       </c>
@@ -16512,7 +16513,7 @@
       <c r="J614" s="12"/>
       <c r="K614" s="15"/>
     </row>
-    <row r="615" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="615" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A615" s="40">
         <v>44562</v>
       </c>
@@ -16532,7 +16533,7 @@
       <c r="J615" s="11"/>
       <c r="K615" s="20"/>
     </row>
-    <row r="616" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="616" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A616" s="40">
         <v>44593</v>
       </c>
@@ -16556,7 +16557,7 @@
         <v>547</v>
       </c>
     </row>
-    <row r="617" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="617" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A617" s="40"/>
       <c r="B617" s="20" t="s">
         <v>165</v>
@@ -16578,7 +16579,7 @@
         <v>548</v>
       </c>
     </row>
-    <row r="618" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="618" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A618" s="40">
         <v>44621</v>
       </c>
@@ -16602,7 +16603,7 @@
         <v>549</v>
       </c>
     </row>
-    <row r="619" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="619" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A619" s="40"/>
       <c r="B619" s="20" t="s">
         <v>223</v>
@@ -16626,7 +16627,7 @@
         <v>550</v>
       </c>
     </row>
-    <row r="620" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="620" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A620" s="40">
         <v>44652</v>
       </c>
@@ -16652,7 +16653,7 @@
         <v>551</v>
       </c>
     </row>
-    <row r="621" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="621" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A621" s="40">
         <v>44682</v>
       </c>
@@ -16672,7 +16673,7 @@
       <c r="J621" s="11"/>
       <c r="K621" s="20"/>
     </row>
-    <row r="622" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="622" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A622" s="40">
         <v>44713</v>
       </c>
@@ -16698,7 +16699,7 @@
         <v>552</v>
       </c>
     </row>
-    <row r="623" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="623" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A623" s="40"/>
       <c r="B623" s="20" t="s">
         <v>223</v>
@@ -16720,7 +16721,7 @@
         <v>553</v>
       </c>
     </row>
-    <row r="624" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="624" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A624" s="40">
         <v>44743</v>
       </c>
@@ -16742,7 +16743,7 @@
         <v>553</v>
       </c>
     </row>
-    <row r="625" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="625" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A625" s="40">
         <v>44774</v>
       </c>
@@ -16762,7 +16763,7 @@
       <c r="J625" s="11"/>
       <c r="K625" s="20"/>
     </row>
-    <row r="626" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="626" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A626" s="40">
         <v>44805</v>
       </c>
@@ -16788,7 +16789,7 @@
         <v>44811</v>
       </c>
     </row>
-    <row r="627" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="627" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A627" s="40">
         <v>44835</v>
       </c>
@@ -16814,7 +16815,7 @@
         <v>44838</v>
       </c>
     </row>
-    <row r="628" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="628" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A628" s="40">
         <v>44866</v>
       </c>
@@ -16834,7 +16835,7 @@
       <c r="J628" s="11"/>
       <c r="K628" s="20"/>
     </row>
-    <row r="629" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="629" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A629" s="40">
         <v>44896</v>
       </c>
@@ -16860,7 +16861,7 @@
         <v>44896</v>
       </c>
     </row>
-    <row r="630" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="630" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A630" s="41"/>
       <c r="B630" s="15" t="s">
         <v>53</v>
@@ -16882,7 +16883,7 @@
         <v>44914</v>
       </c>
     </row>
-    <row r="631" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="631" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A631" s="41"/>
       <c r="B631" s="15" t="s">
         <v>57</v>
@@ -16904,7 +16905,7 @@
         <v>559</v>
       </c>
     </row>
-    <row r="632" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="632" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A632" s="54" t="s">
         <v>557</v>
       </c>
@@ -16922,7 +16923,7 @@
       <c r="J632" s="12"/>
       <c r="K632" s="15"/>
     </row>
-    <row r="633" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="633" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A633" s="40">
         <v>44927</v>
       </c>
@@ -16942,7 +16943,7 @@
       <c r="J633" s="11"/>
       <c r="K633" s="20"/>
     </row>
-    <row r="634" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="634" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A634" s="40">
         <v>44958</v>
       </c>
@@ -16968,7 +16969,7 @@
         <v>560</v>
       </c>
     </row>
-    <row r="635" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="635" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A635" s="40">
         <v>44986</v>
       </c>
@@ -16994,7 +16995,7 @@
         <v>561</v>
       </c>
     </row>
-    <row r="636" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="636" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A636" s="40"/>
       <c r="B636" s="15" t="s">
         <v>562</v>
@@ -17016,7 +17017,7 @@
         <v>563</v>
       </c>
     </row>
-    <row r="637" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="637" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A637" s="40">
         <v>45017</v>
       </c>
@@ -17036,7 +17037,7 @@
       <c r="J637" s="12"/>
       <c r="K637" s="15"/>
     </row>
-    <row r="638" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="638" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A638" s="40">
         <v>45047</v>
       </c>
@@ -17056,20 +17057,22 @@
       <c r="J638" s="11"/>
       <c r="K638" s="20"/>
     </row>
-    <row r="639" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="639" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A639" s="40">
         <v>45078</v>
       </c>
       <c r="B639" s="20" t="s">
         <v>554</v>
       </c>
-      <c r="C639" s="13"/>
+      <c r="C639" s="13">
+        <v>1.25</v>
+      </c>
       <c r="D639" s="39"/>
       <c r="E639" s="9"/>
       <c r="F639" s="20"/>
-      <c r="G639" s="13" t="str">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v/>
+      <c r="G639" s="13">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v>1.25</v>
       </c>
       <c r="H639" s="39"/>
       <c r="I639" s="9"/>
@@ -17078,11 +17081,13 @@
         <v>45093</v>
       </c>
     </row>
-    <row r="640" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="640" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A640" s="40">
         <v>45108</v>
       </c>
-      <c r="B640" s="20"/>
+      <c r="B640" s="20" t="s">
+        <v>53</v>
+      </c>
       <c r="C640" s="13"/>
       <c r="D640" s="39"/>
       <c r="E640" s="9"/>
@@ -17091,12 +17096,16 @@
         <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
         <v/>
       </c>
-      <c r="H640" s="39"/>
+      <c r="H640" s="39">
+        <v>1</v>
+      </c>
       <c r="I640" s="9"/>
       <c r="J640" s="11"/>
-      <c r="K640" s="20"/>
-    </row>
-    <row r="641" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="K640" s="49">
+        <v>45107</v>
+      </c>
+    </row>
+    <row r="641" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A641" s="40">
         <v>45139</v>
       </c>
@@ -17114,7 +17123,7 @@
       <c r="J641" s="11"/>
       <c r="K641" s="20"/>
     </row>
-    <row r="642" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="642" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A642" s="40">
         <v>45170</v>
       </c>
@@ -17132,7 +17141,7 @@
       <c r="J642" s="11"/>
       <c r="K642" s="20"/>
     </row>
-    <row r="643" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="643" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A643" s="40">
         <v>45200</v>
       </c>
@@ -17150,7 +17159,7 @@
       <c r="J643" s="11"/>
       <c r="K643" s="20"/>
     </row>
-    <row r="644" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="644" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A644" s="40">
         <v>45231</v>
       </c>
@@ -17168,7 +17177,7 @@
       <c r="J644" s="11"/>
       <c r="K644" s="20"/>
     </row>
-    <row r="645" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="645" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A645" s="40">
         <v>45261</v>
       </c>
@@ -17186,7 +17195,7 @@
       <c r="J645" s="11"/>
       <c r="K645" s="20"/>
     </row>
-    <row r="646" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="646" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A646" s="40">
         <v>45292</v>
       </c>
@@ -17204,7 +17213,7 @@
       <c r="J646" s="11"/>
       <c r="K646" s="20"/>
     </row>
-    <row r="647" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="647" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A647" s="40">
         <v>45323</v>
       </c>
@@ -17222,7 +17231,7 @@
       <c r="J647" s="11"/>
       <c r="K647" s="20"/>
     </row>
-    <row r="648" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="648" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A648" s="40">
         <v>45352</v>
       </c>
@@ -17240,7 +17249,7 @@
       <c r="J648" s="11"/>
       <c r="K648" s="20"/>
     </row>
-    <row r="649" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="649" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A649" s="40">
         <v>45383</v>
       </c>
@@ -17258,7 +17267,7 @@
       <c r="J649" s="11"/>
       <c r="K649" s="20"/>
     </row>
-    <row r="650" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="650" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A650" s="40">
         <v>45413</v>
       </c>
@@ -17276,7 +17285,7 @@
       <c r="J650" s="11"/>
       <c r="K650" s="20"/>
     </row>
-    <row r="651" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="651" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A651" s="40">
         <v>45444</v>
       </c>
@@ -17294,7 +17303,7 @@
       <c r="J651" s="11"/>
       <c r="K651" s="20"/>
     </row>
-    <row r="652" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="652" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A652" s="40">
         <v>45474</v>
       </c>
@@ -17312,7 +17321,7 @@
       <c r="J652" s="11"/>
       <c r="K652" s="20"/>
     </row>
-    <row r="653" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="653" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A653" s="40">
         <v>45505</v>
       </c>
@@ -17330,7 +17339,7 @@
       <c r="J653" s="11"/>
       <c r="K653" s="20"/>
     </row>
-    <row r="654" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="654" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A654" s="40">
         <v>45536</v>
       </c>
@@ -17348,7 +17357,7 @@
       <c r="J654" s="11"/>
       <c r="K654" s="20"/>
     </row>
-    <row r="655" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="655" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A655" s="40">
         <v>45566</v>
       </c>
@@ -17366,7 +17375,7 @@
       <c r="J655" s="11"/>
       <c r="K655" s="20"/>
     </row>
-    <row r="656" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="656" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A656" s="40">
         <v>45597</v>
       </c>
@@ -17384,7 +17393,7 @@
       <c r="J656" s="11"/>
       <c r="K656" s="20"/>
     </row>
-    <row r="657" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="657" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A657" s="40">
         <v>45627</v>
       </c>
@@ -17402,7 +17411,7 @@
       <c r="J657" s="11"/>
       <c r="K657" s="20"/>
     </row>
-    <row r="658" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="658" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A658" s="40">
         <v>45658</v>
       </c>
@@ -17420,7 +17429,7 @@
       <c r="J658" s="11"/>
       <c r="K658" s="20"/>
     </row>
-    <row r="659" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="659" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A659" s="40">
         <v>45689</v>
       </c>
@@ -17438,7 +17447,7 @@
       <c r="J659" s="11"/>
       <c r="K659" s="20"/>
     </row>
-    <row r="660" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="660" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A660" s="40">
         <v>45717</v>
       </c>
@@ -17456,7 +17465,7 @@
       <c r="J660" s="11"/>
       <c r="K660" s="20"/>
     </row>
-    <row r="661" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="661" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A661" s="40">
         <v>45748</v>
       </c>
@@ -17474,7 +17483,7 @@
       <c r="J661" s="11"/>
       <c r="K661" s="20"/>
     </row>
-    <row r="662" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="662" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A662" s="40">
         <v>45778</v>
       </c>
@@ -17492,7 +17501,7 @@
       <c r="J662" s="11"/>
       <c r="K662" s="20"/>
     </row>
-    <row r="663" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="663" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A663" s="40">
         <v>45809</v>
       </c>
@@ -17510,7 +17519,7 @@
       <c r="J663" s="11"/>
       <c r="K663" s="20"/>
     </row>
-    <row r="664" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="664" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A664" s="40">
         <v>45839</v>
       </c>
@@ -17528,7 +17537,7 @@
       <c r="J664" s="11"/>
       <c r="K664" s="20"/>
     </row>
-    <row r="665" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="665" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A665" s="40">
         <v>45870</v>
       </c>
@@ -17546,7 +17555,7 @@
       <c r="J665" s="11"/>
       <c r="K665" s="20"/>
     </row>
-    <row r="666" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="666" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A666" s="40">
         <v>45901</v>
       </c>
@@ -17564,7 +17573,7 @@
       <c r="J666" s="11"/>
       <c r="K666" s="20"/>
     </row>
-    <row r="667" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="667" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A667" s="40">
         <v>45931</v>
       </c>
@@ -17582,7 +17591,7 @@
       <c r="J667" s="11"/>
       <c r="K667" s="20"/>
     </row>
-    <row r="668" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="668" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A668" s="40">
         <v>45962</v>
       </c>
@@ -17600,7 +17609,7 @@
       <c r="J668" s="11"/>
       <c r="K668" s="20"/>
     </row>
-    <row r="669" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="669" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A669" s="40">
         <v>45992</v>
       </c>
@@ -17618,7 +17627,7 @@
       <c r="J669" s="11"/>
       <c r="K669" s="20"/>
     </row>
-    <row r="670" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="670" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A670" s="40">
         <v>46023</v>
       </c>
@@ -17636,7 +17645,7 @@
       <c r="J670" s="11"/>
       <c r="K670" s="20"/>
     </row>
-    <row r="671" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="671" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A671" s="40">
         <v>46054</v>
       </c>
@@ -17654,7 +17663,7 @@
       <c r="J671" s="11"/>
       <c r="K671" s="20"/>
     </row>
-    <row r="672" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="672" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A672" s="40">
         <v>46082</v>
       </c>
@@ -17672,7 +17681,7 @@
       <c r="J672" s="11"/>
       <c r="K672" s="20"/>
     </row>
-    <row r="673" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="673" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A673" s="40">
         <v>46113</v>
       </c>
@@ -17690,7 +17699,7 @@
       <c r="J673" s="11"/>
       <c r="K673" s="20"/>
     </row>
-    <row r="674" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="674" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A674" s="40">
         <v>46143</v>
       </c>
@@ -17708,7 +17717,7 @@
       <c r="J674" s="11"/>
       <c r="K674" s="20"/>
     </row>
-    <row r="675" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="675" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A675" s="40">
         <v>46174</v>
       </c>
@@ -17726,7 +17735,7 @@
       <c r="J675" s="11"/>
       <c r="K675" s="20"/>
     </row>
-    <row r="676" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="676" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A676" s="40">
         <v>46204</v>
       </c>
@@ -17744,7 +17753,7 @@
       <c r="J676" s="11"/>
       <c r="K676" s="20"/>
     </row>
-    <row r="677" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="677" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A677" s="40">
         <v>46235</v>
       </c>
@@ -17762,7 +17771,7 @@
       <c r="J677" s="11"/>
       <c r="K677" s="20"/>
     </row>
-    <row r="678" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="678" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A678" s="40">
         <v>46266</v>
       </c>
@@ -17780,7 +17789,7 @@
       <c r="J678" s="11"/>
       <c r="K678" s="20"/>
     </row>
-    <row r="679" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="679" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A679" s="40">
         <v>46296</v>
       </c>
@@ -17798,7 +17807,7 @@
       <c r="J679" s="11"/>
       <c r="K679" s="20"/>
     </row>
-    <row r="680" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="680" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A680" s="40">
         <v>46327</v>
       </c>
@@ -17816,7 +17825,7 @@
       <c r="J680" s="11"/>
       <c r="K680" s="20"/>
     </row>
-    <row r="681" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="681" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A681" s="40">
         <v>46357</v>
       </c>
@@ -17834,7 +17843,7 @@
       <c r="J681" s="11"/>
       <c r="K681" s="20"/>
     </row>
-    <row r="682" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="682" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A682" s="40">
         <v>46388</v>
       </c>
@@ -17852,7 +17861,7 @@
       <c r="J682" s="11"/>
       <c r="K682" s="20"/>
     </row>
-    <row r="683" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="683" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A683" s="40">
         <v>46419</v>
       </c>
@@ -17870,7 +17879,7 @@
       <c r="J683" s="11"/>
       <c r="K683" s="20"/>
     </row>
-    <row r="684" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="684" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A684" s="40">
         <v>46447</v>
       </c>
@@ -17888,7 +17897,7 @@
       <c r="J684" s="11"/>
       <c r="K684" s="20"/>
     </row>
-    <row r="685" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="685" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A685" s="40">
         <v>46478</v>
       </c>
@@ -17906,7 +17915,7 @@
       <c r="J685" s="11"/>
       <c r="K685" s="20"/>
     </row>
-    <row r="686" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="686" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A686" s="40">
         <v>46508</v>
       </c>
@@ -17924,7 +17933,7 @@
       <c r="J686" s="11"/>
       <c r="K686" s="20"/>
     </row>
-    <row r="687" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="687" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A687" s="40">
         <v>46539</v>
       </c>
@@ -17942,7 +17951,7 @@
       <c r="J687" s="11"/>
       <c r="K687" s="20"/>
     </row>
-    <row r="688" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="688" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A688" s="40">
         <v>46569</v>
       </c>
@@ -17960,7 +17969,7 @@
       <c r="J688" s="11"/>
       <c r="K688" s="20"/>
     </row>
-    <row r="689" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="689" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A689" s="40">
         <v>46600</v>
       </c>
@@ -17978,7 +17987,7 @@
       <c r="J689" s="11"/>
       <c r="K689" s="20"/>
     </row>
-    <row r="690" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="690" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A690" s="40">
         <v>46631</v>
       </c>
@@ -17996,7 +18005,7 @@
       <c r="J690" s="11"/>
       <c r="K690" s="20"/>
     </row>
-    <row r="691" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="691" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A691" s="40">
         <v>46661</v>
       </c>
@@ -18014,7 +18023,7 @@
       <c r="J691" s="11"/>
       <c r="K691" s="20"/>
     </row>
-    <row r="692" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="692" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A692" s="40">
         <v>46692</v>
       </c>
@@ -18032,7 +18041,7 @@
       <c r="J692" s="11"/>
       <c r="K692" s="20"/>
     </row>
-    <row r="693" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="693" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A693" s="40">
         <v>46722</v>
       </c>
@@ -18050,7 +18059,7 @@
       <c r="J693" s="11"/>
       <c r="K693" s="20"/>
     </row>
-    <row r="694" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="694" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A694" s="40">
         <v>46753</v>
       </c>
@@ -18068,7 +18077,7 @@
       <c r="J694" s="11"/>
       <c r="K694" s="20"/>
     </row>
-    <row r="695" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="695" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A695" s="40">
         <v>46784</v>
       </c>
@@ -18086,7 +18095,7 @@
       <c r="J695" s="11"/>
       <c r="K695" s="20"/>
     </row>
-    <row r="696" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="696" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A696" s="40">
         <v>46813</v>
       </c>
@@ -18104,7 +18113,7 @@
       <c r="J696" s="11"/>
       <c r="K696" s="20"/>
     </row>
-    <row r="697" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="697" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A697" s="40">
         <v>46844</v>
       </c>
@@ -18122,7 +18131,7 @@
       <c r="J697" s="11"/>
       <c r="K697" s="20"/>
     </row>
-    <row r="698" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="698" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A698" s="40">
         <v>46874</v>
       </c>
@@ -18140,7 +18149,7 @@
       <c r="J698" s="11"/>
       <c r="K698" s="20"/>
     </row>
-    <row r="699" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="699" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A699" s="40">
         <v>46905</v>
       </c>
@@ -18158,7 +18167,7 @@
       <c r="J699" s="11"/>
       <c r="K699" s="20"/>
     </row>
-    <row r="700" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="700" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A700" s="40">
         <v>46935</v>
       </c>
@@ -18176,7 +18185,7 @@
       <c r="J700" s="11"/>
       <c r="K700" s="20"/>
     </row>
-    <row r="701" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="701" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A701" s="40">
         <v>46966</v>
       </c>
@@ -18194,7 +18203,7 @@
       <c r="J701" s="11"/>
       <c r="K701" s="20"/>
     </row>
-    <row r="702" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="702" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A702" s="40">
         <v>46997</v>
       </c>
@@ -18212,7 +18221,7 @@
       <c r="J702" s="11"/>
       <c r="K702" s="20"/>
     </row>
-    <row r="703" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="703" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A703" s="40">
         <v>47027</v>
       </c>
@@ -18230,7 +18239,7 @@
       <c r="J703" s="11"/>
       <c r="K703" s="20"/>
     </row>
-    <row r="704" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="704" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A704" s="40">
         <v>47058</v>
       </c>
@@ -18248,7 +18257,7 @@
       <c r="J704" s="11"/>
       <c r="K704" s="20"/>
     </row>
-    <row r="705" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="705" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A705" s="40">
         <v>47088</v>
       </c>
@@ -18266,7 +18275,7 @@
       <c r="J705" s="11"/>
       <c r="K705" s="20"/>
     </row>
-    <row r="706" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="706" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A706" s="40">
         <v>47119</v>
       </c>
@@ -18284,7 +18293,7 @@
       <c r="J706" s="11"/>
       <c r="K706" s="20"/>
     </row>
-    <row r="707" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="707" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A707" s="40">
         <v>47150</v>
       </c>
@@ -18302,7 +18311,7 @@
       <c r="J707" s="11"/>
       <c r="K707" s="20"/>
     </row>
-    <row r="708" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="708" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A708" s="40">
         <v>47178</v>
       </c>
@@ -18320,7 +18329,7 @@
       <c r="J708" s="11"/>
       <c r="K708" s="20"/>
     </row>
-    <row r="709" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="709" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A709" s="40">
         <v>47209</v>
       </c>
@@ -18338,7 +18347,7 @@
       <c r="J709" s="11"/>
       <c r="K709" s="20"/>
     </row>
-    <row r="710" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="710" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A710" s="40">
         <v>47239</v>
       </c>
@@ -18356,7 +18365,7 @@
       <c r="J710" s="11"/>
       <c r="K710" s="20"/>
     </row>
-    <row r="711" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="711" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A711" s="40">
         <v>47270</v>
       </c>
@@ -18374,7 +18383,7 @@
       <c r="J711" s="11"/>
       <c r="K711" s="20"/>
     </row>
-    <row r="712" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="712" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A712" s="40">
         <v>47300</v>
       </c>
@@ -18392,7 +18401,7 @@
       <c r="J712" s="11"/>
       <c r="K712" s="20"/>
     </row>
-    <row r="713" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="713" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A713" s="40">
         <v>47331</v>
       </c>
@@ -18410,7 +18419,7 @@
       <c r="J713" s="11"/>
       <c r="K713" s="20"/>
     </row>
-    <row r="714" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="714" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A714" s="40">
         <v>47362</v>
       </c>
@@ -18428,7 +18437,7 @@
       <c r="J714" s="11"/>
       <c r="K714" s="20"/>
     </row>
-    <row r="715" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="715" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A715" s="40">
         <v>47392</v>
       </c>
@@ -18446,7 +18455,7 @@
       <c r="J715" s="11"/>
       <c r="K715" s="20"/>
     </row>
-    <row r="716" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="716" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A716" s="40">
         <v>47423</v>
       </c>
@@ -18464,7 +18473,7 @@
       <c r="J716" s="11"/>
       <c r="K716" s="20"/>
     </row>
-    <row r="717" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="717" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A717" s="40">
         <v>47453</v>
       </c>
@@ -18482,7 +18491,7 @@
       <c r="J717" s="11"/>
       <c r="K717" s="20"/>
     </row>
-    <row r="718" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="718" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A718" s="40">
         <v>47484</v>
       </c>
@@ -18500,7 +18509,7 @@
       <c r="J718" s="11"/>
       <c r="K718" s="20"/>
     </row>
-    <row r="719" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="719" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A719" s="40">
         <v>47515</v>
       </c>
@@ -18518,7 +18527,7 @@
       <c r="J719" s="11"/>
       <c r="K719" s="20"/>
     </row>
-    <row r="720" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="720" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A720" s="40">
         <v>47543</v>
       </c>
@@ -18536,7 +18545,7 @@
       <c r="J720" s="11"/>
       <c r="K720" s="20"/>
     </row>
-    <row r="721" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="721" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A721" s="40">
         <v>47574</v>
       </c>
@@ -18554,7 +18563,7 @@
       <c r="J721" s="11"/>
       <c r="K721" s="20"/>
     </row>
-    <row r="722" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="722" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A722" s="40">
         <v>47604</v>
       </c>
@@ -18572,7 +18581,7 @@
       <c r="J722" s="11"/>
       <c r="K722" s="20"/>
     </row>
-    <row r="723" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="723" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A723" s="40">
         <v>47635</v>
       </c>
@@ -18590,7 +18599,7 @@
       <c r="J723" s="11"/>
       <c r="K723" s="20"/>
     </row>
-    <row r="724" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="724" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A724" s="40">
         <v>47665</v>
       </c>
@@ -18608,7 +18617,7 @@
       <c r="J724" s="11"/>
       <c r="K724" s="20"/>
     </row>
-    <row r="725" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="725" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A725" s="40">
         <v>47696</v>
       </c>
@@ -18626,7 +18635,7 @@
       <c r="J725" s="11"/>
       <c r="K725" s="20"/>
     </row>
-    <row r="726" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="726" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A726" s="40">
         <v>47727</v>
       </c>
@@ -18644,7 +18653,7 @@
       <c r="J726" s="11"/>
       <c r="K726" s="20"/>
     </row>
-    <row r="727" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="727" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A727" s="40">
         <v>47757</v>
       </c>
@@ -18662,7 +18671,7 @@
       <c r="J727" s="11"/>
       <c r="K727" s="20"/>
     </row>
-    <row r="728" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="728" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A728" s="40">
         <v>47788</v>
       </c>
@@ -18680,7 +18689,7 @@
       <c r="J728" s="11"/>
       <c r="K728" s="20"/>
     </row>
-    <row r="729" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="729" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A729" s="40">
         <v>47818</v>
       </c>
@@ -18698,7 +18707,7 @@
       <c r="J729" s="11"/>
       <c r="K729" s="20"/>
     </row>
-    <row r="730" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="730" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A730" s="40">
         <v>47849</v>
       </c>
@@ -18716,7 +18725,7 @@
       <c r="J730" s="11"/>
       <c r="K730" s="20"/>
     </row>
-    <row r="731" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="731" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A731" s="40">
         <v>47880</v>
       </c>
@@ -18734,7 +18743,7 @@
       <c r="J731" s="11"/>
       <c r="K731" s="20"/>
     </row>
-    <row r="732" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="732" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A732" s="40">
         <v>47908</v>
       </c>
@@ -18752,7 +18761,7 @@
       <c r="J732" s="11"/>
       <c r="K732" s="20"/>
     </row>
-    <row r="733" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="733" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A733" s="40">
         <v>47939</v>
       </c>
@@ -18770,7 +18779,7 @@
       <c r="J733" s="11"/>
       <c r="K733" s="20"/>
     </row>
-    <row r="734" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="734" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A734" s="40">
         <v>47969</v>
       </c>
@@ -18788,7 +18797,7 @@
       <c r="J734" s="11"/>
       <c r="K734" s="20"/>
     </row>
-    <row r="735" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="735" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A735" s="40">
         <v>48000</v>
       </c>
@@ -18806,7 +18815,7 @@
       <c r="J735" s="11"/>
       <c r="K735" s="20"/>
     </row>
-    <row r="736" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="736" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A736" s="40">
         <v>48030</v>
       </c>
@@ -18824,7 +18833,7 @@
       <c r="J736" s="11"/>
       <c r="K736" s="20"/>
     </row>
-    <row r="737" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="737" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A737" s="40">
         <v>48061</v>
       </c>
@@ -18842,7 +18851,7 @@
       <c r="J737" s="11"/>
       <c r="K737" s="20"/>
     </row>
-    <row r="738" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="738" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A738" s="40">
         <v>48092</v>
       </c>
@@ -18860,7 +18869,7 @@
       <c r="J738" s="11"/>
       <c r="K738" s="20"/>
     </row>
-    <row r="739" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="739" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A739" s="40">
         <v>48122</v>
       </c>
@@ -18878,7 +18887,7 @@
       <c r="J739" s="11"/>
       <c r="K739" s="20"/>
     </row>
-    <row r="740" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="740" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A740" s="40">
         <v>48153</v>
       </c>
@@ -18896,7 +18905,7 @@
       <c r="J740" s="11"/>
       <c r="K740" s="20"/>
     </row>
-    <row r="741" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="741" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A741" s="40">
         <v>48183</v>
       </c>
@@ -18914,7 +18923,7 @@
       <c r="J741" s="11"/>
       <c r="K741" s="20"/>
     </row>
-    <row r="742" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="742" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A742" s="40">
         <v>48214</v>
       </c>
@@ -18932,7 +18941,7 @@
       <c r="J742" s="11"/>
       <c r="K742" s="20"/>
     </row>
-    <row r="743" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="743" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A743" s="40">
         <v>48245</v>
       </c>
@@ -18950,7 +18959,7 @@
       <c r="J743" s="11"/>
       <c r="K743" s="20"/>
     </row>
-    <row r="744" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="744" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A744" s="40">
         <v>48274</v>
       </c>
@@ -18968,7 +18977,7 @@
       <c r="J744" s="11"/>
       <c r="K744" s="20"/>
     </row>
-    <row r="745" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="745" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A745" s="40">
         <v>48305</v>
       </c>
@@ -18986,7 +18995,7 @@
       <c r="J745" s="11"/>
       <c r="K745" s="20"/>
     </row>
-    <row r="746" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="746" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A746" s="40">
         <v>48335</v>
       </c>
@@ -19004,7 +19013,7 @@
       <c r="J746" s="11"/>
       <c r="K746" s="20"/>
     </row>
-    <row r="747" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="747" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A747" s="40">
         <v>48366</v>
       </c>
@@ -19022,7 +19031,7 @@
       <c r="J747" s="11"/>
       <c r="K747" s="20"/>
     </row>
-    <row r="748" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="748" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A748" s="40">
         <v>48396</v>
       </c>
@@ -19040,7 +19049,7 @@
       <c r="J748" s="11"/>
       <c r="K748" s="20"/>
     </row>
-    <row r="749" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="749" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A749" s="40">
         <v>48427</v>
       </c>
@@ -19058,7 +19067,7 @@
       <c r="J749" s="11"/>
       <c r="K749" s="20"/>
     </row>
-    <row r="750" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="750" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A750" s="40">
         <v>48458</v>
       </c>
@@ -19076,7 +19085,7 @@
       <c r="J750" s="11"/>
       <c r="K750" s="20"/>
     </row>
-    <row r="751" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="751" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A751" s="40">
         <v>48488</v>
       </c>
@@ -19094,7 +19103,7 @@
       <c r="J751" s="11"/>
       <c r="K751" s="20"/>
     </row>
-    <row r="752" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="752" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A752" s="40">
         <v>48519</v>
       </c>
@@ -19112,7 +19121,7 @@
       <c r="J752" s="11"/>
       <c r="K752" s="20"/>
     </row>
-    <row r="753" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="753" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A753" s="40">
         <v>48549</v>
       </c>
@@ -19130,7 +19139,7 @@
       <c r="J753" s="11"/>
       <c r="K753" s="20"/>
     </row>
-    <row r="754" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="754" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A754" s="40">
         <v>48580</v>
       </c>
@@ -19148,7 +19157,7 @@
       <c r="J754" s="11"/>
       <c r="K754" s="20"/>
     </row>
-    <row r="755" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="755" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A755" s="40">
         <v>48611</v>
       </c>
@@ -19166,7 +19175,7 @@
       <c r="J755" s="11"/>
       <c r="K755" s="20"/>
     </row>
-    <row r="756" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="756" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A756" s="40">
         <v>48639</v>
       </c>
@@ -19184,7 +19193,7 @@
       <c r="J756" s="11"/>
       <c r="K756" s="20"/>
     </row>
-    <row r="757" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="757" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A757" s="40">
         <v>48670</v>
       </c>
@@ -19202,7 +19211,7 @@
       <c r="J757" s="11"/>
       <c r="K757" s="20"/>
     </row>
-    <row r="758" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="758" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A758" s="40">
         <v>48700</v>
       </c>
@@ -19220,7 +19229,7 @@
       <c r="J758" s="11"/>
       <c r="K758" s="20"/>
     </row>
-    <row r="759" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="759" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A759" s="40">
         <v>48731</v>
       </c>
@@ -19238,7 +19247,7 @@
       <c r="J759" s="11"/>
       <c r="K759" s="20"/>
     </row>
-    <row r="760" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="760" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A760" s="40">
         <v>48761</v>
       </c>
@@ -19256,7 +19265,7 @@
       <c r="J760" s="11"/>
       <c r="K760" s="20"/>
     </row>
-    <row r="761" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="761" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A761" s="40">
         <v>48792</v>
       </c>
@@ -19274,7 +19283,7 @@
       <c r="J761" s="11"/>
       <c r="K761" s="20"/>
     </row>
-    <row r="762" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="762" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A762" s="40">
         <v>48823</v>
       </c>
@@ -19292,7 +19301,7 @@
       <c r="J762" s="11"/>
       <c r="K762" s="20"/>
     </row>
-    <row r="763" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="763" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A763" s="40">
         <v>48853</v>
       </c>
@@ -19310,7 +19319,7 @@
       <c r="J763" s="11"/>
       <c r="K763" s="20"/>
     </row>
-    <row r="764" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="764" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A764" s="40">
         <v>48884</v>
       </c>
@@ -19328,7 +19337,7 @@
       <c r="J764" s="11"/>
       <c r="K764" s="20"/>
     </row>
-    <row r="765" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="765" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A765" s="40">
         <v>48914</v>
       </c>
@@ -19346,7 +19355,7 @@
       <c r="J765" s="11"/>
       <c r="K765" s="20"/>
     </row>
-    <row r="766" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="766" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A766" s="40">
         <v>48945</v>
       </c>
@@ -19364,7 +19373,7 @@
       <c r="J766" s="11"/>
       <c r="K766" s="20"/>
     </row>
-    <row r="767" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="767" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A767" s="40">
         <v>48976</v>
       </c>
@@ -19382,7 +19391,7 @@
       <c r="J767" s="11"/>
       <c r="K767" s="20"/>
     </row>
-    <row r="768" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="768" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A768" s="40">
         <v>49004</v>
       </c>
@@ -19400,7 +19409,7 @@
       <c r="J768" s="11"/>
       <c r="K768" s="20"/>
     </row>
-    <row r="769" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="769" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A769" s="40">
         <v>49035</v>
       </c>
@@ -19418,7 +19427,7 @@
       <c r="J769" s="11"/>
       <c r="K769" s="20"/>
     </row>
-    <row r="770" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="770" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A770" s="40">
         <v>49065</v>
       </c>
@@ -19436,7 +19445,7 @@
       <c r="J770" s="11"/>
       <c r="K770" s="20"/>
     </row>
-    <row r="771" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="771" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A771" s="40">
         <v>49096</v>
       </c>
@@ -19454,7 +19463,7 @@
       <c r="J771" s="11"/>
       <c r="K771" s="20"/>
     </row>
-    <row r="772" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="772" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A772" s="40">
         <v>49126</v>
       </c>
@@ -19472,7 +19481,7 @@
       <c r="J772" s="11"/>
       <c r="K772" s="20"/>
     </row>
-    <row r="773" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="773" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A773" s="40">
         <v>49157</v>
       </c>
@@ -19490,7 +19499,7 @@
       <c r="J773" s="11"/>
       <c r="K773" s="20"/>
     </row>
-    <row r="774" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="774" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A774" s="40">
         <v>49188</v>
       </c>
@@ -19508,7 +19517,7 @@
       <c r="J774" s="11"/>
       <c r="K774" s="20"/>
     </row>
-    <row r="775" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="775" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A775" s="40">
         <v>49218</v>
       </c>
@@ -19526,7 +19535,7 @@
       <c r="J775" s="11"/>
       <c r="K775" s="20"/>
     </row>
-    <row r="776" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="776" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A776" s="40">
         <v>49249</v>
       </c>
@@ -19544,7 +19553,7 @@
       <c r="J776" s="11"/>
       <c r="K776" s="20"/>
     </row>
-    <row r="777" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="777" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A777" s="40">
         <v>49279</v>
       </c>
@@ -19562,7 +19571,7 @@
       <c r="J777" s="11"/>
       <c r="K777" s="20"/>
     </row>
-    <row r="778" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="778" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A778" s="40">
         <v>49310</v>
       </c>
@@ -19580,7 +19589,7 @@
       <c r="J778" s="11"/>
       <c r="K778" s="20"/>
     </row>
-    <row r="779" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="779" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A779" s="40">
         <v>49341</v>
       </c>
@@ -19598,7 +19607,7 @@
       <c r="J779" s="11"/>
       <c r="K779" s="20"/>
     </row>
-    <row r="780" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="780" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A780" s="40">
         <v>49369</v>
       </c>
@@ -19616,7 +19625,7 @@
       <c r="J780" s="11"/>
       <c r="K780" s="20"/>
     </row>
-    <row r="781" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="781" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A781" s="40">
         <v>49400</v>
       </c>
@@ -19634,7 +19643,7 @@
       <c r="J781" s="11"/>
       <c r="K781" s="20"/>
     </row>
-    <row r="782" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="782" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A782" s="40">
         <v>49430</v>
       </c>
@@ -19652,7 +19661,7 @@
       <c r="J782" s="11"/>
       <c r="K782" s="20"/>
     </row>
-    <row r="783" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="783" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A783" s="40">
         <v>49461</v>
       </c>
@@ -19670,7 +19679,7 @@
       <c r="J783" s="11"/>
       <c r="K783" s="20"/>
     </row>
-    <row r="784" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="784" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A784" s="40">
         <v>49491</v>
       </c>
@@ -19688,7 +19697,7 @@
       <c r="J784" s="11"/>
       <c r="K784" s="20"/>
     </row>
-    <row r="785" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="785" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A785" s="40">
         <v>49522</v>
       </c>
@@ -19706,7 +19715,7 @@
       <c r="J785" s="11"/>
       <c r="K785" s="20"/>
     </row>
-    <row r="786" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="786" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A786" s="40">
         <v>49553</v>
       </c>
@@ -19724,7 +19733,7 @@
       <c r="J786" s="11"/>
       <c r="K786" s="20"/>
     </row>
-    <row r="787" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="787" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A787" s="40">
         <v>49583</v>
       </c>
@@ -19742,7 +19751,7 @@
       <c r="J787" s="11"/>
       <c r="K787" s="20"/>
     </row>
-    <row r="788" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="788" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A788" s="40">
         <v>49614</v>
       </c>
@@ -19760,7 +19769,7 @@
       <c r="J788" s="11"/>
       <c r="K788" s="20"/>
     </row>
-    <row r="789" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="789" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A789" s="40">
         <v>49644</v>
       </c>
@@ -19778,7 +19787,7 @@
       <c r="J789" s="11"/>
       <c r="K789" s="20"/>
     </row>
-    <row r="790" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="790" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A790" s="40">
         <v>49675</v>
       </c>
@@ -19796,7 +19805,7 @@
       <c r="J790" s="11"/>
       <c r="K790" s="20"/>
     </row>
-    <row r="791" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="791" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A791" s="40">
         <v>49706</v>
       </c>
@@ -19814,7 +19823,7 @@
       <c r="J791" s="11"/>
       <c r="K791" s="20"/>
     </row>
-    <row r="792" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="792" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A792" s="40">
         <v>49735</v>
       </c>
@@ -19832,7 +19841,7 @@
       <c r="J792" s="11"/>
       <c r="K792" s="20"/>
     </row>
-    <row r="793" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="793" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A793" s="40">
         <v>49766</v>
       </c>
@@ -19850,7 +19859,7 @@
       <c r="J793" s="11"/>
       <c r="K793" s="20"/>
     </row>
-    <row r="794" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="794" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A794" s="40">
         <v>49796</v>
       </c>
@@ -19868,7 +19877,7 @@
       <c r="J794" s="11"/>
       <c r="K794" s="20"/>
     </row>
-    <row r="795" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="795" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A795" s="40">
         <v>49827</v>
       </c>
@@ -19886,7 +19895,7 @@
       <c r="J795" s="11"/>
       <c r="K795" s="20"/>
     </row>
-    <row r="796" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="796" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A796" s="40">
         <v>49857</v>
       </c>
@@ -19904,7 +19913,7 @@
       <c r="J796" s="11"/>
       <c r="K796" s="20"/>
     </row>
-    <row r="797" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="797" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A797" s="40">
         <v>49888</v>
       </c>
@@ -19922,7 +19931,7 @@
       <c r="J797" s="11"/>
       <c r="K797" s="20"/>
     </row>
-    <row r="798" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="798" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A798" s="40">
         <v>49919</v>
       </c>
@@ -19940,7 +19949,7 @@
       <c r="J798" s="11"/>
       <c r="K798" s="20"/>
     </row>
-    <row r="799" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="799" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A799" s="40">
         <v>49949</v>
       </c>
@@ -19958,7 +19967,7 @@
       <c r="J799" s="11"/>
       <c r="K799" s="20"/>
     </row>
-    <row r="800" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="800" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A800" s="40">
         <v>49980</v>
       </c>
@@ -19976,7 +19985,7 @@
       <c r="J800" s="11"/>
       <c r="K800" s="20"/>
     </row>
-    <row r="801" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="801" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A801" s="40">
         <v>50010</v>
       </c>
@@ -19994,7 +20003,7 @@
       <c r="J801" s="11"/>
       <c r="K801" s="20"/>
     </row>
-    <row r="802" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="802" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A802" s="40">
         <v>50041</v>
       </c>
@@ -20012,7 +20021,7 @@
       <c r="J802" s="11"/>
       <c r="K802" s="20"/>
     </row>
-    <row r="803" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="803" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A803" s="40">
         <v>50072</v>
       </c>
@@ -20030,7 +20039,7 @@
       <c r="J803" s="11"/>
       <c r="K803" s="20"/>
     </row>
-    <row r="804" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="804" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A804" s="40">
         <v>50100</v>
       </c>
@@ -20048,7 +20057,7 @@
       <c r="J804" s="11"/>
       <c r="K804" s="20"/>
     </row>
-    <row r="805" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="805" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A805" s="40">
         <v>50131</v>
       </c>
@@ -20066,7 +20075,7 @@
       <c r="J805" s="11"/>
       <c r="K805" s="20"/>
     </row>
-    <row r="806" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="806" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A806" s="40">
         <v>50161</v>
       </c>
@@ -20084,7 +20093,7 @@
       <c r="J806" s="11"/>
       <c r="K806" s="20"/>
     </row>
-    <row r="807" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="807" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A807" s="40">
         <v>50192</v>
       </c>
@@ -20102,7 +20111,7 @@
       <c r="J807" s="11"/>
       <c r="K807" s="20"/>
     </row>
-    <row r="808" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="808" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A808" s="40">
         <v>50222</v>
       </c>
@@ -20120,7 +20129,7 @@
       <c r="J808" s="11"/>
       <c r="K808" s="20"/>
     </row>
-    <row r="809" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="809" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A809" s="40">
         <v>50253</v>
       </c>
@@ -20138,7 +20147,7 @@
       <c r="J809" s="11"/>
       <c r="K809" s="20"/>
     </row>
-    <row r="810" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="810" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A810" s="40">
         <v>50284</v>
       </c>
@@ -20156,7 +20165,7 @@
       <c r="J810" s="11"/>
       <c r="K810" s="20"/>
     </row>
-    <row r="811" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="811" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A811" s="40">
         <v>50314</v>
       </c>
@@ -20174,7 +20183,7 @@
       <c r="J811" s="11"/>
       <c r="K811" s="20"/>
     </row>
-    <row r="812" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="812" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A812" s="40">
         <v>50345</v>
       </c>
@@ -20192,7 +20201,7 @@
       <c r="J812" s="11"/>
       <c r="K812" s="20"/>
     </row>
-    <row r="813" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="813" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A813" s="40">
         <v>50375</v>
       </c>
@@ -20210,7 +20219,7 @@
       <c r="J813" s="11"/>
       <c r="K813" s="20"/>
     </row>
-    <row r="814" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="814" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A814" s="40">
         <v>50406</v>
       </c>
@@ -20228,7 +20237,7 @@
       <c r="J814" s="11"/>
       <c r="K814" s="20"/>
     </row>
-    <row r="815" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="815" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A815" s="40">
         <v>50437</v>
       </c>
@@ -20246,7 +20255,7 @@
       <c r="J815" s="11"/>
       <c r="K815" s="20"/>
     </row>
-    <row r="816" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="816" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A816" s="40">
         <v>50465</v>
       </c>
@@ -20264,7 +20273,7 @@
       <c r="J816" s="11"/>
       <c r="K816" s="20"/>
     </row>
-    <row r="817" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="817" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A817" s="40">
         <v>50496</v>
       </c>
@@ -20282,7 +20291,7 @@
       <c r="J817" s="11"/>
       <c r="K817" s="20"/>
     </row>
-    <row r="818" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="818" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A818" s="40">
         <v>50526</v>
       </c>
@@ -20300,7 +20309,7 @@
       <c r="J818" s="11"/>
       <c r="K818" s="20"/>
     </row>
-    <row r="819" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="819" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A819" s="40">
         <v>50557</v>
       </c>
@@ -20318,7 +20327,7 @@
       <c r="J819" s="11"/>
       <c r="K819" s="20"/>
     </row>
-    <row r="820" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="820" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A820" s="40">
         <v>50587</v>
       </c>
@@ -20336,7 +20345,7 @@
       <c r="J820" s="11"/>
       <c r="K820" s="20"/>
     </row>
-    <row r="821" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="821" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A821" s="40">
         <v>50618</v>
       </c>
@@ -20354,7 +20363,7 @@
       <c r="J821" s="11"/>
       <c r="K821" s="20"/>
     </row>
-    <row r="822" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="822" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A822" s="40">
         <v>50649</v>
       </c>
@@ -20372,7 +20381,7 @@
       <c r="J822" s="11"/>
       <c r="K822" s="20"/>
     </row>
-    <row r="823" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="823" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A823" s="40">
         <v>50679</v>
       </c>
@@ -20390,7 +20399,7 @@
       <c r="J823" s="11"/>
       <c r="K823" s="20"/>
     </row>
-    <row r="824" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="824" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A824" s="40">
         <v>50710</v>
       </c>
@@ -20408,7 +20417,7 @@
       <c r="J824" s="11"/>
       <c r="K824" s="20"/>
     </row>
-    <row r="825" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="825" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A825" s="40">
         <v>50740</v>
       </c>
@@ -20426,7 +20435,7 @@
       <c r="J825" s="11"/>
       <c r="K825" s="20"/>
     </row>
-    <row r="826" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="826" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A826" s="40">
         <v>50771</v>
       </c>
@@ -20444,7 +20453,7 @@
       <c r="J826" s="11"/>
       <c r="K826" s="20"/>
     </row>
-    <row r="827" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="827" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A827" s="40">
         <v>50802</v>
       </c>
@@ -20462,7 +20471,7 @@
       <c r="J827" s="11"/>
       <c r="K827" s="20"/>
     </row>
-    <row r="828" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="828" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A828" s="40">
         <v>50830</v>
       </c>
@@ -20480,7 +20489,7 @@
       <c r="J828" s="11"/>
       <c r="K828" s="20"/>
     </row>
-    <row r="829" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="829" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A829" s="40">
         <v>50861</v>
       </c>
@@ -20498,7 +20507,7 @@
       <c r="J829" s="11"/>
       <c r="K829" s="20"/>
     </row>
-    <row r="830" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="830" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A830" s="40">
         <v>50891</v>
       </c>
@@ -20516,7 +20525,7 @@
       <c r="J830" s="11"/>
       <c r="K830" s="20"/>
     </row>
-    <row r="831" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="831" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A831" s="40">
         <v>50922</v>
       </c>
@@ -20534,7 +20543,7 @@
       <c r="J831" s="11"/>
       <c r="K831" s="20"/>
     </row>
-    <row r="832" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="832" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A832" s="40">
         <v>50952</v>
       </c>
@@ -20568,10 +20577,10 @@
   </mergeCells>
   <phoneticPr fontId="5" type="noConversion"/>
   <dataValidations count="2">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F2:G2">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F2:G2" xr:uid="{00000000-0002-0000-0000-000000000000}">
       <formula1>"1 - Married (and not separated), 2 - Widowed (including living common law), 3 - Separated (including living common law), 4 - Divorced (including living common law), 5 - Single (including living common law)"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B4:C4">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B4:C4" xr:uid="{00000000-0002-0000-0000-000001000000}">
       <formula1>"PERMANENT, CO-TERMINUS, CASUAL, JOBCON"</formula1>
     </dataValidation>
   </dataValidations>
@@ -20594,28 +20603,28 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:L67"/>
   <sheetViews>
     <sheetView topLeftCell="A29" workbookViewId="0">
       <selection activeCell="F13" sqref="F13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="21.28515625" customWidth="1"/>
-    <col min="2" max="2" width="20.7109375" customWidth="1"/>
-    <col min="4" max="4" width="15.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="12.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="15.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="26.140625" customWidth="1"/>
-    <col min="9" max="9" width="16.28515625" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="14.85546875" customWidth="1"/>
-    <col min="11" max="11" width="14.85546875" style="37" hidden="1" customWidth="1"/>
-    <col min="12" max="12" width="14.85546875" customWidth="1"/>
+    <col min="1" max="1" width="21.33203125" customWidth="1"/>
+    <col min="2" max="2" width="20.6640625" customWidth="1"/>
+    <col min="4" max="4" width="15.5546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="12.6640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="15.5546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="26.109375" customWidth="1"/>
+    <col min="9" max="9" width="16.33203125" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="14.88671875" customWidth="1"/>
+    <col min="11" max="11" width="14.88671875" style="37" hidden="1" customWidth="1"/>
+    <col min="12" max="12" width="14.88671875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:12" ht="15.6" x14ac:dyDescent="0.3">
       <c r="D1" s="66" t="s">
         <v>33</v>
       </c>
@@ -20628,7 +20637,7 @@
       <c r="K1" s="67"/>
       <c r="L1" s="67"/>
     </row>
-    <row r="2" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A2" s="32" t="s">
         <v>24</v>
       </c>
@@ -20657,7 +20666,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="3" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A3" s="11">
         <v>30.503</v>
       </c>
@@ -20685,17 +20694,17 @@
         <v>---</v>
       </c>
     </row>
-    <row r="4" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:12" hidden="1" x14ac:dyDescent="0.3">
       <c r="G4" s="33"/>
       <c r="J4" s="1" t="str">
         <f>IF(TEXT(J3,"D")=1,1,TEXT(J3,"D"))</f>
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:12" x14ac:dyDescent="0.3">
       <c r="J5" s="1"/>
     </row>
-    <row r="6" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:12" x14ac:dyDescent="0.3">
       <c r="C6" s="38" t="s">
         <v>28</v>
       </c>
@@ -20716,7 +20725,7 @@
       <c r="K6" s="68"/>
       <c r="L6" s="68"/>
     </row>
-    <row r="7" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:12" x14ac:dyDescent="0.3">
       <c r="C7" s="37">
         <v>1</v>
       </c>
@@ -20743,7 +20752,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="8" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:12" x14ac:dyDescent="0.3">
       <c r="C8" s="37">
         <v>2</v>
       </c>
@@ -20769,7 +20778,7 @@
         <v>4.2000000000000003E-2</v>
       </c>
     </row>
-    <row r="9" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:12" x14ac:dyDescent="0.3">
       <c r="C9" s="37">
         <v>3</v>
       </c>
@@ -20795,7 +20804,7 @@
         <v>8.3000000000000004E-2</v>
       </c>
     </row>
-    <row r="10" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:12" x14ac:dyDescent="0.3">
       <c r="C10" s="37">
         <v>4</v>
       </c>
@@ -20821,7 +20830,7 @@
         <v>0.125</v>
       </c>
     </row>
-    <row r="11" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:12" x14ac:dyDescent="0.3">
       <c r="C11" s="37">
         <v>5</v>
       </c>
@@ -20847,7 +20856,7 @@
         <v>0.16700000000000001</v>
       </c>
     </row>
-    <row r="12" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:12" x14ac:dyDescent="0.3">
       <c r="C12" s="37">
         <v>6</v>
       </c>
@@ -20876,7 +20885,7 @@
         <v>0.20800000000000002</v>
       </c>
     </row>
-    <row r="13" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:12" x14ac:dyDescent="0.3">
       <c r="C13" s="37">
         <v>7</v>
       </c>
@@ -20902,7 +20911,7 @@
         <v>0.25</v>
       </c>
     </row>
-    <row r="14" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:12" x14ac:dyDescent="0.3">
       <c r="C14" s="37">
         <v>8</v>
       </c>
@@ -20928,7 +20937,7 @@
         <v>0.29199999999999998</v>
       </c>
     </row>
-    <row r="15" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:12" x14ac:dyDescent="0.3">
       <c r="C15" s="37">
         <v>9</v>
       </c>
@@ -20948,7 +20957,7 @@
         <v>0.33299999999999996</v>
       </c>
     </row>
-    <row r="16" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:12" x14ac:dyDescent="0.3">
       <c r="C16" s="37">
         <v>10</v>
       </c>
@@ -20968,7 +20977,7 @@
         <v>0.37499999999999994</v>
       </c>
     </row>
-    <row r="17" spans="3:12" x14ac:dyDescent="0.25">
+    <row r="17" spans="3:12" x14ac:dyDescent="0.3">
       <c r="C17" s="37">
         <v>11</v>
       </c>
@@ -20988,7 +20997,7 @@
         <v>0.41699999999999993</v>
       </c>
     </row>
-    <row r="18" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="18" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C18" s="37">
         <v>12</v>
       </c>
@@ -21009,7 +21018,7 @@
         <v>0.45799999999999991</v>
       </c>
     </row>
-    <row r="19" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="19" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C19" s="37">
         <v>13</v>
       </c>
@@ -21030,7 +21039,7 @@
         <v>0.49999999999999989</v>
       </c>
     </row>
-    <row r="20" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="20" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C20" s="37">
         <v>14</v>
       </c>
@@ -21051,7 +21060,7 @@
         <v>0.54199999999999993</v>
       </c>
     </row>
-    <row r="21" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="21" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C21" s="37">
         <v>15</v>
       </c>
@@ -21072,7 +21081,7 @@
         <v>0.58299999999999996</v>
       </c>
     </row>
-    <row r="22" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="22" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C22" s="37">
         <v>16</v>
       </c>
@@ -21093,7 +21102,7 @@
         <v>0.625</v>
       </c>
     </row>
-    <row r="23" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="23" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C23" s="37">
         <v>17</v>
       </c>
@@ -21114,7 +21123,7 @@
         <v>0.66700000000000004</v>
       </c>
     </row>
-    <row r="24" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="24" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C24" s="37">
         <v>18</v>
       </c>
@@ -21135,7 +21144,7 @@
         <v>0.70800000000000007</v>
       </c>
     </row>
-    <row r="25" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="25" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C25" s="37">
         <v>19</v>
       </c>
@@ -21156,7 +21165,7 @@
         <v>0.75000000000000011</v>
       </c>
     </row>
-    <row r="26" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="26" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C26" s="37">
         <v>20</v>
       </c>
@@ -21177,7 +21186,7 @@
         <v>0.79200000000000015</v>
       </c>
     </row>
-    <row r="27" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="27" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C27" s="37">
         <v>21</v>
       </c>
@@ -21198,7 +21207,7 @@
         <v>0.83300000000000018</v>
       </c>
     </row>
-    <row r="28" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="28" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C28" s="37">
         <v>22</v>
       </c>
@@ -21219,7 +21228,7 @@
         <v>0.87500000000000022</v>
       </c>
     </row>
-    <row r="29" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="29" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C29" s="37">
         <v>23</v>
       </c>
@@ -21240,7 +21249,7 @@
         <v>0.91700000000000026</v>
       </c>
     </row>
-    <row r="30" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="30" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C30" s="37">
         <v>24</v>
       </c>
@@ -21261,7 +21270,7 @@
         <v>0.9580000000000003</v>
       </c>
     </row>
-    <row r="31" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="31" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C31" s="37">
         <v>25</v>
       </c>
@@ -21282,7 +21291,7 @@
         <v>1.0000000000000002</v>
       </c>
     </row>
-    <row r="32" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="32" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C32" s="37">
         <v>26</v>
       </c>
@@ -21303,7 +21312,7 @@
         <v>1.0420000000000003</v>
       </c>
     </row>
-    <row r="33" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="33" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C33" s="37">
         <v>27</v>
       </c>
@@ -21324,7 +21333,7 @@
         <v>1.0830000000000002</v>
       </c>
     </row>
-    <row r="34" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="34" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C34" s="37">
         <v>28</v>
       </c>
@@ -21345,7 +21354,7 @@
         <v>1.1250000000000002</v>
       </c>
     </row>
-    <row r="35" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="35" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C35" s="37">
         <v>29</v>
       </c>
@@ -21366,7 +21375,7 @@
         <v>1.1670000000000003</v>
       </c>
     </row>
-    <row r="36" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="36" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C36" s="37">
         <v>30</v>
       </c>
@@ -21387,7 +21396,7 @@
         <v>1.2080000000000002</v>
       </c>
     </row>
-    <row r="37" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="37" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C37" s="37">
         <v>31</v>
       </c>
@@ -21408,7 +21417,7 @@
         <v>1.2500000000000002</v>
       </c>
     </row>
-    <row r="38" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="38" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C38" s="37">
         <v>32</v>
       </c>
@@ -21417,7 +21426,7 @@
       </c>
       <c r="G38"/>
     </row>
-    <row r="39" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="39" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C39" s="37">
         <v>33</v>
       </c>
@@ -21426,7 +21435,7 @@
       </c>
       <c r="G39"/>
     </row>
-    <row r="40" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="40" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C40" s="37">
         <v>34</v>
       </c>
@@ -21435,7 +21444,7 @@
       </c>
       <c r="G40"/>
     </row>
-    <row r="41" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="41" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C41" s="37">
         <v>35</v>
       </c>
@@ -21444,7 +21453,7 @@
       </c>
       <c r="G41"/>
     </row>
-    <row r="42" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="42" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C42" s="37">
         <v>36</v>
       </c>
@@ -21453,7 +21462,7 @@
       </c>
       <c r="G42"/>
     </row>
-    <row r="43" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="43" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C43" s="37">
         <v>37</v>
       </c>
@@ -21462,7 +21471,7 @@
       </c>
       <c r="G43"/>
     </row>
-    <row r="44" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="44" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C44" s="37">
         <v>38</v>
       </c>
@@ -21471,7 +21480,7 @@
       </c>
       <c r="G44"/>
     </row>
-    <row r="45" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="45" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C45" s="37">
         <v>39</v>
       </c>
@@ -21480,7 +21489,7 @@
       </c>
       <c r="G45"/>
     </row>
-    <row r="46" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="46" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C46" s="37">
         <v>40</v>
       </c>
@@ -21489,7 +21498,7 @@
       </c>
       <c r="G46"/>
     </row>
-    <row r="47" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="47" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C47" s="37">
         <v>41</v>
       </c>
@@ -21498,7 +21507,7 @@
       </c>
       <c r="G47"/>
     </row>
-    <row r="48" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="48" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C48" s="37">
         <v>42</v>
       </c>
@@ -21507,7 +21516,7 @@
       </c>
       <c r="G48"/>
     </row>
-    <row r="49" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="49" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C49" s="37">
         <v>43</v>
       </c>
@@ -21516,7 +21525,7 @@
       </c>
       <c r="G49"/>
     </row>
-    <row r="50" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="50" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C50" s="37">
         <v>44</v>
       </c>
@@ -21525,7 +21534,7 @@
       </c>
       <c r="G50"/>
     </row>
-    <row r="51" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="51" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C51" s="37">
         <v>45</v>
       </c>
@@ -21534,7 +21543,7 @@
       </c>
       <c r="G51"/>
     </row>
-    <row r="52" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="52" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C52" s="37">
         <v>46</v>
       </c>
@@ -21543,7 +21552,7 @@
       </c>
       <c r="G52"/>
     </row>
-    <row r="53" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="53" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C53" s="37">
         <v>47</v>
       </c>
@@ -21552,7 +21561,7 @@
       </c>
       <c r="G53"/>
     </row>
-    <row r="54" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="54" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C54" s="37">
         <v>48</v>
       </c>
@@ -21561,7 +21570,7 @@
       </c>
       <c r="G54"/>
     </row>
-    <row r="55" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="55" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C55" s="37">
         <v>49</v>
       </c>
@@ -21570,7 +21579,7 @@
       </c>
       <c r="G55"/>
     </row>
-    <row r="56" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="56" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C56" s="37">
         <v>50</v>
       </c>
@@ -21579,7 +21588,7 @@
       </c>
       <c r="G56"/>
     </row>
-    <row r="57" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="57" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C57" s="37">
         <v>51</v>
       </c>
@@ -21588,7 +21597,7 @@
       </c>
       <c r="G57"/>
     </row>
-    <row r="58" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="58" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C58" s="37">
         <v>52</v>
       </c>
@@ -21597,7 +21606,7 @@
       </c>
       <c r="G58"/>
     </row>
-    <row r="59" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="59" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C59" s="37">
         <v>53</v>
       </c>
@@ -21606,7 +21615,7 @@
       </c>
       <c r="G59"/>
     </row>
-    <row r="60" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="60" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C60" s="37">
         <v>54</v>
       </c>
@@ -21615,7 +21624,7 @@
       </c>
       <c r="G60"/>
     </row>
-    <row r="61" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="61" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C61" s="37">
         <v>55</v>
       </c>
@@ -21624,7 +21633,7 @@
       </c>
       <c r="G61"/>
     </row>
-    <row r="62" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="62" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C62" s="37">
         <v>56</v>
       </c>
@@ -21633,7 +21642,7 @@
       </c>
       <c r="G62"/>
     </row>
-    <row r="63" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="63" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C63" s="37">
         <v>57</v>
       </c>
@@ -21642,7 +21651,7 @@
       </c>
       <c r="G63"/>
     </row>
-    <row r="64" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="64" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C64" s="37">
         <v>58</v>
       </c>
@@ -21651,7 +21660,7 @@
       </c>
       <c r="G64"/>
     </row>
-    <row r="65" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="65" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C65" s="37">
         <v>59</v>
       </c>
@@ -21660,7 +21669,7 @@
       </c>
       <c r="G65"/>
     </row>
-    <row r="66" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="66" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C66" s="37">
         <v>60</v>
       </c>
@@ -21669,7 +21678,7 @@
       </c>
       <c r="G66"/>
     </row>
-    <row r="67" spans="3:12" x14ac:dyDescent="0.25">
+    <row r="67" spans="3:12" x14ac:dyDescent="0.3">
       <c r="J67" s="1"/>
       <c r="K67" s="1"/>
       <c r="L67" s="1"/>
